--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>YPF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7204100</v>
+        <v>9934600</v>
       </c>
       <c r="E8" s="3">
-        <v>4179000</v>
+        <v>6380400</v>
       </c>
       <c r="F8" s="3">
-        <v>3473000</v>
+        <v>3701200</v>
       </c>
       <c r="G8" s="3">
-        <v>2580900</v>
+        <v>3075900</v>
       </c>
       <c r="H8" s="3">
-        <v>2346300</v>
+        <v>2285800</v>
       </c>
       <c r="I8" s="3">
-        <v>1489600</v>
+        <v>2078000</v>
       </c>
       <c r="J8" s="3">
+        <v>1319300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1110400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1471600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5993800</v>
+        <v>8491600</v>
       </c>
       <c r="E9" s="3">
-        <v>3526500</v>
+        <v>5308500</v>
       </c>
       <c r="F9" s="3">
-        <v>2947800</v>
+        <v>3123300</v>
       </c>
       <c r="G9" s="3">
-        <v>1975900</v>
+        <v>2610800</v>
       </c>
       <c r="H9" s="3">
-        <v>1727300</v>
+        <v>1750000</v>
       </c>
       <c r="I9" s="3">
-        <v>1133500</v>
+        <v>1529800</v>
       </c>
       <c r="J9" s="3">
+        <v>1003900</v>
+      </c>
+      <c r="K9" s="3">
         <v>830900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1077100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1210300</v>
+        <v>1443000</v>
       </c>
       <c r="E10" s="3">
-        <v>652500</v>
+        <v>1071900</v>
       </c>
       <c r="F10" s="3">
-        <v>525100</v>
+        <v>577900</v>
       </c>
       <c r="G10" s="3">
-        <v>605000</v>
+        <v>465100</v>
       </c>
       <c r="H10" s="3">
-        <v>619000</v>
+        <v>535800</v>
       </c>
       <c r="I10" s="3">
-        <v>356100</v>
+        <v>548300</v>
       </c>
       <c r="J10" s="3">
+        <v>315400</v>
+      </c>
+      <c r="K10" s="3">
         <v>279500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>394500</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>70300</v>
+        <v>82300</v>
       </c>
       <c r="E12" s="3">
-        <v>31100</v>
+        <v>62200</v>
       </c>
       <c r="F12" s="3">
-        <v>44500</v>
+        <v>27600</v>
       </c>
       <c r="G12" s="3">
-        <v>35600</v>
+        <v>39400</v>
       </c>
       <c r="H12" s="3">
-        <v>26500</v>
+        <v>31500</v>
       </c>
       <c r="I12" s="3">
-        <v>10900</v>
+        <v>23400</v>
       </c>
       <c r="J12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K12" s="3">
         <v>9600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15000</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,26 +887,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-204100</v>
+        <v>653800</v>
       </c>
       <c r="E14" s="3">
-        <v>-103700</v>
+        <v>-180800</v>
       </c>
       <c r="F14" s="3">
-        <v>556900</v>
+        <v>-91800</v>
       </c>
       <c r="G14" s="3">
-        <v>61500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>493200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>54500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -901,39 +920,45 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>68100</v>
+        <v>110900</v>
       </c>
       <c r="E15" s="3">
-        <v>34000</v>
+        <v>60300</v>
       </c>
       <c r="F15" s="3">
-        <v>31300</v>
+        <v>30100</v>
       </c>
       <c r="G15" s="3">
-        <v>18500</v>
+        <v>27700</v>
       </c>
       <c r="H15" s="3">
-        <v>17600</v>
+        <v>16400</v>
       </c>
       <c r="I15" s="3">
-        <v>9500</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+        <v>15600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>8400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6480400</v>
+        <v>10242200</v>
       </c>
       <c r="E17" s="3">
-        <v>3913300</v>
+        <v>5739500</v>
       </c>
       <c r="F17" s="3">
-        <v>3873700</v>
+        <v>3465900</v>
       </c>
       <c r="G17" s="3">
-        <v>2306700</v>
+        <v>3430800</v>
       </c>
       <c r="H17" s="3">
-        <v>2020000</v>
+        <v>2043000</v>
       </c>
       <c r="I17" s="3">
-        <v>1305100</v>
+        <v>1789000</v>
       </c>
       <c r="J17" s="3">
+        <v>1155900</v>
+      </c>
+      <c r="K17" s="3">
         <v>979700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1283400</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>723700</v>
+        <v>-307600</v>
       </c>
       <c r="E18" s="3">
-        <v>265700</v>
+        <v>640900</v>
       </c>
       <c r="F18" s="3">
-        <v>-400800</v>
+        <v>235300</v>
       </c>
       <c r="G18" s="3">
-        <v>274200</v>
+        <v>-355000</v>
       </c>
       <c r="H18" s="3">
-        <v>326300</v>
+        <v>242800</v>
       </c>
       <c r="I18" s="3">
-        <v>184500</v>
+        <v>289000</v>
       </c>
       <c r="J18" s="3">
+        <v>163400</v>
+      </c>
+      <c r="K18" s="3">
         <v>130600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>188200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1241100</v>
+        <v>909700</v>
       </c>
       <c r="E20" s="3">
-        <v>182100</v>
+        <v>1099200</v>
       </c>
       <c r="F20" s="3">
-        <v>207500</v>
+        <v>161300</v>
       </c>
       <c r="G20" s="3">
-        <v>381500</v>
+        <v>183700</v>
       </c>
       <c r="H20" s="3">
-        <v>159800</v>
+        <v>337900</v>
       </c>
       <c r="I20" s="3">
-        <v>116100</v>
+        <v>141500</v>
       </c>
       <c r="J20" s="3">
+        <v>102800</v>
+      </c>
+      <c r="K20" s="3">
         <v>36700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3443900</v>
+        <v>2929800</v>
       </c>
       <c r="E21" s="3">
-        <v>1347800</v>
+        <v>3049500</v>
       </c>
       <c r="F21" s="3">
-        <v>559600</v>
+        <v>1193300</v>
       </c>
       <c r="G21" s="3">
-        <v>1103000</v>
+        <v>495400</v>
       </c>
       <c r="H21" s="3">
-        <v>824000</v>
+        <v>976700</v>
       </c>
       <c r="I21" s="3">
-        <v>489900</v>
+        <v>729700</v>
       </c>
       <c r="J21" s="3">
+        <v>433800</v>
+      </c>
+      <c r="K21" s="3">
         <v>304500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>474700</v>
+        <v>704700</v>
       </c>
       <c r="E22" s="3">
-        <v>303900</v>
+        <v>420400</v>
       </c>
       <c r="F22" s="3">
-        <v>299300</v>
+        <v>269200</v>
       </c>
       <c r="G22" s="3">
-        <v>175300</v>
+        <v>265100</v>
       </c>
       <c r="H22" s="3">
-        <v>121300</v>
+        <v>155300</v>
       </c>
       <c r="I22" s="3">
-        <v>63400</v>
+        <v>107400</v>
       </c>
       <c r="J22" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K22" s="3">
         <v>25700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>27400</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1490100</v>
+        <v>-102600</v>
       </c>
       <c r="E23" s="3">
-        <v>143900</v>
+        <v>1319700</v>
       </c>
       <c r="F23" s="3">
-        <v>-492700</v>
+        <v>127400</v>
       </c>
       <c r="G23" s="3">
-        <v>480400</v>
+        <v>-436300</v>
       </c>
       <c r="H23" s="3">
-        <v>364900</v>
+        <v>425500</v>
       </c>
       <c r="I23" s="3">
-        <v>237200</v>
+        <v>323100</v>
       </c>
       <c r="J23" s="3">
+        <v>210100</v>
+      </c>
+      <c r="K23" s="3">
         <v>141600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>198600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>851900</v>
+        <v>318600</v>
       </c>
       <c r="E24" s="3">
-        <v>-65600</v>
+        <v>754500</v>
       </c>
       <c r="F24" s="3">
-        <v>-23600</v>
+        <v>-58100</v>
       </c>
       <c r="G24" s="3">
-        <v>407200</v>
+        <v>-20900</v>
       </c>
       <c r="H24" s="3">
-        <v>218600</v>
+        <v>360700</v>
       </c>
       <c r="I24" s="3">
-        <v>153200</v>
+        <v>193600</v>
       </c>
       <c r="J24" s="3">
+        <v>135700</v>
+      </c>
+      <c r="K24" s="3">
         <v>77100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>82200</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>638200</v>
+        <v>-421300</v>
       </c>
       <c r="E26" s="3">
-        <v>209500</v>
+        <v>565200</v>
       </c>
       <c r="F26" s="3">
-        <v>-469100</v>
+        <v>185500</v>
       </c>
       <c r="G26" s="3">
-        <v>73200</v>
+        <v>-415500</v>
       </c>
       <c r="H26" s="3">
-        <v>146300</v>
+        <v>64800</v>
       </c>
       <c r="I26" s="3">
-        <v>84000</v>
+        <v>129500</v>
       </c>
       <c r="J26" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K26" s="3">
         <v>64500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>116400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>638300</v>
+        <v>-431400</v>
       </c>
       <c r="E27" s="3">
-        <v>204000</v>
+        <v>565300</v>
       </c>
       <c r="F27" s="3">
-        <v>-466800</v>
+        <v>180700</v>
       </c>
       <c r="G27" s="3">
-        <v>75700</v>
+        <v>-413400</v>
       </c>
       <c r="H27" s="3">
-        <v>148800</v>
+        <v>67000</v>
       </c>
       <c r="I27" s="3">
-        <v>84700</v>
+        <v>131800</v>
       </c>
       <c r="J27" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K27" s="3">
         <v>64500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>101000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-67400</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1241100</v>
+        <v>-909700</v>
       </c>
       <c r="E32" s="3">
-        <v>-182100</v>
+        <v>-1099200</v>
       </c>
       <c r="F32" s="3">
-        <v>-207500</v>
+        <v>-161300</v>
       </c>
       <c r="G32" s="3">
-        <v>-381500</v>
+        <v>-183700</v>
       </c>
       <c r="H32" s="3">
-        <v>-159800</v>
+        <v>-337900</v>
       </c>
       <c r="I32" s="3">
-        <v>-116100</v>
+        <v>-141500</v>
       </c>
       <c r="J32" s="3">
+        <v>-102800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-36700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>638300</v>
+        <v>-498800</v>
       </c>
       <c r="E33" s="3">
-        <v>204000</v>
+        <v>565300</v>
       </c>
       <c r="F33" s="3">
-        <v>-466800</v>
+        <v>180700</v>
       </c>
       <c r="G33" s="3">
-        <v>75700</v>
+        <v>-413400</v>
       </c>
       <c r="H33" s="3">
-        <v>148800</v>
+        <v>67000</v>
       </c>
       <c r="I33" s="3">
-        <v>84700</v>
+        <v>131800</v>
       </c>
       <c r="J33" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K33" s="3">
         <v>64500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>101000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>638300</v>
+        <v>-498800</v>
       </c>
       <c r="E35" s="3">
-        <v>204000</v>
+        <v>565300</v>
       </c>
       <c r="F35" s="3">
-        <v>-466800</v>
+        <v>180700</v>
       </c>
       <c r="G35" s="3">
-        <v>75700</v>
+        <v>-413400</v>
       </c>
       <c r="H35" s="3">
-        <v>148800</v>
+        <v>67000</v>
       </c>
       <c r="I35" s="3">
-        <v>84700</v>
+        <v>131800</v>
       </c>
       <c r="J35" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K35" s="3">
         <v>64500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>101000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>632000</v>
+        <v>863500</v>
       </c>
       <c r="E41" s="3">
-        <v>160100</v>
+        <v>559000</v>
       </c>
       <c r="F41" s="3">
-        <v>131400</v>
+        <v>141600</v>
       </c>
       <c r="G41" s="3">
-        <v>241600</v>
+        <v>116200</v>
       </c>
       <c r="H41" s="3">
-        <v>135900</v>
+        <v>213600</v>
       </c>
       <c r="I41" s="3">
-        <v>74900</v>
+        <v>120200</v>
       </c>
       <c r="J41" s="3">
+        <v>66300</v>
+      </c>
+      <c r="K41" s="3">
         <v>64000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23200</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>309700</v>
+        <v>225300</v>
       </c>
       <c r="E42" s="3">
-        <v>528700</v>
+        <v>273900</v>
       </c>
       <c r="F42" s="3">
-        <v>171200</v>
+        <v>467600</v>
       </c>
       <c r="G42" s="3">
-        <v>26100</v>
+        <v>151400</v>
       </c>
       <c r="H42" s="3">
-        <v>25400</v>
+        <v>23100</v>
       </c>
       <c r="I42" s="3">
-        <v>102200</v>
+        <v>22400</v>
       </c>
       <c r="J42" s="3">
+        <v>90400</v>
+      </c>
+      <c r="K42" s="3">
         <v>14500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5900</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1525800</v>
+        <v>2220800</v>
       </c>
       <c r="E43" s="3">
-        <v>866200</v>
+        <v>1349500</v>
       </c>
       <c r="F43" s="3">
-        <v>767000</v>
+        <v>766100</v>
       </c>
       <c r="G43" s="3">
-        <v>675100</v>
+        <v>678400</v>
       </c>
       <c r="H43" s="3">
-        <v>312300</v>
+        <v>597100</v>
       </c>
       <c r="I43" s="3">
-        <v>222000</v>
+        <v>276200</v>
       </c>
       <c r="J43" s="3">
+        <v>196300</v>
+      </c>
+      <c r="K43" s="3">
         <v>110400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>157300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>888400</v>
+        <v>1176600</v>
       </c>
       <c r="E44" s="3">
-        <v>451100</v>
+        <v>785700</v>
       </c>
       <c r="F44" s="3">
-        <v>360700</v>
+        <v>399000</v>
       </c>
       <c r="G44" s="3">
-        <v>318300</v>
+        <v>319000</v>
       </c>
       <c r="H44" s="3">
-        <v>214900</v>
+        <v>281600</v>
       </c>
       <c r="I44" s="3">
-        <v>163300</v>
+        <v>190100</v>
       </c>
       <c r="J44" s="3">
+        <v>144500</v>
+      </c>
+      <c r="K44" s="3">
         <v>114400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>157200</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>89200</v>
+        <v>37600</v>
       </c>
       <c r="E45" s="3">
-        <v>15400</v>
+        <v>78900</v>
       </c>
       <c r="F45" s="3">
-        <v>11600</v>
+        <v>13700</v>
       </c>
       <c r="G45" s="3">
-        <v>11300</v>
+        <v>10300</v>
       </c>
       <c r="H45" s="3">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="I45" s="3">
-        <v>8100</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>10</v>
+        <v>6600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>7200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3445100</v>
+        <v>4523700</v>
       </c>
       <c r="E46" s="3">
-        <v>2021600</v>
+        <v>3047000</v>
       </c>
       <c r="F46" s="3">
-        <v>1441800</v>
+        <v>1788000</v>
       </c>
       <c r="G46" s="3">
-        <v>1272400</v>
+        <v>1275200</v>
       </c>
       <c r="H46" s="3">
-        <v>695900</v>
+        <v>1125300</v>
       </c>
       <c r="I46" s="3">
-        <v>570500</v>
+        <v>615500</v>
       </c>
       <c r="J46" s="3">
+        <v>504600</v>
+      </c>
+      <c r="K46" s="3">
         <v>303300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>346100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1083900</v>
+        <v>1375700</v>
       </c>
       <c r="E47" s="3">
-        <v>155500</v>
+        <v>958600</v>
       </c>
       <c r="F47" s="3">
-        <v>281800</v>
+        <v>137600</v>
       </c>
       <c r="G47" s="3">
-        <v>112800</v>
+        <v>249200</v>
       </c>
       <c r="H47" s="3">
-        <v>99400</v>
+        <v>99800</v>
       </c>
       <c r="I47" s="3">
-        <v>84400</v>
+        <v>87900</v>
       </c>
       <c r="J47" s="3">
+        <v>74600</v>
+      </c>
+      <c r="K47" s="3">
         <v>51100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>76400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11555900</v>
+        <v>16526500</v>
       </c>
       <c r="E48" s="3">
-        <v>5858900</v>
+        <v>10220700</v>
       </c>
       <c r="F48" s="3">
-        <v>5091500</v>
+        <v>5182000</v>
       </c>
       <c r="G48" s="3">
-        <v>4478100</v>
+        <v>4503200</v>
       </c>
       <c r="H48" s="3">
-        <v>2594100</v>
+        <v>3960600</v>
       </c>
       <c r="I48" s="3">
-        <v>1545500</v>
+        <v>2294300</v>
       </c>
       <c r="J48" s="3">
+        <v>1366900</v>
+      </c>
+      <c r="K48" s="3">
         <v>941700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1139400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>337200</v>
+        <v>543600</v>
       </c>
       <c r="E49" s="3">
-        <v>164900</v>
+        <v>298300</v>
       </c>
       <c r="F49" s="3">
-        <v>134100</v>
+        <v>145800</v>
       </c>
       <c r="G49" s="3">
-        <v>120300</v>
+        <v>118600</v>
       </c>
       <c r="H49" s="3">
-        <v>72600</v>
+        <v>106400</v>
       </c>
       <c r="I49" s="3">
-        <v>40400</v>
+        <v>64200</v>
       </c>
       <c r="J49" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K49" s="3">
         <v>24700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>34000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="E52" s="3">
-        <v>158600</v>
+        <v>7900</v>
       </c>
       <c r="F52" s="3">
-        <v>12200</v>
+        <v>140200</v>
       </c>
       <c r="G52" s="3">
-        <v>24300</v>
+        <v>10800</v>
       </c>
       <c r="H52" s="3">
-        <v>13400</v>
+        <v>21500</v>
       </c>
       <c r="I52" s="3">
-        <v>600</v>
+        <v>11900</v>
       </c>
       <c r="J52" s="3">
+        <v>500</v>
+      </c>
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16431100</v>
+        <v>23001500</v>
       </c>
       <c r="E54" s="3">
-        <v>8359500</v>
+        <v>14532500</v>
       </c>
       <c r="F54" s="3">
-        <v>6961400</v>
+        <v>7393600</v>
       </c>
       <c r="G54" s="3">
-        <v>6007900</v>
+        <v>6157100</v>
       </c>
       <c r="H54" s="3">
-        <v>3447400</v>
+        <v>5313700</v>
       </c>
       <c r="I54" s="3">
-        <v>2241400</v>
+        <v>3049100</v>
       </c>
       <c r="J54" s="3">
+        <v>1982400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1321600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1596700</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1346400</v>
+        <v>2133700</v>
       </c>
       <c r="E57" s="3">
-        <v>738100</v>
+        <v>1190800</v>
       </c>
       <c r="F57" s="3">
-        <v>672200</v>
+        <v>652900</v>
       </c>
       <c r="G57" s="3">
-        <v>639800</v>
+        <v>594600</v>
       </c>
       <c r="H57" s="3">
-        <v>471500</v>
+        <v>565900</v>
       </c>
       <c r="I57" s="3">
-        <v>335800</v>
+        <v>417000</v>
       </c>
       <c r="J57" s="3">
+        <v>297000</v>
+      </c>
+      <c r="K57" s="3">
         <v>212500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>293100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1071600</v>
+        <v>1878600</v>
       </c>
       <c r="E58" s="3">
-        <v>650200</v>
+        <v>947800</v>
       </c>
       <c r="F58" s="3">
-        <v>442600</v>
+        <v>575100</v>
       </c>
       <c r="G58" s="3">
-        <v>459800</v>
+        <v>391500</v>
       </c>
       <c r="H58" s="3">
-        <v>219400</v>
+        <v>406700</v>
       </c>
       <c r="I58" s="3">
-        <v>145700</v>
+        <v>194100</v>
       </c>
       <c r="J58" s="3">
+        <v>128900</v>
+      </c>
+      <c r="K58" s="3">
         <v>82700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>203200</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>540400</v>
+        <v>591100</v>
       </c>
       <c r="E59" s="3">
-        <v>309800</v>
+        <v>478000</v>
       </c>
       <c r="F59" s="3">
-        <v>248300</v>
+        <v>274000</v>
       </c>
       <c r="G59" s="3">
-        <v>219400</v>
+        <v>219600</v>
       </c>
       <c r="H59" s="3">
-        <v>210900</v>
+        <v>194000</v>
       </c>
       <c r="I59" s="3">
-        <v>60900</v>
+        <v>186500</v>
       </c>
       <c r="J59" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K59" s="3">
         <v>50700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>63100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2958400</v>
+        <v>4603400</v>
       </c>
       <c r="E60" s="3">
-        <v>1698200</v>
+        <v>2616500</v>
       </c>
       <c r="F60" s="3">
-        <v>1363200</v>
+        <v>1502000</v>
       </c>
       <c r="G60" s="3">
-        <v>1318900</v>
+        <v>1205700</v>
       </c>
       <c r="H60" s="3">
-        <v>882100</v>
+        <v>1166500</v>
       </c>
       <c r="I60" s="3">
-        <v>542300</v>
+        <v>780200</v>
       </c>
       <c r="J60" s="3">
+        <v>479700</v>
+      </c>
+      <c r="K60" s="3">
         <v>346000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>549000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4467300</v>
+        <v>6725800</v>
       </c>
       <c r="E61" s="3">
-        <v>2508000</v>
+        <v>3951100</v>
       </c>
       <c r="F61" s="3">
-        <v>2108700</v>
+        <v>2218200</v>
       </c>
       <c r="G61" s="3">
-        <v>1288200</v>
+        <v>1865000</v>
       </c>
       <c r="H61" s="3">
-        <v>595600</v>
+        <v>1139400</v>
       </c>
       <c r="I61" s="3">
-        <v>381400</v>
+        <v>526800</v>
       </c>
       <c r="J61" s="3">
+        <v>337400</v>
+      </c>
+      <c r="K61" s="3">
         <v>200000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>116100</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3015700</v>
+        <v>3659000</v>
       </c>
       <c r="E62" s="3">
-        <v>1562600</v>
+        <v>2667200</v>
       </c>
       <c r="F62" s="3">
-        <v>1528100</v>
+        <v>1382000</v>
       </c>
       <c r="G62" s="3">
-        <v>1409500</v>
+        <v>1351500</v>
       </c>
       <c r="H62" s="3">
-        <v>1205700</v>
+        <v>1246600</v>
       </c>
       <c r="I62" s="3">
-        <v>520200</v>
+        <v>1066400</v>
       </c>
       <c r="J62" s="3">
+        <v>460100</v>
+      </c>
+      <c r="K62" s="3">
         <v>258800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>384500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10493500</v>
+        <v>15069400</v>
       </c>
       <c r="E66" s="3">
-        <v>5842100</v>
+        <v>9281000</v>
       </c>
       <c r="F66" s="3">
-        <v>4998400</v>
+        <v>5167000</v>
       </c>
       <c r="G66" s="3">
-        <v>4017500</v>
+        <v>4420900</v>
       </c>
       <c r="H66" s="3">
-        <v>2246800</v>
+        <v>3553200</v>
       </c>
       <c r="I66" s="3">
-        <v>1447700</v>
+        <v>1987200</v>
       </c>
       <c r="J66" s="3">
+        <v>1280400</v>
+      </c>
+      <c r="K66" s="3">
         <v>804800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>983600</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>670200</v>
+        <v>-424900</v>
       </c>
       <c r="E72" s="3">
-        <v>238800</v>
+        <v>592700</v>
       </c>
       <c r="F72" s="3">
-        <v>-365000</v>
+        <v>211200</v>
       </c>
       <c r="G72" s="3">
-        <v>176600</v>
+        <v>-322800</v>
       </c>
       <c r="H72" s="3">
-        <v>248200</v>
+        <v>156200</v>
       </c>
       <c r="I72" s="3">
-        <v>178400</v>
+        <v>219500</v>
       </c>
       <c r="J72" s="3">
+        <v>157700</v>
+      </c>
+      <c r="K72" s="3">
         <v>144600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>284900</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5937600</v>
+        <v>7932100</v>
       </c>
       <c r="E76" s="3">
-        <v>2517400</v>
+        <v>5251500</v>
       </c>
       <c r="F76" s="3">
-        <v>1963000</v>
+        <v>2226600</v>
       </c>
       <c r="G76" s="3">
-        <v>1990400</v>
+        <v>1736200</v>
       </c>
       <c r="H76" s="3">
-        <v>1200600</v>
+        <v>1760400</v>
       </c>
       <c r="I76" s="3">
-        <v>793700</v>
+        <v>1061900</v>
       </c>
       <c r="J76" s="3">
+        <v>702000</v>
+      </c>
+      <c r="K76" s="3">
         <v>516700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>613100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>638300</v>
+        <v>-498800</v>
       </c>
       <c r="E81" s="3">
-        <v>204000</v>
+        <v>565300</v>
       </c>
       <c r="F81" s="3">
-        <v>-466800</v>
+        <v>180700</v>
       </c>
       <c r="G81" s="3">
-        <v>75700</v>
+        <v>-413400</v>
       </c>
       <c r="H81" s="3">
-        <v>148800</v>
+        <v>67000</v>
       </c>
       <c r="I81" s="3">
-        <v>84700</v>
+        <v>131800</v>
       </c>
       <c r="J81" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K81" s="3">
         <v>64500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>101000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1476400</v>
+        <v>2324500</v>
       </c>
       <c r="E83" s="3">
-        <v>898400</v>
+        <v>1307600</v>
       </c>
       <c r="F83" s="3">
-        <v>751600</v>
+        <v>795700</v>
       </c>
       <c r="G83" s="3">
-        <v>446400</v>
+        <v>665700</v>
       </c>
       <c r="H83" s="3">
-        <v>337300</v>
+        <v>395400</v>
       </c>
       <c r="I83" s="3">
-        <v>189000</v>
+        <v>298700</v>
       </c>
       <c r="J83" s="3">
+        <v>167400</v>
+      </c>
+      <c r="K83" s="3">
         <v>136900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>170100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2067200</v>
+        <v>3178900</v>
       </c>
       <c r="E89" s="3">
-        <v>1188700</v>
+        <v>1830800</v>
       </c>
       <c r="F89" s="3">
-        <v>810500</v>
+        <v>1052800</v>
       </c>
       <c r="G89" s="3">
-        <v>684400</v>
+        <v>717900</v>
       </c>
       <c r="H89" s="3">
-        <v>762900</v>
+        <v>606200</v>
       </c>
       <c r="I89" s="3">
-        <v>346500</v>
+        <v>675700</v>
       </c>
       <c r="J89" s="3">
+        <v>306900</v>
+      </c>
+      <c r="K89" s="3">
         <v>286000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>332100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1459500</v>
+        <v>-2363700</v>
       </c>
       <c r="E91" s="3">
-        <v>-985500</v>
+        <v>-1292600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1060600</v>
+        <v>-872800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1054200</v>
+        <v>-939300</v>
       </c>
       <c r="H91" s="3">
-        <v>-830000</v>
+        <v>-933700</v>
       </c>
       <c r="I91" s="3">
-        <v>-456900</v>
+        <v>-735100</v>
       </c>
       <c r="J91" s="3">
+        <v>-404600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-271100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-318200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1359600</v>
+        <v>-2399200</v>
       </c>
       <c r="E94" s="3">
-        <v>-913200</v>
+        <v>-1204200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1093900</v>
+        <v>-808700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1058700</v>
+        <v>-968800</v>
       </c>
       <c r="H94" s="3">
-        <v>-882800</v>
+        <v>-937700</v>
       </c>
       <c r="I94" s="3">
-        <v>-367000</v>
+        <v>-781800</v>
       </c>
       <c r="J94" s="3">
+        <v>-325000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-271100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-318300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-19800</v>
+        <v>-33700</v>
       </c>
       <c r="E96" s="3">
-        <v>-11800</v>
+        <v>-17600</v>
       </c>
       <c r="F96" s="3">
-        <v>-14700</v>
+        <v>-10500</v>
       </c>
       <c r="G96" s="3">
-        <v>-8300</v>
+        <v>-13000</v>
       </c>
       <c r="H96" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="I96" s="3">
-        <v>-5400</v>
+        <v>-6800</v>
       </c>
       <c r="J96" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-145700</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-721600</v>
+        <v>-821000</v>
       </c>
       <c r="E100" s="3">
-        <v>-5900</v>
+        <v>-639100</v>
       </c>
       <c r="F100" s="3">
-        <v>178800</v>
+        <v>-5200</v>
       </c>
       <c r="G100" s="3">
-        <v>391200</v>
+        <v>158400</v>
       </c>
       <c r="H100" s="3">
-        <v>82400</v>
+        <v>346500</v>
       </c>
       <c r="I100" s="3">
-        <v>115400</v>
+        <v>73000</v>
       </c>
       <c r="J100" s="3">
+        <v>102200</v>
+      </c>
+      <c r="K100" s="3">
         <v>43900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-48300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>299800</v>
+        <v>335200</v>
       </c>
       <c r="E101" s="3">
-        <v>27500</v>
+        <v>265600</v>
       </c>
       <c r="F101" s="3">
-        <v>28000</v>
+        <v>24400</v>
       </c>
       <c r="G101" s="3">
-        <v>76200</v>
+        <v>24800</v>
       </c>
       <c r="H101" s="3">
-        <v>21700</v>
+        <v>67500</v>
       </c>
       <c r="I101" s="3">
-        <v>3700</v>
+        <v>19200</v>
       </c>
       <c r="J101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K101" s="3">
         <v>1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>285800</v>
+        <v>293900</v>
       </c>
       <c r="E102" s="3">
-        <v>297200</v>
+        <v>253100</v>
       </c>
       <c r="F102" s="3">
-        <v>-76500</v>
+        <v>263200</v>
       </c>
       <c r="G102" s="3">
-        <v>93000</v>
+        <v>-67800</v>
       </c>
       <c r="H102" s="3">
-        <v>-15800</v>
+        <v>82400</v>
       </c>
       <c r="I102" s="3">
-        <v>98600</v>
+        <v>-14000</v>
       </c>
       <c r="J102" s="3">
+        <v>87300</v>
+      </c>
+      <c r="K102" s="3">
         <v>60100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-31800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9934600</v>
+        <v>9208500</v>
       </c>
       <c r="E8" s="3">
-        <v>6380400</v>
+        <v>5914100</v>
       </c>
       <c r="F8" s="3">
-        <v>3701200</v>
+        <v>3430700</v>
       </c>
       <c r="G8" s="3">
-        <v>3075900</v>
+        <v>2851100</v>
       </c>
       <c r="H8" s="3">
-        <v>2285800</v>
+        <v>2118800</v>
       </c>
       <c r="I8" s="3">
-        <v>2078000</v>
+        <v>1926200</v>
       </c>
       <c r="J8" s="3">
-        <v>1319300</v>
+        <v>1222800</v>
       </c>
       <c r="K8" s="3">
         <v>1110400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8491600</v>
+        <v>7871000</v>
       </c>
       <c r="E9" s="3">
-        <v>5308500</v>
+        <v>4920500</v>
       </c>
       <c r="F9" s="3">
-        <v>3123300</v>
+        <v>2895000</v>
       </c>
       <c r="G9" s="3">
-        <v>2610800</v>
+        <v>2420000</v>
       </c>
       <c r="H9" s="3">
-        <v>1750000</v>
+        <v>1622100</v>
       </c>
       <c r="I9" s="3">
-        <v>1529800</v>
+        <v>1418000</v>
       </c>
       <c r="J9" s="3">
-        <v>1003900</v>
+        <v>930500</v>
       </c>
       <c r="K9" s="3">
         <v>830900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1443000</v>
+        <v>1337600</v>
       </c>
       <c r="E10" s="3">
-        <v>1071900</v>
+        <v>993600</v>
       </c>
       <c r="F10" s="3">
-        <v>577900</v>
+        <v>535600</v>
       </c>
       <c r="G10" s="3">
-        <v>465100</v>
+        <v>431100</v>
       </c>
       <c r="H10" s="3">
-        <v>535800</v>
+        <v>496600</v>
       </c>
       <c r="I10" s="3">
-        <v>548300</v>
+        <v>508200</v>
       </c>
       <c r="J10" s="3">
-        <v>315400</v>
+        <v>292300</v>
       </c>
       <c r="K10" s="3">
         <v>279500</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>82300</v>
+        <v>76300</v>
       </c>
       <c r="E12" s="3">
-        <v>62200</v>
+        <v>57700</v>
       </c>
       <c r="F12" s="3">
-        <v>27600</v>
+        <v>25500</v>
       </c>
       <c r="G12" s="3">
-        <v>39400</v>
+        <v>36600</v>
       </c>
       <c r="H12" s="3">
-        <v>31500</v>
+        <v>29200</v>
       </c>
       <c r="I12" s="3">
-        <v>23400</v>
+        <v>21700</v>
       </c>
       <c r="J12" s="3">
-        <v>9700</v>
+        <v>9000</v>
       </c>
       <c r="K12" s="3">
         <v>9600</v>
@@ -897,19 +897,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>653800</v>
+        <v>606000</v>
       </c>
       <c r="E14" s="3">
-        <v>-180800</v>
+        <v>-167600</v>
       </c>
       <c r="F14" s="3">
-        <v>-91800</v>
+        <v>-85100</v>
       </c>
       <c r="G14" s="3">
-        <v>493200</v>
+        <v>457200</v>
       </c>
       <c r="H14" s="3">
-        <v>54500</v>
+        <v>50500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>110900</v>
+        <v>102800</v>
       </c>
       <c r="E15" s="3">
-        <v>60300</v>
+        <v>55900</v>
       </c>
       <c r="F15" s="3">
-        <v>30100</v>
+        <v>27900</v>
       </c>
       <c r="G15" s="3">
-        <v>27700</v>
+        <v>25700</v>
       </c>
       <c r="H15" s="3">
-        <v>16400</v>
+        <v>15200</v>
       </c>
       <c r="I15" s="3">
-        <v>15600</v>
+        <v>14400</v>
       </c>
       <c r="J15" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10242200</v>
+        <v>9493700</v>
       </c>
       <c r="E17" s="3">
-        <v>5739500</v>
+        <v>5320000</v>
       </c>
       <c r="F17" s="3">
-        <v>3465900</v>
+        <v>3212600</v>
       </c>
       <c r="G17" s="3">
-        <v>3430800</v>
+        <v>3180100</v>
       </c>
       <c r="H17" s="3">
-        <v>2043000</v>
+        <v>1893700</v>
       </c>
       <c r="I17" s="3">
-        <v>1789000</v>
+        <v>1658300</v>
       </c>
       <c r="J17" s="3">
-        <v>1155900</v>
+        <v>1071400</v>
       </c>
       <c r="K17" s="3">
         <v>979700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-307600</v>
+        <v>-285100</v>
       </c>
       <c r="E18" s="3">
-        <v>640900</v>
+        <v>594100</v>
       </c>
       <c r="F18" s="3">
-        <v>235300</v>
+        <v>218100</v>
       </c>
       <c r="G18" s="3">
-        <v>-355000</v>
+        <v>-329000</v>
       </c>
       <c r="H18" s="3">
-        <v>242800</v>
+        <v>225100</v>
       </c>
       <c r="I18" s="3">
-        <v>289000</v>
+        <v>267900</v>
       </c>
       <c r="J18" s="3">
-        <v>163400</v>
+        <v>151400</v>
       </c>
       <c r="K18" s="3">
         <v>130600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>909700</v>
+        <v>843200</v>
       </c>
       <c r="E20" s="3">
-        <v>1099200</v>
+        <v>1018800</v>
       </c>
       <c r="F20" s="3">
-        <v>161300</v>
+        <v>149500</v>
       </c>
       <c r="G20" s="3">
-        <v>183700</v>
+        <v>170300</v>
       </c>
       <c r="H20" s="3">
-        <v>337900</v>
+        <v>313200</v>
       </c>
       <c r="I20" s="3">
-        <v>141500</v>
+        <v>131200</v>
       </c>
       <c r="J20" s="3">
-        <v>102800</v>
+        <v>95300</v>
       </c>
       <c r="K20" s="3">
         <v>36700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2929800</v>
+        <v>2714300</v>
       </c>
       <c r="E21" s="3">
-        <v>3049500</v>
+        <v>2825900</v>
       </c>
       <c r="F21" s="3">
-        <v>1193300</v>
+        <v>1105700</v>
       </c>
       <c r="G21" s="3">
-        <v>495400</v>
+        <v>458800</v>
       </c>
       <c r="H21" s="3">
-        <v>976700</v>
+        <v>905100</v>
       </c>
       <c r="I21" s="3">
-        <v>729700</v>
+        <v>676200</v>
       </c>
       <c r="J21" s="3">
-        <v>433800</v>
+        <v>402000</v>
       </c>
       <c r="K21" s="3">
         <v>304500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>704700</v>
+        <v>653200</v>
       </c>
       <c r="E22" s="3">
-        <v>420400</v>
+        <v>389700</v>
       </c>
       <c r="F22" s="3">
-        <v>269200</v>
+        <v>249500</v>
       </c>
       <c r="G22" s="3">
-        <v>265100</v>
+        <v>245700</v>
       </c>
       <c r="H22" s="3">
-        <v>155300</v>
+        <v>143900</v>
       </c>
       <c r="I22" s="3">
-        <v>107400</v>
+        <v>99500</v>
       </c>
       <c r="J22" s="3">
-        <v>56100</v>
+        <v>52000</v>
       </c>
       <c r="K22" s="3">
         <v>25700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-102600</v>
+        <v>-95100</v>
       </c>
       <c r="E23" s="3">
-        <v>1319700</v>
+        <v>1223300</v>
       </c>
       <c r="F23" s="3">
-        <v>127400</v>
+        <v>118100</v>
       </c>
       <c r="G23" s="3">
-        <v>-436300</v>
+        <v>-404400</v>
       </c>
       <c r="H23" s="3">
-        <v>425500</v>
+        <v>394400</v>
       </c>
       <c r="I23" s="3">
-        <v>323100</v>
+        <v>299500</v>
       </c>
       <c r="J23" s="3">
-        <v>210100</v>
+        <v>194700</v>
       </c>
       <c r="K23" s="3">
         <v>141600</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>318600</v>
+        <v>295400</v>
       </c>
       <c r="E24" s="3">
-        <v>754500</v>
+        <v>699400</v>
       </c>
       <c r="F24" s="3">
-        <v>-58100</v>
+        <v>-53900</v>
       </c>
       <c r="G24" s="3">
-        <v>-20900</v>
+        <v>-19300</v>
       </c>
       <c r="H24" s="3">
-        <v>360700</v>
+        <v>334300</v>
       </c>
       <c r="I24" s="3">
-        <v>193600</v>
+        <v>179400</v>
       </c>
       <c r="J24" s="3">
-        <v>135700</v>
+        <v>125800</v>
       </c>
       <c r="K24" s="3">
         <v>77100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-421300</v>
+        <v>-390500</v>
       </c>
       <c r="E26" s="3">
-        <v>565200</v>
+        <v>523900</v>
       </c>
       <c r="F26" s="3">
-        <v>185500</v>
+        <v>172000</v>
       </c>
       <c r="G26" s="3">
-        <v>-415500</v>
+        <v>-385100</v>
       </c>
       <c r="H26" s="3">
-        <v>64800</v>
+        <v>60100</v>
       </c>
       <c r="I26" s="3">
-        <v>129500</v>
+        <v>120100</v>
       </c>
       <c r="J26" s="3">
-        <v>74400</v>
+        <v>68900</v>
       </c>
       <c r="K26" s="3">
         <v>64500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-431400</v>
+        <v>-399900</v>
       </c>
       <c r="E27" s="3">
-        <v>565300</v>
+        <v>524000</v>
       </c>
       <c r="F27" s="3">
-        <v>180700</v>
+        <v>167500</v>
       </c>
       <c r="G27" s="3">
-        <v>-413400</v>
+        <v>-383200</v>
       </c>
       <c r="H27" s="3">
-        <v>67000</v>
+        <v>62100</v>
       </c>
       <c r="I27" s="3">
-        <v>131800</v>
+        <v>122200</v>
       </c>
       <c r="J27" s="3">
-        <v>75000</v>
+        <v>69500</v>
       </c>
       <c r="K27" s="3">
         <v>64500</v>
@@ -1353,7 +1353,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-67400</v>
+        <v>-62500</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-909700</v>
+        <v>-843200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1099200</v>
+        <v>-1018800</v>
       </c>
       <c r="F32" s="3">
-        <v>-161300</v>
+        <v>-149500</v>
       </c>
       <c r="G32" s="3">
-        <v>-183700</v>
+        <v>-170300</v>
       </c>
       <c r="H32" s="3">
-        <v>-337900</v>
+        <v>-313200</v>
       </c>
       <c r="I32" s="3">
-        <v>-141500</v>
+        <v>-131200</v>
       </c>
       <c r="J32" s="3">
-        <v>-102800</v>
+        <v>-95300</v>
       </c>
       <c r="K32" s="3">
         <v>-36700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-498800</v>
+        <v>-462300</v>
       </c>
       <c r="E33" s="3">
-        <v>565300</v>
+        <v>524000</v>
       </c>
       <c r="F33" s="3">
-        <v>180700</v>
+        <v>167500</v>
       </c>
       <c r="G33" s="3">
-        <v>-413400</v>
+        <v>-383200</v>
       </c>
       <c r="H33" s="3">
-        <v>67000</v>
+        <v>62100</v>
       </c>
       <c r="I33" s="3">
-        <v>131800</v>
+        <v>122200</v>
       </c>
       <c r="J33" s="3">
-        <v>75000</v>
+        <v>69500</v>
       </c>
       <c r="K33" s="3">
         <v>64500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-498800</v>
+        <v>-462300</v>
       </c>
       <c r="E35" s="3">
-        <v>565300</v>
+        <v>524000</v>
       </c>
       <c r="F35" s="3">
-        <v>180700</v>
+        <v>167500</v>
       </c>
       <c r="G35" s="3">
-        <v>-413400</v>
+        <v>-383200</v>
       </c>
       <c r="H35" s="3">
-        <v>67000</v>
+        <v>62100</v>
       </c>
       <c r="I35" s="3">
-        <v>131800</v>
+        <v>122200</v>
       </c>
       <c r="J35" s="3">
-        <v>75000</v>
+        <v>69500</v>
       </c>
       <c r="K35" s="3">
         <v>64500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>863500</v>
+        <v>801500</v>
       </c>
       <c r="E41" s="3">
-        <v>559000</v>
+        <v>518900</v>
       </c>
       <c r="F41" s="3">
-        <v>141600</v>
+        <v>131500</v>
       </c>
       <c r="G41" s="3">
-        <v>116200</v>
+        <v>107900</v>
       </c>
       <c r="H41" s="3">
-        <v>213600</v>
+        <v>198300</v>
       </c>
       <c r="I41" s="3">
-        <v>120200</v>
+        <v>111600</v>
       </c>
       <c r="J41" s="3">
-        <v>66300</v>
+        <v>61500</v>
       </c>
       <c r="K41" s="3">
         <v>64000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>225300</v>
+        <v>209100</v>
       </c>
       <c r="E42" s="3">
-        <v>273900</v>
+        <v>254200</v>
       </c>
       <c r="F42" s="3">
-        <v>467600</v>
+        <v>434100</v>
       </c>
       <c r="G42" s="3">
-        <v>151400</v>
+        <v>140500</v>
       </c>
       <c r="H42" s="3">
-        <v>23100</v>
+        <v>21400</v>
       </c>
       <c r="I42" s="3">
-        <v>22400</v>
+        <v>20800</v>
       </c>
       <c r="J42" s="3">
-        <v>90400</v>
+        <v>83900</v>
       </c>
       <c r="K42" s="3">
         <v>14500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2220800</v>
+        <v>2061300</v>
       </c>
       <c r="E43" s="3">
-        <v>1349500</v>
+        <v>1252600</v>
       </c>
       <c r="F43" s="3">
-        <v>766100</v>
+        <v>711100</v>
       </c>
       <c r="G43" s="3">
-        <v>678400</v>
+        <v>629600</v>
       </c>
       <c r="H43" s="3">
-        <v>597100</v>
+        <v>554200</v>
       </c>
       <c r="I43" s="3">
-        <v>276200</v>
+        <v>256300</v>
       </c>
       <c r="J43" s="3">
-        <v>196300</v>
+        <v>182200</v>
       </c>
       <c r="K43" s="3">
         <v>110400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1176600</v>
+        <v>1092100</v>
       </c>
       <c r="E44" s="3">
-        <v>785700</v>
+        <v>729300</v>
       </c>
       <c r="F44" s="3">
-        <v>399000</v>
+        <v>370300</v>
       </c>
       <c r="G44" s="3">
-        <v>319000</v>
+        <v>296100</v>
       </c>
       <c r="H44" s="3">
-        <v>281600</v>
+        <v>261300</v>
       </c>
       <c r="I44" s="3">
-        <v>190100</v>
+        <v>176400</v>
       </c>
       <c r="J44" s="3">
-        <v>144500</v>
+        <v>134100</v>
       </c>
       <c r="K44" s="3">
         <v>114400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37600</v>
+        <v>34900</v>
       </c>
       <c r="E45" s="3">
-        <v>78900</v>
+        <v>73200</v>
       </c>
       <c r="F45" s="3">
-        <v>13700</v>
+        <v>12700</v>
       </c>
       <c r="G45" s="3">
-        <v>10300</v>
+        <v>9500</v>
       </c>
       <c r="H45" s="3">
-        <v>10000</v>
+        <v>9300</v>
       </c>
       <c r="I45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J45" s="3">
         <v>6600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>7200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>10</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4523700</v>
+        <v>4198800</v>
       </c>
       <c r="E46" s="3">
-        <v>3047000</v>
+        <v>2828200</v>
       </c>
       <c r="F46" s="3">
-        <v>1788000</v>
+        <v>1659600</v>
       </c>
       <c r="G46" s="3">
-        <v>1275200</v>
+        <v>1183700</v>
       </c>
       <c r="H46" s="3">
-        <v>1125300</v>
+        <v>1044500</v>
       </c>
       <c r="I46" s="3">
-        <v>615500</v>
+        <v>571300</v>
       </c>
       <c r="J46" s="3">
-        <v>504600</v>
+        <v>468400</v>
       </c>
       <c r="K46" s="3">
         <v>303300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1375700</v>
+        <v>1276900</v>
       </c>
       <c r="E47" s="3">
-        <v>958600</v>
+        <v>889800</v>
       </c>
       <c r="F47" s="3">
-        <v>137600</v>
+        <v>127700</v>
       </c>
       <c r="G47" s="3">
-        <v>249200</v>
+        <v>231300</v>
       </c>
       <c r="H47" s="3">
-        <v>99800</v>
+        <v>92600</v>
       </c>
       <c r="I47" s="3">
-        <v>87900</v>
+        <v>81600</v>
       </c>
       <c r="J47" s="3">
-        <v>74600</v>
+        <v>69300</v>
       </c>
       <c r="K47" s="3">
         <v>51100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16526500</v>
+        <v>15339600</v>
       </c>
       <c r="E48" s="3">
-        <v>10220700</v>
+        <v>9486600</v>
       </c>
       <c r="F48" s="3">
-        <v>5182000</v>
+        <v>4809800</v>
       </c>
       <c r="G48" s="3">
-        <v>4503200</v>
+        <v>4179700</v>
       </c>
       <c r="H48" s="3">
-        <v>3960600</v>
+        <v>3676200</v>
       </c>
       <c r="I48" s="3">
-        <v>2294300</v>
+        <v>2129500</v>
       </c>
       <c r="J48" s="3">
-        <v>1366900</v>
+        <v>1268700</v>
       </c>
       <c r="K48" s="3">
         <v>941700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>543600</v>
+        <v>504500</v>
       </c>
       <c r="E49" s="3">
-        <v>298300</v>
+        <v>276900</v>
       </c>
       <c r="F49" s="3">
-        <v>145800</v>
+        <v>135400</v>
       </c>
       <c r="G49" s="3">
-        <v>118600</v>
+        <v>110100</v>
       </c>
       <c r="H49" s="3">
-        <v>106400</v>
+        <v>98800</v>
       </c>
       <c r="I49" s="3">
-        <v>64200</v>
+        <v>59600</v>
       </c>
       <c r="J49" s="3">
-        <v>35800</v>
+        <v>33200</v>
       </c>
       <c r="K49" s="3">
         <v>24700</v>
@@ -2015,22 +2015,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>32000</v>
+        <v>29700</v>
       </c>
       <c r="E52" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="F52" s="3">
-        <v>140200</v>
+        <v>130200</v>
       </c>
       <c r="G52" s="3">
-        <v>10800</v>
+        <v>10000</v>
       </c>
       <c r="H52" s="3">
-        <v>21500</v>
+        <v>19900</v>
       </c>
       <c r="I52" s="3">
-        <v>11900</v>
+        <v>11000</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23001500</v>
+        <v>21349500</v>
       </c>
       <c r="E54" s="3">
-        <v>14532500</v>
+        <v>13488800</v>
       </c>
       <c r="F54" s="3">
-        <v>7393600</v>
+        <v>6862600</v>
       </c>
       <c r="G54" s="3">
-        <v>6157100</v>
+        <v>5714900</v>
       </c>
       <c r="H54" s="3">
-        <v>5313700</v>
+        <v>4932100</v>
       </c>
       <c r="I54" s="3">
-        <v>3049100</v>
+        <v>2830100</v>
       </c>
       <c r="J54" s="3">
-        <v>1982400</v>
+        <v>1840000</v>
       </c>
       <c r="K54" s="3">
         <v>1321600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2133700</v>
+        <v>1980400</v>
       </c>
       <c r="E57" s="3">
-        <v>1190800</v>
+        <v>1105300</v>
       </c>
       <c r="F57" s="3">
-        <v>652900</v>
+        <v>606000</v>
       </c>
       <c r="G57" s="3">
-        <v>594600</v>
+        <v>551900</v>
       </c>
       <c r="H57" s="3">
-        <v>565900</v>
+        <v>525200</v>
       </c>
       <c r="I57" s="3">
-        <v>417000</v>
+        <v>387000</v>
       </c>
       <c r="J57" s="3">
-        <v>297000</v>
+        <v>275600</v>
       </c>
       <c r="K57" s="3">
         <v>212500</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1878600</v>
+        <v>1743700</v>
       </c>
       <c r="E58" s="3">
-        <v>947800</v>
+        <v>879700</v>
       </c>
       <c r="F58" s="3">
-        <v>575100</v>
+        <v>533800</v>
       </c>
       <c r="G58" s="3">
-        <v>391500</v>
+        <v>363400</v>
       </c>
       <c r="H58" s="3">
-        <v>406700</v>
+        <v>377500</v>
       </c>
       <c r="I58" s="3">
-        <v>194100</v>
+        <v>180100</v>
       </c>
       <c r="J58" s="3">
-        <v>128900</v>
+        <v>119600</v>
       </c>
       <c r="K58" s="3">
         <v>82700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>591100</v>
+        <v>548700</v>
       </c>
       <c r="E59" s="3">
-        <v>478000</v>
+        <v>443600</v>
       </c>
       <c r="F59" s="3">
-        <v>274000</v>
+        <v>254300</v>
       </c>
       <c r="G59" s="3">
-        <v>219600</v>
+        <v>203800</v>
       </c>
       <c r="H59" s="3">
-        <v>194000</v>
+        <v>180100</v>
       </c>
       <c r="I59" s="3">
-        <v>186500</v>
+        <v>173100</v>
       </c>
       <c r="J59" s="3">
-        <v>53800</v>
+        <v>50000</v>
       </c>
       <c r="K59" s="3">
         <v>50700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4603400</v>
+        <v>4272800</v>
       </c>
       <c r="E60" s="3">
-        <v>2616500</v>
+        <v>2428600</v>
       </c>
       <c r="F60" s="3">
-        <v>1502000</v>
+        <v>1394100</v>
       </c>
       <c r="G60" s="3">
-        <v>1205700</v>
+        <v>1119100</v>
       </c>
       <c r="H60" s="3">
-        <v>1166500</v>
+        <v>1082800</v>
       </c>
       <c r="I60" s="3">
-        <v>780200</v>
+        <v>724200</v>
       </c>
       <c r="J60" s="3">
-        <v>479700</v>
+        <v>445200</v>
       </c>
       <c r="K60" s="3">
         <v>346000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6725800</v>
+        <v>6242800</v>
       </c>
       <c r="E61" s="3">
-        <v>3951100</v>
+        <v>3667300</v>
       </c>
       <c r="F61" s="3">
-        <v>2218200</v>
+        <v>2058900</v>
       </c>
       <c r="G61" s="3">
-        <v>1865000</v>
+        <v>1731100</v>
       </c>
       <c r="H61" s="3">
-        <v>1139400</v>
+        <v>1057600</v>
       </c>
       <c r="I61" s="3">
-        <v>526800</v>
+        <v>488900</v>
       </c>
       <c r="J61" s="3">
-        <v>337400</v>
+        <v>313100</v>
       </c>
       <c r="K61" s="3">
         <v>200000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3659000</v>
+        <v>3396200</v>
       </c>
       <c r="E62" s="3">
-        <v>2667200</v>
+        <v>2475700</v>
       </c>
       <c r="F62" s="3">
-        <v>1382000</v>
+        <v>1282800</v>
       </c>
       <c r="G62" s="3">
-        <v>1351500</v>
+        <v>1254500</v>
       </c>
       <c r="H62" s="3">
-        <v>1246600</v>
+        <v>1157100</v>
       </c>
       <c r="I62" s="3">
-        <v>1066400</v>
+        <v>989800</v>
       </c>
       <c r="J62" s="3">
-        <v>460100</v>
+        <v>427100</v>
       </c>
       <c r="K62" s="3">
         <v>258800</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15069400</v>
+        <v>13987100</v>
       </c>
       <c r="E66" s="3">
-        <v>9281000</v>
+        <v>8614500</v>
       </c>
       <c r="F66" s="3">
-        <v>5167000</v>
+        <v>4796000</v>
       </c>
       <c r="G66" s="3">
-        <v>4420900</v>
+        <v>4103400</v>
       </c>
       <c r="H66" s="3">
-        <v>3553200</v>
+        <v>3298100</v>
       </c>
       <c r="I66" s="3">
-        <v>1987200</v>
+        <v>1844500</v>
       </c>
       <c r="J66" s="3">
-        <v>1280400</v>
+        <v>1188400</v>
       </c>
       <c r="K66" s="3">
         <v>804800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-424900</v>
+        <v>-394400</v>
       </c>
       <c r="E72" s="3">
-        <v>592700</v>
+        <v>550200</v>
       </c>
       <c r="F72" s="3">
-        <v>211200</v>
+        <v>196000</v>
       </c>
       <c r="G72" s="3">
-        <v>-322800</v>
+        <v>-299600</v>
       </c>
       <c r="H72" s="3">
-        <v>156200</v>
+        <v>145000</v>
       </c>
       <c r="I72" s="3">
-        <v>219500</v>
+        <v>203700</v>
       </c>
       <c r="J72" s="3">
-        <v>157700</v>
+        <v>146400</v>
       </c>
       <c r="K72" s="3">
         <v>144600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7932100</v>
+        <v>7362400</v>
       </c>
       <c r="E76" s="3">
-        <v>5251500</v>
+        <v>4874300</v>
       </c>
       <c r="F76" s="3">
-        <v>2226600</v>
+        <v>2066600</v>
       </c>
       <c r="G76" s="3">
-        <v>1736200</v>
+        <v>1611500</v>
       </c>
       <c r="H76" s="3">
-        <v>1760400</v>
+        <v>1634000</v>
       </c>
       <c r="I76" s="3">
-        <v>1061900</v>
+        <v>985600</v>
       </c>
       <c r="J76" s="3">
-        <v>702000</v>
+        <v>651600</v>
       </c>
       <c r="K76" s="3">
         <v>516700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-498800</v>
+        <v>-462300</v>
       </c>
       <c r="E81" s="3">
-        <v>565300</v>
+        <v>524000</v>
       </c>
       <c r="F81" s="3">
-        <v>180700</v>
+        <v>167500</v>
       </c>
       <c r="G81" s="3">
-        <v>-413400</v>
+        <v>-383200</v>
       </c>
       <c r="H81" s="3">
-        <v>67000</v>
+        <v>62100</v>
       </c>
       <c r="I81" s="3">
-        <v>131800</v>
+        <v>122200</v>
       </c>
       <c r="J81" s="3">
-        <v>75000</v>
+        <v>69500</v>
       </c>
       <c r="K81" s="3">
         <v>64500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2324500</v>
+        <v>2154600</v>
       </c>
       <c r="E83" s="3">
-        <v>1307600</v>
+        <v>1212000</v>
       </c>
       <c r="F83" s="3">
-        <v>795700</v>
+        <v>737500</v>
       </c>
       <c r="G83" s="3">
-        <v>665700</v>
+        <v>617000</v>
       </c>
       <c r="H83" s="3">
-        <v>395400</v>
+        <v>366500</v>
       </c>
       <c r="I83" s="3">
-        <v>298700</v>
+        <v>276900</v>
       </c>
       <c r="J83" s="3">
-        <v>167400</v>
+        <v>155100</v>
       </c>
       <c r="K83" s="3">
         <v>136900</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3178900</v>
+        <v>2946500</v>
       </c>
       <c r="E89" s="3">
-        <v>1830800</v>
+        <v>1697000</v>
       </c>
       <c r="F89" s="3">
-        <v>1052800</v>
+        <v>975900</v>
       </c>
       <c r="G89" s="3">
-        <v>717900</v>
+        <v>665400</v>
       </c>
       <c r="H89" s="3">
-        <v>606200</v>
+        <v>561900</v>
       </c>
       <c r="I89" s="3">
-        <v>675700</v>
+        <v>626300</v>
       </c>
       <c r="J89" s="3">
-        <v>306900</v>
+        <v>284500</v>
       </c>
       <c r="K89" s="3">
         <v>286000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2363700</v>
+        <v>-2190900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1292600</v>
+        <v>-1198100</v>
       </c>
       <c r="F91" s="3">
-        <v>-872800</v>
+        <v>-809000</v>
       </c>
       <c r="G91" s="3">
-        <v>-939300</v>
+        <v>-870700</v>
       </c>
       <c r="H91" s="3">
-        <v>-933700</v>
+        <v>-865400</v>
       </c>
       <c r="I91" s="3">
-        <v>-735100</v>
+        <v>-681400</v>
       </c>
       <c r="J91" s="3">
-        <v>-404600</v>
+        <v>-375100</v>
       </c>
       <c r="K91" s="3">
         <v>-271100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2399200</v>
+        <v>-2223800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1204200</v>
+        <v>-1116100</v>
       </c>
       <c r="F94" s="3">
-        <v>-808700</v>
+        <v>-749600</v>
       </c>
       <c r="G94" s="3">
-        <v>-968800</v>
+        <v>-898000</v>
       </c>
       <c r="H94" s="3">
-        <v>-937700</v>
+        <v>-869100</v>
       </c>
       <c r="I94" s="3">
-        <v>-781800</v>
+        <v>-724700</v>
       </c>
       <c r="J94" s="3">
-        <v>-325000</v>
+        <v>-301300</v>
       </c>
       <c r="K94" s="3">
         <v>-271100</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-33700</v>
+        <v>-31200</v>
       </c>
       <c r="E96" s="3">
-        <v>-17600</v>
+        <v>-16300</v>
       </c>
       <c r="F96" s="3">
-        <v>-10500</v>
+        <v>-9700</v>
       </c>
       <c r="G96" s="3">
-        <v>-13000</v>
+        <v>-12100</v>
       </c>
       <c r="H96" s="3">
-        <v>-7400</v>
+        <v>-6800</v>
       </c>
       <c r="I96" s="3">
-        <v>-6800</v>
+        <v>-6300</v>
       </c>
       <c r="J96" s="3">
-        <v>-4800</v>
+        <v>-4400</v>
       </c>
       <c r="K96" s="3">
         <v>-5000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-821000</v>
+        <v>-761000</v>
       </c>
       <c r="E100" s="3">
-        <v>-639100</v>
+        <v>-592400</v>
       </c>
       <c r="F100" s="3">
-        <v>-5200</v>
+        <v>-4800</v>
       </c>
       <c r="G100" s="3">
-        <v>158400</v>
+        <v>146800</v>
       </c>
       <c r="H100" s="3">
-        <v>346500</v>
+        <v>321100</v>
       </c>
       <c r="I100" s="3">
-        <v>73000</v>
+        <v>67700</v>
       </c>
       <c r="J100" s="3">
-        <v>102200</v>
+        <v>94700</v>
       </c>
       <c r="K100" s="3">
         <v>43900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>335200</v>
+        <v>310700</v>
       </c>
       <c r="E101" s="3">
-        <v>265600</v>
+        <v>246100</v>
       </c>
       <c r="F101" s="3">
-        <v>24400</v>
+        <v>22600</v>
       </c>
       <c r="G101" s="3">
-        <v>24800</v>
+        <v>23000</v>
       </c>
       <c r="H101" s="3">
-        <v>67500</v>
+        <v>62500</v>
       </c>
       <c r="I101" s="3">
-        <v>19200</v>
+        <v>17800</v>
       </c>
       <c r="J101" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="K101" s="3">
         <v>1400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>293900</v>
+        <v>272400</v>
       </c>
       <c r="E102" s="3">
-        <v>253100</v>
+        <v>234600</v>
       </c>
       <c r="F102" s="3">
-        <v>263200</v>
+        <v>244000</v>
       </c>
       <c r="G102" s="3">
-        <v>-67800</v>
+        <v>-62800</v>
       </c>
       <c r="H102" s="3">
-        <v>82400</v>
+        <v>76400</v>
       </c>
       <c r="I102" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="J102" s="3">
-        <v>87300</v>
+        <v>81000</v>
       </c>
       <c r="K102" s="3">
         <v>60100</v>

--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9208500</v>
+        <v>8373900</v>
       </c>
       <c r="E8" s="3">
-        <v>5914100</v>
+        <v>5378000</v>
       </c>
       <c r="F8" s="3">
-        <v>3430700</v>
+        <v>3119700</v>
       </c>
       <c r="G8" s="3">
-        <v>2851100</v>
+        <v>2592600</v>
       </c>
       <c r="H8" s="3">
-        <v>2118800</v>
+        <v>1926700</v>
       </c>
       <c r="I8" s="3">
-        <v>1926200</v>
+        <v>1751600</v>
       </c>
       <c r="J8" s="3">
-        <v>1222800</v>
+        <v>1112000</v>
       </c>
       <c r="K8" s="3">
         <v>1110400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7871000</v>
+        <v>7157500</v>
       </c>
       <c r="E9" s="3">
-        <v>4920500</v>
+        <v>4474500</v>
       </c>
       <c r="F9" s="3">
-        <v>2895000</v>
+        <v>2632600</v>
       </c>
       <c r="G9" s="3">
-        <v>2420000</v>
+        <v>2200600</v>
       </c>
       <c r="H9" s="3">
-        <v>1622100</v>
+        <v>1475100</v>
       </c>
       <c r="I9" s="3">
-        <v>1418000</v>
+        <v>1289400</v>
       </c>
       <c r="J9" s="3">
-        <v>930500</v>
+        <v>846200</v>
       </c>
       <c r="K9" s="3">
         <v>830900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1337600</v>
+        <v>1216300</v>
       </c>
       <c r="E10" s="3">
-        <v>993600</v>
+        <v>903500</v>
       </c>
       <c r="F10" s="3">
-        <v>535600</v>
+        <v>487100</v>
       </c>
       <c r="G10" s="3">
-        <v>431100</v>
+        <v>392000</v>
       </c>
       <c r="H10" s="3">
-        <v>496600</v>
+        <v>451600</v>
       </c>
       <c r="I10" s="3">
-        <v>508200</v>
+        <v>462100</v>
       </c>
       <c r="J10" s="3">
-        <v>292300</v>
+        <v>265800</v>
       </c>
       <c r="K10" s="3">
         <v>279500</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>76300</v>
+        <v>69400</v>
       </c>
       <c r="E12" s="3">
-        <v>57700</v>
+        <v>52500</v>
       </c>
       <c r="F12" s="3">
-        <v>25500</v>
+        <v>23200</v>
       </c>
       <c r="G12" s="3">
-        <v>36600</v>
+        <v>33200</v>
       </c>
       <c r="H12" s="3">
-        <v>29200</v>
+        <v>26600</v>
       </c>
       <c r="I12" s="3">
-        <v>21700</v>
+        <v>19800</v>
       </c>
       <c r="J12" s="3">
-        <v>9000</v>
+        <v>8100</v>
       </c>
       <c r="K12" s="3">
         <v>9600</v>
@@ -897,19 +897,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>606000</v>
+        <v>551100</v>
       </c>
       <c r="E14" s="3">
-        <v>-167600</v>
+        <v>-152400</v>
       </c>
       <c r="F14" s="3">
-        <v>-85100</v>
+        <v>-77400</v>
       </c>
       <c r="G14" s="3">
-        <v>457200</v>
+        <v>415700</v>
       </c>
       <c r="H14" s="3">
-        <v>50500</v>
+        <v>45900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>102800</v>
+        <v>93500</v>
       </c>
       <c r="E15" s="3">
-        <v>55900</v>
+        <v>50900</v>
       </c>
       <c r="F15" s="3">
-        <v>27900</v>
+        <v>25400</v>
       </c>
       <c r="G15" s="3">
-        <v>25700</v>
+        <v>23400</v>
       </c>
       <c r="H15" s="3">
-        <v>15200</v>
+        <v>13800</v>
       </c>
       <c r="I15" s="3">
-        <v>14400</v>
+        <v>13100</v>
       </c>
       <c r="J15" s="3">
-        <v>7800</v>
+        <v>7100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9493700</v>
+        <v>8633200</v>
       </c>
       <c r="E17" s="3">
-        <v>5320000</v>
+        <v>4837800</v>
       </c>
       <c r="F17" s="3">
-        <v>3212600</v>
+        <v>2921400</v>
       </c>
       <c r="G17" s="3">
-        <v>3180100</v>
+        <v>2891800</v>
       </c>
       <c r="H17" s="3">
-        <v>1893700</v>
+        <v>1722000</v>
       </c>
       <c r="I17" s="3">
-        <v>1658300</v>
+        <v>1507900</v>
       </c>
       <c r="J17" s="3">
-        <v>1071400</v>
+        <v>974300</v>
       </c>
       <c r="K17" s="3">
         <v>979700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-285100</v>
+        <v>-259300</v>
       </c>
       <c r="E18" s="3">
-        <v>594100</v>
+        <v>540200</v>
       </c>
       <c r="F18" s="3">
-        <v>218100</v>
+        <v>198300</v>
       </c>
       <c r="G18" s="3">
-        <v>-329000</v>
+        <v>-299200</v>
       </c>
       <c r="H18" s="3">
-        <v>225100</v>
+        <v>204700</v>
       </c>
       <c r="I18" s="3">
-        <v>267900</v>
+        <v>243600</v>
       </c>
       <c r="J18" s="3">
-        <v>151400</v>
+        <v>137700</v>
       </c>
       <c r="K18" s="3">
         <v>130600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>843200</v>
+        <v>766800</v>
       </c>
       <c r="E20" s="3">
-        <v>1018800</v>
+        <v>926500</v>
       </c>
       <c r="F20" s="3">
-        <v>149500</v>
+        <v>135900</v>
       </c>
       <c r="G20" s="3">
-        <v>170300</v>
+        <v>154900</v>
       </c>
       <c r="H20" s="3">
-        <v>313200</v>
+        <v>284800</v>
       </c>
       <c r="I20" s="3">
-        <v>131200</v>
+        <v>119300</v>
       </c>
       <c r="J20" s="3">
-        <v>95300</v>
+        <v>86600</v>
       </c>
       <c r="K20" s="3">
         <v>36700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2714300</v>
+        <v>2471600</v>
       </c>
       <c r="E21" s="3">
-        <v>2825900</v>
+        <v>2571600</v>
       </c>
       <c r="F21" s="3">
-        <v>1105700</v>
+        <v>1006600</v>
       </c>
       <c r="G21" s="3">
-        <v>458800</v>
+        <v>418100</v>
       </c>
       <c r="H21" s="3">
-        <v>905100</v>
+        <v>823600</v>
       </c>
       <c r="I21" s="3">
-        <v>676200</v>
+        <v>615300</v>
       </c>
       <c r="J21" s="3">
-        <v>402000</v>
+        <v>365800</v>
       </c>
       <c r="K21" s="3">
         <v>304500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>653200</v>
+        <v>594000</v>
       </c>
       <c r="E22" s="3">
-        <v>389700</v>
+        <v>354400</v>
       </c>
       <c r="F22" s="3">
-        <v>249500</v>
+        <v>226900</v>
       </c>
       <c r="G22" s="3">
-        <v>245700</v>
+        <v>223500</v>
       </c>
       <c r="H22" s="3">
-        <v>143900</v>
+        <v>130900</v>
       </c>
       <c r="I22" s="3">
-        <v>99500</v>
+        <v>90500</v>
       </c>
       <c r="J22" s="3">
-        <v>52000</v>
+        <v>47300</v>
       </c>
       <c r="K22" s="3">
         <v>25700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-95100</v>
+        <v>-86500</v>
       </c>
       <c r="E23" s="3">
-        <v>1223300</v>
+        <v>1112400</v>
       </c>
       <c r="F23" s="3">
-        <v>118100</v>
+        <v>107400</v>
       </c>
       <c r="G23" s="3">
-        <v>-404400</v>
+        <v>-367800</v>
       </c>
       <c r="H23" s="3">
-        <v>394400</v>
+        <v>358600</v>
       </c>
       <c r="I23" s="3">
-        <v>299500</v>
+        <v>272400</v>
       </c>
       <c r="J23" s="3">
-        <v>194700</v>
+        <v>177100</v>
       </c>
       <c r="K23" s="3">
         <v>141600</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>295400</v>
+        <v>268600</v>
       </c>
       <c r="E24" s="3">
-        <v>699400</v>
+        <v>636000</v>
       </c>
       <c r="F24" s="3">
-        <v>-53900</v>
+        <v>-49000</v>
       </c>
       <c r="G24" s="3">
-        <v>-19300</v>
+        <v>-17600</v>
       </c>
       <c r="H24" s="3">
-        <v>334300</v>
+        <v>304000</v>
       </c>
       <c r="I24" s="3">
-        <v>179400</v>
+        <v>163200</v>
       </c>
       <c r="J24" s="3">
-        <v>125800</v>
+        <v>114400</v>
       </c>
       <c r="K24" s="3">
         <v>77100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-390500</v>
+        <v>-355100</v>
       </c>
       <c r="E26" s="3">
-        <v>523900</v>
+        <v>476400</v>
       </c>
       <c r="F26" s="3">
-        <v>172000</v>
+        <v>156400</v>
       </c>
       <c r="G26" s="3">
-        <v>-385100</v>
+        <v>-350200</v>
       </c>
       <c r="H26" s="3">
-        <v>60100</v>
+        <v>54600</v>
       </c>
       <c r="I26" s="3">
-        <v>120100</v>
+        <v>109200</v>
       </c>
       <c r="J26" s="3">
-        <v>68900</v>
+        <v>62700</v>
       </c>
       <c r="K26" s="3">
         <v>64500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-399900</v>
+        <v>-363600</v>
       </c>
       <c r="E27" s="3">
-        <v>524000</v>
+        <v>476500</v>
       </c>
       <c r="F27" s="3">
-        <v>167500</v>
+        <v>152300</v>
       </c>
       <c r="G27" s="3">
-        <v>-383200</v>
+        <v>-348400</v>
       </c>
       <c r="H27" s="3">
-        <v>62100</v>
+        <v>56500</v>
       </c>
       <c r="I27" s="3">
-        <v>122200</v>
+        <v>111100</v>
       </c>
       <c r="J27" s="3">
-        <v>69500</v>
+        <v>63200</v>
       </c>
       <c r="K27" s="3">
         <v>64500</v>
@@ -1353,7 +1353,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-62500</v>
+        <v>-56800</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-843200</v>
+        <v>-766800</v>
       </c>
       <c r="E32" s="3">
-        <v>-1018800</v>
+        <v>-926500</v>
       </c>
       <c r="F32" s="3">
-        <v>-149500</v>
+        <v>-135900</v>
       </c>
       <c r="G32" s="3">
-        <v>-170300</v>
+        <v>-154900</v>
       </c>
       <c r="H32" s="3">
-        <v>-313200</v>
+        <v>-284800</v>
       </c>
       <c r="I32" s="3">
-        <v>-131200</v>
+        <v>-119300</v>
       </c>
       <c r="J32" s="3">
-        <v>-95300</v>
+        <v>-86600</v>
       </c>
       <c r="K32" s="3">
         <v>-36700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-462300</v>
+        <v>-420400</v>
       </c>
       <c r="E33" s="3">
-        <v>524000</v>
+        <v>476500</v>
       </c>
       <c r="F33" s="3">
-        <v>167500</v>
+        <v>152300</v>
       </c>
       <c r="G33" s="3">
-        <v>-383200</v>
+        <v>-348400</v>
       </c>
       <c r="H33" s="3">
-        <v>62100</v>
+        <v>56500</v>
       </c>
       <c r="I33" s="3">
-        <v>122200</v>
+        <v>111100</v>
       </c>
       <c r="J33" s="3">
-        <v>69500</v>
+        <v>63200</v>
       </c>
       <c r="K33" s="3">
         <v>64500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-462300</v>
+        <v>-420400</v>
       </c>
       <c r="E35" s="3">
-        <v>524000</v>
+        <v>476500</v>
       </c>
       <c r="F35" s="3">
-        <v>167500</v>
+        <v>152300</v>
       </c>
       <c r="G35" s="3">
-        <v>-383200</v>
+        <v>-348400</v>
       </c>
       <c r="H35" s="3">
-        <v>62100</v>
+        <v>56500</v>
       </c>
       <c r="I35" s="3">
-        <v>122200</v>
+        <v>111100</v>
       </c>
       <c r="J35" s="3">
-        <v>69500</v>
+        <v>63200</v>
       </c>
       <c r="K35" s="3">
         <v>64500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>801500</v>
+        <v>728800</v>
       </c>
       <c r="E41" s="3">
-        <v>518900</v>
+        <v>471800</v>
       </c>
       <c r="F41" s="3">
-        <v>131500</v>
+        <v>119500</v>
       </c>
       <c r="G41" s="3">
-        <v>107900</v>
+        <v>98100</v>
       </c>
       <c r="H41" s="3">
-        <v>198300</v>
+        <v>180300</v>
       </c>
       <c r="I41" s="3">
-        <v>111600</v>
+        <v>101500</v>
       </c>
       <c r="J41" s="3">
-        <v>61500</v>
+        <v>55900</v>
       </c>
       <c r="K41" s="3">
         <v>64000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>209100</v>
+        <v>190100</v>
       </c>
       <c r="E42" s="3">
-        <v>254200</v>
+        <v>231200</v>
       </c>
       <c r="F42" s="3">
-        <v>434100</v>
+        <v>394700</v>
       </c>
       <c r="G42" s="3">
-        <v>140500</v>
+        <v>127800</v>
       </c>
       <c r="H42" s="3">
-        <v>21400</v>
+        <v>19500</v>
       </c>
       <c r="I42" s="3">
-        <v>20800</v>
+        <v>18900</v>
       </c>
       <c r="J42" s="3">
-        <v>83900</v>
+        <v>76300</v>
       </c>
       <c r="K42" s="3">
         <v>14500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2061300</v>
+        <v>1874400</v>
       </c>
       <c r="E43" s="3">
-        <v>1252600</v>
+        <v>1139100</v>
       </c>
       <c r="F43" s="3">
-        <v>711100</v>
+        <v>646600</v>
       </c>
       <c r="G43" s="3">
-        <v>629600</v>
+        <v>572600</v>
       </c>
       <c r="H43" s="3">
-        <v>554200</v>
+        <v>504000</v>
       </c>
       <c r="I43" s="3">
-        <v>256300</v>
+        <v>233100</v>
       </c>
       <c r="J43" s="3">
-        <v>182200</v>
+        <v>165700</v>
       </c>
       <c r="K43" s="3">
         <v>110400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1092100</v>
+        <v>993100</v>
       </c>
       <c r="E44" s="3">
-        <v>729300</v>
+        <v>663200</v>
       </c>
       <c r="F44" s="3">
-        <v>370300</v>
+        <v>336800</v>
       </c>
       <c r="G44" s="3">
-        <v>296100</v>
+        <v>269300</v>
       </c>
       <c r="H44" s="3">
-        <v>261300</v>
+        <v>237600</v>
       </c>
       <c r="I44" s="3">
-        <v>176400</v>
+        <v>160400</v>
       </c>
       <c r="J44" s="3">
-        <v>134100</v>
+        <v>121900</v>
       </c>
       <c r="K44" s="3">
         <v>114400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34900</v>
+        <v>31800</v>
       </c>
       <c r="E45" s="3">
-        <v>73200</v>
+        <v>66600</v>
       </c>
       <c r="F45" s="3">
-        <v>12700</v>
+        <v>11500</v>
       </c>
       <c r="G45" s="3">
-        <v>9500</v>
+        <v>8700</v>
       </c>
       <c r="H45" s="3">
-        <v>9300</v>
+        <v>8400</v>
       </c>
       <c r="I45" s="3">
-        <v>6100</v>
+        <v>5600</v>
       </c>
       <c r="J45" s="3">
-        <v>6600</v>
+        <v>6000</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>10</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4198800</v>
+        <v>3818300</v>
       </c>
       <c r="E46" s="3">
-        <v>2828200</v>
+        <v>2571800</v>
       </c>
       <c r="F46" s="3">
-        <v>1659600</v>
+        <v>1509200</v>
       </c>
       <c r="G46" s="3">
-        <v>1183700</v>
+        <v>1076400</v>
       </c>
       <c r="H46" s="3">
-        <v>1044500</v>
+        <v>949800</v>
       </c>
       <c r="I46" s="3">
-        <v>571300</v>
+        <v>519500</v>
       </c>
       <c r="J46" s="3">
-        <v>468400</v>
+        <v>425900</v>
       </c>
       <c r="K46" s="3">
         <v>303300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1276900</v>
+        <v>1161200</v>
       </c>
       <c r="E47" s="3">
-        <v>889800</v>
+        <v>809100</v>
       </c>
       <c r="F47" s="3">
-        <v>127700</v>
+        <v>116100</v>
       </c>
       <c r="G47" s="3">
-        <v>231300</v>
+        <v>210300</v>
       </c>
       <c r="H47" s="3">
-        <v>92600</v>
+        <v>84200</v>
       </c>
       <c r="I47" s="3">
-        <v>81600</v>
+        <v>74200</v>
       </c>
       <c r="J47" s="3">
-        <v>69300</v>
+        <v>63000</v>
       </c>
       <c r="K47" s="3">
         <v>51100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15339600</v>
+        <v>13949200</v>
       </c>
       <c r="E48" s="3">
-        <v>9486600</v>
+        <v>8626700</v>
       </c>
       <c r="F48" s="3">
-        <v>4809800</v>
+        <v>4373800</v>
       </c>
       <c r="G48" s="3">
-        <v>4179700</v>
+        <v>3800900</v>
       </c>
       <c r="H48" s="3">
-        <v>3676200</v>
+        <v>3343000</v>
       </c>
       <c r="I48" s="3">
-        <v>2129500</v>
+        <v>1936500</v>
       </c>
       <c r="J48" s="3">
-        <v>1268700</v>
+        <v>1153700</v>
       </c>
       <c r="K48" s="3">
         <v>941700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>504500</v>
+        <v>458800</v>
       </c>
       <c r="E49" s="3">
-        <v>276900</v>
+        <v>251800</v>
       </c>
       <c r="F49" s="3">
-        <v>135400</v>
+        <v>123100</v>
       </c>
       <c r="G49" s="3">
-        <v>110100</v>
+        <v>100100</v>
       </c>
       <c r="H49" s="3">
-        <v>98800</v>
+        <v>89800</v>
       </c>
       <c r="I49" s="3">
-        <v>59600</v>
+        <v>54200</v>
       </c>
       <c r="J49" s="3">
-        <v>33200</v>
+        <v>30200</v>
       </c>
       <c r="K49" s="3">
         <v>24700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29700</v>
+        <v>27000</v>
       </c>
       <c r="E52" s="3">
-        <v>7400</v>
+        <v>6700</v>
       </c>
       <c r="F52" s="3">
-        <v>130200</v>
+        <v>118400</v>
       </c>
       <c r="G52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>18100</v>
+      </c>
+      <c r="I52" s="3">
         <v>10000</v>
       </c>
-      <c r="H52" s="3">
-        <v>19900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>11000</v>
-      </c>
       <c r="J52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21349500</v>
+        <v>19414400</v>
       </c>
       <c r="E54" s="3">
-        <v>13488800</v>
+        <v>12266200</v>
       </c>
       <c r="F54" s="3">
-        <v>6862600</v>
+        <v>6240600</v>
       </c>
       <c r="G54" s="3">
-        <v>5714900</v>
+        <v>5196900</v>
       </c>
       <c r="H54" s="3">
-        <v>4932100</v>
+        <v>4485000</v>
       </c>
       <c r="I54" s="3">
-        <v>2830100</v>
+        <v>2573600</v>
       </c>
       <c r="J54" s="3">
-        <v>1840000</v>
+        <v>1673200</v>
       </c>
       <c r="K54" s="3">
         <v>1321600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1980400</v>
+        <v>1800900</v>
       </c>
       <c r="E57" s="3">
-        <v>1105300</v>
+        <v>1005100</v>
       </c>
       <c r="F57" s="3">
-        <v>606000</v>
+        <v>551000</v>
       </c>
       <c r="G57" s="3">
-        <v>551900</v>
+        <v>501800</v>
       </c>
       <c r="H57" s="3">
-        <v>525200</v>
+        <v>477600</v>
       </c>
       <c r="I57" s="3">
-        <v>387000</v>
+        <v>352000</v>
       </c>
       <c r="J57" s="3">
-        <v>275600</v>
+        <v>250700</v>
       </c>
       <c r="K57" s="3">
         <v>212500</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1743700</v>
+        <v>1585700</v>
       </c>
       <c r="E58" s="3">
-        <v>879700</v>
+        <v>800000</v>
       </c>
       <c r="F58" s="3">
-        <v>533800</v>
+        <v>485400</v>
       </c>
       <c r="G58" s="3">
-        <v>363400</v>
+        <v>330400</v>
       </c>
       <c r="H58" s="3">
-        <v>377500</v>
+        <v>343300</v>
       </c>
       <c r="I58" s="3">
-        <v>180100</v>
+        <v>163800</v>
       </c>
       <c r="J58" s="3">
-        <v>119600</v>
+        <v>108800</v>
       </c>
       <c r="K58" s="3">
         <v>82700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>548700</v>
+        <v>498900</v>
       </c>
       <c r="E59" s="3">
-        <v>443600</v>
+        <v>403400</v>
       </c>
       <c r="F59" s="3">
-        <v>254300</v>
+        <v>231300</v>
       </c>
       <c r="G59" s="3">
-        <v>203800</v>
+        <v>185400</v>
       </c>
       <c r="H59" s="3">
-        <v>180100</v>
+        <v>163800</v>
       </c>
       <c r="I59" s="3">
-        <v>173100</v>
+        <v>157400</v>
       </c>
       <c r="J59" s="3">
-        <v>50000</v>
+        <v>45400</v>
       </c>
       <c r="K59" s="3">
         <v>50700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4272800</v>
+        <v>3885500</v>
       </c>
       <c r="E60" s="3">
-        <v>2428600</v>
+        <v>2208500</v>
       </c>
       <c r="F60" s="3">
-        <v>1394100</v>
+        <v>1267700</v>
       </c>
       <c r="G60" s="3">
-        <v>1119100</v>
+        <v>1017600</v>
       </c>
       <c r="H60" s="3">
-        <v>1082800</v>
+        <v>984600</v>
       </c>
       <c r="I60" s="3">
-        <v>724200</v>
+        <v>658500</v>
       </c>
       <c r="J60" s="3">
-        <v>445200</v>
+        <v>404900</v>
       </c>
       <c r="K60" s="3">
         <v>346000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6242800</v>
+        <v>5676900</v>
       </c>
       <c r="E61" s="3">
-        <v>3667300</v>
+        <v>3334900</v>
       </c>
       <c r="F61" s="3">
-        <v>2058900</v>
+        <v>1872300</v>
       </c>
       <c r="G61" s="3">
-        <v>1731100</v>
+        <v>1574200</v>
       </c>
       <c r="H61" s="3">
-        <v>1057600</v>
+        <v>961700</v>
       </c>
       <c r="I61" s="3">
-        <v>488900</v>
+        <v>444600</v>
       </c>
       <c r="J61" s="3">
-        <v>313100</v>
+        <v>284800</v>
       </c>
       <c r="K61" s="3">
         <v>200000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3396200</v>
+        <v>3088400</v>
       </c>
       <c r="E62" s="3">
-        <v>2475700</v>
+        <v>2251300</v>
       </c>
       <c r="F62" s="3">
-        <v>1282800</v>
+        <v>1166500</v>
       </c>
       <c r="G62" s="3">
-        <v>1254500</v>
+        <v>1140800</v>
       </c>
       <c r="H62" s="3">
-        <v>1157100</v>
+        <v>1052200</v>
       </c>
       <c r="I62" s="3">
-        <v>989800</v>
+        <v>900100</v>
       </c>
       <c r="J62" s="3">
-        <v>427100</v>
+        <v>388400</v>
       </c>
       <c r="K62" s="3">
         <v>258800</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13987100</v>
+        <v>12719300</v>
       </c>
       <c r="E66" s="3">
-        <v>8614500</v>
+        <v>7833600</v>
       </c>
       <c r="F66" s="3">
-        <v>4796000</v>
+        <v>4361200</v>
       </c>
       <c r="G66" s="3">
-        <v>4103400</v>
+        <v>3731400</v>
       </c>
       <c r="H66" s="3">
-        <v>3298100</v>
+        <v>2999100</v>
       </c>
       <c r="I66" s="3">
-        <v>1844500</v>
+        <v>1677300</v>
       </c>
       <c r="J66" s="3">
-        <v>1188400</v>
+        <v>1080700</v>
       </c>
       <c r="K66" s="3">
         <v>804800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-394400</v>
+        <v>-358600</v>
       </c>
       <c r="E72" s="3">
-        <v>550200</v>
+        <v>500300</v>
       </c>
       <c r="F72" s="3">
-        <v>196000</v>
+        <v>178300</v>
       </c>
       <c r="G72" s="3">
-        <v>-299600</v>
+        <v>-272500</v>
       </c>
       <c r="H72" s="3">
-        <v>145000</v>
+        <v>131900</v>
       </c>
       <c r="I72" s="3">
-        <v>203700</v>
+        <v>185300</v>
       </c>
       <c r="J72" s="3">
-        <v>146400</v>
+        <v>133100</v>
       </c>
       <c r="K72" s="3">
         <v>144600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7362400</v>
+        <v>6695100</v>
       </c>
       <c r="E76" s="3">
-        <v>4874300</v>
+        <v>4432500</v>
       </c>
       <c r="F76" s="3">
-        <v>2066600</v>
+        <v>1879300</v>
       </c>
       <c r="G76" s="3">
-        <v>1611500</v>
+        <v>1465400</v>
       </c>
       <c r="H76" s="3">
-        <v>1634000</v>
+        <v>1485900</v>
       </c>
       <c r="I76" s="3">
-        <v>985600</v>
+        <v>896300</v>
       </c>
       <c r="J76" s="3">
-        <v>651600</v>
+        <v>592500</v>
       </c>
       <c r="K76" s="3">
         <v>516700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-462300</v>
+        <v>-420400</v>
       </c>
       <c r="E81" s="3">
-        <v>524000</v>
+        <v>476500</v>
       </c>
       <c r="F81" s="3">
-        <v>167500</v>
+        <v>152300</v>
       </c>
       <c r="G81" s="3">
-        <v>-383200</v>
+        <v>-348400</v>
       </c>
       <c r="H81" s="3">
-        <v>62100</v>
+        <v>56500</v>
       </c>
       <c r="I81" s="3">
-        <v>122200</v>
+        <v>111100</v>
       </c>
       <c r="J81" s="3">
-        <v>69500</v>
+        <v>63200</v>
       </c>
       <c r="K81" s="3">
         <v>64500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2154600</v>
+        <v>1959300</v>
       </c>
       <c r="E83" s="3">
-        <v>1212000</v>
+        <v>1102200</v>
       </c>
       <c r="F83" s="3">
-        <v>737500</v>
+        <v>670700</v>
       </c>
       <c r="G83" s="3">
-        <v>617000</v>
+        <v>561100</v>
       </c>
       <c r="H83" s="3">
-        <v>366500</v>
+        <v>333300</v>
       </c>
       <c r="I83" s="3">
-        <v>276900</v>
+        <v>251800</v>
       </c>
       <c r="J83" s="3">
-        <v>155100</v>
+        <v>141100</v>
       </c>
       <c r="K83" s="3">
         <v>136900</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2946500</v>
+        <v>2679500</v>
       </c>
       <c r="E89" s="3">
-        <v>1697000</v>
+        <v>1543200</v>
       </c>
       <c r="F89" s="3">
-        <v>975900</v>
+        <v>887400</v>
       </c>
       <c r="G89" s="3">
-        <v>665400</v>
+        <v>605100</v>
       </c>
       <c r="H89" s="3">
-        <v>561900</v>
+        <v>510900</v>
       </c>
       <c r="I89" s="3">
-        <v>626300</v>
+        <v>569500</v>
       </c>
       <c r="J89" s="3">
-        <v>284500</v>
+        <v>258700</v>
       </c>
       <c r="K89" s="3">
         <v>286000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2190900</v>
+        <v>-1992400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1198100</v>
+        <v>-1089500</v>
       </c>
       <c r="F91" s="3">
-        <v>-809000</v>
+        <v>-735700</v>
       </c>
       <c r="G91" s="3">
-        <v>-870700</v>
+        <v>-791700</v>
       </c>
       <c r="H91" s="3">
-        <v>-865400</v>
+        <v>-787000</v>
       </c>
       <c r="I91" s="3">
-        <v>-681400</v>
+        <v>-619600</v>
       </c>
       <c r="J91" s="3">
-        <v>-375100</v>
+        <v>-341100</v>
       </c>
       <c r="K91" s="3">
         <v>-271100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2223800</v>
+        <v>-2022300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1116100</v>
+        <v>-1015000</v>
       </c>
       <c r="F94" s="3">
-        <v>-749600</v>
+        <v>-681700</v>
       </c>
       <c r="G94" s="3">
-        <v>-898000</v>
+        <v>-816600</v>
       </c>
       <c r="H94" s="3">
-        <v>-869100</v>
+        <v>-790400</v>
       </c>
       <c r="I94" s="3">
-        <v>-724700</v>
+        <v>-659000</v>
       </c>
       <c r="J94" s="3">
-        <v>-301300</v>
+        <v>-274000</v>
       </c>
       <c r="K94" s="3">
         <v>-271100</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-31200</v>
+        <v>-28400</v>
       </c>
       <c r="E96" s="3">
-        <v>-16300</v>
+        <v>-14800</v>
       </c>
       <c r="F96" s="3">
-        <v>-9700</v>
+        <v>-8800</v>
       </c>
       <c r="G96" s="3">
-        <v>-12100</v>
+        <v>-11000</v>
       </c>
       <c r="H96" s="3">
-        <v>-6800</v>
+        <v>-6200</v>
       </c>
       <c r="I96" s="3">
-        <v>-6300</v>
+        <v>-5700</v>
       </c>
       <c r="J96" s="3">
-        <v>-4400</v>
+        <v>-4000</v>
       </c>
       <c r="K96" s="3">
         <v>-5000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-761000</v>
+        <v>-692100</v>
       </c>
       <c r="E100" s="3">
-        <v>-592400</v>
+        <v>-538700</v>
       </c>
       <c r="F100" s="3">
-        <v>-4800</v>
+        <v>-4400</v>
       </c>
       <c r="G100" s="3">
-        <v>146800</v>
+        <v>133500</v>
       </c>
       <c r="H100" s="3">
-        <v>321100</v>
+        <v>292000</v>
       </c>
       <c r="I100" s="3">
-        <v>67700</v>
+        <v>61500</v>
       </c>
       <c r="J100" s="3">
-        <v>94700</v>
+        <v>86100</v>
       </c>
       <c r="K100" s="3">
         <v>43900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>310700</v>
+        <v>282500</v>
       </c>
       <c r="E101" s="3">
-        <v>246100</v>
+        <v>223800</v>
       </c>
       <c r="F101" s="3">
-        <v>22600</v>
+        <v>20500</v>
       </c>
       <c r="G101" s="3">
-        <v>23000</v>
+        <v>20900</v>
       </c>
       <c r="H101" s="3">
-        <v>62500</v>
+        <v>56900</v>
       </c>
       <c r="I101" s="3">
-        <v>17800</v>
+        <v>16200</v>
       </c>
       <c r="J101" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K101" s="3">
         <v>1400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>272400</v>
+        <v>247700</v>
       </c>
       <c r="E102" s="3">
-        <v>234600</v>
+        <v>213400</v>
       </c>
       <c r="F102" s="3">
-        <v>244000</v>
+        <v>221900</v>
       </c>
       <c r="G102" s="3">
-        <v>-62800</v>
+        <v>-57100</v>
       </c>
       <c r="H102" s="3">
-        <v>76400</v>
+        <v>69500</v>
       </c>
       <c r="I102" s="3">
-        <v>-13000</v>
+        <v>-11800</v>
       </c>
       <c r="J102" s="3">
-        <v>81000</v>
+        <v>73600</v>
       </c>
       <c r="K102" s="3">
         <v>60100</v>

--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8373900</v>
+        <v>7307500</v>
       </c>
       <c r="E8" s="3">
-        <v>5378000</v>
+        <v>7410300</v>
       </c>
       <c r="F8" s="3">
-        <v>3119700</v>
+        <v>4759200</v>
       </c>
       <c r="G8" s="3">
-        <v>2592600</v>
+        <v>2760700</v>
       </c>
       <c r="H8" s="3">
-        <v>1926700</v>
+        <v>2294300</v>
       </c>
       <c r="I8" s="3">
-        <v>1751600</v>
+        <v>1705000</v>
       </c>
       <c r="J8" s="3">
+        <v>1550000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1112000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1110400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1471600</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7157500</v>
+        <v>6891200</v>
       </c>
       <c r="E9" s="3">
-        <v>4474500</v>
+        <v>6333900</v>
       </c>
       <c r="F9" s="3">
-        <v>2632600</v>
+        <v>3959600</v>
       </c>
       <c r="G9" s="3">
-        <v>2200600</v>
+        <v>2329700</v>
       </c>
       <c r="H9" s="3">
-        <v>1475100</v>
+        <v>1947400</v>
       </c>
       <c r="I9" s="3">
-        <v>1289400</v>
+        <v>1305300</v>
       </c>
       <c r="J9" s="3">
+        <v>1141100</v>
+      </c>
+      <c r="K9" s="3">
         <v>846200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>830900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1077100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1216300</v>
+        <v>416300</v>
       </c>
       <c r="E10" s="3">
-        <v>903500</v>
+        <v>1076400</v>
       </c>
       <c r="F10" s="3">
-        <v>487100</v>
+        <v>799600</v>
       </c>
       <c r="G10" s="3">
-        <v>392000</v>
+        <v>431000</v>
       </c>
       <c r="H10" s="3">
-        <v>451600</v>
+        <v>346900</v>
       </c>
       <c r="I10" s="3">
-        <v>462100</v>
+        <v>399700</v>
       </c>
       <c r="J10" s="3">
+        <v>409000</v>
+      </c>
+      <c r="K10" s="3">
         <v>265800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>279500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>394500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>69400</v>
+        <v>51700</v>
       </c>
       <c r="E12" s="3">
-        <v>52500</v>
+        <v>61400</v>
       </c>
       <c r="F12" s="3">
-        <v>23200</v>
+        <v>46400</v>
       </c>
       <c r="G12" s="3">
-        <v>33200</v>
+        <v>20600</v>
       </c>
       <c r="H12" s="3">
-        <v>26600</v>
+        <v>29400</v>
       </c>
       <c r="I12" s="3">
-        <v>19800</v>
+        <v>23500</v>
       </c>
       <c r="J12" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K12" s="3">
         <v>8100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,29 +906,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>551100</v>
+        <v>-10800</v>
       </c>
       <c r="E14" s="3">
-        <v>-152400</v>
+        <v>487700</v>
       </c>
       <c r="F14" s="3">
-        <v>-77400</v>
+        <v>-134800</v>
       </c>
       <c r="G14" s="3">
-        <v>415700</v>
+        <v>-68500</v>
       </c>
       <c r="H14" s="3">
-        <v>45900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>367900</v>
+      </c>
+      <c r="I14" s="3">
+        <v>40700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -923,42 +942,48 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>93500</v>
+        <v>126800</v>
       </c>
       <c r="E15" s="3">
-        <v>50900</v>
+        <v>82700</v>
       </c>
       <c r="F15" s="3">
-        <v>25400</v>
+        <v>45000</v>
       </c>
       <c r="G15" s="3">
-        <v>23400</v>
+        <v>22400</v>
       </c>
       <c r="H15" s="3">
-        <v>13800</v>
+        <v>20700</v>
       </c>
       <c r="I15" s="3">
-        <v>13100</v>
+        <v>12200</v>
       </c>
       <c r="J15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K15" s="3">
         <v>7100</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8633200</v>
+        <v>7945200</v>
       </c>
       <c r="E17" s="3">
-        <v>4837800</v>
+        <v>7639700</v>
       </c>
       <c r="F17" s="3">
-        <v>2921400</v>
+        <v>4281100</v>
       </c>
       <c r="G17" s="3">
-        <v>2891800</v>
+        <v>2585200</v>
       </c>
       <c r="H17" s="3">
-        <v>1722000</v>
+        <v>2559100</v>
       </c>
       <c r="I17" s="3">
-        <v>1507900</v>
+        <v>1523900</v>
       </c>
       <c r="J17" s="3">
+        <v>1334400</v>
+      </c>
+      <c r="K17" s="3">
         <v>974300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>979700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1283400</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-259300</v>
+        <v>-637700</v>
       </c>
       <c r="E18" s="3">
-        <v>540200</v>
+        <v>-229500</v>
       </c>
       <c r="F18" s="3">
-        <v>198300</v>
+        <v>478100</v>
       </c>
       <c r="G18" s="3">
-        <v>-299200</v>
+        <v>175500</v>
       </c>
       <c r="H18" s="3">
-        <v>204700</v>
+        <v>-264800</v>
       </c>
       <c r="I18" s="3">
-        <v>243600</v>
+        <v>181100</v>
       </c>
       <c r="J18" s="3">
+        <v>215600</v>
+      </c>
+      <c r="K18" s="3">
         <v>137700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>130600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>188200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>766800</v>
+        <v>740300</v>
       </c>
       <c r="E20" s="3">
-        <v>926500</v>
+        <v>678500</v>
       </c>
       <c r="F20" s="3">
-        <v>135900</v>
+        <v>819900</v>
       </c>
       <c r="G20" s="3">
-        <v>154900</v>
+        <v>120300</v>
       </c>
       <c r="H20" s="3">
-        <v>284800</v>
+        <v>137100</v>
       </c>
       <c r="I20" s="3">
-        <v>119300</v>
+        <v>252000</v>
       </c>
       <c r="J20" s="3">
+        <v>105600</v>
+      </c>
+      <c r="K20" s="3">
         <v>86600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>36700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>37800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2471600</v>
+        <v>2211300</v>
       </c>
       <c r="E21" s="3">
-        <v>2571600</v>
+        <v>2186100</v>
       </c>
       <c r="F21" s="3">
-        <v>1006600</v>
+        <v>2275100</v>
       </c>
       <c r="G21" s="3">
-        <v>418100</v>
+        <v>890400</v>
       </c>
       <c r="H21" s="3">
-        <v>823600</v>
+        <v>369700</v>
       </c>
       <c r="I21" s="3">
-        <v>615300</v>
+        <v>728600</v>
       </c>
       <c r="J21" s="3">
+        <v>544400</v>
+      </c>
+      <c r="K21" s="3">
         <v>365800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>304500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400300</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>594000</v>
+        <v>718800</v>
       </c>
       <c r="E22" s="3">
-        <v>354400</v>
+        <v>525600</v>
       </c>
       <c r="F22" s="3">
-        <v>226900</v>
+        <v>313600</v>
       </c>
       <c r="G22" s="3">
-        <v>223500</v>
+        <v>200800</v>
       </c>
       <c r="H22" s="3">
-        <v>130900</v>
+        <v>197800</v>
       </c>
       <c r="I22" s="3">
-        <v>90500</v>
+        <v>115800</v>
       </c>
       <c r="J22" s="3">
+        <v>80100</v>
+      </c>
+      <c r="K22" s="3">
         <v>47300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>27400</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-86500</v>
+        <v>-616200</v>
       </c>
       <c r="E23" s="3">
-        <v>1112400</v>
+        <v>-76500</v>
       </c>
       <c r="F23" s="3">
-        <v>107400</v>
+        <v>984400</v>
       </c>
       <c r="G23" s="3">
-        <v>-367800</v>
+        <v>95000</v>
       </c>
       <c r="H23" s="3">
-        <v>358600</v>
+        <v>-325500</v>
       </c>
       <c r="I23" s="3">
-        <v>272400</v>
+        <v>317400</v>
       </c>
       <c r="J23" s="3">
+        <v>241000</v>
+      </c>
+      <c r="K23" s="3">
         <v>177100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>141600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>198600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>268600</v>
+        <v>159300</v>
       </c>
       <c r="E24" s="3">
-        <v>636000</v>
+        <v>237700</v>
       </c>
       <c r="F24" s="3">
-        <v>-49000</v>
+        <v>562800</v>
       </c>
       <c r="G24" s="3">
-        <v>-17600</v>
+        <v>-43300</v>
       </c>
       <c r="H24" s="3">
-        <v>304000</v>
+        <v>-15600</v>
       </c>
       <c r="I24" s="3">
-        <v>163200</v>
+        <v>269000</v>
       </c>
       <c r="J24" s="3">
+        <v>144400</v>
+      </c>
+      <c r="K24" s="3">
         <v>114400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>77100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>82200</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-355100</v>
+        <v>-775500</v>
       </c>
       <c r="E26" s="3">
-        <v>476400</v>
+        <v>-314200</v>
       </c>
       <c r="F26" s="3">
-        <v>156400</v>
+        <v>421600</v>
       </c>
       <c r="G26" s="3">
-        <v>-350200</v>
+        <v>138400</v>
       </c>
       <c r="H26" s="3">
-        <v>54600</v>
+        <v>-309900</v>
       </c>
       <c r="I26" s="3">
-        <v>109200</v>
+        <v>48300</v>
       </c>
       <c r="J26" s="3">
+        <v>96600</v>
+      </c>
+      <c r="K26" s="3">
         <v>62700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>64500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>116400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-363600</v>
+        <v>-760600</v>
       </c>
       <c r="E27" s="3">
-        <v>476500</v>
+        <v>-321800</v>
       </c>
       <c r="F27" s="3">
-        <v>152300</v>
+        <v>421700</v>
       </c>
       <c r="G27" s="3">
-        <v>-348400</v>
+        <v>134800</v>
       </c>
       <c r="H27" s="3">
-        <v>56500</v>
+        <v>-308300</v>
       </c>
       <c r="I27" s="3">
-        <v>111100</v>
+        <v>50000</v>
       </c>
       <c r="J27" s="3">
+        <v>98300</v>
+      </c>
+      <c r="K27" s="3">
         <v>63200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>64500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>101000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,17 +1403,20 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-56800</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-50300</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1373,15 +1433,18 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-766800</v>
+        <v>-740300</v>
       </c>
       <c r="E32" s="3">
-        <v>-926500</v>
+        <v>-678500</v>
       </c>
       <c r="F32" s="3">
-        <v>-135900</v>
+        <v>-819900</v>
       </c>
       <c r="G32" s="3">
-        <v>-154900</v>
+        <v>-120300</v>
       </c>
       <c r="H32" s="3">
-        <v>-284800</v>
+        <v>-137100</v>
       </c>
       <c r="I32" s="3">
-        <v>-119300</v>
+        <v>-252000</v>
       </c>
       <c r="J32" s="3">
+        <v>-105600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-86600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-36700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-37800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-420400</v>
+        <v>-760600</v>
       </c>
       <c r="E33" s="3">
-        <v>476500</v>
+        <v>-372100</v>
       </c>
       <c r="F33" s="3">
-        <v>152300</v>
+        <v>421700</v>
       </c>
       <c r="G33" s="3">
-        <v>-348400</v>
+        <v>134800</v>
       </c>
       <c r="H33" s="3">
-        <v>56500</v>
+        <v>-308300</v>
       </c>
       <c r="I33" s="3">
-        <v>111100</v>
+        <v>50000</v>
       </c>
       <c r="J33" s="3">
+        <v>98300</v>
+      </c>
+      <c r="K33" s="3">
         <v>63200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>64500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>101000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-420400</v>
+        <v>-760600</v>
       </c>
       <c r="E35" s="3">
-        <v>476500</v>
+        <v>-372100</v>
       </c>
       <c r="F35" s="3">
-        <v>152300</v>
+        <v>421700</v>
       </c>
       <c r="G35" s="3">
-        <v>-348400</v>
+        <v>134800</v>
       </c>
       <c r="H35" s="3">
-        <v>56500</v>
+        <v>-308300</v>
       </c>
       <c r="I35" s="3">
-        <v>111100</v>
+        <v>50000</v>
       </c>
       <c r="J35" s="3">
+        <v>98300</v>
+      </c>
+      <c r="K35" s="3">
         <v>63200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>64500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>101000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>728800</v>
+        <v>218700</v>
       </c>
       <c r="E41" s="3">
-        <v>471800</v>
+        <v>645000</v>
       </c>
       <c r="F41" s="3">
-        <v>119500</v>
+        <v>417500</v>
       </c>
       <c r="G41" s="3">
-        <v>98100</v>
+        <v>105800</v>
       </c>
       <c r="H41" s="3">
-        <v>180300</v>
+        <v>86800</v>
       </c>
       <c r="I41" s="3">
-        <v>101500</v>
+        <v>159600</v>
       </c>
       <c r="J41" s="3">
+        <v>89800</v>
+      </c>
+      <c r="K41" s="3">
         <v>55900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>64000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23200</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>190100</v>
+        <v>693600</v>
       </c>
       <c r="E42" s="3">
-        <v>231200</v>
+        <v>168300</v>
       </c>
       <c r="F42" s="3">
-        <v>394700</v>
+        <v>204600</v>
       </c>
       <c r="G42" s="3">
-        <v>127800</v>
+        <v>349300</v>
       </c>
       <c r="H42" s="3">
-        <v>19500</v>
+        <v>113100</v>
       </c>
       <c r="I42" s="3">
-        <v>18900</v>
+        <v>17200</v>
       </c>
       <c r="J42" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K42" s="3">
         <v>76300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5900</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1874400</v>
+        <v>1518000</v>
       </c>
       <c r="E43" s="3">
-        <v>1139100</v>
+        <v>1658700</v>
       </c>
       <c r="F43" s="3">
-        <v>646600</v>
+        <v>1008000</v>
       </c>
       <c r="G43" s="3">
-        <v>572600</v>
+        <v>572200</v>
       </c>
       <c r="H43" s="3">
-        <v>504000</v>
+        <v>506700</v>
       </c>
       <c r="I43" s="3">
-        <v>233100</v>
+        <v>446000</v>
       </c>
       <c r="J43" s="3">
+        <v>206300</v>
+      </c>
+      <c r="K43" s="3">
         <v>165700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>110400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>157300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>993100</v>
+        <v>1093500</v>
       </c>
       <c r="E44" s="3">
-        <v>663200</v>
+        <v>878800</v>
       </c>
       <c r="F44" s="3">
-        <v>336800</v>
+        <v>586900</v>
       </c>
       <c r="G44" s="3">
-        <v>269300</v>
+        <v>298000</v>
       </c>
       <c r="H44" s="3">
-        <v>237600</v>
+        <v>238300</v>
       </c>
       <c r="I44" s="3">
-        <v>160400</v>
+        <v>210300</v>
       </c>
       <c r="J44" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K44" s="3">
         <v>121900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>114400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>157200</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31800</v>
+        <v>53200</v>
       </c>
       <c r="E45" s="3">
-        <v>66600</v>
+        <v>28100</v>
       </c>
       <c r="F45" s="3">
-        <v>11500</v>
+        <v>58900</v>
       </c>
       <c r="G45" s="3">
-        <v>8700</v>
+        <v>10200</v>
       </c>
       <c r="H45" s="3">
-        <v>8400</v>
+        <v>7700</v>
       </c>
       <c r="I45" s="3">
-        <v>5600</v>
+        <v>7400</v>
       </c>
       <c r="J45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K45" s="3">
         <v>6000</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3818300</v>
+        <v>3577100</v>
       </c>
       <c r="E46" s="3">
-        <v>2571800</v>
+        <v>3378900</v>
       </c>
       <c r="F46" s="3">
-        <v>1509200</v>
+        <v>2275900</v>
       </c>
       <c r="G46" s="3">
-        <v>1076400</v>
+        <v>1335500</v>
       </c>
       <c r="H46" s="3">
-        <v>949800</v>
+        <v>952500</v>
       </c>
       <c r="I46" s="3">
-        <v>519500</v>
+        <v>840500</v>
       </c>
       <c r="J46" s="3">
+        <v>459700</v>
+      </c>
+      <c r="K46" s="3">
         <v>425900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>303300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>346100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1161200</v>
+        <v>1392300</v>
       </c>
       <c r="E47" s="3">
-        <v>809100</v>
+        <v>1027600</v>
       </c>
       <c r="F47" s="3">
-        <v>116100</v>
+        <v>716000</v>
       </c>
       <c r="G47" s="3">
-        <v>210300</v>
+        <v>102700</v>
       </c>
       <c r="H47" s="3">
-        <v>84200</v>
+        <v>186100</v>
       </c>
       <c r="I47" s="3">
-        <v>74200</v>
+        <v>74500</v>
       </c>
       <c r="J47" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K47" s="3">
         <v>63000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>51100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>76400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13949200</v>
+        <v>15545800</v>
       </c>
       <c r="E48" s="3">
-        <v>8626700</v>
+        <v>12344000</v>
       </c>
       <c r="F48" s="3">
-        <v>4373800</v>
+        <v>7634000</v>
       </c>
       <c r="G48" s="3">
-        <v>3800900</v>
+        <v>3870500</v>
       </c>
       <c r="H48" s="3">
-        <v>3343000</v>
+        <v>3363500</v>
       </c>
       <c r="I48" s="3">
-        <v>1936500</v>
+        <v>2958300</v>
       </c>
       <c r="J48" s="3">
+        <v>1713700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1153700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>941700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1139400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>458800</v>
+        <v>427200</v>
       </c>
       <c r="E49" s="3">
-        <v>251800</v>
+        <v>406000</v>
       </c>
       <c r="F49" s="3">
-        <v>123100</v>
+        <v>222800</v>
       </c>
       <c r="G49" s="3">
-        <v>100100</v>
+        <v>108900</v>
       </c>
       <c r="H49" s="3">
-        <v>89800</v>
+        <v>88600</v>
       </c>
       <c r="I49" s="3">
-        <v>54200</v>
+        <v>79500</v>
       </c>
       <c r="J49" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K49" s="3">
         <v>30200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>34000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27000</v>
+        <v>59300</v>
       </c>
       <c r="E52" s="3">
-        <v>6700</v>
+        <v>23900</v>
       </c>
       <c r="F52" s="3">
-        <v>118400</v>
+        <v>5900</v>
       </c>
       <c r="G52" s="3">
-        <v>9100</v>
+        <v>104700</v>
       </c>
       <c r="H52" s="3">
-        <v>18100</v>
+        <v>8100</v>
       </c>
       <c r="I52" s="3">
-        <v>10000</v>
+        <v>16100</v>
       </c>
       <c r="J52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19414400</v>
+        <v>21001600</v>
       </c>
       <c r="E54" s="3">
-        <v>12266200</v>
+        <v>17180300</v>
       </c>
       <c r="F54" s="3">
-        <v>6240600</v>
+        <v>10854700</v>
       </c>
       <c r="G54" s="3">
-        <v>5196900</v>
+        <v>5522400</v>
       </c>
       <c r="H54" s="3">
-        <v>4485000</v>
+        <v>4598800</v>
       </c>
       <c r="I54" s="3">
-        <v>2573600</v>
+        <v>3968900</v>
       </c>
       <c r="J54" s="3">
+        <v>2277400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1673200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1321600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1596700</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1800900</v>
+        <v>1495300</v>
       </c>
       <c r="E57" s="3">
-        <v>1005100</v>
+        <v>1593700</v>
       </c>
       <c r="F57" s="3">
-        <v>551000</v>
+        <v>889400</v>
       </c>
       <c r="G57" s="3">
-        <v>501800</v>
+        <v>487600</v>
       </c>
       <c r="H57" s="3">
-        <v>477600</v>
+        <v>444100</v>
       </c>
       <c r="I57" s="3">
-        <v>352000</v>
+        <v>422600</v>
       </c>
       <c r="J57" s="3">
+        <v>311500</v>
+      </c>
+      <c r="K57" s="3">
         <v>250700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>212500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>293100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1585700</v>
+        <v>1887300</v>
       </c>
       <c r="E58" s="3">
-        <v>800000</v>
+        <v>1403200</v>
       </c>
       <c r="F58" s="3">
-        <v>485400</v>
+        <v>707900</v>
       </c>
       <c r="G58" s="3">
-        <v>330400</v>
+        <v>429500</v>
       </c>
       <c r="H58" s="3">
-        <v>343300</v>
+        <v>292400</v>
       </c>
       <c r="I58" s="3">
-        <v>163800</v>
+        <v>303800</v>
       </c>
       <c r="J58" s="3">
+        <v>145000</v>
+      </c>
+      <c r="K58" s="3">
         <v>108800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>82700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>203200</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>498900</v>
+        <v>665100</v>
       </c>
       <c r="E59" s="3">
-        <v>403400</v>
+        <v>441500</v>
       </c>
       <c r="F59" s="3">
-        <v>231300</v>
+        <v>357000</v>
       </c>
       <c r="G59" s="3">
-        <v>185400</v>
+        <v>204700</v>
       </c>
       <c r="H59" s="3">
-        <v>163800</v>
+        <v>164000</v>
       </c>
       <c r="I59" s="3">
-        <v>157400</v>
+        <v>144900</v>
       </c>
       <c r="J59" s="3">
+        <v>139300</v>
+      </c>
+      <c r="K59" s="3">
         <v>45400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>63100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3885500</v>
+        <v>4047700</v>
       </c>
       <c r="E60" s="3">
-        <v>2208500</v>
+        <v>3438400</v>
       </c>
       <c r="F60" s="3">
-        <v>1267700</v>
+        <v>1954300</v>
       </c>
       <c r="G60" s="3">
-        <v>1017600</v>
+        <v>1121900</v>
       </c>
       <c r="H60" s="3">
-        <v>984600</v>
+        <v>900500</v>
       </c>
       <c r="I60" s="3">
-        <v>658500</v>
+        <v>871300</v>
       </c>
       <c r="J60" s="3">
+        <v>582800</v>
+      </c>
+      <c r="K60" s="3">
         <v>404900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>346000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>549000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5676900</v>
+        <v>6025100</v>
       </c>
       <c r="E61" s="3">
-        <v>3334900</v>
+        <v>5023700</v>
       </c>
       <c r="F61" s="3">
-        <v>1872300</v>
+        <v>2951200</v>
       </c>
       <c r="G61" s="3">
-        <v>1574200</v>
+        <v>1656900</v>
       </c>
       <c r="H61" s="3">
-        <v>961700</v>
+        <v>1393000</v>
       </c>
       <c r="I61" s="3">
-        <v>444600</v>
+        <v>851000</v>
       </c>
       <c r="J61" s="3">
+        <v>393400</v>
+      </c>
+      <c r="K61" s="3">
         <v>284800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>116100</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3088400</v>
+        <v>3466200</v>
       </c>
       <c r="E62" s="3">
-        <v>2251300</v>
+        <v>2733000</v>
       </c>
       <c r="F62" s="3">
-        <v>1166500</v>
+        <v>1992200</v>
       </c>
       <c r="G62" s="3">
-        <v>1140800</v>
+        <v>1032300</v>
       </c>
       <c r="H62" s="3">
-        <v>1052200</v>
+        <v>1009500</v>
       </c>
       <c r="I62" s="3">
-        <v>900100</v>
+        <v>931100</v>
       </c>
       <c r="J62" s="3">
+        <v>796500</v>
+      </c>
+      <c r="K62" s="3">
         <v>388400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>258800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>384500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12719300</v>
+        <v>13606300</v>
       </c>
       <c r="E66" s="3">
-        <v>7833600</v>
+        <v>11255700</v>
       </c>
       <c r="F66" s="3">
-        <v>4361200</v>
+        <v>6932200</v>
       </c>
       <c r="G66" s="3">
-        <v>3731400</v>
+        <v>3859400</v>
       </c>
       <c r="H66" s="3">
-        <v>2999100</v>
+        <v>3302000</v>
       </c>
       <c r="I66" s="3">
-        <v>1677300</v>
+        <v>2654000</v>
       </c>
       <c r="J66" s="3">
+        <v>1484300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1080700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>804800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>983600</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-358600</v>
+        <v>-692200</v>
       </c>
       <c r="E72" s="3">
-        <v>500300</v>
+        <v>-317400</v>
       </c>
       <c r="F72" s="3">
-        <v>178300</v>
+        <v>442700</v>
       </c>
       <c r="G72" s="3">
-        <v>-272500</v>
+        <v>157800</v>
       </c>
       <c r="H72" s="3">
-        <v>131900</v>
+        <v>-241100</v>
       </c>
       <c r="I72" s="3">
-        <v>185300</v>
+        <v>116700</v>
       </c>
       <c r="J72" s="3">
+        <v>163900</v>
+      </c>
+      <c r="K72" s="3">
         <v>133100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>144600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>284900</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6695100</v>
+        <v>7395400</v>
       </c>
       <c r="E76" s="3">
-        <v>4432500</v>
+        <v>5924600</v>
       </c>
       <c r="F76" s="3">
-        <v>1879300</v>
+        <v>3922500</v>
       </c>
       <c r="G76" s="3">
-        <v>1465400</v>
+        <v>1663100</v>
       </c>
       <c r="H76" s="3">
-        <v>1485900</v>
+        <v>1296800</v>
       </c>
       <c r="I76" s="3">
-        <v>896300</v>
+        <v>1314900</v>
       </c>
       <c r="J76" s="3">
+        <v>793100</v>
+      </c>
+      <c r="K76" s="3">
         <v>592500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>516700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>613100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-420400</v>
+        <v>-760600</v>
       </c>
       <c r="E81" s="3">
-        <v>476500</v>
+        <v>-372100</v>
       </c>
       <c r="F81" s="3">
-        <v>152300</v>
+        <v>421700</v>
       </c>
       <c r="G81" s="3">
-        <v>-348400</v>
+        <v>134800</v>
       </c>
       <c r="H81" s="3">
-        <v>56500</v>
+        <v>-308300</v>
       </c>
       <c r="I81" s="3">
-        <v>111100</v>
+        <v>50000</v>
       </c>
       <c r="J81" s="3">
+        <v>98300</v>
+      </c>
+      <c r="K81" s="3">
         <v>63200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>64500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>101000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1959300</v>
+        <v>2104900</v>
       </c>
       <c r="E83" s="3">
-        <v>1102200</v>
+        <v>1733800</v>
       </c>
       <c r="F83" s="3">
-        <v>670700</v>
+        <v>975400</v>
       </c>
       <c r="G83" s="3">
-        <v>561100</v>
+        <v>593500</v>
       </c>
       <c r="H83" s="3">
-        <v>333300</v>
+        <v>496500</v>
       </c>
       <c r="I83" s="3">
-        <v>251800</v>
+        <v>294900</v>
       </c>
       <c r="J83" s="3">
+        <v>222800</v>
+      </c>
+      <c r="K83" s="3">
         <v>141100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>136900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>170100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2679500</v>
+        <v>2284600</v>
       </c>
       <c r="E89" s="3">
-        <v>1543200</v>
+        <v>2371100</v>
       </c>
       <c r="F89" s="3">
-        <v>887400</v>
+        <v>1365600</v>
       </c>
       <c r="G89" s="3">
-        <v>605100</v>
+        <v>785300</v>
       </c>
       <c r="H89" s="3">
-        <v>510900</v>
+        <v>535500</v>
       </c>
       <c r="I89" s="3">
-        <v>569500</v>
+        <v>452100</v>
       </c>
       <c r="J89" s="3">
+        <v>504000</v>
+      </c>
+      <c r="K89" s="3">
         <v>258700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>286000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>332100</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1992400</v>
+        <v>-1251600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1089500</v>
+        <v>-1763100</v>
       </c>
       <c r="F91" s="3">
-        <v>-735700</v>
+        <v>-964200</v>
       </c>
       <c r="G91" s="3">
-        <v>-791700</v>
+        <v>-651000</v>
       </c>
       <c r="H91" s="3">
-        <v>-787000</v>
+        <v>-700600</v>
       </c>
       <c r="I91" s="3">
-        <v>-619600</v>
+        <v>-696400</v>
       </c>
       <c r="J91" s="3">
+        <v>-548300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-341100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-271100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-318200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2022300</v>
+        <v>-1192000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1015000</v>
+        <v>-1789600</v>
       </c>
       <c r="F94" s="3">
-        <v>-681700</v>
+        <v>-898200</v>
       </c>
       <c r="G94" s="3">
-        <v>-816600</v>
+        <v>-603200</v>
       </c>
       <c r="H94" s="3">
-        <v>-790400</v>
+        <v>-722600</v>
       </c>
       <c r="I94" s="3">
-        <v>-659000</v>
+        <v>-699400</v>
       </c>
       <c r="J94" s="3">
+        <v>-583200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-274000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-271100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-318300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-14800</v>
+        <v>-25100</v>
       </c>
       <c r="F96" s="3">
-        <v>-8800</v>
+        <v>-13100</v>
       </c>
       <c r="G96" s="3">
-        <v>-11000</v>
+        <v>-7800</v>
       </c>
       <c r="H96" s="3">
-        <v>-6200</v>
+        <v>-9700</v>
       </c>
       <c r="I96" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="J96" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-5000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-145700</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-692100</v>
+        <v>-1322500</v>
       </c>
       <c r="E100" s="3">
-        <v>-538700</v>
+        <v>-612400</v>
       </c>
       <c r="F100" s="3">
-        <v>-4400</v>
+        <v>-476700</v>
       </c>
       <c r="G100" s="3">
-        <v>133500</v>
+        <v>-3900</v>
       </c>
       <c r="H100" s="3">
-        <v>292000</v>
+        <v>118100</v>
       </c>
       <c r="I100" s="3">
-        <v>61500</v>
+        <v>258400</v>
       </c>
       <c r="J100" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K100" s="3">
         <v>86100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>43900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-48300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>282500</v>
+        <v>104600</v>
       </c>
       <c r="E101" s="3">
-        <v>223800</v>
+        <v>250000</v>
       </c>
       <c r="F101" s="3">
-        <v>20500</v>
+        <v>198100</v>
       </c>
       <c r="G101" s="3">
-        <v>20900</v>
+        <v>18200</v>
       </c>
       <c r="H101" s="3">
-        <v>56900</v>
+        <v>18500</v>
       </c>
       <c r="I101" s="3">
-        <v>16200</v>
+        <v>50300</v>
       </c>
       <c r="J101" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K101" s="3">
         <v>2800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>247700</v>
+        <v>-125400</v>
       </c>
       <c r="E102" s="3">
-        <v>213400</v>
+        <v>219200</v>
       </c>
       <c r="F102" s="3">
-        <v>221900</v>
+        <v>188800</v>
       </c>
       <c r="G102" s="3">
-        <v>-57100</v>
+        <v>196400</v>
       </c>
       <c r="H102" s="3">
-        <v>69500</v>
+        <v>-50600</v>
       </c>
       <c r="I102" s="3">
-        <v>-11800</v>
+        <v>61500</v>
       </c>
       <c r="J102" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K102" s="3">
         <v>73600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>60100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-31800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7307500</v>
+        <v>7100100</v>
       </c>
       <c r="E8" s="3">
-        <v>7410300</v>
+        <v>7199900</v>
       </c>
       <c r="F8" s="3">
-        <v>4759200</v>
+        <v>4624100</v>
       </c>
       <c r="G8" s="3">
-        <v>2760700</v>
+        <v>2682300</v>
       </c>
       <c r="H8" s="3">
-        <v>2294300</v>
+        <v>2229200</v>
       </c>
       <c r="I8" s="3">
-        <v>1705000</v>
+        <v>1656600</v>
       </c>
       <c r="J8" s="3">
-        <v>1550000</v>
+        <v>1506000</v>
       </c>
       <c r="K8" s="3">
         <v>1112000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6891200</v>
+        <v>6695600</v>
       </c>
       <c r="E9" s="3">
-        <v>6333900</v>
+        <v>6154100</v>
       </c>
       <c r="F9" s="3">
-        <v>3959600</v>
+        <v>3847200</v>
       </c>
       <c r="G9" s="3">
-        <v>2329700</v>
+        <v>2263500</v>
       </c>
       <c r="H9" s="3">
-        <v>1947400</v>
+        <v>1892100</v>
       </c>
       <c r="I9" s="3">
-        <v>1305300</v>
+        <v>1268300</v>
       </c>
       <c r="J9" s="3">
-        <v>1141100</v>
+        <v>1108700</v>
       </c>
       <c r="K9" s="3">
         <v>846200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>416300</v>
+        <v>404500</v>
       </c>
       <c r="E10" s="3">
-        <v>1076400</v>
+        <v>1045800</v>
       </c>
       <c r="F10" s="3">
-        <v>799600</v>
+        <v>776900</v>
       </c>
       <c r="G10" s="3">
-        <v>431000</v>
+        <v>418800</v>
       </c>
       <c r="H10" s="3">
-        <v>346900</v>
+        <v>337100</v>
       </c>
       <c r="I10" s="3">
-        <v>399700</v>
+        <v>388300</v>
       </c>
       <c r="J10" s="3">
-        <v>409000</v>
+        <v>397300</v>
       </c>
       <c r="K10" s="3">
         <v>265800</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>51700</v>
+        <v>12100</v>
       </c>
       <c r="E12" s="3">
-        <v>61400</v>
+        <v>59600</v>
       </c>
       <c r="F12" s="3">
-        <v>46400</v>
+        <v>45100</v>
       </c>
       <c r="G12" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="H12" s="3">
-        <v>29400</v>
+        <v>28600</v>
       </c>
       <c r="I12" s="3">
-        <v>23500</v>
+        <v>22800</v>
       </c>
       <c r="J12" s="3">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="K12" s="3">
         <v>8100</v>
@@ -916,22 +916,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="E14" s="3">
-        <v>487700</v>
+        <v>473800</v>
       </c>
       <c r="F14" s="3">
-        <v>-134800</v>
+        <v>-131000</v>
       </c>
       <c r="G14" s="3">
-        <v>-68500</v>
+        <v>-66500</v>
       </c>
       <c r="H14" s="3">
-        <v>367900</v>
+        <v>357500</v>
       </c>
       <c r="I14" s="3">
-        <v>40700</v>
+        <v>39500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>126800</v>
+        <v>123200</v>
       </c>
       <c r="E15" s="3">
-        <v>82700</v>
+        <v>80400</v>
       </c>
       <c r="F15" s="3">
-        <v>45000</v>
+        <v>43700</v>
       </c>
       <c r="G15" s="3">
-        <v>22400</v>
+        <v>21800</v>
       </c>
       <c r="H15" s="3">
-        <v>20700</v>
+        <v>20100</v>
       </c>
       <c r="I15" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="J15" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="K15" s="3">
         <v>7100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7945200</v>
+        <v>7719700</v>
       </c>
       <c r="E17" s="3">
-        <v>7639700</v>
+        <v>7422800</v>
       </c>
       <c r="F17" s="3">
-        <v>4281100</v>
+        <v>4159500</v>
       </c>
       <c r="G17" s="3">
-        <v>2585200</v>
+        <v>2511800</v>
       </c>
       <c r="H17" s="3">
-        <v>2559100</v>
+        <v>2486400</v>
       </c>
       <c r="I17" s="3">
-        <v>1523900</v>
+        <v>1480600</v>
       </c>
       <c r="J17" s="3">
-        <v>1334400</v>
+        <v>1296500</v>
       </c>
       <c r="K17" s="3">
         <v>974300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-637700</v>
+        <v>-619600</v>
       </c>
       <c r="E18" s="3">
-        <v>-229500</v>
+        <v>-222900</v>
       </c>
       <c r="F18" s="3">
-        <v>478100</v>
+        <v>464500</v>
       </c>
       <c r="G18" s="3">
-        <v>175500</v>
+        <v>170500</v>
       </c>
       <c r="H18" s="3">
-        <v>-264800</v>
+        <v>-257300</v>
       </c>
       <c r="I18" s="3">
-        <v>181100</v>
+        <v>176000</v>
       </c>
       <c r="J18" s="3">
-        <v>215600</v>
+        <v>209500</v>
       </c>
       <c r="K18" s="3">
         <v>137700</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>740300</v>
+        <v>719300</v>
       </c>
       <c r="E20" s="3">
-        <v>678500</v>
+        <v>659300</v>
       </c>
       <c r="F20" s="3">
-        <v>819900</v>
+        <v>796600</v>
       </c>
       <c r="G20" s="3">
-        <v>120300</v>
+        <v>116900</v>
       </c>
       <c r="H20" s="3">
-        <v>137100</v>
+        <v>133200</v>
       </c>
       <c r="I20" s="3">
-        <v>252000</v>
+        <v>244900</v>
       </c>
       <c r="J20" s="3">
-        <v>105600</v>
+        <v>102600</v>
       </c>
       <c r="K20" s="3">
         <v>86600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2211300</v>
+        <v>2148600</v>
       </c>
       <c r="E21" s="3">
-        <v>2186100</v>
+        <v>2124100</v>
       </c>
       <c r="F21" s="3">
-        <v>2275100</v>
+        <v>2210600</v>
       </c>
       <c r="G21" s="3">
-        <v>890400</v>
+        <v>865100</v>
       </c>
       <c r="H21" s="3">
-        <v>369700</v>
+        <v>359300</v>
       </c>
       <c r="I21" s="3">
-        <v>728600</v>
+        <v>708000</v>
       </c>
       <c r="J21" s="3">
-        <v>544400</v>
+        <v>528900</v>
       </c>
       <c r="K21" s="3">
         <v>365800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>718800</v>
+        <v>698400</v>
       </c>
       <c r="E22" s="3">
-        <v>525600</v>
+        <v>510700</v>
       </c>
       <c r="F22" s="3">
-        <v>313600</v>
+        <v>304700</v>
       </c>
       <c r="G22" s="3">
-        <v>200800</v>
+        <v>195100</v>
       </c>
       <c r="H22" s="3">
-        <v>197800</v>
+        <v>192100</v>
       </c>
       <c r="I22" s="3">
-        <v>115800</v>
+        <v>112500</v>
       </c>
       <c r="J22" s="3">
-        <v>80100</v>
+        <v>77800</v>
       </c>
       <c r="K22" s="3">
         <v>47300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-616200</v>
+        <v>-598700</v>
       </c>
       <c r="E23" s="3">
-        <v>-76500</v>
+        <v>-74400</v>
       </c>
       <c r="F23" s="3">
-        <v>984400</v>
+        <v>956400</v>
       </c>
       <c r="G23" s="3">
-        <v>95000</v>
+        <v>92300</v>
       </c>
       <c r="H23" s="3">
-        <v>-325500</v>
+        <v>-316200</v>
       </c>
       <c r="I23" s="3">
-        <v>317400</v>
+        <v>308400</v>
       </c>
       <c r="J23" s="3">
-        <v>241000</v>
+        <v>234200</v>
       </c>
       <c r="K23" s="3">
         <v>177100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>159300</v>
+        <v>154800</v>
       </c>
       <c r="E24" s="3">
-        <v>237700</v>
+        <v>230900</v>
       </c>
       <c r="F24" s="3">
-        <v>562800</v>
+        <v>546800</v>
       </c>
       <c r="G24" s="3">
-        <v>-43300</v>
+        <v>-42100</v>
       </c>
       <c r="H24" s="3">
-        <v>-15600</v>
+        <v>-15100</v>
       </c>
       <c r="I24" s="3">
-        <v>269000</v>
+        <v>261400</v>
       </c>
       <c r="J24" s="3">
-        <v>144400</v>
+        <v>140300</v>
       </c>
       <c r="K24" s="3">
         <v>114400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-775500</v>
+        <v>-753500</v>
       </c>
       <c r="E26" s="3">
-        <v>-314200</v>
+        <v>-305300</v>
       </c>
       <c r="F26" s="3">
-        <v>421600</v>
+        <v>409600</v>
       </c>
       <c r="G26" s="3">
-        <v>138400</v>
+        <v>134400</v>
       </c>
       <c r="H26" s="3">
-        <v>-309900</v>
+        <v>-301100</v>
       </c>
       <c r="I26" s="3">
-        <v>48300</v>
+        <v>47000</v>
       </c>
       <c r="J26" s="3">
-        <v>96600</v>
+        <v>93900</v>
       </c>
       <c r="K26" s="3">
         <v>62700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-760600</v>
+        <v>-739000</v>
       </c>
       <c r="E27" s="3">
-        <v>-321800</v>
+        <v>-312600</v>
       </c>
       <c r="F27" s="3">
-        <v>421700</v>
+        <v>409700</v>
       </c>
       <c r="G27" s="3">
-        <v>134800</v>
+        <v>130900</v>
       </c>
       <c r="H27" s="3">
-        <v>-308300</v>
+        <v>-299600</v>
       </c>
       <c r="I27" s="3">
-        <v>50000</v>
+        <v>48600</v>
       </c>
       <c r="J27" s="3">
-        <v>98300</v>
+        <v>95500</v>
       </c>
       <c r="K27" s="3">
         <v>63200</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-50300</v>
+        <v>-48800</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-740300</v>
+        <v>-719300</v>
       </c>
       <c r="E32" s="3">
-        <v>-678500</v>
+        <v>-659300</v>
       </c>
       <c r="F32" s="3">
-        <v>-819900</v>
+        <v>-796600</v>
       </c>
       <c r="G32" s="3">
-        <v>-120300</v>
+        <v>-116900</v>
       </c>
       <c r="H32" s="3">
-        <v>-137100</v>
+        <v>-133200</v>
       </c>
       <c r="I32" s="3">
-        <v>-252000</v>
+        <v>-244900</v>
       </c>
       <c r="J32" s="3">
-        <v>-105600</v>
+        <v>-102600</v>
       </c>
       <c r="K32" s="3">
         <v>-86600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-760600</v>
+        <v>-739000</v>
       </c>
       <c r="E33" s="3">
-        <v>-372100</v>
+        <v>-361500</v>
       </c>
       <c r="F33" s="3">
-        <v>421700</v>
+        <v>409700</v>
       </c>
       <c r="G33" s="3">
-        <v>134800</v>
+        <v>130900</v>
       </c>
       <c r="H33" s="3">
-        <v>-308300</v>
+        <v>-299600</v>
       </c>
       <c r="I33" s="3">
-        <v>50000</v>
+        <v>48600</v>
       </c>
       <c r="J33" s="3">
-        <v>98300</v>
+        <v>95500</v>
       </c>
       <c r="K33" s="3">
         <v>63200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-760600</v>
+        <v>-739000</v>
       </c>
       <c r="E35" s="3">
-        <v>-372100</v>
+        <v>-361500</v>
       </c>
       <c r="F35" s="3">
-        <v>421700</v>
+        <v>409700</v>
       </c>
       <c r="G35" s="3">
-        <v>134800</v>
+        <v>130900</v>
       </c>
       <c r="H35" s="3">
-        <v>-308300</v>
+        <v>-299600</v>
       </c>
       <c r="I35" s="3">
-        <v>50000</v>
+        <v>48600</v>
       </c>
       <c r="J35" s="3">
-        <v>98300</v>
+        <v>95500</v>
       </c>
       <c r="K35" s="3">
         <v>63200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>218700</v>
+        <v>212500</v>
       </c>
       <c r="E41" s="3">
-        <v>645000</v>
+        <v>626600</v>
       </c>
       <c r="F41" s="3">
-        <v>417500</v>
+        <v>405700</v>
       </c>
       <c r="G41" s="3">
-        <v>105800</v>
+        <v>102800</v>
       </c>
       <c r="H41" s="3">
-        <v>86800</v>
+        <v>84300</v>
       </c>
       <c r="I41" s="3">
-        <v>159600</v>
+        <v>155000</v>
       </c>
       <c r="J41" s="3">
-        <v>89800</v>
+        <v>87200</v>
       </c>
       <c r="K41" s="3">
         <v>55900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>693600</v>
+        <v>673900</v>
       </c>
       <c r="E42" s="3">
-        <v>168300</v>
+        <v>163500</v>
       </c>
       <c r="F42" s="3">
-        <v>204600</v>
+        <v>198800</v>
       </c>
       <c r="G42" s="3">
-        <v>349300</v>
+        <v>339400</v>
       </c>
       <c r="H42" s="3">
-        <v>113100</v>
+        <v>109900</v>
       </c>
       <c r="I42" s="3">
-        <v>17200</v>
+        <v>16700</v>
       </c>
       <c r="J42" s="3">
-        <v>16800</v>
+        <v>16300</v>
       </c>
       <c r="K42" s="3">
         <v>76300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1518000</v>
+        <v>1474900</v>
       </c>
       <c r="E43" s="3">
-        <v>1658700</v>
+        <v>1611600</v>
       </c>
       <c r="F43" s="3">
-        <v>1008000</v>
+        <v>979400</v>
       </c>
       <c r="G43" s="3">
-        <v>572200</v>
+        <v>556000</v>
       </c>
       <c r="H43" s="3">
-        <v>506700</v>
+        <v>492300</v>
       </c>
       <c r="I43" s="3">
-        <v>446000</v>
+        <v>433300</v>
       </c>
       <c r="J43" s="3">
-        <v>206300</v>
+        <v>200400</v>
       </c>
       <c r="K43" s="3">
         <v>165700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1093500</v>
+        <v>1062500</v>
       </c>
       <c r="E44" s="3">
-        <v>878800</v>
+        <v>853900</v>
       </c>
       <c r="F44" s="3">
-        <v>586900</v>
+        <v>570200</v>
       </c>
       <c r="G44" s="3">
-        <v>298000</v>
+        <v>289600</v>
       </c>
       <c r="H44" s="3">
-        <v>238300</v>
+        <v>231500</v>
       </c>
       <c r="I44" s="3">
-        <v>210300</v>
+        <v>204300</v>
       </c>
       <c r="J44" s="3">
-        <v>142000</v>
+        <v>137900</v>
       </c>
       <c r="K44" s="3">
         <v>121900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>53200</v>
+        <v>51600</v>
       </c>
       <c r="E45" s="3">
-        <v>28100</v>
+        <v>27300</v>
       </c>
       <c r="F45" s="3">
-        <v>58900</v>
+        <v>57300</v>
       </c>
       <c r="G45" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="H45" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="I45" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="J45" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="K45" s="3">
         <v>6000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3577100</v>
+        <v>3475500</v>
       </c>
       <c r="E46" s="3">
-        <v>3378900</v>
+        <v>3283000</v>
       </c>
       <c r="F46" s="3">
-        <v>2275900</v>
+        <v>2211300</v>
       </c>
       <c r="G46" s="3">
-        <v>1335500</v>
+        <v>1297600</v>
       </c>
       <c r="H46" s="3">
-        <v>952500</v>
+        <v>925500</v>
       </c>
       <c r="I46" s="3">
-        <v>840500</v>
+        <v>816700</v>
       </c>
       <c r="J46" s="3">
-        <v>459700</v>
+        <v>446700</v>
       </c>
       <c r="K46" s="3">
         <v>425900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1392300</v>
+        <v>1352800</v>
       </c>
       <c r="E47" s="3">
-        <v>1027600</v>
+        <v>998400</v>
       </c>
       <c r="F47" s="3">
-        <v>716000</v>
+        <v>695700</v>
       </c>
       <c r="G47" s="3">
-        <v>102700</v>
+        <v>99800</v>
       </c>
       <c r="H47" s="3">
-        <v>186100</v>
+        <v>180800</v>
       </c>
       <c r="I47" s="3">
-        <v>74500</v>
+        <v>72400</v>
       </c>
       <c r="J47" s="3">
-        <v>65600</v>
+        <v>63800</v>
       </c>
       <c r="K47" s="3">
         <v>63000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15545800</v>
+        <v>15104500</v>
       </c>
       <c r="E48" s="3">
-        <v>12344000</v>
+        <v>11993600</v>
       </c>
       <c r="F48" s="3">
-        <v>7634000</v>
+        <v>7417300</v>
       </c>
       <c r="G48" s="3">
-        <v>3870500</v>
+        <v>3760600</v>
       </c>
       <c r="H48" s="3">
-        <v>3363500</v>
+        <v>3268000</v>
       </c>
       <c r="I48" s="3">
-        <v>2958300</v>
+        <v>2874300</v>
       </c>
       <c r="J48" s="3">
-        <v>1713700</v>
+        <v>1665000</v>
       </c>
       <c r="K48" s="3">
         <v>1153700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>427200</v>
+        <v>415100</v>
       </c>
       <c r="E49" s="3">
-        <v>406000</v>
+        <v>394500</v>
       </c>
       <c r="F49" s="3">
-        <v>222800</v>
+        <v>216500</v>
       </c>
       <c r="G49" s="3">
-        <v>108900</v>
+        <v>105800</v>
       </c>
       <c r="H49" s="3">
-        <v>88600</v>
+        <v>86100</v>
       </c>
       <c r="I49" s="3">
-        <v>79500</v>
+        <v>77200</v>
       </c>
       <c r="J49" s="3">
-        <v>48000</v>
+        <v>46600</v>
       </c>
       <c r="K49" s="3">
         <v>30200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>59300</v>
+        <v>57600</v>
       </c>
       <c r="E52" s="3">
-        <v>23900</v>
+        <v>23200</v>
       </c>
       <c r="F52" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G52" s="3">
-        <v>104700</v>
+        <v>101800</v>
       </c>
       <c r="H52" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="I52" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="J52" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21001600</v>
+        <v>20405400</v>
       </c>
       <c r="E54" s="3">
-        <v>17180300</v>
+        <v>16692600</v>
       </c>
       <c r="F54" s="3">
-        <v>10854700</v>
+        <v>10546500</v>
       </c>
       <c r="G54" s="3">
-        <v>5522400</v>
+        <v>5365700</v>
       </c>
       <c r="H54" s="3">
-        <v>4598800</v>
+        <v>4468300</v>
       </c>
       <c r="I54" s="3">
-        <v>3968900</v>
+        <v>3856200</v>
       </c>
       <c r="J54" s="3">
-        <v>2277400</v>
+        <v>2212800</v>
       </c>
       <c r="K54" s="3">
         <v>1673200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1495300</v>
+        <v>1452800</v>
       </c>
       <c r="E57" s="3">
-        <v>1593700</v>
+        <v>1548400</v>
       </c>
       <c r="F57" s="3">
-        <v>889400</v>
+        <v>864200</v>
       </c>
       <c r="G57" s="3">
-        <v>487600</v>
+        <v>473800</v>
       </c>
       <c r="H57" s="3">
-        <v>444100</v>
+        <v>431500</v>
       </c>
       <c r="I57" s="3">
-        <v>422600</v>
+        <v>410600</v>
       </c>
       <c r="J57" s="3">
-        <v>311500</v>
+        <v>302600</v>
       </c>
       <c r="K57" s="3">
         <v>250700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1887300</v>
+        <v>1833700</v>
       </c>
       <c r="E58" s="3">
-        <v>1403200</v>
+        <v>1363400</v>
       </c>
       <c r="F58" s="3">
-        <v>707900</v>
+        <v>687800</v>
       </c>
       <c r="G58" s="3">
-        <v>429500</v>
+        <v>417400</v>
       </c>
       <c r="H58" s="3">
-        <v>292400</v>
+        <v>284100</v>
       </c>
       <c r="I58" s="3">
-        <v>303800</v>
+        <v>295100</v>
       </c>
       <c r="J58" s="3">
-        <v>145000</v>
+        <v>140800</v>
       </c>
       <c r="K58" s="3">
         <v>108800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>665100</v>
+        <v>646300</v>
       </c>
       <c r="E59" s="3">
-        <v>441500</v>
+        <v>429000</v>
       </c>
       <c r="F59" s="3">
-        <v>357000</v>
+        <v>346900</v>
       </c>
       <c r="G59" s="3">
-        <v>204700</v>
+        <v>198900</v>
       </c>
       <c r="H59" s="3">
-        <v>164000</v>
+        <v>159400</v>
       </c>
       <c r="I59" s="3">
-        <v>144900</v>
+        <v>140800</v>
       </c>
       <c r="J59" s="3">
-        <v>139300</v>
+        <v>135400</v>
       </c>
       <c r="K59" s="3">
         <v>45400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4047700</v>
+        <v>3932800</v>
       </c>
       <c r="E60" s="3">
-        <v>3438400</v>
+        <v>3340800</v>
       </c>
       <c r="F60" s="3">
-        <v>1954300</v>
+        <v>1898900</v>
       </c>
       <c r="G60" s="3">
-        <v>1121900</v>
+        <v>1090000</v>
       </c>
       <c r="H60" s="3">
-        <v>900500</v>
+        <v>875000</v>
       </c>
       <c r="I60" s="3">
-        <v>871300</v>
+        <v>846600</v>
       </c>
       <c r="J60" s="3">
-        <v>582800</v>
+        <v>566200</v>
       </c>
       <c r="K60" s="3">
         <v>404900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6025100</v>
+        <v>5854000</v>
       </c>
       <c r="E61" s="3">
-        <v>5023700</v>
+        <v>4881000</v>
       </c>
       <c r="F61" s="3">
-        <v>2951200</v>
+        <v>2867400</v>
       </c>
       <c r="G61" s="3">
-        <v>1656900</v>
+        <v>1609800</v>
       </c>
       <c r="H61" s="3">
-        <v>1393000</v>
+        <v>1353500</v>
       </c>
       <c r="I61" s="3">
-        <v>851000</v>
+        <v>826900</v>
       </c>
       <c r="J61" s="3">
-        <v>393400</v>
+        <v>382300</v>
       </c>
       <c r="K61" s="3">
         <v>284800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3466200</v>
+        <v>3367800</v>
       </c>
       <c r="E62" s="3">
-        <v>2733000</v>
+        <v>2655400</v>
       </c>
       <c r="F62" s="3">
-        <v>1992200</v>
+        <v>1935700</v>
       </c>
       <c r="G62" s="3">
-        <v>1032300</v>
+        <v>1003000</v>
       </c>
       <c r="H62" s="3">
-        <v>1009500</v>
+        <v>980800</v>
       </c>
       <c r="I62" s="3">
-        <v>931100</v>
+        <v>904700</v>
       </c>
       <c r="J62" s="3">
-        <v>796500</v>
+        <v>773900</v>
       </c>
       <c r="K62" s="3">
         <v>388400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13606300</v>
+        <v>13220000</v>
       </c>
       <c r="E66" s="3">
-        <v>11255700</v>
+        <v>10936200</v>
       </c>
       <c r="F66" s="3">
-        <v>6932200</v>
+        <v>6735400</v>
       </c>
       <c r="G66" s="3">
-        <v>3859400</v>
+        <v>3749800</v>
       </c>
       <c r="H66" s="3">
-        <v>3302000</v>
+        <v>3208300</v>
       </c>
       <c r="I66" s="3">
-        <v>2654000</v>
+        <v>2578700</v>
       </c>
       <c r="J66" s="3">
-        <v>1484300</v>
+        <v>1442200</v>
       </c>
       <c r="K66" s="3">
         <v>1080700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-692200</v>
+        <v>-672600</v>
       </c>
       <c r="E72" s="3">
-        <v>-317400</v>
+        <v>-308400</v>
       </c>
       <c r="F72" s="3">
-        <v>442700</v>
+        <v>430200</v>
       </c>
       <c r="G72" s="3">
-        <v>157800</v>
+        <v>153300</v>
       </c>
       <c r="H72" s="3">
-        <v>-241100</v>
+        <v>-234300</v>
       </c>
       <c r="I72" s="3">
-        <v>116700</v>
+        <v>113400</v>
       </c>
       <c r="J72" s="3">
-        <v>163900</v>
+        <v>159300</v>
       </c>
       <c r="K72" s="3">
         <v>133100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7395400</v>
+        <v>7185400</v>
       </c>
       <c r="E76" s="3">
-        <v>5924600</v>
+        <v>5756400</v>
       </c>
       <c r="F76" s="3">
-        <v>3922500</v>
+        <v>3811100</v>
       </c>
       <c r="G76" s="3">
-        <v>1663100</v>
+        <v>1615800</v>
       </c>
       <c r="H76" s="3">
-        <v>1296800</v>
+        <v>1260000</v>
       </c>
       <c r="I76" s="3">
-        <v>1314900</v>
+        <v>1277600</v>
       </c>
       <c r="J76" s="3">
-        <v>793100</v>
+        <v>770600</v>
       </c>
       <c r="K76" s="3">
         <v>592500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-760600</v>
+        <v>-739000</v>
       </c>
       <c r="E81" s="3">
-        <v>-372100</v>
+        <v>-361500</v>
       </c>
       <c r="F81" s="3">
-        <v>421700</v>
+        <v>409700</v>
       </c>
       <c r="G81" s="3">
-        <v>134800</v>
+        <v>130900</v>
       </c>
       <c r="H81" s="3">
-        <v>-308300</v>
+        <v>-299600</v>
       </c>
       <c r="I81" s="3">
-        <v>50000</v>
+        <v>48600</v>
       </c>
       <c r="J81" s="3">
-        <v>98300</v>
+        <v>95500</v>
       </c>
       <c r="K81" s="3">
         <v>63200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2104900</v>
+        <v>2045100</v>
       </c>
       <c r="E83" s="3">
-        <v>1733800</v>
+        <v>1684600</v>
       </c>
       <c r="F83" s="3">
-        <v>975400</v>
+        <v>947700</v>
       </c>
       <c r="G83" s="3">
-        <v>593500</v>
+        <v>576700</v>
       </c>
       <c r="H83" s="3">
-        <v>496500</v>
+        <v>482400</v>
       </c>
       <c r="I83" s="3">
-        <v>294900</v>
+        <v>286600</v>
       </c>
       <c r="J83" s="3">
-        <v>222800</v>
+        <v>216500</v>
       </c>
       <c r="K83" s="3">
         <v>141100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2284600</v>
+        <v>2219800</v>
       </c>
       <c r="E89" s="3">
-        <v>2371100</v>
+        <v>2303800</v>
       </c>
       <c r="F89" s="3">
-        <v>1365600</v>
+        <v>1326900</v>
       </c>
       <c r="G89" s="3">
-        <v>785300</v>
+        <v>763000</v>
       </c>
       <c r="H89" s="3">
-        <v>535500</v>
+        <v>520300</v>
       </c>
       <c r="I89" s="3">
-        <v>452100</v>
+        <v>439300</v>
       </c>
       <c r="J89" s="3">
-        <v>504000</v>
+        <v>489700</v>
       </c>
       <c r="K89" s="3">
         <v>258700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1251600</v>
+        <v>-1216100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1763100</v>
+        <v>-1713000</v>
       </c>
       <c r="F91" s="3">
-        <v>-964200</v>
+        <v>-936800</v>
       </c>
       <c r="G91" s="3">
-        <v>-651000</v>
+        <v>-632500</v>
       </c>
       <c r="H91" s="3">
-        <v>-700600</v>
+        <v>-680700</v>
       </c>
       <c r="I91" s="3">
-        <v>-696400</v>
+        <v>-676600</v>
       </c>
       <c r="J91" s="3">
-        <v>-548300</v>
+        <v>-532800</v>
       </c>
       <c r="K91" s="3">
         <v>-341100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1192000</v>
+        <v>-1158200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1789600</v>
+        <v>-1738800</v>
       </c>
       <c r="F94" s="3">
-        <v>-898200</v>
+        <v>-872700</v>
       </c>
       <c r="G94" s="3">
-        <v>-603200</v>
+        <v>-586100</v>
       </c>
       <c r="H94" s="3">
-        <v>-722600</v>
+        <v>-702100</v>
       </c>
       <c r="I94" s="3">
-        <v>-699400</v>
+        <v>-679600</v>
       </c>
       <c r="J94" s="3">
-        <v>-583200</v>
+        <v>-566600</v>
       </c>
       <c r="K94" s="3">
         <v>-274000</v>
@@ -3534,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-25100</v>
+        <v>-24400</v>
       </c>
       <c r="F96" s="3">
-        <v>-13100</v>
+        <v>-12700</v>
       </c>
       <c r="G96" s="3">
-        <v>-7800</v>
+        <v>-7600</v>
       </c>
       <c r="H96" s="3">
-        <v>-9700</v>
+        <v>-9400</v>
       </c>
       <c r="I96" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="J96" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="K96" s="3">
         <v>-4000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1322500</v>
+        <v>-1285000</v>
       </c>
       <c r="E100" s="3">
-        <v>-612400</v>
+        <v>-595000</v>
       </c>
       <c r="F100" s="3">
-        <v>-476700</v>
+        <v>-463200</v>
       </c>
       <c r="G100" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="H100" s="3">
-        <v>118100</v>
+        <v>114800</v>
       </c>
       <c r="I100" s="3">
-        <v>258400</v>
+        <v>251100</v>
       </c>
       <c r="J100" s="3">
-        <v>54400</v>
+        <v>52900</v>
       </c>
       <c r="K100" s="3">
         <v>86100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>104600</v>
+        <v>101600</v>
       </c>
       <c r="E101" s="3">
-        <v>250000</v>
+        <v>242900</v>
       </c>
       <c r="F101" s="3">
-        <v>198100</v>
+        <v>192500</v>
       </c>
       <c r="G101" s="3">
-        <v>18200</v>
+        <v>17700</v>
       </c>
       <c r="H101" s="3">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="I101" s="3">
-        <v>50300</v>
+        <v>48900</v>
       </c>
       <c r="J101" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="K101" s="3">
         <v>2800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-125400</v>
+        <v>-121800</v>
       </c>
       <c r="E102" s="3">
-        <v>219200</v>
+        <v>213000</v>
       </c>
       <c r="F102" s="3">
-        <v>188800</v>
+        <v>183400</v>
       </c>
       <c r="G102" s="3">
-        <v>196400</v>
+        <v>190800</v>
       </c>
       <c r="H102" s="3">
-        <v>-50600</v>
+        <v>-49100</v>
       </c>
       <c r="I102" s="3">
-        <v>61500</v>
+        <v>59700</v>
       </c>
       <c r="J102" s="3">
-        <v>-10400</v>
+        <v>-10100</v>
       </c>
       <c r="K102" s="3">
         <v>73600</v>

--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7100100</v>
+        <v>6879200</v>
       </c>
       <c r="E8" s="3">
-        <v>7199900</v>
+        <v>6976000</v>
       </c>
       <c r="F8" s="3">
-        <v>4624100</v>
+        <v>4480200</v>
       </c>
       <c r="G8" s="3">
-        <v>2682300</v>
+        <v>2598900</v>
       </c>
       <c r="H8" s="3">
-        <v>2229200</v>
+        <v>2159800</v>
       </c>
       <c r="I8" s="3">
-        <v>1656600</v>
+        <v>1605100</v>
       </c>
       <c r="J8" s="3">
-        <v>1506000</v>
+        <v>1459200</v>
       </c>
       <c r="K8" s="3">
         <v>1112000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6695600</v>
+        <v>6493100</v>
       </c>
       <c r="E9" s="3">
-        <v>6154100</v>
+        <v>5967800</v>
       </c>
       <c r="F9" s="3">
-        <v>3847200</v>
+        <v>3729200</v>
       </c>
       <c r="G9" s="3">
-        <v>2263500</v>
+        <v>2193100</v>
       </c>
       <c r="H9" s="3">
-        <v>1892100</v>
+        <v>1833300</v>
       </c>
       <c r="I9" s="3">
-        <v>1268300</v>
+        <v>1228800</v>
       </c>
       <c r="J9" s="3">
-        <v>1108700</v>
+        <v>1074200</v>
       </c>
       <c r="K9" s="3">
         <v>846200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>404500</v>
+        <v>386100</v>
       </c>
       <c r="E10" s="3">
-        <v>1045800</v>
+        <v>1008200</v>
       </c>
       <c r="F10" s="3">
-        <v>776900</v>
+        <v>751000</v>
       </c>
       <c r="G10" s="3">
-        <v>418800</v>
+        <v>405800</v>
       </c>
       <c r="H10" s="3">
-        <v>337100</v>
+        <v>326600</v>
       </c>
       <c r="I10" s="3">
-        <v>388300</v>
+        <v>376200</v>
       </c>
       <c r="J10" s="3">
-        <v>397300</v>
+        <v>385000</v>
       </c>
       <c r="K10" s="3">
         <v>265800</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>12100</v>
+        <v>11800</v>
       </c>
       <c r="E12" s="3">
-        <v>59600</v>
+        <v>57800</v>
       </c>
       <c r="F12" s="3">
-        <v>45100</v>
+        <v>43700</v>
       </c>
       <c r="G12" s="3">
-        <v>20000</v>
+        <v>19300</v>
       </c>
       <c r="H12" s="3">
-        <v>28600</v>
+        <v>27700</v>
       </c>
       <c r="I12" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="J12" s="3">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="K12" s="3">
         <v>8100</v>
@@ -916,22 +916,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-10500</v>
+        <v>-15900</v>
       </c>
       <c r="E14" s="3">
-        <v>473800</v>
+        <v>454000</v>
       </c>
       <c r="F14" s="3">
-        <v>-131000</v>
+        <v>-128700</v>
       </c>
       <c r="G14" s="3">
-        <v>-66500</v>
+        <v>-39000</v>
       </c>
       <c r="H14" s="3">
-        <v>357500</v>
+        <v>372100</v>
       </c>
       <c r="I14" s="3">
-        <v>39500</v>
+        <v>38300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>123200</v>
+        <v>119400</v>
       </c>
       <c r="E15" s="3">
-        <v>80400</v>
+        <v>77900</v>
       </c>
       <c r="F15" s="3">
-        <v>43700</v>
+        <v>42400</v>
       </c>
       <c r="G15" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="H15" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="I15" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="J15" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="K15" s="3">
         <v>7100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7719700</v>
+        <v>7479600</v>
       </c>
       <c r="E17" s="3">
-        <v>7422800</v>
+        <v>7192000</v>
       </c>
       <c r="F17" s="3">
-        <v>4159500</v>
+        <v>4030200</v>
       </c>
       <c r="G17" s="3">
-        <v>2511800</v>
+        <v>2433700</v>
       </c>
       <c r="H17" s="3">
-        <v>2486400</v>
+        <v>2409100</v>
       </c>
       <c r="I17" s="3">
-        <v>1480600</v>
+        <v>1434600</v>
       </c>
       <c r="J17" s="3">
-        <v>1296500</v>
+        <v>1256200</v>
       </c>
       <c r="K17" s="3">
         <v>974300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-619600</v>
+        <v>-600300</v>
       </c>
       <c r="E18" s="3">
-        <v>-222900</v>
+        <v>-216000</v>
       </c>
       <c r="F18" s="3">
-        <v>464500</v>
+        <v>450100</v>
       </c>
       <c r="G18" s="3">
+        <v>165200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-249200</v>
+      </c>
+      <c r="I18" s="3">
         <v>170500</v>
       </c>
-      <c r="H18" s="3">
-        <v>-257300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>176000</v>
-      </c>
       <c r="J18" s="3">
-        <v>209500</v>
+        <v>202900</v>
       </c>
       <c r="K18" s="3">
         <v>137700</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>719300</v>
+        <v>864900</v>
       </c>
       <c r="E20" s="3">
-        <v>659300</v>
+        <v>750200</v>
       </c>
       <c r="F20" s="3">
-        <v>796600</v>
+        <v>849500</v>
       </c>
       <c r="G20" s="3">
-        <v>116900</v>
+        <v>145800</v>
       </c>
       <c r="H20" s="3">
-        <v>133200</v>
+        <v>161500</v>
       </c>
       <c r="I20" s="3">
-        <v>244900</v>
+        <v>237300</v>
       </c>
       <c r="J20" s="3">
-        <v>102600</v>
+        <v>99400</v>
       </c>
       <c r="K20" s="3">
         <v>86600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2148600</v>
+        <v>2246000</v>
       </c>
       <c r="E21" s="3">
-        <v>2124100</v>
+        <v>2166500</v>
       </c>
       <c r="F21" s="3">
-        <v>2210600</v>
+        <v>2217700</v>
       </c>
       <c r="G21" s="3">
-        <v>865100</v>
+        <v>869800</v>
       </c>
       <c r="H21" s="3">
-        <v>359300</v>
+        <v>379700</v>
       </c>
       <c r="I21" s="3">
-        <v>708000</v>
+        <v>685400</v>
       </c>
       <c r="J21" s="3">
-        <v>528900</v>
+        <v>512100</v>
       </c>
       <c r="K21" s="3">
         <v>365800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>698400</v>
+        <v>844600</v>
       </c>
       <c r="E22" s="3">
-        <v>510700</v>
+        <v>606300</v>
       </c>
       <c r="F22" s="3">
-        <v>304700</v>
+        <v>372900</v>
       </c>
       <c r="G22" s="3">
-        <v>195100</v>
+        <v>221600</v>
       </c>
       <c r="H22" s="3">
-        <v>192100</v>
+        <v>218600</v>
       </c>
       <c r="I22" s="3">
-        <v>112500</v>
+        <v>109000</v>
       </c>
       <c r="J22" s="3">
-        <v>77800</v>
+        <v>75400</v>
       </c>
       <c r="K22" s="3">
         <v>47300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-598700</v>
+        <v>-580100</v>
       </c>
       <c r="E23" s="3">
-        <v>-74400</v>
+        <v>-72100</v>
       </c>
       <c r="F23" s="3">
-        <v>956400</v>
+        <v>926700</v>
       </c>
       <c r="G23" s="3">
-        <v>92300</v>
+        <v>89500</v>
       </c>
       <c r="H23" s="3">
-        <v>-316200</v>
+        <v>-306400</v>
       </c>
       <c r="I23" s="3">
-        <v>308400</v>
+        <v>298800</v>
       </c>
       <c r="J23" s="3">
-        <v>234200</v>
+        <v>226900</v>
       </c>
       <c r="K23" s="3">
         <v>177100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>154800</v>
+        <v>150000</v>
       </c>
       <c r="E24" s="3">
-        <v>230900</v>
+        <v>223700</v>
       </c>
       <c r="F24" s="3">
-        <v>546800</v>
+        <v>529800</v>
       </c>
       <c r="G24" s="3">
-        <v>-42100</v>
+        <v>-40800</v>
       </c>
       <c r="H24" s="3">
-        <v>-15100</v>
+        <v>-14600</v>
       </c>
       <c r="I24" s="3">
-        <v>261400</v>
+        <v>253300</v>
       </c>
       <c r="J24" s="3">
-        <v>140300</v>
+        <v>135900</v>
       </c>
       <c r="K24" s="3">
         <v>114400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-753500</v>
+        <v>-730100</v>
       </c>
       <c r="E26" s="3">
-        <v>-305300</v>
+        <v>-295800</v>
       </c>
       <c r="F26" s="3">
-        <v>409600</v>
+        <v>396900</v>
       </c>
       <c r="G26" s="3">
-        <v>134400</v>
+        <v>130300</v>
       </c>
       <c r="H26" s="3">
-        <v>-301100</v>
+        <v>-291700</v>
       </c>
       <c r="I26" s="3">
-        <v>47000</v>
+        <v>45500</v>
       </c>
       <c r="J26" s="3">
-        <v>93900</v>
+        <v>91000</v>
       </c>
       <c r="K26" s="3">
         <v>62700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-739000</v>
+        <v>-716000</v>
       </c>
       <c r="E27" s="3">
-        <v>-312600</v>
+        <v>-302900</v>
       </c>
       <c r="F27" s="3">
-        <v>409700</v>
+        <v>396900</v>
       </c>
       <c r="G27" s="3">
-        <v>130900</v>
+        <v>126900</v>
       </c>
       <c r="H27" s="3">
-        <v>-299600</v>
+        <v>-290300</v>
       </c>
       <c r="I27" s="3">
-        <v>48600</v>
+        <v>47100</v>
       </c>
       <c r="J27" s="3">
-        <v>95500</v>
+        <v>92500</v>
       </c>
       <c r="K27" s="3">
         <v>63200</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-48800</v>
+        <v>-47300</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-719300</v>
+        <v>-864900</v>
       </c>
       <c r="E32" s="3">
-        <v>-659300</v>
+        <v>-750200</v>
       </c>
       <c r="F32" s="3">
-        <v>-796600</v>
+        <v>-849500</v>
       </c>
       <c r="G32" s="3">
-        <v>-116900</v>
+        <v>-145800</v>
       </c>
       <c r="H32" s="3">
-        <v>-133200</v>
+        <v>-161500</v>
       </c>
       <c r="I32" s="3">
-        <v>-244900</v>
+        <v>-237300</v>
       </c>
       <c r="J32" s="3">
-        <v>-102600</v>
+        <v>-99400</v>
       </c>
       <c r="K32" s="3">
         <v>-86600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-739000</v>
+        <v>-716000</v>
       </c>
       <c r="E33" s="3">
-        <v>-361500</v>
+        <v>-350200</v>
       </c>
       <c r="F33" s="3">
-        <v>409700</v>
+        <v>396900</v>
       </c>
       <c r="G33" s="3">
-        <v>130900</v>
+        <v>126900</v>
       </c>
       <c r="H33" s="3">
-        <v>-299600</v>
+        <v>-290300</v>
       </c>
       <c r="I33" s="3">
-        <v>48600</v>
+        <v>47100</v>
       </c>
       <c r="J33" s="3">
-        <v>95500</v>
+        <v>92500</v>
       </c>
       <c r="K33" s="3">
         <v>63200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-739000</v>
+        <v>-716000</v>
       </c>
       <c r="E35" s="3">
-        <v>-361500</v>
+        <v>-350200</v>
       </c>
       <c r="F35" s="3">
-        <v>409700</v>
+        <v>396900</v>
       </c>
       <c r="G35" s="3">
-        <v>130900</v>
+        <v>126900</v>
       </c>
       <c r="H35" s="3">
-        <v>-299600</v>
+        <v>-290300</v>
       </c>
       <c r="I35" s="3">
-        <v>48600</v>
+        <v>47100</v>
       </c>
       <c r="J35" s="3">
-        <v>95500</v>
+        <v>92500</v>
       </c>
       <c r="K35" s="3">
         <v>63200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>212500</v>
+        <v>205900</v>
       </c>
       <c r="E41" s="3">
-        <v>626600</v>
+        <v>607200</v>
       </c>
       <c r="F41" s="3">
-        <v>405700</v>
+        <v>393100</v>
       </c>
       <c r="G41" s="3">
-        <v>102800</v>
+        <v>99600</v>
       </c>
       <c r="H41" s="3">
-        <v>84300</v>
+        <v>81700</v>
       </c>
       <c r="I41" s="3">
-        <v>155000</v>
+        <v>150200</v>
       </c>
       <c r="J41" s="3">
-        <v>87200</v>
+        <v>84500</v>
       </c>
       <c r="K41" s="3">
         <v>55900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>673900</v>
+        <v>653000</v>
       </c>
       <c r="E42" s="3">
-        <v>163500</v>
+        <v>158400</v>
       </c>
       <c r="F42" s="3">
-        <v>198800</v>
+        <v>192600</v>
       </c>
       <c r="G42" s="3">
-        <v>339400</v>
+        <v>328800</v>
       </c>
       <c r="H42" s="3">
-        <v>109900</v>
+        <v>106500</v>
       </c>
       <c r="I42" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="J42" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="K42" s="3">
         <v>76300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1474900</v>
+        <v>1429000</v>
       </c>
       <c r="E43" s="3">
-        <v>1611600</v>
+        <v>1561500</v>
       </c>
       <c r="F43" s="3">
-        <v>979400</v>
+        <v>948900</v>
       </c>
       <c r="G43" s="3">
-        <v>556000</v>
+        <v>538700</v>
       </c>
       <c r="H43" s="3">
-        <v>492300</v>
+        <v>477000</v>
       </c>
       <c r="I43" s="3">
-        <v>433300</v>
+        <v>419900</v>
       </c>
       <c r="J43" s="3">
-        <v>200400</v>
+        <v>194200</v>
       </c>
       <c r="K43" s="3">
         <v>165700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1062500</v>
+        <v>1029400</v>
       </c>
       <c r="E44" s="3">
-        <v>853900</v>
+        <v>827300</v>
       </c>
       <c r="F44" s="3">
-        <v>570200</v>
+        <v>552500</v>
       </c>
       <c r="G44" s="3">
-        <v>289600</v>
+        <v>280600</v>
       </c>
       <c r="H44" s="3">
-        <v>231500</v>
+        <v>224300</v>
       </c>
       <c r="I44" s="3">
-        <v>204300</v>
+        <v>198000</v>
       </c>
       <c r="J44" s="3">
-        <v>137900</v>
+        <v>133700</v>
       </c>
       <c r="K44" s="3">
         <v>121900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51600</v>
+        <v>50000</v>
       </c>
       <c r="E45" s="3">
-        <v>27300</v>
+        <v>26500</v>
       </c>
       <c r="F45" s="3">
-        <v>57300</v>
+        <v>55500</v>
       </c>
       <c r="G45" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="H45" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="I45" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="J45" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="K45" s="3">
         <v>6000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3475500</v>
+        <v>3367400</v>
       </c>
       <c r="E46" s="3">
-        <v>3283000</v>
+        <v>3180800</v>
       </c>
       <c r="F46" s="3">
-        <v>2211300</v>
+        <v>2142500</v>
       </c>
       <c r="G46" s="3">
-        <v>1297600</v>
+        <v>1257200</v>
       </c>
       <c r="H46" s="3">
-        <v>925500</v>
+        <v>896700</v>
       </c>
       <c r="I46" s="3">
-        <v>816700</v>
+        <v>791300</v>
       </c>
       <c r="J46" s="3">
-        <v>446700</v>
+        <v>432800</v>
       </c>
       <c r="K46" s="3">
         <v>425900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1352800</v>
+        <v>1310700</v>
       </c>
       <c r="E47" s="3">
-        <v>998400</v>
+        <v>967300</v>
       </c>
       <c r="F47" s="3">
-        <v>695700</v>
+        <v>674100</v>
       </c>
       <c r="G47" s="3">
-        <v>99800</v>
+        <v>96700</v>
       </c>
       <c r="H47" s="3">
-        <v>180800</v>
+        <v>175200</v>
       </c>
       <c r="I47" s="3">
-        <v>72400</v>
+        <v>70200</v>
       </c>
       <c r="J47" s="3">
-        <v>63800</v>
+        <v>61800</v>
       </c>
       <c r="K47" s="3">
         <v>63000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15104500</v>
+        <v>14634700</v>
       </c>
       <c r="E48" s="3">
-        <v>11993600</v>
+        <v>11620500</v>
       </c>
       <c r="F48" s="3">
-        <v>7417300</v>
+        <v>7186600</v>
       </c>
       <c r="G48" s="3">
-        <v>3760600</v>
+        <v>3643700</v>
       </c>
       <c r="H48" s="3">
-        <v>3268000</v>
+        <v>3166400</v>
       </c>
       <c r="I48" s="3">
-        <v>2874300</v>
+        <v>2784900</v>
       </c>
       <c r="J48" s="3">
-        <v>1665000</v>
+        <v>1613200</v>
       </c>
       <c r="K48" s="3">
         <v>1153700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>415100</v>
+        <v>402100</v>
       </c>
       <c r="E49" s="3">
-        <v>394500</v>
+        <v>382200</v>
       </c>
       <c r="F49" s="3">
-        <v>216500</v>
+        <v>209700</v>
       </c>
       <c r="G49" s="3">
-        <v>105800</v>
+        <v>102600</v>
       </c>
       <c r="H49" s="3">
-        <v>86100</v>
+        <v>83400</v>
       </c>
       <c r="I49" s="3">
-        <v>77200</v>
+        <v>74800</v>
       </c>
       <c r="J49" s="3">
-        <v>46600</v>
+        <v>45200</v>
       </c>
       <c r="K49" s="3">
         <v>30200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>57600</v>
+        <v>55800</v>
       </c>
       <c r="E52" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="F52" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="G52" s="3">
-        <v>101800</v>
+        <v>98600</v>
       </c>
       <c r="H52" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="I52" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="J52" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20405400</v>
+        <v>19770800</v>
       </c>
       <c r="E54" s="3">
-        <v>16692600</v>
+        <v>16173400</v>
       </c>
       <c r="F54" s="3">
-        <v>10546500</v>
+        <v>10218500</v>
       </c>
       <c r="G54" s="3">
-        <v>5365700</v>
+        <v>5198800</v>
       </c>
       <c r="H54" s="3">
-        <v>4468300</v>
+        <v>4329300</v>
       </c>
       <c r="I54" s="3">
-        <v>3856200</v>
+        <v>3736300</v>
       </c>
       <c r="J54" s="3">
-        <v>2212800</v>
+        <v>2143900</v>
       </c>
       <c r="K54" s="3">
         <v>1673200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1452800</v>
+        <v>1407600</v>
       </c>
       <c r="E57" s="3">
-        <v>1548400</v>
+        <v>1500300</v>
       </c>
       <c r="F57" s="3">
-        <v>864200</v>
+        <v>837300</v>
       </c>
       <c r="G57" s="3">
-        <v>473800</v>
+        <v>459100</v>
       </c>
       <c r="H57" s="3">
-        <v>431500</v>
+        <v>418100</v>
       </c>
       <c r="I57" s="3">
-        <v>410600</v>
+        <v>397900</v>
       </c>
       <c r="J57" s="3">
-        <v>302600</v>
+        <v>293200</v>
       </c>
       <c r="K57" s="3">
         <v>250700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1833700</v>
+        <v>1776700</v>
       </c>
       <c r="E58" s="3">
-        <v>1363400</v>
+        <v>1321000</v>
       </c>
       <c r="F58" s="3">
-        <v>687800</v>
+        <v>666400</v>
       </c>
       <c r="G58" s="3">
-        <v>417400</v>
+        <v>404400</v>
       </c>
       <c r="H58" s="3">
-        <v>284100</v>
+        <v>275300</v>
       </c>
       <c r="I58" s="3">
-        <v>295100</v>
+        <v>286000</v>
       </c>
       <c r="J58" s="3">
-        <v>140800</v>
+        <v>136500</v>
       </c>
       <c r="K58" s="3">
         <v>108800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>646300</v>
+        <v>626200</v>
       </c>
       <c r="E59" s="3">
-        <v>429000</v>
+        <v>415600</v>
       </c>
       <c r="F59" s="3">
-        <v>346900</v>
+        <v>336100</v>
       </c>
       <c r="G59" s="3">
-        <v>198900</v>
+        <v>192700</v>
       </c>
       <c r="H59" s="3">
-        <v>159400</v>
+        <v>154400</v>
       </c>
       <c r="I59" s="3">
-        <v>140800</v>
+        <v>136400</v>
       </c>
       <c r="J59" s="3">
-        <v>135400</v>
+        <v>131200</v>
       </c>
       <c r="K59" s="3">
         <v>45400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3932800</v>
+        <v>3810500</v>
       </c>
       <c r="E60" s="3">
-        <v>3340800</v>
+        <v>3236900</v>
       </c>
       <c r="F60" s="3">
-        <v>1898900</v>
+        <v>1839800</v>
       </c>
       <c r="G60" s="3">
-        <v>1090000</v>
+        <v>1056100</v>
       </c>
       <c r="H60" s="3">
-        <v>875000</v>
+        <v>847800</v>
       </c>
       <c r="I60" s="3">
-        <v>846600</v>
+        <v>820300</v>
       </c>
       <c r="J60" s="3">
-        <v>566200</v>
+        <v>548600</v>
       </c>
       <c r="K60" s="3">
         <v>404900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5854000</v>
+        <v>5672000</v>
       </c>
       <c r="E61" s="3">
-        <v>4881000</v>
+        <v>4729200</v>
       </c>
       <c r="F61" s="3">
-        <v>2867400</v>
+        <v>2778200</v>
       </c>
       <c r="G61" s="3">
-        <v>1609800</v>
+        <v>1559800</v>
       </c>
       <c r="H61" s="3">
-        <v>1353500</v>
+        <v>1311400</v>
       </c>
       <c r="I61" s="3">
-        <v>826900</v>
+        <v>801200</v>
       </c>
       <c r="J61" s="3">
-        <v>382300</v>
+        <v>370400</v>
       </c>
       <c r="K61" s="3">
         <v>284800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3367800</v>
+        <v>3263000</v>
       </c>
       <c r="E62" s="3">
-        <v>2655400</v>
+        <v>2572800</v>
       </c>
       <c r="F62" s="3">
-        <v>1935700</v>
+        <v>1875500</v>
       </c>
       <c r="G62" s="3">
-        <v>1003000</v>
+        <v>971800</v>
       </c>
       <c r="H62" s="3">
-        <v>980800</v>
+        <v>950300</v>
       </c>
       <c r="I62" s="3">
-        <v>904700</v>
+        <v>876500</v>
       </c>
       <c r="J62" s="3">
-        <v>773900</v>
+        <v>749800</v>
       </c>
       <c r="K62" s="3">
         <v>388400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13220000</v>
+        <v>12808800</v>
       </c>
       <c r="E66" s="3">
-        <v>10936200</v>
+        <v>10596000</v>
       </c>
       <c r="F66" s="3">
-        <v>6735400</v>
+        <v>6525900</v>
       </c>
       <c r="G66" s="3">
-        <v>3749800</v>
+        <v>3633200</v>
       </c>
       <c r="H66" s="3">
-        <v>3208300</v>
+        <v>3108500</v>
       </c>
       <c r="I66" s="3">
-        <v>2578700</v>
+        <v>2498500</v>
       </c>
       <c r="J66" s="3">
-        <v>1442200</v>
+        <v>1397300</v>
       </c>
       <c r="K66" s="3">
         <v>1080700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-672600</v>
+        <v>-651700</v>
       </c>
       <c r="E72" s="3">
-        <v>-308400</v>
+        <v>-298800</v>
       </c>
       <c r="F72" s="3">
-        <v>430200</v>
+        <v>416800</v>
       </c>
       <c r="G72" s="3">
-        <v>153300</v>
+        <v>148500</v>
       </c>
       <c r="H72" s="3">
-        <v>-234300</v>
+        <v>-227000</v>
       </c>
       <c r="I72" s="3">
-        <v>113400</v>
+        <v>109800</v>
       </c>
       <c r="J72" s="3">
-        <v>159300</v>
+        <v>154300</v>
       </c>
       <c r="K72" s="3">
         <v>133100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7185400</v>
+        <v>6961900</v>
       </c>
       <c r="E76" s="3">
-        <v>5756400</v>
+        <v>5577400</v>
       </c>
       <c r="F76" s="3">
-        <v>3811100</v>
+        <v>3692600</v>
       </c>
       <c r="G76" s="3">
-        <v>1615800</v>
+        <v>1565600</v>
       </c>
       <c r="H76" s="3">
-        <v>1260000</v>
+        <v>1220800</v>
       </c>
       <c r="I76" s="3">
-        <v>1277600</v>
+        <v>1237800</v>
       </c>
       <c r="J76" s="3">
-        <v>770600</v>
+        <v>746600</v>
       </c>
       <c r="K76" s="3">
         <v>592500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-739000</v>
+        <v>-716000</v>
       </c>
       <c r="E81" s="3">
-        <v>-361500</v>
+        <v>-350200</v>
       </c>
       <c r="F81" s="3">
-        <v>409700</v>
+        <v>396900</v>
       </c>
       <c r="G81" s="3">
-        <v>130900</v>
+        <v>126900</v>
       </c>
       <c r="H81" s="3">
-        <v>-299600</v>
+        <v>-290300</v>
       </c>
       <c r="I81" s="3">
-        <v>48600</v>
+        <v>47100</v>
       </c>
       <c r="J81" s="3">
-        <v>95500</v>
+        <v>92500</v>
       </c>
       <c r="K81" s="3">
         <v>63200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2045100</v>
+        <v>1981500</v>
       </c>
       <c r="E83" s="3">
-        <v>1684600</v>
+        <v>1632200</v>
       </c>
       <c r="F83" s="3">
-        <v>947700</v>
+        <v>918200</v>
       </c>
       <c r="G83" s="3">
-        <v>576700</v>
+        <v>558700</v>
       </c>
       <c r="H83" s="3">
-        <v>482400</v>
+        <v>467400</v>
       </c>
       <c r="I83" s="3">
-        <v>286600</v>
+        <v>277600</v>
       </c>
       <c r="J83" s="3">
-        <v>216500</v>
+        <v>209800</v>
       </c>
       <c r="K83" s="3">
         <v>141100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2219800</v>
+        <v>2150700</v>
       </c>
       <c r="E89" s="3">
-        <v>2303800</v>
+        <v>2232200</v>
       </c>
       <c r="F89" s="3">
-        <v>1326900</v>
+        <v>1285600</v>
       </c>
       <c r="G89" s="3">
-        <v>763000</v>
+        <v>739300</v>
       </c>
       <c r="H89" s="3">
-        <v>520300</v>
+        <v>504100</v>
       </c>
       <c r="I89" s="3">
-        <v>439300</v>
+        <v>425600</v>
       </c>
       <c r="J89" s="3">
-        <v>489700</v>
+        <v>474500</v>
       </c>
       <c r="K89" s="3">
         <v>258700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1216100</v>
+        <v>-1178300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1713000</v>
+        <v>-1659800</v>
       </c>
       <c r="F91" s="3">
-        <v>-936800</v>
+        <v>-907700</v>
       </c>
       <c r="G91" s="3">
-        <v>-632500</v>
+        <v>-612900</v>
       </c>
       <c r="H91" s="3">
-        <v>-680700</v>
+        <v>-659600</v>
       </c>
       <c r="I91" s="3">
-        <v>-676600</v>
+        <v>-655600</v>
       </c>
       <c r="J91" s="3">
-        <v>-532800</v>
+        <v>-516200</v>
       </c>
       <c r="K91" s="3">
         <v>-341100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1158200</v>
+        <v>-1122200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1738800</v>
+        <v>-1684700</v>
       </c>
       <c r="F94" s="3">
-        <v>-872700</v>
+        <v>-845500</v>
       </c>
       <c r="G94" s="3">
-        <v>-586100</v>
+        <v>-567900</v>
       </c>
       <c r="H94" s="3">
-        <v>-702100</v>
+        <v>-680300</v>
       </c>
       <c r="I94" s="3">
-        <v>-679600</v>
+        <v>-658400</v>
       </c>
       <c r="J94" s="3">
-        <v>-566600</v>
+        <v>-549000</v>
       </c>
       <c r="K94" s="3">
         <v>-274000</v>
@@ -3534,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-24400</v>
+        <v>-23600</v>
       </c>
       <c r="F96" s="3">
-        <v>-12700</v>
+        <v>-12300</v>
       </c>
       <c r="G96" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="H96" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="I96" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="J96" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="K96" s="3">
         <v>-4000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1285000</v>
+        <v>-1245000</v>
       </c>
       <c r="E100" s="3">
-        <v>-595000</v>
+        <v>-576500</v>
       </c>
       <c r="F100" s="3">
-        <v>-463200</v>
+        <v>-448800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="H100" s="3">
-        <v>114800</v>
+        <v>111200</v>
       </c>
       <c r="I100" s="3">
-        <v>251100</v>
+        <v>243300</v>
       </c>
       <c r="J100" s="3">
-        <v>52900</v>
+        <v>51300</v>
       </c>
       <c r="K100" s="3">
         <v>86100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>101600</v>
+        <v>98400</v>
       </c>
       <c r="E101" s="3">
-        <v>242900</v>
+        <v>235400</v>
       </c>
       <c r="F101" s="3">
-        <v>192500</v>
+        <v>186500</v>
       </c>
       <c r="G101" s="3">
-        <v>17700</v>
+        <v>17100</v>
       </c>
       <c r="H101" s="3">
-        <v>18000</v>
+        <v>17400</v>
       </c>
       <c r="I101" s="3">
-        <v>48900</v>
+        <v>47400</v>
       </c>
       <c r="J101" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="K101" s="3">
         <v>2800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-121800</v>
+        <v>-118000</v>
       </c>
       <c r="E102" s="3">
-        <v>213000</v>
+        <v>206300</v>
       </c>
       <c r="F102" s="3">
-        <v>183400</v>
+        <v>177700</v>
       </c>
       <c r="G102" s="3">
-        <v>190800</v>
+        <v>184800</v>
       </c>
       <c r="H102" s="3">
-        <v>-49100</v>
+        <v>-47600</v>
       </c>
       <c r="I102" s="3">
-        <v>59700</v>
+        <v>57900</v>
       </c>
       <c r="J102" s="3">
-        <v>-10100</v>
+        <v>-9800</v>
       </c>
       <c r="K102" s="3">
         <v>73600</v>

--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6879200</v>
+        <v>6638300</v>
       </c>
       <c r="E8" s="3">
-        <v>6976000</v>
+        <v>6731700</v>
       </c>
       <c r="F8" s="3">
-        <v>4480200</v>
+        <v>4323300</v>
       </c>
       <c r="G8" s="3">
-        <v>2598900</v>
+        <v>2507900</v>
       </c>
       <c r="H8" s="3">
-        <v>2159800</v>
+        <v>2084200</v>
       </c>
       <c r="I8" s="3">
-        <v>1605100</v>
+        <v>1548900</v>
       </c>
       <c r="J8" s="3">
-        <v>1459200</v>
+        <v>1408100</v>
       </c>
       <c r="K8" s="3">
         <v>1112000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6493100</v>
+        <v>6265700</v>
       </c>
       <c r="E9" s="3">
-        <v>5967800</v>
+        <v>5758800</v>
       </c>
       <c r="F9" s="3">
-        <v>3729200</v>
+        <v>3598600</v>
       </c>
       <c r="G9" s="3">
-        <v>2193100</v>
+        <v>2116300</v>
       </c>
       <c r="H9" s="3">
-        <v>1833300</v>
+        <v>1769100</v>
       </c>
       <c r="I9" s="3">
-        <v>1228800</v>
+        <v>1185800</v>
       </c>
       <c r="J9" s="3">
-        <v>1074200</v>
+        <v>1036600</v>
       </c>
       <c r="K9" s="3">
         <v>846200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>386100</v>
+        <v>372600</v>
       </c>
       <c r="E10" s="3">
-        <v>1008200</v>
+        <v>972900</v>
       </c>
       <c r="F10" s="3">
-        <v>751000</v>
+        <v>724700</v>
       </c>
       <c r="G10" s="3">
-        <v>405800</v>
+        <v>391600</v>
       </c>
       <c r="H10" s="3">
-        <v>326600</v>
+        <v>315100</v>
       </c>
       <c r="I10" s="3">
-        <v>376200</v>
+        <v>363100</v>
       </c>
       <c r="J10" s="3">
-        <v>385000</v>
+        <v>371500</v>
       </c>
       <c r="K10" s="3">
         <v>265800</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="E12" s="3">
-        <v>57800</v>
+        <v>55800</v>
       </c>
       <c r="F12" s="3">
-        <v>43700</v>
+        <v>42200</v>
       </c>
       <c r="G12" s="3">
-        <v>19300</v>
+        <v>18700</v>
       </c>
       <c r="H12" s="3">
-        <v>27700</v>
+        <v>26700</v>
       </c>
       <c r="I12" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="J12" s="3">
-        <v>16500</v>
+        <v>15900</v>
       </c>
       <c r="K12" s="3">
         <v>8100</v>
@@ -916,22 +916,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-15900</v>
+        <v>-15400</v>
       </c>
       <c r="E14" s="3">
-        <v>454000</v>
+        <v>438100</v>
       </c>
       <c r="F14" s="3">
-        <v>-128700</v>
+        <v>-124100</v>
       </c>
       <c r="G14" s="3">
-        <v>-39000</v>
+        <v>-37600</v>
       </c>
       <c r="H14" s="3">
-        <v>372100</v>
+        <v>359100</v>
       </c>
       <c r="I14" s="3">
-        <v>38300</v>
+        <v>36900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>119400</v>
+        <v>115200</v>
       </c>
       <c r="E15" s="3">
-        <v>77900</v>
+        <v>75200</v>
       </c>
       <c r="F15" s="3">
-        <v>42400</v>
+        <v>40900</v>
       </c>
       <c r="G15" s="3">
-        <v>21100</v>
+        <v>20400</v>
       </c>
       <c r="H15" s="3">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="I15" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="J15" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="K15" s="3">
         <v>7100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7479600</v>
+        <v>7217600</v>
       </c>
       <c r="E17" s="3">
-        <v>7192000</v>
+        <v>6940100</v>
       </c>
       <c r="F17" s="3">
-        <v>4030200</v>
+        <v>3889000</v>
       </c>
       <c r="G17" s="3">
-        <v>2433700</v>
+        <v>2348500</v>
       </c>
       <c r="H17" s="3">
-        <v>2409100</v>
+        <v>2324700</v>
       </c>
       <c r="I17" s="3">
-        <v>1434600</v>
+        <v>1384300</v>
       </c>
       <c r="J17" s="3">
-        <v>1256200</v>
+        <v>1212200</v>
       </c>
       <c r="K17" s="3">
         <v>974300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-600300</v>
+        <v>-579300</v>
       </c>
       <c r="E18" s="3">
-        <v>-216000</v>
+        <v>-208400</v>
       </c>
       <c r="F18" s="3">
-        <v>450100</v>
+        <v>434300</v>
       </c>
       <c r="G18" s="3">
-        <v>165200</v>
+        <v>159400</v>
       </c>
       <c r="H18" s="3">
-        <v>-249200</v>
+        <v>-240500</v>
       </c>
       <c r="I18" s="3">
-        <v>170500</v>
+        <v>164600</v>
       </c>
       <c r="J18" s="3">
-        <v>202900</v>
+        <v>195800</v>
       </c>
       <c r="K18" s="3">
         <v>137700</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>864900</v>
+        <v>834600</v>
       </c>
       <c r="E20" s="3">
-        <v>750200</v>
+        <v>724000</v>
       </c>
       <c r="F20" s="3">
-        <v>849500</v>
+        <v>819700</v>
       </c>
       <c r="G20" s="3">
-        <v>145800</v>
+        <v>140700</v>
       </c>
       <c r="H20" s="3">
-        <v>161500</v>
+        <v>155800</v>
       </c>
       <c r="I20" s="3">
-        <v>237300</v>
+        <v>229000</v>
       </c>
       <c r="J20" s="3">
-        <v>99400</v>
+        <v>95900</v>
       </c>
       <c r="K20" s="3">
         <v>86600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2246000</v>
+        <v>2169300</v>
       </c>
       <c r="E21" s="3">
-        <v>2166500</v>
+        <v>2092200</v>
       </c>
       <c r="F21" s="3">
-        <v>2217700</v>
+        <v>2141000</v>
       </c>
       <c r="G21" s="3">
-        <v>869800</v>
+        <v>839800</v>
       </c>
       <c r="H21" s="3">
-        <v>379700</v>
+        <v>366800</v>
       </c>
       <c r="I21" s="3">
-        <v>685400</v>
+        <v>661700</v>
       </c>
       <c r="J21" s="3">
-        <v>512100</v>
+        <v>494300</v>
       </c>
       <c r="K21" s="3">
         <v>365800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>844600</v>
+        <v>815000</v>
       </c>
       <c r="E22" s="3">
-        <v>606300</v>
+        <v>585100</v>
       </c>
       <c r="F22" s="3">
-        <v>372900</v>
+        <v>359800</v>
       </c>
       <c r="G22" s="3">
-        <v>221600</v>
+        <v>213800</v>
       </c>
       <c r="H22" s="3">
-        <v>218600</v>
+        <v>211000</v>
       </c>
       <c r="I22" s="3">
-        <v>109000</v>
+        <v>105200</v>
       </c>
       <c r="J22" s="3">
-        <v>75400</v>
+        <v>72800</v>
       </c>
       <c r="K22" s="3">
         <v>47300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-580100</v>
+        <v>-559800</v>
       </c>
       <c r="E23" s="3">
-        <v>-72100</v>
+        <v>-69500</v>
       </c>
       <c r="F23" s="3">
-        <v>926700</v>
+        <v>894200</v>
       </c>
       <c r="G23" s="3">
-        <v>89500</v>
+        <v>86300</v>
       </c>
       <c r="H23" s="3">
-        <v>-306400</v>
+        <v>-295700</v>
       </c>
       <c r="I23" s="3">
-        <v>298800</v>
+        <v>288300</v>
       </c>
       <c r="J23" s="3">
-        <v>226900</v>
+        <v>219000</v>
       </c>
       <c r="K23" s="3">
         <v>177100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>150000</v>
+        <v>144700</v>
       </c>
       <c r="E24" s="3">
-        <v>223700</v>
+        <v>215900</v>
       </c>
       <c r="F24" s="3">
-        <v>529800</v>
+        <v>511300</v>
       </c>
       <c r="G24" s="3">
-        <v>-40800</v>
+        <v>-39400</v>
       </c>
       <c r="H24" s="3">
-        <v>-14600</v>
+        <v>-14100</v>
       </c>
       <c r="I24" s="3">
-        <v>253300</v>
+        <v>244400</v>
       </c>
       <c r="J24" s="3">
-        <v>135900</v>
+        <v>131200</v>
       </c>
       <c r="K24" s="3">
         <v>114400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-730100</v>
+        <v>-704500</v>
       </c>
       <c r="E26" s="3">
-        <v>-295800</v>
+        <v>-285400</v>
       </c>
       <c r="F26" s="3">
-        <v>396900</v>
+        <v>383000</v>
       </c>
       <c r="G26" s="3">
-        <v>130300</v>
+        <v>125700</v>
       </c>
       <c r="H26" s="3">
-        <v>-291700</v>
+        <v>-281500</v>
       </c>
       <c r="I26" s="3">
-        <v>45500</v>
+        <v>43900</v>
       </c>
       <c r="J26" s="3">
-        <v>91000</v>
+        <v>87800</v>
       </c>
       <c r="K26" s="3">
         <v>62700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-716000</v>
+        <v>-690900</v>
       </c>
       <c r="E27" s="3">
-        <v>-302900</v>
+        <v>-292300</v>
       </c>
       <c r="F27" s="3">
-        <v>396900</v>
+        <v>383000</v>
       </c>
       <c r="G27" s="3">
-        <v>126900</v>
+        <v>122400</v>
       </c>
       <c r="H27" s="3">
-        <v>-290300</v>
+        <v>-280100</v>
       </c>
       <c r="I27" s="3">
-        <v>47100</v>
+        <v>45400</v>
       </c>
       <c r="J27" s="3">
-        <v>92500</v>
+        <v>89300</v>
       </c>
       <c r="K27" s="3">
         <v>63200</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-47300</v>
+        <v>-45700</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-864900</v>
+        <v>-834600</v>
       </c>
       <c r="E32" s="3">
-        <v>-750200</v>
+        <v>-724000</v>
       </c>
       <c r="F32" s="3">
-        <v>-849500</v>
+        <v>-819700</v>
       </c>
       <c r="G32" s="3">
-        <v>-145800</v>
+        <v>-140700</v>
       </c>
       <c r="H32" s="3">
-        <v>-161500</v>
+        <v>-155800</v>
       </c>
       <c r="I32" s="3">
-        <v>-237300</v>
+        <v>-229000</v>
       </c>
       <c r="J32" s="3">
-        <v>-99400</v>
+        <v>-95900</v>
       </c>
       <c r="K32" s="3">
         <v>-86600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-716000</v>
+        <v>-690900</v>
       </c>
       <c r="E33" s="3">
-        <v>-350200</v>
+        <v>-338000</v>
       </c>
       <c r="F33" s="3">
-        <v>396900</v>
+        <v>383000</v>
       </c>
       <c r="G33" s="3">
-        <v>126900</v>
+        <v>122400</v>
       </c>
       <c r="H33" s="3">
-        <v>-290300</v>
+        <v>-280100</v>
       </c>
       <c r="I33" s="3">
-        <v>47100</v>
+        <v>45400</v>
       </c>
       <c r="J33" s="3">
-        <v>92500</v>
+        <v>89300</v>
       </c>
       <c r="K33" s="3">
         <v>63200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-716000</v>
+        <v>-690900</v>
       </c>
       <c r="E35" s="3">
-        <v>-350200</v>
+        <v>-338000</v>
       </c>
       <c r="F35" s="3">
-        <v>396900</v>
+        <v>383000</v>
       </c>
       <c r="G35" s="3">
-        <v>126900</v>
+        <v>122400</v>
       </c>
       <c r="H35" s="3">
-        <v>-290300</v>
+        <v>-280100</v>
       </c>
       <c r="I35" s="3">
-        <v>47100</v>
+        <v>45400</v>
       </c>
       <c r="J35" s="3">
-        <v>92500</v>
+        <v>89300</v>
       </c>
       <c r="K35" s="3">
         <v>63200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>205900</v>
+        <v>198700</v>
       </c>
       <c r="E41" s="3">
-        <v>607200</v>
+        <v>585900</v>
       </c>
       <c r="F41" s="3">
-        <v>393100</v>
+        <v>379300</v>
       </c>
       <c r="G41" s="3">
-        <v>99600</v>
+        <v>96100</v>
       </c>
       <c r="H41" s="3">
-        <v>81700</v>
+        <v>78900</v>
       </c>
       <c r="I41" s="3">
-        <v>150200</v>
+        <v>145000</v>
       </c>
       <c r="J41" s="3">
-        <v>84500</v>
+        <v>81600</v>
       </c>
       <c r="K41" s="3">
         <v>55900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>653000</v>
+        <v>630100</v>
       </c>
       <c r="E42" s="3">
-        <v>158400</v>
+        <v>152800</v>
       </c>
       <c r="F42" s="3">
-        <v>192600</v>
+        <v>185800</v>
       </c>
       <c r="G42" s="3">
-        <v>328800</v>
+        <v>317300</v>
       </c>
       <c r="H42" s="3">
-        <v>106500</v>
+        <v>102700</v>
       </c>
       <c r="I42" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="J42" s="3">
-        <v>15800</v>
+        <v>15200</v>
       </c>
       <c r="K42" s="3">
         <v>76300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1429000</v>
+        <v>1379000</v>
       </c>
       <c r="E43" s="3">
-        <v>1561500</v>
+        <v>1506800</v>
       </c>
       <c r="F43" s="3">
-        <v>948900</v>
+        <v>915700</v>
       </c>
       <c r="G43" s="3">
-        <v>538700</v>
+        <v>519800</v>
       </c>
       <c r="H43" s="3">
-        <v>477000</v>
+        <v>460300</v>
       </c>
       <c r="I43" s="3">
-        <v>419900</v>
+        <v>405200</v>
       </c>
       <c r="J43" s="3">
-        <v>194200</v>
+        <v>187400</v>
       </c>
       <c r="K43" s="3">
         <v>165700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1029400</v>
+        <v>993400</v>
       </c>
       <c r="E44" s="3">
-        <v>827300</v>
+        <v>798400</v>
       </c>
       <c r="F44" s="3">
-        <v>552500</v>
+        <v>533100</v>
       </c>
       <c r="G44" s="3">
-        <v>280600</v>
+        <v>270700</v>
       </c>
       <c r="H44" s="3">
-        <v>224300</v>
+        <v>216500</v>
       </c>
       <c r="I44" s="3">
-        <v>198000</v>
+        <v>191000</v>
       </c>
       <c r="J44" s="3">
-        <v>133700</v>
+        <v>129000</v>
       </c>
       <c r="K44" s="3">
         <v>121900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>50000</v>
+        <v>48300</v>
       </c>
       <c r="E45" s="3">
-        <v>26500</v>
+        <v>25500</v>
       </c>
       <c r="F45" s="3">
-        <v>55500</v>
+        <v>53500</v>
       </c>
       <c r="G45" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="H45" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="I45" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="J45" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K45" s="3">
         <v>6000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3367400</v>
+        <v>3249500</v>
       </c>
       <c r="E46" s="3">
-        <v>3180800</v>
+        <v>3069500</v>
       </c>
       <c r="F46" s="3">
-        <v>2142500</v>
+        <v>2067500</v>
       </c>
       <c r="G46" s="3">
-        <v>1257200</v>
+        <v>1213200</v>
       </c>
       <c r="H46" s="3">
-        <v>896700</v>
+        <v>865300</v>
       </c>
       <c r="I46" s="3">
-        <v>791300</v>
+        <v>763600</v>
       </c>
       <c r="J46" s="3">
-        <v>432800</v>
+        <v>417600</v>
       </c>
       <c r="K46" s="3">
         <v>425900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1310700</v>
+        <v>1264800</v>
       </c>
       <c r="E47" s="3">
-        <v>967300</v>
+        <v>933500</v>
       </c>
       <c r="F47" s="3">
-        <v>674100</v>
+        <v>650500</v>
       </c>
       <c r="G47" s="3">
-        <v>96700</v>
+        <v>93300</v>
       </c>
       <c r="H47" s="3">
-        <v>175200</v>
+        <v>169100</v>
       </c>
       <c r="I47" s="3">
-        <v>70200</v>
+        <v>67700</v>
       </c>
       <c r="J47" s="3">
-        <v>61800</v>
+        <v>59600</v>
       </c>
       <c r="K47" s="3">
         <v>63000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14634700</v>
+        <v>14122200</v>
       </c>
       <c r="E48" s="3">
-        <v>11620500</v>
+        <v>11213600</v>
       </c>
       <c r="F48" s="3">
-        <v>7186600</v>
+        <v>6934900</v>
       </c>
       <c r="G48" s="3">
-        <v>3643700</v>
+        <v>3516100</v>
       </c>
       <c r="H48" s="3">
-        <v>3166400</v>
+        <v>3055500</v>
       </c>
       <c r="I48" s="3">
-        <v>2784900</v>
+        <v>2687400</v>
       </c>
       <c r="J48" s="3">
-        <v>1613200</v>
+        <v>1556700</v>
       </c>
       <c r="K48" s="3">
         <v>1153700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>402100</v>
+        <v>388100</v>
       </c>
       <c r="E49" s="3">
-        <v>382200</v>
+        <v>368800</v>
       </c>
       <c r="F49" s="3">
-        <v>209700</v>
+        <v>202400</v>
       </c>
       <c r="G49" s="3">
-        <v>102600</v>
+        <v>99000</v>
       </c>
       <c r="H49" s="3">
-        <v>83400</v>
+        <v>80500</v>
       </c>
       <c r="I49" s="3">
-        <v>74800</v>
+        <v>72200</v>
       </c>
       <c r="J49" s="3">
-        <v>45200</v>
+        <v>43600</v>
       </c>
       <c r="K49" s="3">
         <v>30200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>55800</v>
+        <v>53900</v>
       </c>
       <c r="E52" s="3">
-        <v>22500</v>
+        <v>21700</v>
       </c>
       <c r="F52" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="G52" s="3">
-        <v>98600</v>
+        <v>95200</v>
       </c>
       <c r="H52" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="I52" s="3">
-        <v>15100</v>
+        <v>14600</v>
       </c>
       <c r="J52" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19770800</v>
+        <v>19078400</v>
       </c>
       <c r="E54" s="3">
-        <v>16173400</v>
+        <v>15607000</v>
       </c>
       <c r="F54" s="3">
-        <v>10218500</v>
+        <v>9860600</v>
       </c>
       <c r="G54" s="3">
-        <v>5198800</v>
+        <v>5016700</v>
       </c>
       <c r="H54" s="3">
-        <v>4329300</v>
+        <v>4177700</v>
       </c>
       <c r="I54" s="3">
-        <v>3736300</v>
+        <v>3605500</v>
       </c>
       <c r="J54" s="3">
-        <v>2143900</v>
+        <v>2068900</v>
       </c>
       <c r="K54" s="3">
         <v>1673200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1407600</v>
+        <v>1358300</v>
       </c>
       <c r="E57" s="3">
-        <v>1500300</v>
+        <v>1447700</v>
       </c>
       <c r="F57" s="3">
-        <v>837300</v>
+        <v>808000</v>
       </c>
       <c r="G57" s="3">
-        <v>459100</v>
+        <v>443000</v>
       </c>
       <c r="H57" s="3">
-        <v>418100</v>
+        <v>403400</v>
       </c>
       <c r="I57" s="3">
-        <v>397900</v>
+        <v>383900</v>
       </c>
       <c r="J57" s="3">
-        <v>293200</v>
+        <v>282900</v>
       </c>
       <c r="K57" s="3">
         <v>250700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1776700</v>
+        <v>1714500</v>
       </c>
       <c r="E58" s="3">
-        <v>1321000</v>
+        <v>1274700</v>
       </c>
       <c r="F58" s="3">
-        <v>666400</v>
+        <v>643100</v>
       </c>
       <c r="G58" s="3">
-        <v>404400</v>
+        <v>390200</v>
       </c>
       <c r="H58" s="3">
-        <v>275300</v>
+        <v>265600</v>
       </c>
       <c r="I58" s="3">
-        <v>286000</v>
+        <v>275900</v>
       </c>
       <c r="J58" s="3">
-        <v>136500</v>
+        <v>131700</v>
       </c>
       <c r="K58" s="3">
         <v>108800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>626200</v>
+        <v>604200</v>
       </c>
       <c r="E59" s="3">
-        <v>415600</v>
+        <v>401100</v>
       </c>
       <c r="F59" s="3">
-        <v>336100</v>
+        <v>324300</v>
       </c>
       <c r="G59" s="3">
-        <v>192700</v>
+        <v>185900</v>
       </c>
       <c r="H59" s="3">
-        <v>154400</v>
+        <v>149000</v>
       </c>
       <c r="I59" s="3">
-        <v>136400</v>
+        <v>131600</v>
       </c>
       <c r="J59" s="3">
-        <v>131200</v>
+        <v>126600</v>
       </c>
       <c r="K59" s="3">
         <v>45400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3810500</v>
+        <v>3677000</v>
       </c>
       <c r="E60" s="3">
-        <v>3236900</v>
+        <v>3123500</v>
       </c>
       <c r="F60" s="3">
-        <v>1839800</v>
+        <v>1775400</v>
       </c>
       <c r="G60" s="3">
-        <v>1056100</v>
+        <v>1019100</v>
       </c>
       <c r="H60" s="3">
-        <v>847800</v>
+        <v>818100</v>
       </c>
       <c r="I60" s="3">
-        <v>820300</v>
+        <v>791500</v>
       </c>
       <c r="J60" s="3">
-        <v>548600</v>
+        <v>529400</v>
       </c>
       <c r="K60" s="3">
         <v>404900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5672000</v>
+        <v>5473300</v>
       </c>
       <c r="E61" s="3">
-        <v>4729200</v>
+        <v>4563600</v>
       </c>
       <c r="F61" s="3">
-        <v>2778200</v>
+        <v>2680900</v>
       </c>
       <c r="G61" s="3">
-        <v>1559800</v>
+        <v>1505100</v>
       </c>
       <c r="H61" s="3">
-        <v>1311400</v>
+        <v>1265500</v>
       </c>
       <c r="I61" s="3">
-        <v>801200</v>
+        <v>773100</v>
       </c>
       <c r="J61" s="3">
-        <v>370400</v>
+        <v>357400</v>
       </c>
       <c r="K61" s="3">
         <v>284800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3263000</v>
+        <v>3148700</v>
       </c>
       <c r="E62" s="3">
-        <v>2572800</v>
+        <v>2482700</v>
       </c>
       <c r="F62" s="3">
-        <v>1875500</v>
+        <v>1809800</v>
       </c>
       <c r="G62" s="3">
-        <v>971800</v>
+        <v>937700</v>
       </c>
       <c r="H62" s="3">
-        <v>950300</v>
+        <v>917000</v>
       </c>
       <c r="I62" s="3">
-        <v>876500</v>
+        <v>845800</v>
       </c>
       <c r="J62" s="3">
-        <v>749800</v>
+        <v>723600</v>
       </c>
       <c r="K62" s="3">
         <v>388400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12808800</v>
+        <v>12360300</v>
       </c>
       <c r="E66" s="3">
-        <v>10596000</v>
+        <v>10224900</v>
       </c>
       <c r="F66" s="3">
-        <v>6525900</v>
+        <v>6297400</v>
       </c>
       <c r="G66" s="3">
-        <v>3633200</v>
+        <v>3506000</v>
       </c>
       <c r="H66" s="3">
-        <v>3108500</v>
+        <v>2999600</v>
       </c>
       <c r="I66" s="3">
-        <v>2498500</v>
+        <v>2411000</v>
       </c>
       <c r="J66" s="3">
-        <v>1397300</v>
+        <v>1348400</v>
       </c>
       <c r="K66" s="3">
         <v>1080700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-651700</v>
+        <v>-628800</v>
       </c>
       <c r="E72" s="3">
-        <v>-298800</v>
+        <v>-288300</v>
       </c>
       <c r="F72" s="3">
-        <v>416800</v>
+        <v>402200</v>
       </c>
       <c r="G72" s="3">
-        <v>148500</v>
+        <v>143300</v>
       </c>
       <c r="H72" s="3">
-        <v>-227000</v>
+        <v>-219000</v>
       </c>
       <c r="I72" s="3">
-        <v>109800</v>
+        <v>106000</v>
       </c>
       <c r="J72" s="3">
-        <v>154300</v>
+        <v>148900</v>
       </c>
       <c r="K72" s="3">
         <v>133100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6961900</v>
+        <v>6718100</v>
       </c>
       <c r="E76" s="3">
-        <v>5577400</v>
+        <v>5382100</v>
       </c>
       <c r="F76" s="3">
-        <v>3692600</v>
+        <v>3563300</v>
       </c>
       <c r="G76" s="3">
-        <v>1565600</v>
+        <v>1510800</v>
       </c>
       <c r="H76" s="3">
-        <v>1220800</v>
+        <v>1178000</v>
       </c>
       <c r="I76" s="3">
-        <v>1237800</v>
+        <v>1194500</v>
       </c>
       <c r="J76" s="3">
-        <v>746600</v>
+        <v>720500</v>
       </c>
       <c r="K76" s="3">
         <v>592500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-716000</v>
+        <v>-690900</v>
       </c>
       <c r="E81" s="3">
-        <v>-350200</v>
+        <v>-338000</v>
       </c>
       <c r="F81" s="3">
-        <v>396900</v>
+        <v>383000</v>
       </c>
       <c r="G81" s="3">
-        <v>126900</v>
+        <v>122400</v>
       </c>
       <c r="H81" s="3">
-        <v>-290300</v>
+        <v>-280100</v>
       </c>
       <c r="I81" s="3">
-        <v>47100</v>
+        <v>45400</v>
       </c>
       <c r="J81" s="3">
-        <v>92500</v>
+        <v>89300</v>
       </c>
       <c r="K81" s="3">
         <v>63200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1981500</v>
+        <v>1912100</v>
       </c>
       <c r="E83" s="3">
-        <v>1632200</v>
+        <v>1575100</v>
       </c>
       <c r="F83" s="3">
-        <v>918200</v>
+        <v>886000</v>
       </c>
       <c r="G83" s="3">
-        <v>558700</v>
+        <v>539200</v>
       </c>
       <c r="H83" s="3">
-        <v>467400</v>
+        <v>451100</v>
       </c>
       <c r="I83" s="3">
-        <v>277600</v>
+        <v>267900</v>
       </c>
       <c r="J83" s="3">
-        <v>209800</v>
+        <v>202400</v>
       </c>
       <c r="K83" s="3">
         <v>141100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2150700</v>
+        <v>2075400</v>
       </c>
       <c r="E89" s="3">
-        <v>2232200</v>
+        <v>2154000</v>
       </c>
       <c r="F89" s="3">
-        <v>1285600</v>
+        <v>1240600</v>
       </c>
       <c r="G89" s="3">
-        <v>739300</v>
+        <v>713400</v>
       </c>
       <c r="H89" s="3">
-        <v>504100</v>
+        <v>486400</v>
       </c>
       <c r="I89" s="3">
-        <v>425600</v>
+        <v>410700</v>
       </c>
       <c r="J89" s="3">
-        <v>474500</v>
+        <v>457800</v>
       </c>
       <c r="K89" s="3">
         <v>258700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1178300</v>
+        <v>-1137000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1659800</v>
+        <v>-1601600</v>
       </c>
       <c r="F91" s="3">
-        <v>-907700</v>
+        <v>-875900</v>
       </c>
       <c r="G91" s="3">
-        <v>-612900</v>
+        <v>-591400</v>
       </c>
       <c r="H91" s="3">
-        <v>-659600</v>
+        <v>-636500</v>
       </c>
       <c r="I91" s="3">
-        <v>-655600</v>
+        <v>-632600</v>
       </c>
       <c r="J91" s="3">
-        <v>-516200</v>
+        <v>-498100</v>
       </c>
       <c r="K91" s="3">
         <v>-341100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1122200</v>
+        <v>-1082900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1684700</v>
+        <v>-1625700</v>
       </c>
       <c r="F94" s="3">
-        <v>-845500</v>
+        <v>-815900</v>
       </c>
       <c r="G94" s="3">
-        <v>-567900</v>
+        <v>-548000</v>
       </c>
       <c r="H94" s="3">
-        <v>-680300</v>
+        <v>-656400</v>
       </c>
       <c r="I94" s="3">
-        <v>-658400</v>
+        <v>-635400</v>
       </c>
       <c r="J94" s="3">
-        <v>-549000</v>
+        <v>-529800</v>
       </c>
       <c r="K94" s="3">
         <v>-274000</v>
@@ -3534,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-23600</v>
+        <v>-22800</v>
       </c>
       <c r="F96" s="3">
-        <v>-12300</v>
+        <v>-11900</v>
       </c>
       <c r="G96" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="H96" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="I96" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="J96" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="K96" s="3">
         <v>-4000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1245000</v>
+        <v>-1201400</v>
       </c>
       <c r="E100" s="3">
-        <v>-576500</v>
+        <v>-556300</v>
       </c>
       <c r="F100" s="3">
-        <v>-448800</v>
+        <v>-433100</v>
       </c>
       <c r="G100" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="H100" s="3">
-        <v>111200</v>
+        <v>107300</v>
       </c>
       <c r="I100" s="3">
-        <v>243300</v>
+        <v>234800</v>
       </c>
       <c r="J100" s="3">
-        <v>51300</v>
+        <v>49500</v>
       </c>
       <c r="K100" s="3">
         <v>86100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>98400</v>
+        <v>95000</v>
       </c>
       <c r="E101" s="3">
-        <v>235400</v>
+        <v>227100</v>
       </c>
       <c r="F101" s="3">
-        <v>186500</v>
+        <v>179900</v>
       </c>
       <c r="G101" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="H101" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="I101" s="3">
-        <v>47400</v>
+        <v>45700</v>
       </c>
       <c r="J101" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="K101" s="3">
         <v>2800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-118000</v>
+        <v>-113900</v>
       </c>
       <c r="E102" s="3">
-        <v>206300</v>
+        <v>199100</v>
       </c>
       <c r="F102" s="3">
-        <v>177700</v>
+        <v>171500</v>
       </c>
       <c r="G102" s="3">
-        <v>184800</v>
+        <v>178400</v>
       </c>
       <c r="H102" s="3">
-        <v>-47600</v>
+        <v>-45900</v>
       </c>
       <c r="I102" s="3">
-        <v>57900</v>
+        <v>55800</v>
       </c>
       <c r="J102" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="K102" s="3">
         <v>73600</v>

--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>YPF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6638300</v>
+        <v>11683500</v>
       </c>
       <c r="E8" s="3">
-        <v>6731700</v>
+        <v>6149800</v>
       </c>
       <c r="F8" s="3">
-        <v>4323300</v>
+        <v>6236300</v>
       </c>
       <c r="G8" s="3">
-        <v>2507900</v>
+        <v>4005200</v>
       </c>
       <c r="H8" s="3">
-        <v>2084200</v>
+        <v>2323400</v>
       </c>
       <c r="I8" s="3">
-        <v>1548900</v>
+        <v>1930800</v>
       </c>
       <c r="J8" s="3">
+        <v>1434900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1408100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1112000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1110400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1471600</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6265700</v>
+        <v>9449000</v>
       </c>
       <c r="E9" s="3">
-        <v>5758800</v>
+        <v>5754900</v>
       </c>
       <c r="F9" s="3">
-        <v>3598600</v>
+        <v>5289800</v>
       </c>
       <c r="G9" s="3">
-        <v>2116300</v>
+        <v>3304400</v>
       </c>
       <c r="H9" s="3">
-        <v>1769100</v>
+        <v>1946600</v>
       </c>
       <c r="I9" s="3">
-        <v>1185800</v>
+        <v>1629400</v>
       </c>
       <c r="J9" s="3">
+        <v>1098500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1036600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>846200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>830900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1077100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>372600</v>
+        <v>2234500</v>
       </c>
       <c r="E10" s="3">
-        <v>972900</v>
+        <v>394900</v>
       </c>
       <c r="F10" s="3">
-        <v>724700</v>
+        <v>946500</v>
       </c>
       <c r="G10" s="3">
-        <v>391600</v>
+        <v>700700</v>
       </c>
       <c r="H10" s="3">
-        <v>315100</v>
+        <v>376800</v>
       </c>
       <c r="I10" s="3">
-        <v>363100</v>
+        <v>301400</v>
       </c>
       <c r="J10" s="3">
+        <v>336300</v>
+      </c>
+      <c r="K10" s="3">
         <v>371500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>265800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>279500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>394500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11400</v>
+        <v>8500</v>
       </c>
       <c r="E12" s="3">
-        <v>55800</v>
+        <v>11300</v>
       </c>
       <c r="F12" s="3">
-        <v>42200</v>
+        <v>52600</v>
       </c>
       <c r="G12" s="3">
-        <v>18700</v>
+        <v>43700</v>
       </c>
       <c r="H12" s="3">
-        <v>26700</v>
+        <v>17900</v>
       </c>
       <c r="I12" s="3">
-        <v>21400</v>
+        <v>24800</v>
       </c>
       <c r="J12" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K12" s="3">
         <v>15900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,32 +925,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-15400</v>
+        <v>421400</v>
       </c>
       <c r="E14" s="3">
-        <v>438100</v>
+        <v>-14300</v>
       </c>
       <c r="F14" s="3">
-        <v>-124100</v>
+        <v>405800</v>
       </c>
       <c r="G14" s="3">
-        <v>-37600</v>
+        <v>-115000</v>
       </c>
       <c r="H14" s="3">
-        <v>359100</v>
+        <v>-34800</v>
       </c>
       <c r="I14" s="3">
-        <v>36900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>332600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>34200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -945,45 +964,51 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>115200</v>
+        <v>148600</v>
       </c>
       <c r="E15" s="3">
-        <v>75200</v>
+        <v>106700</v>
       </c>
       <c r="F15" s="3">
-        <v>40900</v>
+        <v>69600</v>
       </c>
       <c r="G15" s="3">
-        <v>20400</v>
+        <v>37900</v>
       </c>
       <c r="H15" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="I15" s="3">
-        <v>11100</v>
+        <v>17400</v>
       </c>
       <c r="J15" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K15" s="3">
         <v>10600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7100</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7217600</v>
+        <v>11148900</v>
       </c>
       <c r="E17" s="3">
-        <v>6940100</v>
+        <v>6686500</v>
       </c>
       <c r="F17" s="3">
-        <v>3889000</v>
+        <v>6429400</v>
       </c>
       <c r="G17" s="3">
-        <v>2348500</v>
+        <v>3602800</v>
       </c>
       <c r="H17" s="3">
-        <v>2324700</v>
+        <v>2175600</v>
       </c>
       <c r="I17" s="3">
-        <v>1384300</v>
+        <v>2153600</v>
       </c>
       <c r="J17" s="3">
+        <v>1282400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1212200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>974300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>979700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1283400</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-579300</v>
+        <v>534600</v>
       </c>
       <c r="E18" s="3">
-        <v>-208400</v>
+        <v>-536700</v>
       </c>
       <c r="F18" s="3">
-        <v>434300</v>
+        <v>-193100</v>
       </c>
       <c r="G18" s="3">
-        <v>159400</v>
+        <v>402300</v>
       </c>
       <c r="H18" s="3">
-        <v>-240500</v>
+        <v>147700</v>
       </c>
       <c r="I18" s="3">
-        <v>164600</v>
+        <v>-222800</v>
       </c>
       <c r="J18" s="3">
+        <v>152400</v>
+      </c>
+      <c r="K18" s="3">
         <v>195800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>137700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>130600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>188200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>834600</v>
+        <v>929000</v>
       </c>
       <c r="E20" s="3">
-        <v>724000</v>
+        <v>773200</v>
       </c>
       <c r="F20" s="3">
-        <v>819700</v>
+        <v>670700</v>
       </c>
       <c r="G20" s="3">
-        <v>140700</v>
+        <v>759400</v>
       </c>
       <c r="H20" s="3">
-        <v>155800</v>
+        <v>130400</v>
       </c>
       <c r="I20" s="3">
-        <v>229000</v>
+        <v>144400</v>
       </c>
       <c r="J20" s="3">
+        <v>212100</v>
+      </c>
+      <c r="K20" s="3">
         <v>95900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>86600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>36700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>37800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2169300</v>
+        <v>4147400</v>
       </c>
       <c r="E21" s="3">
-        <v>2092200</v>
+        <v>2009800</v>
       </c>
       <c r="F21" s="3">
-        <v>2141000</v>
+        <v>1938300</v>
       </c>
       <c r="G21" s="3">
-        <v>839800</v>
+        <v>1983500</v>
       </c>
       <c r="H21" s="3">
-        <v>366800</v>
+        <v>778100</v>
       </c>
       <c r="I21" s="3">
-        <v>661700</v>
+        <v>339900</v>
       </c>
       <c r="J21" s="3">
+        <v>613000</v>
+      </c>
+      <c r="K21" s="3">
         <v>494300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>365800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>304500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400300</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>815000</v>
+        <v>879100</v>
       </c>
       <c r="E22" s="3">
-        <v>585100</v>
+        <v>755100</v>
       </c>
       <c r="F22" s="3">
-        <v>359800</v>
+        <v>542000</v>
       </c>
       <c r="G22" s="3">
-        <v>213800</v>
+        <v>333300</v>
       </c>
       <c r="H22" s="3">
-        <v>211000</v>
+        <v>198100</v>
       </c>
       <c r="I22" s="3">
-        <v>105200</v>
+        <v>195500</v>
       </c>
       <c r="J22" s="3">
+        <v>97500</v>
+      </c>
+      <c r="K22" s="3">
         <v>72800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>27400</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-559800</v>
+        <v>584500</v>
       </c>
       <c r="E23" s="3">
-        <v>-69500</v>
+        <v>-518600</v>
       </c>
       <c r="F23" s="3">
-        <v>894200</v>
+        <v>-64400</v>
       </c>
       <c r="G23" s="3">
-        <v>86300</v>
+        <v>828400</v>
       </c>
       <c r="H23" s="3">
-        <v>-295700</v>
+        <v>80000</v>
       </c>
       <c r="I23" s="3">
-        <v>288300</v>
+        <v>-273900</v>
       </c>
       <c r="J23" s="3">
+        <v>267100</v>
+      </c>
+      <c r="K23" s="3">
         <v>219000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>177100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>141600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>198600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>144700</v>
+        <v>591900</v>
       </c>
       <c r="E24" s="3">
-        <v>215900</v>
+        <v>134100</v>
       </c>
       <c r="F24" s="3">
-        <v>511300</v>
+        <v>200000</v>
       </c>
       <c r="G24" s="3">
-        <v>-39400</v>
+        <v>473600</v>
       </c>
       <c r="H24" s="3">
-        <v>-14100</v>
+        <v>-36500</v>
       </c>
       <c r="I24" s="3">
-        <v>244400</v>
+        <v>-13100</v>
       </c>
       <c r="J24" s="3">
+        <v>226400</v>
+      </c>
+      <c r="K24" s="3">
         <v>131200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>114400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>77100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>82200</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-704500</v>
+        <v>-7400</v>
       </c>
       <c r="E26" s="3">
-        <v>-285400</v>
+        <v>-652600</v>
       </c>
       <c r="F26" s="3">
-        <v>383000</v>
+        <v>-264400</v>
       </c>
       <c r="G26" s="3">
-        <v>125700</v>
+        <v>354800</v>
       </c>
       <c r="H26" s="3">
-        <v>-281500</v>
+        <v>116500</v>
       </c>
       <c r="I26" s="3">
-        <v>43900</v>
+        <v>-260800</v>
       </c>
       <c r="J26" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K26" s="3">
         <v>87800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>62700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>64500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>116400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-690900</v>
+        <v>2400</v>
       </c>
       <c r="E27" s="3">
-        <v>-292300</v>
+        <v>-640100</v>
       </c>
       <c r="F27" s="3">
-        <v>383000</v>
+        <v>-270800</v>
       </c>
       <c r="G27" s="3">
-        <v>122400</v>
+        <v>354900</v>
       </c>
       <c r="H27" s="3">
-        <v>-280100</v>
+        <v>113400</v>
       </c>
       <c r="I27" s="3">
-        <v>45400</v>
+        <v>-259500</v>
       </c>
       <c r="J27" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K27" s="3">
         <v>89300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>63200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>64500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>101000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,20 +1463,23 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
-        <v>-45700</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-42300</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1436,15 +1496,18 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-834600</v>
+        <v>-929000</v>
       </c>
       <c r="E32" s="3">
-        <v>-724000</v>
+        <v>-773200</v>
       </c>
       <c r="F32" s="3">
-        <v>-819700</v>
+        <v>-670700</v>
       </c>
       <c r="G32" s="3">
-        <v>-140700</v>
+        <v>-759400</v>
       </c>
       <c r="H32" s="3">
-        <v>-155800</v>
+        <v>-130400</v>
       </c>
       <c r="I32" s="3">
-        <v>-229000</v>
+        <v>-144400</v>
       </c>
       <c r="J32" s="3">
+        <v>-212100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-95900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-86600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-36700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-37800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-690900</v>
+        <v>2400</v>
       </c>
       <c r="E33" s="3">
-        <v>-338000</v>
+        <v>-640100</v>
       </c>
       <c r="F33" s="3">
-        <v>383000</v>
+        <v>-313100</v>
       </c>
       <c r="G33" s="3">
-        <v>122400</v>
+        <v>354900</v>
       </c>
       <c r="H33" s="3">
-        <v>-280100</v>
+        <v>113400</v>
       </c>
       <c r="I33" s="3">
-        <v>45400</v>
+        <v>-259500</v>
       </c>
       <c r="J33" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K33" s="3">
         <v>89300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>63200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>64500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>101000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-690900</v>
+        <v>2400</v>
       </c>
       <c r="E35" s="3">
-        <v>-338000</v>
+        <v>-640100</v>
       </c>
       <c r="F35" s="3">
-        <v>383000</v>
+        <v>-313100</v>
       </c>
       <c r="G35" s="3">
-        <v>122400</v>
+        <v>354900</v>
       </c>
       <c r="H35" s="3">
-        <v>-280100</v>
+        <v>113400</v>
       </c>
       <c r="I35" s="3">
-        <v>45400</v>
+        <v>-259500</v>
       </c>
       <c r="J35" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K35" s="3">
         <v>89300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>63200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>64500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>101000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>198700</v>
+        <v>298600</v>
       </c>
       <c r="E41" s="3">
-        <v>585900</v>
+        <v>184100</v>
       </c>
       <c r="F41" s="3">
-        <v>379300</v>
+        <v>542800</v>
       </c>
       <c r="G41" s="3">
-        <v>96100</v>
+        <v>351400</v>
       </c>
       <c r="H41" s="3">
-        <v>78900</v>
+        <v>89000</v>
       </c>
       <c r="I41" s="3">
-        <v>145000</v>
+        <v>73100</v>
       </c>
       <c r="J41" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K41" s="3">
         <v>81600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>55900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>64000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23200</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>630100</v>
+        <v>746200</v>
       </c>
       <c r="E42" s="3">
-        <v>152800</v>
+        <v>583700</v>
       </c>
       <c r="F42" s="3">
-        <v>185800</v>
+        <v>141600</v>
       </c>
       <c r="G42" s="3">
-        <v>317300</v>
+        <v>172200</v>
       </c>
       <c r="H42" s="3">
-        <v>102700</v>
+        <v>294000</v>
       </c>
       <c r="I42" s="3">
-        <v>15700</v>
+        <v>95200</v>
       </c>
       <c r="J42" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K42" s="3">
         <v>15200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>76300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5900</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1379000</v>
+        <v>1729200</v>
       </c>
       <c r="E43" s="3">
-        <v>1506800</v>
+        <v>1277500</v>
       </c>
       <c r="F43" s="3">
-        <v>915700</v>
+        <v>1396000</v>
       </c>
       <c r="G43" s="3">
-        <v>519800</v>
+        <v>848300</v>
       </c>
       <c r="H43" s="3">
-        <v>460300</v>
+        <v>481500</v>
       </c>
       <c r="I43" s="3">
-        <v>405200</v>
+        <v>426400</v>
       </c>
       <c r="J43" s="3">
+        <v>375300</v>
+      </c>
+      <c r="K43" s="3">
         <v>187400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>165700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>110400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>157300</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>993400</v>
+        <v>1414600</v>
       </c>
       <c r="E44" s="3">
-        <v>798400</v>
+        <v>920300</v>
       </c>
       <c r="F44" s="3">
-        <v>533100</v>
+        <v>739600</v>
       </c>
       <c r="G44" s="3">
-        <v>270700</v>
+        <v>493900</v>
       </c>
       <c r="H44" s="3">
-        <v>216500</v>
+        <v>250800</v>
       </c>
       <c r="I44" s="3">
-        <v>191000</v>
+        <v>200500</v>
       </c>
       <c r="J44" s="3">
+        <v>177000</v>
+      </c>
+      <c r="K44" s="3">
         <v>129000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>121900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>114400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>157200</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48300</v>
+        <v>96200</v>
       </c>
       <c r="E45" s="3">
-        <v>25500</v>
+        <v>44700</v>
       </c>
       <c r="F45" s="3">
-        <v>53500</v>
+        <v>23600</v>
       </c>
       <c r="G45" s="3">
-        <v>9300</v>
+        <v>49600</v>
       </c>
       <c r="H45" s="3">
-        <v>7000</v>
+        <v>8600</v>
       </c>
       <c r="I45" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="J45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K45" s="3">
         <v>4500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6000</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3249500</v>
+        <v>4284800</v>
       </c>
       <c r="E46" s="3">
-        <v>3069500</v>
+        <v>3010400</v>
       </c>
       <c r="F46" s="3">
-        <v>2067500</v>
+        <v>2843600</v>
       </c>
       <c r="G46" s="3">
-        <v>1213200</v>
+        <v>1915300</v>
       </c>
       <c r="H46" s="3">
-        <v>865300</v>
+        <v>1123900</v>
       </c>
       <c r="I46" s="3">
-        <v>763600</v>
+        <v>801600</v>
       </c>
       <c r="J46" s="3">
+        <v>707400</v>
+      </c>
+      <c r="K46" s="3">
         <v>417600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>425900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>303300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>346100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1264800</v>
+        <v>1676600</v>
       </c>
       <c r="E47" s="3">
-        <v>933500</v>
+        <v>1171700</v>
       </c>
       <c r="F47" s="3">
-        <v>650500</v>
+        <v>864800</v>
       </c>
       <c r="G47" s="3">
-        <v>93300</v>
+        <v>602600</v>
       </c>
       <c r="H47" s="3">
-        <v>169100</v>
+        <v>86500</v>
       </c>
       <c r="I47" s="3">
-        <v>67700</v>
+        <v>156600</v>
       </c>
       <c r="J47" s="3">
+        <v>62700</v>
+      </c>
+      <c r="K47" s="3">
         <v>59600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>63000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>51100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>76400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14122200</v>
+        <v>15581800</v>
       </c>
       <c r="E48" s="3">
-        <v>11213600</v>
+        <v>13083000</v>
       </c>
       <c r="F48" s="3">
-        <v>6934900</v>
+        <v>10388400</v>
       </c>
       <c r="G48" s="3">
-        <v>3516100</v>
+        <v>6424600</v>
       </c>
       <c r="H48" s="3">
-        <v>3055500</v>
+        <v>3257300</v>
       </c>
       <c r="I48" s="3">
-        <v>2687400</v>
+        <v>2830600</v>
       </c>
       <c r="J48" s="3">
+        <v>2489600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1556700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1153700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>941700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1139400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>388100</v>
+        <v>395300</v>
       </c>
       <c r="E49" s="3">
-        <v>368800</v>
+        <v>359500</v>
       </c>
       <c r="F49" s="3">
-        <v>202400</v>
+        <v>341700</v>
       </c>
       <c r="G49" s="3">
-        <v>99000</v>
+        <v>187500</v>
       </c>
       <c r="H49" s="3">
-        <v>80500</v>
+        <v>91700</v>
       </c>
       <c r="I49" s="3">
-        <v>72200</v>
+        <v>74600</v>
       </c>
       <c r="J49" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K49" s="3">
         <v>43600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>34000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>53900</v>
+        <v>26200</v>
       </c>
       <c r="E52" s="3">
-        <v>21700</v>
+        <v>49900</v>
       </c>
       <c r="F52" s="3">
-        <v>5400</v>
+        <v>20100</v>
       </c>
       <c r="G52" s="3">
-        <v>95200</v>
+        <v>5000</v>
       </c>
       <c r="H52" s="3">
-        <v>7300</v>
+        <v>88200</v>
       </c>
       <c r="I52" s="3">
-        <v>14600</v>
+        <v>6800</v>
       </c>
       <c r="J52" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K52" s="3">
         <v>8000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26700</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19078400</v>
+        <v>21964700</v>
       </c>
       <c r="E54" s="3">
-        <v>15607000</v>
+        <v>17674400</v>
       </c>
       <c r="F54" s="3">
-        <v>9860600</v>
+        <v>14458500</v>
       </c>
       <c r="G54" s="3">
-        <v>5016700</v>
+        <v>9135000</v>
       </c>
       <c r="H54" s="3">
-        <v>4177700</v>
+        <v>4647500</v>
       </c>
       <c r="I54" s="3">
-        <v>3605500</v>
+        <v>3870300</v>
       </c>
       <c r="J54" s="3">
+        <v>3340100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2068900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1673200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1321600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1596700</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1358300</v>
+        <v>1775100</v>
       </c>
       <c r="E57" s="3">
-        <v>1447700</v>
+        <v>1258400</v>
       </c>
       <c r="F57" s="3">
-        <v>808000</v>
+        <v>1341200</v>
       </c>
       <c r="G57" s="3">
-        <v>443000</v>
+        <v>748500</v>
       </c>
       <c r="H57" s="3">
-        <v>403400</v>
+        <v>410400</v>
       </c>
       <c r="I57" s="3">
-        <v>383900</v>
+        <v>373700</v>
       </c>
       <c r="J57" s="3">
+        <v>355700</v>
+      </c>
+      <c r="K57" s="3">
         <v>282900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>250700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>212500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>293100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1714500</v>
+        <v>1047400</v>
       </c>
       <c r="E58" s="3">
-        <v>1274700</v>
+        <v>1588300</v>
       </c>
       <c r="F58" s="3">
-        <v>643100</v>
+        <v>1180900</v>
       </c>
       <c r="G58" s="3">
-        <v>390200</v>
+        <v>595800</v>
       </c>
       <c r="H58" s="3">
-        <v>265600</v>
+        <v>361500</v>
       </c>
       <c r="I58" s="3">
-        <v>275900</v>
+        <v>246100</v>
       </c>
       <c r="J58" s="3">
+        <v>255600</v>
+      </c>
+      <c r="K58" s="3">
         <v>131700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>108800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>82700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>203200</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>604200</v>
+        <v>771500</v>
       </c>
       <c r="E59" s="3">
-        <v>401100</v>
+        <v>559800</v>
       </c>
       <c r="F59" s="3">
-        <v>324300</v>
+        <v>371600</v>
       </c>
       <c r="G59" s="3">
-        <v>185900</v>
+        <v>300400</v>
       </c>
       <c r="H59" s="3">
-        <v>149000</v>
+        <v>172200</v>
       </c>
       <c r="I59" s="3">
-        <v>131600</v>
+        <v>138100</v>
       </c>
       <c r="J59" s="3">
+        <v>122000</v>
+      </c>
+      <c r="K59" s="3">
         <v>126600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>63100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3677000</v>
+        <v>3594000</v>
       </c>
       <c r="E60" s="3">
-        <v>3123500</v>
+        <v>3406400</v>
       </c>
       <c r="F60" s="3">
-        <v>1775400</v>
+        <v>2893700</v>
       </c>
       <c r="G60" s="3">
-        <v>1019100</v>
+        <v>1644700</v>
       </c>
       <c r="H60" s="3">
-        <v>818100</v>
+        <v>944100</v>
       </c>
       <c r="I60" s="3">
-        <v>791500</v>
+        <v>757900</v>
       </c>
       <c r="J60" s="3">
+        <v>733300</v>
+      </c>
+      <c r="K60" s="3">
         <v>529400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>404900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>346000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>549000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5473300</v>
+        <v>6422600</v>
       </c>
       <c r="E61" s="3">
-        <v>4563600</v>
+        <v>5070600</v>
       </c>
       <c r="F61" s="3">
-        <v>2680900</v>
+        <v>4227800</v>
       </c>
       <c r="G61" s="3">
-        <v>1505100</v>
+        <v>2483600</v>
       </c>
       <c r="H61" s="3">
-        <v>1265500</v>
+        <v>1394400</v>
       </c>
       <c r="I61" s="3">
-        <v>773100</v>
+        <v>1172300</v>
       </c>
       <c r="J61" s="3">
+        <v>716200</v>
+      </c>
+      <c r="K61" s="3">
         <v>357400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>284800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>200000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>116100</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3148700</v>
+        <v>4153900</v>
       </c>
       <c r="E62" s="3">
-        <v>2482700</v>
+        <v>2917000</v>
       </c>
       <c r="F62" s="3">
-        <v>1809800</v>
+        <v>2300000</v>
       </c>
       <c r="G62" s="3">
-        <v>937700</v>
+        <v>1676600</v>
       </c>
       <c r="H62" s="3">
-        <v>917000</v>
+        <v>868700</v>
       </c>
       <c r="I62" s="3">
-        <v>845800</v>
+        <v>849600</v>
       </c>
       <c r="J62" s="3">
+        <v>783600</v>
+      </c>
+      <c r="K62" s="3">
         <v>723600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>388400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>258800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>384500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12360300</v>
+        <v>14246100</v>
       </c>
       <c r="E66" s="3">
-        <v>10224900</v>
+        <v>11450700</v>
       </c>
       <c r="F66" s="3">
-        <v>6297400</v>
+        <v>9472500</v>
       </c>
       <c r="G66" s="3">
-        <v>3506000</v>
+        <v>5834000</v>
       </c>
       <c r="H66" s="3">
-        <v>2999600</v>
+        <v>3248000</v>
       </c>
       <c r="I66" s="3">
-        <v>2411000</v>
+        <v>2778900</v>
       </c>
       <c r="J66" s="3">
+        <v>2233500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1348400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1080700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>804800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>983600</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-628800</v>
+        <v>-498100</v>
       </c>
       <c r="E72" s="3">
-        <v>-288300</v>
+        <v>-582600</v>
       </c>
       <c r="F72" s="3">
-        <v>402200</v>
+        <v>-267100</v>
       </c>
       <c r="G72" s="3">
-        <v>143300</v>
+        <v>372600</v>
       </c>
       <c r="H72" s="3">
-        <v>-219000</v>
+        <v>132800</v>
       </c>
       <c r="I72" s="3">
-        <v>106000</v>
+        <v>-202900</v>
       </c>
       <c r="J72" s="3">
+        <v>98200</v>
+      </c>
+      <c r="K72" s="3">
         <v>148900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>133100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>144600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>284900</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6718100</v>
+        <v>7718600</v>
       </c>
       <c r="E76" s="3">
-        <v>5382100</v>
+        <v>6223700</v>
       </c>
       <c r="F76" s="3">
-        <v>3563300</v>
+        <v>4986000</v>
       </c>
       <c r="G76" s="3">
-        <v>1510800</v>
+        <v>3301000</v>
       </c>
       <c r="H76" s="3">
-        <v>1178000</v>
+        <v>1399600</v>
       </c>
       <c r="I76" s="3">
-        <v>1194500</v>
+        <v>1091400</v>
       </c>
       <c r="J76" s="3">
+        <v>1106600</v>
+      </c>
+      <c r="K76" s="3">
         <v>720500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>592500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>516700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>613100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-690900</v>
+        <v>2400</v>
       </c>
       <c r="E81" s="3">
-        <v>-338000</v>
+        <v>-640100</v>
       </c>
       <c r="F81" s="3">
-        <v>383000</v>
+        <v>-313100</v>
       </c>
       <c r="G81" s="3">
-        <v>122400</v>
+        <v>354900</v>
       </c>
       <c r="H81" s="3">
-        <v>-280100</v>
+        <v>113400</v>
       </c>
       <c r="I81" s="3">
-        <v>45400</v>
+        <v>-259500</v>
       </c>
       <c r="J81" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K81" s="3">
         <v>89300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>63200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>64500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>101000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1912100</v>
+        <v>2680900</v>
       </c>
       <c r="E83" s="3">
-        <v>1575100</v>
+        <v>1771400</v>
       </c>
       <c r="F83" s="3">
-        <v>886000</v>
+        <v>1459200</v>
       </c>
       <c r="G83" s="3">
-        <v>539200</v>
+        <v>820800</v>
       </c>
       <c r="H83" s="3">
-        <v>451100</v>
+        <v>499500</v>
       </c>
       <c r="I83" s="3">
-        <v>267900</v>
+        <v>417900</v>
       </c>
       <c r="J83" s="3">
+        <v>248200</v>
+      </c>
+      <c r="K83" s="3">
         <v>202400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>141100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>136900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>170100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2075400</v>
+        <v>3676100</v>
       </c>
       <c r="E89" s="3">
-        <v>2154000</v>
+        <v>1922700</v>
       </c>
       <c r="F89" s="3">
-        <v>1240600</v>
+        <v>1995500</v>
       </c>
       <c r="G89" s="3">
-        <v>713400</v>
+        <v>1149300</v>
       </c>
       <c r="H89" s="3">
-        <v>486400</v>
+        <v>660900</v>
       </c>
       <c r="I89" s="3">
-        <v>410700</v>
+        <v>450600</v>
       </c>
       <c r="J89" s="3">
+        <v>380500</v>
+      </c>
+      <c r="K89" s="3">
         <v>457800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>258700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>286000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>332100</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1137000</v>
+        <v>-2157800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1601600</v>
+        <v>-1053300</v>
       </c>
       <c r="F91" s="3">
-        <v>-875900</v>
+        <v>-1483800</v>
       </c>
       <c r="G91" s="3">
-        <v>-591400</v>
+        <v>-811400</v>
       </c>
       <c r="H91" s="3">
-        <v>-636500</v>
+        <v>-547900</v>
       </c>
       <c r="I91" s="3">
-        <v>-632600</v>
+        <v>-589600</v>
       </c>
       <c r="J91" s="3">
+        <v>-586100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-498100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-341100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-271100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-318200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1082900</v>
+        <v>-2242300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1625700</v>
+        <v>-1003200</v>
       </c>
       <c r="F94" s="3">
-        <v>-815900</v>
+        <v>-1506000</v>
       </c>
       <c r="G94" s="3">
-        <v>-548000</v>
+        <v>-755900</v>
       </c>
       <c r="H94" s="3">
-        <v>-656400</v>
+        <v>-507700</v>
       </c>
       <c r="I94" s="3">
-        <v>-635400</v>
+        <v>-608100</v>
       </c>
       <c r="J94" s="3">
+        <v>-588600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-529800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-274000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-271100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-318300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3534,35 +3767,38 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-22800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-11900</v>
+        <v>-21100</v>
       </c>
       <c r="G96" s="3">
-        <v>-7100</v>
+        <v>-11000</v>
       </c>
       <c r="H96" s="3">
-        <v>-8800</v>
+        <v>-6600</v>
       </c>
       <c r="I96" s="3">
-        <v>-5000</v>
+        <v>-8200</v>
       </c>
       <c r="J96" s="3">
         <v>-4600</v>
       </c>
       <c r="K96" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="L96" s="3">
         <v>-4000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-5000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-145700</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1201400</v>
+        <v>-1384600</v>
       </c>
       <c r="E100" s="3">
-        <v>-556300</v>
+        <v>-1113000</v>
       </c>
       <c r="F100" s="3">
-        <v>-433100</v>
+        <v>-515400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3500</v>
+        <v>-401200</v>
       </c>
       <c r="H100" s="3">
-        <v>107300</v>
+        <v>-3300</v>
       </c>
       <c r="I100" s="3">
-        <v>234800</v>
+        <v>99400</v>
       </c>
       <c r="J100" s="3">
+        <v>217500</v>
+      </c>
+      <c r="K100" s="3">
         <v>49500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>86100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>43900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-48300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>95000</v>
+        <v>24800</v>
       </c>
       <c r="E101" s="3">
-        <v>227100</v>
+        <v>88000</v>
       </c>
       <c r="F101" s="3">
-        <v>179900</v>
+        <v>210400</v>
       </c>
       <c r="G101" s="3">
-        <v>16500</v>
+        <v>166700</v>
       </c>
       <c r="H101" s="3">
-        <v>16800</v>
+        <v>15300</v>
       </c>
       <c r="I101" s="3">
-        <v>45700</v>
+        <v>15500</v>
       </c>
       <c r="J101" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K101" s="3">
         <v>13000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-113900</v>
+        <v>74100</v>
       </c>
       <c r="E102" s="3">
-        <v>199100</v>
+        <v>-105500</v>
       </c>
       <c r="F102" s="3">
-        <v>171500</v>
+        <v>184500</v>
       </c>
       <c r="G102" s="3">
-        <v>178400</v>
+        <v>158900</v>
       </c>
       <c r="H102" s="3">
-        <v>-45900</v>
+        <v>165200</v>
       </c>
       <c r="I102" s="3">
-        <v>55800</v>
+        <v>-42500</v>
       </c>
       <c r="J102" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-9500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>73600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>60100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-31800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11683500</v>
+        <v>10844400</v>
       </c>
       <c r="E8" s="3">
-        <v>6149800</v>
+        <v>5708200</v>
       </c>
       <c r="F8" s="3">
-        <v>6236300</v>
+        <v>5788400</v>
       </c>
       <c r="G8" s="3">
-        <v>4005200</v>
+        <v>3717500</v>
       </c>
       <c r="H8" s="3">
-        <v>2323400</v>
+        <v>2156500</v>
       </c>
       <c r="I8" s="3">
-        <v>1930800</v>
+        <v>1792200</v>
       </c>
       <c r="J8" s="3">
-        <v>1434900</v>
+        <v>1331800</v>
       </c>
       <c r="K8" s="3">
         <v>1408100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9449000</v>
+        <v>8770400</v>
       </c>
       <c r="E9" s="3">
-        <v>5754900</v>
+        <v>5341600</v>
       </c>
       <c r="F9" s="3">
-        <v>5289800</v>
+        <v>4909900</v>
       </c>
       <c r="G9" s="3">
-        <v>3304400</v>
+        <v>3067100</v>
       </c>
       <c r="H9" s="3">
-        <v>1946600</v>
+        <v>1806800</v>
       </c>
       <c r="I9" s="3">
-        <v>1629400</v>
+        <v>1512400</v>
       </c>
       <c r="J9" s="3">
-        <v>1098500</v>
+        <v>1019700</v>
       </c>
       <c r="K9" s="3">
         <v>1036600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2234500</v>
+        <v>2074100</v>
       </c>
       <c r="E10" s="3">
-        <v>394900</v>
+        <v>366600</v>
       </c>
       <c r="F10" s="3">
-        <v>946500</v>
+        <v>878500</v>
       </c>
       <c r="G10" s="3">
-        <v>700700</v>
+        <v>650400</v>
       </c>
       <c r="H10" s="3">
-        <v>376800</v>
+        <v>349700</v>
       </c>
       <c r="I10" s="3">
-        <v>301400</v>
+        <v>279700</v>
       </c>
       <c r="J10" s="3">
-        <v>336300</v>
+        <v>312200</v>
       </c>
       <c r="K10" s="3">
         <v>371500</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="E12" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="F12" s="3">
-        <v>52600</v>
+        <v>48800</v>
       </c>
       <c r="G12" s="3">
-        <v>43700</v>
+        <v>40600</v>
       </c>
       <c r="H12" s="3">
-        <v>17900</v>
+        <v>16600</v>
       </c>
       <c r="I12" s="3">
-        <v>24800</v>
+        <v>23000</v>
       </c>
       <c r="J12" s="3">
-        <v>19800</v>
+        <v>18400</v>
       </c>
       <c r="K12" s="3">
         <v>15900</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>421400</v>
+        <v>391100</v>
       </c>
       <c r="E14" s="3">
-        <v>-14300</v>
+        <v>-13200</v>
       </c>
       <c r="F14" s="3">
-        <v>405800</v>
+        <v>376700</v>
       </c>
       <c r="G14" s="3">
-        <v>-115000</v>
+        <v>-106800</v>
       </c>
       <c r="H14" s="3">
-        <v>-34800</v>
+        <v>-32300</v>
       </c>
       <c r="I14" s="3">
-        <v>332600</v>
+        <v>308800</v>
       </c>
       <c r="J14" s="3">
-        <v>34200</v>
+        <v>31800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>148600</v>
+        <v>137900</v>
       </c>
       <c r="E15" s="3">
-        <v>106700</v>
+        <v>99000</v>
       </c>
       <c r="F15" s="3">
-        <v>69600</v>
+        <v>64600</v>
       </c>
       <c r="G15" s="3">
-        <v>37900</v>
+        <v>35200</v>
       </c>
       <c r="H15" s="3">
-        <v>18900</v>
+        <v>17500</v>
       </c>
       <c r="I15" s="3">
-        <v>17400</v>
+        <v>16100</v>
       </c>
       <c r="J15" s="3">
-        <v>10300</v>
+        <v>9500</v>
       </c>
       <c r="K15" s="3">
         <v>10600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11148900</v>
+        <v>10348300</v>
       </c>
       <c r="E17" s="3">
-        <v>6686500</v>
+        <v>6206300</v>
       </c>
       <c r="F17" s="3">
-        <v>6429400</v>
+        <v>5967600</v>
       </c>
       <c r="G17" s="3">
-        <v>3602800</v>
+        <v>3344100</v>
       </c>
       <c r="H17" s="3">
-        <v>2175600</v>
+        <v>2019400</v>
       </c>
       <c r="I17" s="3">
-        <v>2153600</v>
+        <v>1999000</v>
       </c>
       <c r="J17" s="3">
-        <v>1282400</v>
+        <v>1190300</v>
       </c>
       <c r="K17" s="3">
         <v>1212200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>534600</v>
+        <v>496200</v>
       </c>
       <c r="E18" s="3">
-        <v>-536700</v>
+        <v>-498100</v>
       </c>
       <c r="F18" s="3">
-        <v>-193100</v>
+        <v>-179200</v>
       </c>
       <c r="G18" s="3">
-        <v>402300</v>
+        <v>373400</v>
       </c>
       <c r="H18" s="3">
-        <v>147700</v>
+        <v>137100</v>
       </c>
       <c r="I18" s="3">
-        <v>-222800</v>
+        <v>-206800</v>
       </c>
       <c r="J18" s="3">
-        <v>152400</v>
+        <v>141500</v>
       </c>
       <c r="K18" s="3">
         <v>195800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>929000</v>
+        <v>862300</v>
       </c>
       <c r="E20" s="3">
-        <v>773200</v>
+        <v>717600</v>
       </c>
       <c r="F20" s="3">
-        <v>670700</v>
+        <v>622500</v>
       </c>
       <c r="G20" s="3">
-        <v>759400</v>
+        <v>704900</v>
       </c>
       <c r="H20" s="3">
-        <v>130400</v>
+        <v>121000</v>
       </c>
       <c r="I20" s="3">
-        <v>144400</v>
+        <v>134000</v>
       </c>
       <c r="J20" s="3">
-        <v>212100</v>
+        <v>196900</v>
       </c>
       <c r="K20" s="3">
         <v>95900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4147400</v>
+        <v>3849700</v>
       </c>
       <c r="E21" s="3">
-        <v>2009800</v>
+        <v>1865600</v>
       </c>
       <c r="F21" s="3">
-        <v>1938300</v>
+        <v>1799200</v>
       </c>
       <c r="G21" s="3">
-        <v>1983500</v>
+        <v>1841100</v>
       </c>
       <c r="H21" s="3">
-        <v>778100</v>
+        <v>722200</v>
       </c>
       <c r="I21" s="3">
-        <v>339900</v>
+        <v>315500</v>
       </c>
       <c r="J21" s="3">
-        <v>613000</v>
+        <v>569000</v>
       </c>
       <c r="K21" s="3">
         <v>494300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>879100</v>
+        <v>815900</v>
       </c>
       <c r="E22" s="3">
-        <v>755100</v>
+        <v>700800</v>
       </c>
       <c r="F22" s="3">
-        <v>542000</v>
+        <v>503100</v>
       </c>
       <c r="G22" s="3">
-        <v>333300</v>
+        <v>309400</v>
       </c>
       <c r="H22" s="3">
-        <v>198100</v>
+        <v>183900</v>
       </c>
       <c r="I22" s="3">
-        <v>195500</v>
+        <v>181400</v>
       </c>
       <c r="J22" s="3">
-        <v>97500</v>
+        <v>90500</v>
       </c>
       <c r="K22" s="3">
         <v>72800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>584500</v>
+        <v>542500</v>
       </c>
       <c r="E23" s="3">
-        <v>-518600</v>
+        <v>-481300</v>
       </c>
       <c r="F23" s="3">
-        <v>-64400</v>
+        <v>-59800</v>
       </c>
       <c r="G23" s="3">
-        <v>828400</v>
+        <v>768900</v>
       </c>
       <c r="H23" s="3">
-        <v>80000</v>
+        <v>74200</v>
       </c>
       <c r="I23" s="3">
-        <v>-273900</v>
+        <v>-254200</v>
       </c>
       <c r="J23" s="3">
-        <v>267100</v>
+        <v>247900</v>
       </c>
       <c r="K23" s="3">
         <v>219000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>591900</v>
+        <v>549400</v>
       </c>
       <c r="E24" s="3">
-        <v>134100</v>
+        <v>124400</v>
       </c>
       <c r="F24" s="3">
-        <v>200000</v>
+        <v>185700</v>
       </c>
       <c r="G24" s="3">
-        <v>473600</v>
+        <v>439600</v>
       </c>
       <c r="H24" s="3">
-        <v>-36500</v>
+        <v>-33900</v>
       </c>
       <c r="I24" s="3">
-        <v>-13100</v>
+        <v>-12200</v>
       </c>
       <c r="J24" s="3">
-        <v>226400</v>
+        <v>210200</v>
       </c>
       <c r="K24" s="3">
         <v>131200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7400</v>
+        <v>-6900</v>
       </c>
       <c r="E26" s="3">
-        <v>-652600</v>
+        <v>-605800</v>
       </c>
       <c r="F26" s="3">
-        <v>-264400</v>
+        <v>-245500</v>
       </c>
       <c r="G26" s="3">
-        <v>354800</v>
+        <v>329300</v>
       </c>
       <c r="H26" s="3">
-        <v>116500</v>
+        <v>108100</v>
       </c>
       <c r="I26" s="3">
-        <v>-260800</v>
+        <v>-242100</v>
       </c>
       <c r="J26" s="3">
-        <v>40700</v>
+        <v>37800</v>
       </c>
       <c r="K26" s="3">
         <v>87800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E27" s="3">
-        <v>-640100</v>
+        <v>-594100</v>
       </c>
       <c r="F27" s="3">
-        <v>-270800</v>
+        <v>-251400</v>
       </c>
       <c r="G27" s="3">
-        <v>354900</v>
+        <v>329400</v>
       </c>
       <c r="H27" s="3">
-        <v>113400</v>
+        <v>105300</v>
       </c>
       <c r="I27" s="3">
-        <v>-259500</v>
+        <v>-240900</v>
       </c>
       <c r="J27" s="3">
-        <v>42100</v>
+        <v>39100</v>
       </c>
       <c r="K27" s="3">
         <v>89300</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-42300</v>
+        <v>-39300</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-929000</v>
+        <v>-862300</v>
       </c>
       <c r="E32" s="3">
-        <v>-773200</v>
+        <v>-717600</v>
       </c>
       <c r="F32" s="3">
-        <v>-670700</v>
+        <v>-622500</v>
       </c>
       <c r="G32" s="3">
-        <v>-759400</v>
+        <v>-704900</v>
       </c>
       <c r="H32" s="3">
-        <v>-130400</v>
+        <v>-121000</v>
       </c>
       <c r="I32" s="3">
-        <v>-144400</v>
+        <v>-134000</v>
       </c>
       <c r="J32" s="3">
-        <v>-212100</v>
+        <v>-196900</v>
       </c>
       <c r="K32" s="3">
         <v>-95900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E33" s="3">
-        <v>-640100</v>
+        <v>-594100</v>
       </c>
       <c r="F33" s="3">
-        <v>-313100</v>
+        <v>-290600</v>
       </c>
       <c r="G33" s="3">
-        <v>354900</v>
+        <v>329400</v>
       </c>
       <c r="H33" s="3">
-        <v>113400</v>
+        <v>105300</v>
       </c>
       <c r="I33" s="3">
-        <v>-259500</v>
+        <v>-240900</v>
       </c>
       <c r="J33" s="3">
-        <v>42100</v>
+        <v>39100</v>
       </c>
       <c r="K33" s="3">
         <v>89300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E35" s="3">
-        <v>-640100</v>
+        <v>-594100</v>
       </c>
       <c r="F35" s="3">
-        <v>-313100</v>
+        <v>-290600</v>
       </c>
       <c r="G35" s="3">
-        <v>354900</v>
+        <v>329400</v>
       </c>
       <c r="H35" s="3">
-        <v>113400</v>
+        <v>105300</v>
       </c>
       <c r="I35" s="3">
-        <v>-259500</v>
+        <v>-240900</v>
       </c>
       <c r="J35" s="3">
-        <v>42100</v>
+        <v>39100</v>
       </c>
       <c r="K35" s="3">
         <v>89300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>298600</v>
+        <v>277100</v>
       </c>
       <c r="E41" s="3">
-        <v>184100</v>
+        <v>170900</v>
       </c>
       <c r="F41" s="3">
-        <v>542800</v>
+        <v>503800</v>
       </c>
       <c r="G41" s="3">
-        <v>351400</v>
+        <v>326200</v>
       </c>
       <c r="H41" s="3">
-        <v>89000</v>
+        <v>82600</v>
       </c>
       <c r="I41" s="3">
-        <v>73100</v>
+        <v>67800</v>
       </c>
       <c r="J41" s="3">
-        <v>134300</v>
+        <v>124600</v>
       </c>
       <c r="K41" s="3">
         <v>81600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>746200</v>
+        <v>692600</v>
       </c>
       <c r="E42" s="3">
-        <v>583700</v>
+        <v>541800</v>
       </c>
       <c r="F42" s="3">
-        <v>141600</v>
+        <v>131400</v>
       </c>
       <c r="G42" s="3">
-        <v>172200</v>
+        <v>159800</v>
       </c>
       <c r="H42" s="3">
-        <v>294000</v>
+        <v>272800</v>
       </c>
       <c r="I42" s="3">
-        <v>95200</v>
+        <v>88300</v>
       </c>
       <c r="J42" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="K42" s="3">
         <v>15200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1729200</v>
+        <v>1605000</v>
       </c>
       <c r="E43" s="3">
-        <v>1277500</v>
+        <v>1185800</v>
       </c>
       <c r="F43" s="3">
-        <v>1396000</v>
+        <v>1295700</v>
       </c>
       <c r="G43" s="3">
-        <v>848300</v>
+        <v>787400</v>
       </c>
       <c r="H43" s="3">
-        <v>481500</v>
+        <v>447000</v>
       </c>
       <c r="I43" s="3">
-        <v>426400</v>
+        <v>395800</v>
       </c>
       <c r="J43" s="3">
-        <v>375300</v>
+        <v>348400</v>
       </c>
       <c r="K43" s="3">
         <v>187400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1414600</v>
+        <v>1313000</v>
       </c>
       <c r="E44" s="3">
-        <v>920300</v>
+        <v>854200</v>
       </c>
       <c r="F44" s="3">
-        <v>739600</v>
+        <v>686500</v>
       </c>
       <c r="G44" s="3">
-        <v>493900</v>
+        <v>458400</v>
       </c>
       <c r="H44" s="3">
-        <v>250800</v>
+        <v>232800</v>
       </c>
       <c r="I44" s="3">
-        <v>200500</v>
+        <v>186100</v>
       </c>
       <c r="J44" s="3">
-        <v>177000</v>
+        <v>164300</v>
       </c>
       <c r="K44" s="3">
         <v>129000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>96200</v>
+        <v>89200</v>
       </c>
       <c r="E45" s="3">
-        <v>44700</v>
+        <v>41500</v>
       </c>
       <c r="F45" s="3">
-        <v>23600</v>
+        <v>21900</v>
       </c>
       <c r="G45" s="3">
-        <v>49600</v>
+        <v>46000</v>
       </c>
       <c r="H45" s="3">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="I45" s="3">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="J45" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="K45" s="3">
         <v>4500</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4284800</v>
+        <v>3977100</v>
       </c>
       <c r="E46" s="3">
-        <v>3010400</v>
+        <v>2794200</v>
       </c>
       <c r="F46" s="3">
-        <v>2843600</v>
+        <v>2639400</v>
       </c>
       <c r="G46" s="3">
-        <v>1915300</v>
+        <v>1777800</v>
       </c>
       <c r="H46" s="3">
-        <v>1123900</v>
+        <v>1043200</v>
       </c>
       <c r="I46" s="3">
-        <v>801600</v>
+        <v>744000</v>
       </c>
       <c r="J46" s="3">
-        <v>707400</v>
+        <v>656600</v>
       </c>
       <c r="K46" s="3">
         <v>417600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1676600</v>
+        <v>1556200</v>
       </c>
       <c r="E47" s="3">
-        <v>1171700</v>
+        <v>1087600</v>
       </c>
       <c r="F47" s="3">
-        <v>864800</v>
+        <v>802700</v>
       </c>
       <c r="G47" s="3">
-        <v>602600</v>
+        <v>559300</v>
       </c>
       <c r="H47" s="3">
-        <v>86500</v>
+        <v>80300</v>
       </c>
       <c r="I47" s="3">
-        <v>156600</v>
+        <v>145400</v>
       </c>
       <c r="J47" s="3">
-        <v>62700</v>
+        <v>58200</v>
       </c>
       <c r="K47" s="3">
         <v>59600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15581800</v>
+        <v>14462800</v>
       </c>
       <c r="E48" s="3">
-        <v>13083000</v>
+        <v>12143400</v>
       </c>
       <c r="F48" s="3">
-        <v>10388400</v>
+        <v>9642300</v>
       </c>
       <c r="G48" s="3">
-        <v>6424600</v>
+        <v>5963200</v>
       </c>
       <c r="H48" s="3">
-        <v>3257300</v>
+        <v>3023400</v>
       </c>
       <c r="I48" s="3">
-        <v>2830600</v>
+        <v>2627400</v>
       </c>
       <c r="J48" s="3">
-        <v>2489600</v>
+        <v>2310800</v>
       </c>
       <c r="K48" s="3">
         <v>1556700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>395300</v>
+        <v>366900</v>
       </c>
       <c r="E49" s="3">
-        <v>359500</v>
+        <v>333700</v>
       </c>
       <c r="F49" s="3">
-        <v>341700</v>
+        <v>317100</v>
       </c>
       <c r="G49" s="3">
-        <v>187500</v>
+        <v>174000</v>
       </c>
       <c r="H49" s="3">
-        <v>91700</v>
+        <v>85100</v>
       </c>
       <c r="I49" s="3">
-        <v>74600</v>
+        <v>69200</v>
       </c>
       <c r="J49" s="3">
-        <v>66900</v>
+        <v>62100</v>
       </c>
       <c r="K49" s="3">
         <v>43600</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26200</v>
+        <v>24400</v>
       </c>
       <c r="E52" s="3">
-        <v>49900</v>
+        <v>46300</v>
       </c>
       <c r="F52" s="3">
-        <v>20100</v>
+        <v>18700</v>
       </c>
       <c r="G52" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="H52" s="3">
-        <v>88200</v>
+        <v>81800</v>
       </c>
       <c r="I52" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="J52" s="3">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="K52" s="3">
         <v>8000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21964700</v>
+        <v>20387300</v>
       </c>
       <c r="E54" s="3">
-        <v>17674400</v>
+        <v>16405100</v>
       </c>
       <c r="F54" s="3">
-        <v>14458500</v>
+        <v>13420200</v>
       </c>
       <c r="G54" s="3">
-        <v>9135000</v>
+        <v>8479000</v>
       </c>
       <c r="H54" s="3">
-        <v>4647500</v>
+        <v>4313800</v>
       </c>
       <c r="I54" s="3">
-        <v>3870300</v>
+        <v>3592300</v>
       </c>
       <c r="J54" s="3">
-        <v>3340100</v>
+        <v>3100300</v>
       </c>
       <c r="K54" s="3">
         <v>2068900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1775100</v>
+        <v>1647600</v>
       </c>
       <c r="E57" s="3">
-        <v>1258400</v>
+        <v>1168000</v>
       </c>
       <c r="F57" s="3">
-        <v>1341200</v>
+        <v>1244900</v>
       </c>
       <c r="G57" s="3">
-        <v>748500</v>
+        <v>694800</v>
       </c>
       <c r="H57" s="3">
-        <v>410400</v>
+        <v>380900</v>
       </c>
       <c r="I57" s="3">
-        <v>373700</v>
+        <v>346900</v>
       </c>
       <c r="J57" s="3">
-        <v>355700</v>
+        <v>330100</v>
       </c>
       <c r="K57" s="3">
         <v>282900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1047400</v>
+        <v>972100</v>
       </c>
       <c r="E58" s="3">
-        <v>1588300</v>
+        <v>1474200</v>
       </c>
       <c r="F58" s="3">
-        <v>1180900</v>
+        <v>1096100</v>
       </c>
       <c r="G58" s="3">
-        <v>595800</v>
+        <v>553000</v>
       </c>
       <c r="H58" s="3">
-        <v>361500</v>
+        <v>335500</v>
       </c>
       <c r="I58" s="3">
-        <v>246100</v>
+        <v>228400</v>
       </c>
       <c r="J58" s="3">
-        <v>255600</v>
+        <v>237300</v>
       </c>
       <c r="K58" s="3">
         <v>131700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>771500</v>
+        <v>716100</v>
       </c>
       <c r="E59" s="3">
-        <v>559800</v>
+        <v>519600</v>
       </c>
       <c r="F59" s="3">
-        <v>371600</v>
+        <v>344900</v>
       </c>
       <c r="G59" s="3">
-        <v>300400</v>
+        <v>278900</v>
       </c>
       <c r="H59" s="3">
-        <v>172200</v>
+        <v>159900</v>
       </c>
       <c r="I59" s="3">
-        <v>138100</v>
+        <v>128100</v>
       </c>
       <c r="J59" s="3">
-        <v>122000</v>
+        <v>113200</v>
       </c>
       <c r="K59" s="3">
         <v>126600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3594000</v>
+        <v>3335900</v>
       </c>
       <c r="E60" s="3">
-        <v>3406400</v>
+        <v>3161800</v>
       </c>
       <c r="F60" s="3">
-        <v>2893700</v>
+        <v>2685900</v>
       </c>
       <c r="G60" s="3">
-        <v>1644700</v>
+        <v>1526600</v>
       </c>
       <c r="H60" s="3">
-        <v>944100</v>
+        <v>876300</v>
       </c>
       <c r="I60" s="3">
-        <v>757900</v>
+        <v>703400</v>
       </c>
       <c r="J60" s="3">
-        <v>733300</v>
+        <v>680600</v>
       </c>
       <c r="K60" s="3">
         <v>529400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6422600</v>
+        <v>5961400</v>
       </c>
       <c r="E61" s="3">
-        <v>5070600</v>
+        <v>4706400</v>
       </c>
       <c r="F61" s="3">
-        <v>4227800</v>
+        <v>3924200</v>
       </c>
       <c r="G61" s="3">
-        <v>2483600</v>
+        <v>2305200</v>
       </c>
       <c r="H61" s="3">
-        <v>1394400</v>
+        <v>1294200</v>
       </c>
       <c r="I61" s="3">
-        <v>1172300</v>
+        <v>1088200</v>
       </c>
       <c r="J61" s="3">
-        <v>716200</v>
+        <v>664800</v>
       </c>
       <c r="K61" s="3">
         <v>357400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4153900</v>
+        <v>3855600</v>
       </c>
       <c r="E62" s="3">
-        <v>2917000</v>
+        <v>2707500</v>
       </c>
       <c r="F62" s="3">
-        <v>2300000</v>
+        <v>2134900</v>
       </c>
       <c r="G62" s="3">
-        <v>1676600</v>
+        <v>1556200</v>
       </c>
       <c r="H62" s="3">
-        <v>868700</v>
+        <v>806300</v>
       </c>
       <c r="I62" s="3">
-        <v>849600</v>
+        <v>788500</v>
       </c>
       <c r="J62" s="3">
-        <v>783600</v>
+        <v>727300</v>
       </c>
       <c r="K62" s="3">
         <v>723600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14246100</v>
+        <v>13223000</v>
       </c>
       <c r="E66" s="3">
-        <v>11450700</v>
+        <v>10628300</v>
       </c>
       <c r="F66" s="3">
-        <v>9472500</v>
+        <v>8792200</v>
       </c>
       <c r="G66" s="3">
-        <v>5834000</v>
+        <v>5415000</v>
       </c>
       <c r="H66" s="3">
-        <v>3248000</v>
+        <v>3014700</v>
       </c>
       <c r="I66" s="3">
-        <v>2778900</v>
+        <v>2579300</v>
       </c>
       <c r="J66" s="3">
-        <v>2233500</v>
+        <v>2073100</v>
       </c>
       <c r="K66" s="3">
         <v>1348400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-498100</v>
+        <v>-462300</v>
       </c>
       <c r="E72" s="3">
-        <v>-582600</v>
+        <v>-540700</v>
       </c>
       <c r="F72" s="3">
-        <v>-267100</v>
+        <v>-247900</v>
       </c>
       <c r="G72" s="3">
-        <v>372600</v>
+        <v>345800</v>
       </c>
       <c r="H72" s="3">
-        <v>132800</v>
+        <v>123200</v>
       </c>
       <c r="I72" s="3">
-        <v>-202900</v>
+        <v>-188400</v>
       </c>
       <c r="J72" s="3">
-        <v>98200</v>
+        <v>91100</v>
       </c>
       <c r="K72" s="3">
         <v>148900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7718600</v>
+        <v>7164300</v>
       </c>
       <c r="E76" s="3">
-        <v>6223700</v>
+        <v>5776800</v>
       </c>
       <c r="F76" s="3">
-        <v>4986000</v>
+        <v>4627900</v>
       </c>
       <c r="G76" s="3">
-        <v>3301000</v>
+        <v>3064000</v>
       </c>
       <c r="H76" s="3">
-        <v>1399600</v>
+        <v>1299100</v>
       </c>
       <c r="I76" s="3">
-        <v>1091400</v>
+        <v>1013000</v>
       </c>
       <c r="J76" s="3">
-        <v>1106600</v>
+        <v>1027100</v>
       </c>
       <c r="K76" s="3">
         <v>720500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E81" s="3">
-        <v>-640100</v>
+        <v>-594100</v>
       </c>
       <c r="F81" s="3">
-        <v>-313100</v>
+        <v>-290600</v>
       </c>
       <c r="G81" s="3">
-        <v>354900</v>
+        <v>329400</v>
       </c>
       <c r="H81" s="3">
-        <v>113400</v>
+        <v>105300</v>
       </c>
       <c r="I81" s="3">
-        <v>-259500</v>
+        <v>-240900</v>
       </c>
       <c r="J81" s="3">
-        <v>42100</v>
+        <v>39100</v>
       </c>
       <c r="K81" s="3">
         <v>89300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2680900</v>
+        <v>2488400</v>
       </c>
       <c r="E83" s="3">
-        <v>1771400</v>
+        <v>1644200</v>
       </c>
       <c r="F83" s="3">
-        <v>1459200</v>
+        <v>1354400</v>
       </c>
       <c r="G83" s="3">
-        <v>820800</v>
+        <v>761900</v>
       </c>
       <c r="H83" s="3">
-        <v>499500</v>
+        <v>463600</v>
       </c>
       <c r="I83" s="3">
-        <v>417900</v>
+        <v>387900</v>
       </c>
       <c r="J83" s="3">
-        <v>248200</v>
+        <v>230400</v>
       </c>
       <c r="K83" s="3">
         <v>202400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3676100</v>
+        <v>3412100</v>
       </c>
       <c r="E89" s="3">
-        <v>1922700</v>
+        <v>1784600</v>
       </c>
       <c r="F89" s="3">
-        <v>1995500</v>
+        <v>1852200</v>
       </c>
       <c r="G89" s="3">
-        <v>1149300</v>
+        <v>1066700</v>
       </c>
       <c r="H89" s="3">
-        <v>660900</v>
+        <v>613400</v>
       </c>
       <c r="I89" s="3">
-        <v>450600</v>
+        <v>418300</v>
       </c>
       <c r="J89" s="3">
-        <v>380500</v>
+        <v>353200</v>
       </c>
       <c r="K89" s="3">
         <v>457800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2157800</v>
+        <v>-2002900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1053300</v>
+        <v>-977700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1483800</v>
+        <v>-1377200</v>
       </c>
       <c r="G91" s="3">
-        <v>-811400</v>
+        <v>-753100</v>
       </c>
       <c r="H91" s="3">
-        <v>-547900</v>
+        <v>-508500</v>
       </c>
       <c r="I91" s="3">
-        <v>-589600</v>
+        <v>-547300</v>
       </c>
       <c r="J91" s="3">
-        <v>-586100</v>
+        <v>-544000</v>
       </c>
       <c r="K91" s="3">
         <v>-498100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2242300</v>
+        <v>-2081300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1003200</v>
+        <v>-931100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1506000</v>
+        <v>-1397900</v>
       </c>
       <c r="G94" s="3">
-        <v>-755900</v>
+        <v>-701600</v>
       </c>
       <c r="H94" s="3">
-        <v>-507700</v>
+        <v>-471200</v>
       </c>
       <c r="I94" s="3">
-        <v>-608100</v>
+        <v>-564500</v>
       </c>
       <c r="J94" s="3">
-        <v>-588600</v>
+        <v>-546300</v>
       </c>
       <c r="K94" s="3">
         <v>-529800</v>
@@ -3770,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-21100</v>
+        <v>-19600</v>
       </c>
       <c r="G96" s="3">
-        <v>-11000</v>
+        <v>-10200</v>
       </c>
       <c r="H96" s="3">
-        <v>-6600</v>
+        <v>-6100</v>
       </c>
       <c r="I96" s="3">
-        <v>-8200</v>
+        <v>-7600</v>
       </c>
       <c r="J96" s="3">
-        <v>-4600</v>
+        <v>-4300</v>
       </c>
       <c r="K96" s="3">
         <v>-4600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1384600</v>
+        <v>-1285100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1113000</v>
+        <v>-1033100</v>
       </c>
       <c r="F100" s="3">
-        <v>-515400</v>
+        <v>-478400</v>
       </c>
       <c r="G100" s="3">
-        <v>-401200</v>
+        <v>-372400</v>
       </c>
       <c r="H100" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="I100" s="3">
-        <v>99400</v>
+        <v>92300</v>
       </c>
       <c r="J100" s="3">
-        <v>217500</v>
+        <v>201900</v>
       </c>
       <c r="K100" s="3">
         <v>49500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24800</v>
+        <v>23000</v>
       </c>
       <c r="E101" s="3">
-        <v>88000</v>
+        <v>81700</v>
       </c>
       <c r="F101" s="3">
-        <v>210400</v>
+        <v>195300</v>
       </c>
       <c r="G101" s="3">
-        <v>166700</v>
+        <v>154700</v>
       </c>
       <c r="H101" s="3">
-        <v>15300</v>
+        <v>14200</v>
       </c>
       <c r="I101" s="3">
-        <v>15500</v>
+        <v>14400</v>
       </c>
       <c r="J101" s="3">
-        <v>42400</v>
+        <v>39300</v>
       </c>
       <c r="K101" s="3">
         <v>13000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>74100</v>
+        <v>68800</v>
       </c>
       <c r="E102" s="3">
-        <v>-105500</v>
+        <v>-97900</v>
       </c>
       <c r="F102" s="3">
-        <v>184500</v>
+        <v>171200</v>
       </c>
       <c r="G102" s="3">
-        <v>158900</v>
+        <v>147500</v>
       </c>
       <c r="H102" s="3">
-        <v>165200</v>
+        <v>153400</v>
       </c>
       <c r="I102" s="3">
-        <v>-42500</v>
+        <v>-39500</v>
       </c>
       <c r="J102" s="3">
-        <v>51700</v>
+        <v>48000</v>
       </c>
       <c r="K102" s="3">
         <v>-9500</v>

--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10844400</v>
+        <v>9255300</v>
       </c>
       <c r="E8" s="3">
-        <v>5708200</v>
+        <v>4871700</v>
       </c>
       <c r="F8" s="3">
-        <v>5788400</v>
+        <v>4940200</v>
       </c>
       <c r="G8" s="3">
-        <v>3717500</v>
+        <v>3172800</v>
       </c>
       <c r="H8" s="3">
-        <v>2156500</v>
+        <v>1840500</v>
       </c>
       <c r="I8" s="3">
-        <v>1792200</v>
+        <v>1529500</v>
       </c>
       <c r="J8" s="3">
-        <v>1331800</v>
+        <v>1136700</v>
       </c>
       <c r="K8" s="3">
         <v>1408100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8770400</v>
+        <v>7485200</v>
       </c>
       <c r="E9" s="3">
-        <v>5341600</v>
+        <v>4558800</v>
       </c>
       <c r="F9" s="3">
-        <v>4909900</v>
+        <v>4190400</v>
       </c>
       <c r="G9" s="3">
-        <v>3067100</v>
+        <v>2617700</v>
       </c>
       <c r="H9" s="3">
-        <v>1806800</v>
+        <v>1542000</v>
       </c>
       <c r="I9" s="3">
-        <v>1512400</v>
+        <v>1290800</v>
       </c>
       <c r="J9" s="3">
-        <v>1019700</v>
+        <v>870200</v>
       </c>
       <c r="K9" s="3">
         <v>1036600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2074100</v>
+        <v>1770100</v>
       </c>
       <c r="E10" s="3">
-        <v>366600</v>
+        <v>312900</v>
       </c>
       <c r="F10" s="3">
-        <v>878500</v>
+        <v>749700</v>
       </c>
       <c r="G10" s="3">
-        <v>650400</v>
+        <v>555100</v>
       </c>
       <c r="H10" s="3">
-        <v>349700</v>
+        <v>298500</v>
       </c>
       <c r="I10" s="3">
-        <v>279700</v>
+        <v>238800</v>
       </c>
       <c r="J10" s="3">
-        <v>312200</v>
+        <v>266400</v>
       </c>
       <c r="K10" s="3">
         <v>371500</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7900</v>
+        <v>6700</v>
       </c>
       <c r="E12" s="3">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="F12" s="3">
-        <v>48800</v>
+        <v>41600</v>
       </c>
       <c r="G12" s="3">
-        <v>40600</v>
+        <v>34700</v>
       </c>
       <c r="H12" s="3">
-        <v>16600</v>
+        <v>14200</v>
       </c>
       <c r="I12" s="3">
-        <v>23000</v>
+        <v>19700</v>
       </c>
       <c r="J12" s="3">
-        <v>18400</v>
+        <v>15700</v>
       </c>
       <c r="K12" s="3">
         <v>15900</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>391100</v>
+        <v>333800</v>
       </c>
       <c r="E14" s="3">
-        <v>-13200</v>
+        <v>-11300</v>
       </c>
       <c r="F14" s="3">
-        <v>376700</v>
+        <v>321500</v>
       </c>
       <c r="G14" s="3">
-        <v>-106800</v>
+        <v>-91100</v>
       </c>
       <c r="H14" s="3">
-        <v>-32300</v>
+        <v>-27600</v>
       </c>
       <c r="I14" s="3">
-        <v>308800</v>
+        <v>263500</v>
       </c>
       <c r="J14" s="3">
-        <v>31800</v>
+        <v>27100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>137900</v>
+        <v>117700</v>
       </c>
       <c r="E15" s="3">
-        <v>99000</v>
+        <v>84500</v>
       </c>
       <c r="F15" s="3">
-        <v>64600</v>
+        <v>55200</v>
       </c>
       <c r="G15" s="3">
-        <v>35200</v>
+        <v>30000</v>
       </c>
       <c r="H15" s="3">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="I15" s="3">
-        <v>16100</v>
+        <v>13800</v>
       </c>
       <c r="J15" s="3">
-        <v>9500</v>
+        <v>8100</v>
       </c>
       <c r="K15" s="3">
         <v>10600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10348300</v>
+        <v>8831800</v>
       </c>
       <c r="E17" s="3">
-        <v>6206300</v>
+        <v>5296800</v>
       </c>
       <c r="F17" s="3">
-        <v>5967600</v>
+        <v>5093100</v>
       </c>
       <c r="G17" s="3">
-        <v>3344100</v>
+        <v>2854100</v>
       </c>
       <c r="H17" s="3">
-        <v>2019400</v>
+        <v>1723500</v>
       </c>
       <c r="I17" s="3">
-        <v>1999000</v>
+        <v>1706000</v>
       </c>
       <c r="J17" s="3">
-        <v>1190300</v>
+        <v>1015900</v>
       </c>
       <c r="K17" s="3">
         <v>1212200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>496200</v>
+        <v>423500</v>
       </c>
       <c r="E18" s="3">
-        <v>-498100</v>
+        <v>-425100</v>
       </c>
       <c r="F18" s="3">
-        <v>-179200</v>
+        <v>-153000</v>
       </c>
       <c r="G18" s="3">
-        <v>373400</v>
+        <v>318700</v>
       </c>
       <c r="H18" s="3">
-        <v>137100</v>
+        <v>117000</v>
       </c>
       <c r="I18" s="3">
-        <v>-206800</v>
+        <v>-176500</v>
       </c>
       <c r="J18" s="3">
-        <v>141500</v>
+        <v>120800</v>
       </c>
       <c r="K18" s="3">
         <v>195800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>862300</v>
+        <v>735900</v>
       </c>
       <c r="E20" s="3">
-        <v>717600</v>
+        <v>612500</v>
       </c>
       <c r="F20" s="3">
-        <v>622500</v>
+        <v>531300</v>
       </c>
       <c r="G20" s="3">
-        <v>704900</v>
+        <v>601600</v>
       </c>
       <c r="H20" s="3">
-        <v>121000</v>
+        <v>103300</v>
       </c>
       <c r="I20" s="3">
-        <v>134000</v>
+        <v>114400</v>
       </c>
       <c r="J20" s="3">
-        <v>196900</v>
+        <v>168000</v>
       </c>
       <c r="K20" s="3">
         <v>95900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3849700</v>
+        <v>3286000</v>
       </c>
       <c r="E21" s="3">
-        <v>1865600</v>
+        <v>1592500</v>
       </c>
       <c r="F21" s="3">
-        <v>1799200</v>
+        <v>1535800</v>
       </c>
       <c r="G21" s="3">
-        <v>1841100</v>
+        <v>1571400</v>
       </c>
       <c r="H21" s="3">
-        <v>722200</v>
+        <v>616500</v>
       </c>
       <c r="I21" s="3">
-        <v>315500</v>
+        <v>269300</v>
       </c>
       <c r="J21" s="3">
-        <v>569000</v>
+        <v>485700</v>
       </c>
       <c r="K21" s="3">
         <v>494300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>815900</v>
+        <v>696400</v>
       </c>
       <c r="E22" s="3">
-        <v>700800</v>
+        <v>598100</v>
       </c>
       <c r="F22" s="3">
-        <v>503100</v>
+        <v>429400</v>
       </c>
       <c r="G22" s="3">
-        <v>309400</v>
+        <v>264100</v>
       </c>
       <c r="H22" s="3">
-        <v>183900</v>
+        <v>156900</v>
       </c>
       <c r="I22" s="3">
-        <v>181400</v>
+        <v>154800</v>
       </c>
       <c r="J22" s="3">
-        <v>90500</v>
+        <v>77200</v>
       </c>
       <c r="K22" s="3">
         <v>72800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>542500</v>
+        <v>463000</v>
       </c>
       <c r="E23" s="3">
-        <v>-481300</v>
+        <v>-410800</v>
       </c>
       <c r="F23" s="3">
-        <v>-59800</v>
+        <v>-51000</v>
       </c>
       <c r="G23" s="3">
-        <v>768900</v>
+        <v>656200</v>
       </c>
       <c r="H23" s="3">
-        <v>74200</v>
+        <v>63400</v>
       </c>
       <c r="I23" s="3">
-        <v>-254200</v>
+        <v>-217000</v>
       </c>
       <c r="J23" s="3">
-        <v>247900</v>
+        <v>211600</v>
       </c>
       <c r="K23" s="3">
         <v>219000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>549400</v>
+        <v>468900</v>
       </c>
       <c r="E24" s="3">
-        <v>124400</v>
+        <v>106200</v>
       </c>
       <c r="F24" s="3">
-        <v>185700</v>
+        <v>158400</v>
       </c>
       <c r="G24" s="3">
-        <v>439600</v>
+        <v>375200</v>
       </c>
       <c r="H24" s="3">
-        <v>-33900</v>
+        <v>-28900</v>
       </c>
       <c r="I24" s="3">
-        <v>-12200</v>
+        <v>-10400</v>
       </c>
       <c r="J24" s="3">
-        <v>210200</v>
+        <v>179400</v>
       </c>
       <c r="K24" s="3">
         <v>131200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6900</v>
+        <v>-5900</v>
       </c>
       <c r="E26" s="3">
-        <v>-605800</v>
+        <v>-517000</v>
       </c>
       <c r="F26" s="3">
-        <v>-245500</v>
+        <v>-209500</v>
       </c>
       <c r="G26" s="3">
-        <v>329300</v>
+        <v>281100</v>
       </c>
       <c r="H26" s="3">
-        <v>108100</v>
+        <v>92300</v>
       </c>
       <c r="I26" s="3">
-        <v>-242100</v>
+        <v>-206600</v>
       </c>
       <c r="J26" s="3">
-        <v>37800</v>
+        <v>32200</v>
       </c>
       <c r="K26" s="3">
         <v>87800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E27" s="3">
-        <v>-594100</v>
+        <v>-507000</v>
       </c>
       <c r="F27" s="3">
-        <v>-251400</v>
+        <v>-214500</v>
       </c>
       <c r="G27" s="3">
-        <v>329400</v>
+        <v>281100</v>
       </c>
       <c r="H27" s="3">
-        <v>105300</v>
+        <v>89800</v>
       </c>
       <c r="I27" s="3">
-        <v>-240900</v>
+        <v>-205600</v>
       </c>
       <c r="J27" s="3">
-        <v>39100</v>
+        <v>33300</v>
       </c>
       <c r="K27" s="3">
         <v>89300</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-39300</v>
+        <v>-33500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-862300</v>
+        <v>-735900</v>
       </c>
       <c r="E32" s="3">
-        <v>-717600</v>
+        <v>-612500</v>
       </c>
       <c r="F32" s="3">
-        <v>-622500</v>
+        <v>-531300</v>
       </c>
       <c r="G32" s="3">
-        <v>-704900</v>
+        <v>-601600</v>
       </c>
       <c r="H32" s="3">
-        <v>-121000</v>
+        <v>-103300</v>
       </c>
       <c r="I32" s="3">
-        <v>-134000</v>
+        <v>-114400</v>
       </c>
       <c r="J32" s="3">
-        <v>-196900</v>
+        <v>-168000</v>
       </c>
       <c r="K32" s="3">
         <v>-95900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E33" s="3">
-        <v>-594100</v>
+        <v>-507000</v>
       </c>
       <c r="F33" s="3">
-        <v>-290600</v>
+        <v>-248000</v>
       </c>
       <c r="G33" s="3">
-        <v>329400</v>
+        <v>281100</v>
       </c>
       <c r="H33" s="3">
-        <v>105300</v>
+        <v>89800</v>
       </c>
       <c r="I33" s="3">
-        <v>-240900</v>
+        <v>-205600</v>
       </c>
       <c r="J33" s="3">
-        <v>39100</v>
+        <v>33300</v>
       </c>
       <c r="K33" s="3">
         <v>89300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E35" s="3">
-        <v>-594100</v>
+        <v>-507000</v>
       </c>
       <c r="F35" s="3">
-        <v>-290600</v>
+        <v>-248000</v>
       </c>
       <c r="G35" s="3">
-        <v>329400</v>
+        <v>281100</v>
       </c>
       <c r="H35" s="3">
-        <v>105300</v>
+        <v>89800</v>
       </c>
       <c r="I35" s="3">
-        <v>-240900</v>
+        <v>-205600</v>
       </c>
       <c r="J35" s="3">
-        <v>39100</v>
+        <v>33300</v>
       </c>
       <c r="K35" s="3">
         <v>89300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>277100</v>
+        <v>236500</v>
       </c>
       <c r="E41" s="3">
-        <v>170900</v>
+        <v>145800</v>
       </c>
       <c r="F41" s="3">
-        <v>503800</v>
+        <v>430000</v>
       </c>
       <c r="G41" s="3">
-        <v>326200</v>
+        <v>278400</v>
       </c>
       <c r="H41" s="3">
-        <v>82600</v>
+        <v>70500</v>
       </c>
       <c r="I41" s="3">
-        <v>67800</v>
+        <v>57900</v>
       </c>
       <c r="J41" s="3">
-        <v>124600</v>
+        <v>106400</v>
       </c>
       <c r="K41" s="3">
         <v>81600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>692600</v>
+        <v>591100</v>
       </c>
       <c r="E42" s="3">
-        <v>541800</v>
+        <v>462400</v>
       </c>
       <c r="F42" s="3">
-        <v>131400</v>
+        <v>112200</v>
       </c>
       <c r="G42" s="3">
-        <v>159800</v>
+        <v>136400</v>
       </c>
       <c r="H42" s="3">
-        <v>272800</v>
+        <v>232900</v>
       </c>
       <c r="I42" s="3">
-        <v>88300</v>
+        <v>75400</v>
       </c>
       <c r="J42" s="3">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="K42" s="3">
         <v>15200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1605000</v>
+        <v>1369800</v>
       </c>
       <c r="E43" s="3">
-        <v>1185800</v>
+        <v>1012000</v>
       </c>
       <c r="F43" s="3">
-        <v>1295700</v>
+        <v>1105800</v>
       </c>
       <c r="G43" s="3">
-        <v>787400</v>
+        <v>672000</v>
       </c>
       <c r="H43" s="3">
-        <v>447000</v>
+        <v>381500</v>
       </c>
       <c r="I43" s="3">
-        <v>395800</v>
+        <v>337800</v>
       </c>
       <c r="J43" s="3">
-        <v>348400</v>
+        <v>297300</v>
       </c>
       <c r="K43" s="3">
         <v>187400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1313000</v>
+        <v>1120600</v>
       </c>
       <c r="E44" s="3">
-        <v>854200</v>
+        <v>729000</v>
       </c>
       <c r="F44" s="3">
-        <v>686500</v>
+        <v>585900</v>
       </c>
       <c r="G44" s="3">
-        <v>458400</v>
+        <v>391300</v>
       </c>
       <c r="H44" s="3">
-        <v>232800</v>
+        <v>198700</v>
       </c>
       <c r="I44" s="3">
-        <v>186100</v>
+        <v>158800</v>
       </c>
       <c r="J44" s="3">
-        <v>164300</v>
+        <v>140200</v>
       </c>
       <c r="K44" s="3">
         <v>129000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>89200</v>
+        <v>76200</v>
       </c>
       <c r="E45" s="3">
-        <v>41500</v>
+        <v>35400</v>
       </c>
       <c r="F45" s="3">
-        <v>21900</v>
+        <v>18700</v>
       </c>
       <c r="G45" s="3">
-        <v>46000</v>
+        <v>39300</v>
       </c>
       <c r="H45" s="3">
-        <v>8000</v>
+        <v>6800</v>
       </c>
       <c r="I45" s="3">
-        <v>6000</v>
+        <v>5100</v>
       </c>
       <c r="J45" s="3">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="K45" s="3">
         <v>4500</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3977100</v>
+        <v>3394200</v>
       </c>
       <c r="E46" s="3">
-        <v>2794200</v>
+        <v>2384700</v>
       </c>
       <c r="F46" s="3">
-        <v>2639400</v>
+        <v>2252600</v>
       </c>
       <c r="G46" s="3">
-        <v>1777800</v>
+        <v>1517300</v>
       </c>
       <c r="H46" s="3">
-        <v>1043200</v>
+        <v>890300</v>
       </c>
       <c r="I46" s="3">
-        <v>744000</v>
+        <v>635000</v>
       </c>
       <c r="J46" s="3">
-        <v>656600</v>
+        <v>560400</v>
       </c>
       <c r="K46" s="3">
         <v>417600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1556200</v>
+        <v>1328100</v>
       </c>
       <c r="E47" s="3">
-        <v>1087600</v>
+        <v>928200</v>
       </c>
       <c r="F47" s="3">
-        <v>802700</v>
+        <v>685000</v>
       </c>
       <c r="G47" s="3">
-        <v>559300</v>
+        <v>477300</v>
       </c>
       <c r="H47" s="3">
-        <v>80300</v>
+        <v>68500</v>
       </c>
       <c r="I47" s="3">
-        <v>145400</v>
+        <v>124100</v>
       </c>
       <c r="J47" s="3">
-        <v>58200</v>
+        <v>49700</v>
       </c>
       <c r="K47" s="3">
         <v>59600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14462800</v>
+        <v>12343400</v>
       </c>
       <c r="E48" s="3">
-        <v>12143400</v>
+        <v>10363900</v>
       </c>
       <c r="F48" s="3">
-        <v>9642300</v>
+        <v>8229300</v>
       </c>
       <c r="G48" s="3">
-        <v>5963200</v>
+        <v>5089400</v>
       </c>
       <c r="H48" s="3">
-        <v>3023400</v>
+        <v>2580300</v>
       </c>
       <c r="I48" s="3">
-        <v>2627400</v>
+        <v>2242300</v>
       </c>
       <c r="J48" s="3">
-        <v>2310800</v>
+        <v>1972200</v>
       </c>
       <c r="K48" s="3">
         <v>1556700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>366900</v>
+        <v>313100</v>
       </c>
       <c r="E49" s="3">
-        <v>333700</v>
+        <v>284800</v>
       </c>
       <c r="F49" s="3">
-        <v>317100</v>
+        <v>270700</v>
       </c>
       <c r="G49" s="3">
-        <v>174000</v>
+        <v>148500</v>
       </c>
       <c r="H49" s="3">
-        <v>85100</v>
+        <v>72600</v>
       </c>
       <c r="I49" s="3">
-        <v>69200</v>
+        <v>59100</v>
       </c>
       <c r="J49" s="3">
-        <v>62100</v>
+        <v>53000</v>
       </c>
       <c r="K49" s="3">
         <v>43600</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24400</v>
+        <v>20800</v>
       </c>
       <c r="E52" s="3">
-        <v>46300</v>
+        <v>39500</v>
       </c>
       <c r="F52" s="3">
-        <v>18700</v>
+        <v>15900</v>
       </c>
       <c r="G52" s="3">
-        <v>4600</v>
+        <v>3900</v>
       </c>
       <c r="H52" s="3">
-        <v>81800</v>
+        <v>69800</v>
       </c>
       <c r="I52" s="3">
-        <v>6300</v>
+        <v>5400</v>
       </c>
       <c r="J52" s="3">
-        <v>12500</v>
+        <v>10700</v>
       </c>
       <c r="K52" s="3">
         <v>8000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20387300</v>
+        <v>17399700</v>
       </c>
       <c r="E54" s="3">
-        <v>16405100</v>
+        <v>14001100</v>
       </c>
       <c r="F54" s="3">
-        <v>13420200</v>
+        <v>11453500</v>
       </c>
       <c r="G54" s="3">
-        <v>8479000</v>
+        <v>7236400</v>
       </c>
       <c r="H54" s="3">
-        <v>4313800</v>
+        <v>3681600</v>
       </c>
       <c r="I54" s="3">
-        <v>3592300</v>
+        <v>3065900</v>
       </c>
       <c r="J54" s="3">
-        <v>3100300</v>
+        <v>2645900</v>
       </c>
       <c r="K54" s="3">
         <v>2068900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1647600</v>
+        <v>1406200</v>
       </c>
       <c r="E57" s="3">
-        <v>1168000</v>
+        <v>996900</v>
       </c>
       <c r="F57" s="3">
-        <v>1244900</v>
+        <v>1062500</v>
       </c>
       <c r="G57" s="3">
-        <v>694800</v>
+        <v>593000</v>
       </c>
       <c r="H57" s="3">
-        <v>380900</v>
+        <v>325100</v>
       </c>
       <c r="I57" s="3">
-        <v>346900</v>
+        <v>296100</v>
       </c>
       <c r="J57" s="3">
-        <v>330100</v>
+        <v>281800</v>
       </c>
       <c r="K57" s="3">
         <v>282900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>972100</v>
+        <v>829700</v>
       </c>
       <c r="E58" s="3">
-        <v>1474200</v>
+        <v>1258200</v>
       </c>
       <c r="F58" s="3">
-        <v>1096100</v>
+        <v>935500</v>
       </c>
       <c r="G58" s="3">
-        <v>553000</v>
+        <v>471900</v>
       </c>
       <c r="H58" s="3">
-        <v>335500</v>
+        <v>286400</v>
       </c>
       <c r="I58" s="3">
-        <v>228400</v>
+        <v>194900</v>
       </c>
       <c r="J58" s="3">
-        <v>237300</v>
+        <v>202500</v>
       </c>
       <c r="K58" s="3">
         <v>131700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>716100</v>
+        <v>611200</v>
       </c>
       <c r="E59" s="3">
-        <v>519600</v>
+        <v>443400</v>
       </c>
       <c r="F59" s="3">
-        <v>344900</v>
+        <v>294300</v>
       </c>
       <c r="G59" s="3">
-        <v>278900</v>
+        <v>238000</v>
       </c>
       <c r="H59" s="3">
-        <v>159900</v>
+        <v>136400</v>
       </c>
       <c r="I59" s="3">
-        <v>128100</v>
+        <v>109400</v>
       </c>
       <c r="J59" s="3">
-        <v>113200</v>
+        <v>96600</v>
       </c>
       <c r="K59" s="3">
         <v>126600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3335900</v>
+        <v>2847000</v>
       </c>
       <c r="E60" s="3">
-        <v>3161800</v>
+        <v>2698500</v>
       </c>
       <c r="F60" s="3">
-        <v>2685900</v>
+        <v>2292300</v>
       </c>
       <c r="G60" s="3">
-        <v>1526600</v>
+        <v>1302900</v>
       </c>
       <c r="H60" s="3">
-        <v>876300</v>
+        <v>747900</v>
       </c>
       <c r="I60" s="3">
-        <v>703400</v>
+        <v>600400</v>
       </c>
       <c r="J60" s="3">
-        <v>680600</v>
+        <v>580900</v>
       </c>
       <c r="K60" s="3">
         <v>529400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5961400</v>
+        <v>5087800</v>
       </c>
       <c r="E61" s="3">
-        <v>4706400</v>
+        <v>4016700</v>
       </c>
       <c r="F61" s="3">
-        <v>3924200</v>
+        <v>3349100</v>
       </c>
       <c r="G61" s="3">
-        <v>2305200</v>
+        <v>1967400</v>
       </c>
       <c r="H61" s="3">
-        <v>1294200</v>
+        <v>1104600</v>
       </c>
       <c r="I61" s="3">
-        <v>1088200</v>
+        <v>928700</v>
       </c>
       <c r="J61" s="3">
-        <v>664800</v>
+        <v>567400</v>
       </c>
       <c r="K61" s="3">
         <v>357400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3855600</v>
+        <v>3290600</v>
       </c>
       <c r="E62" s="3">
-        <v>2707500</v>
+        <v>2310800</v>
       </c>
       <c r="F62" s="3">
-        <v>2134900</v>
+        <v>1822000</v>
       </c>
       <c r="G62" s="3">
-        <v>1556200</v>
+        <v>1328100</v>
       </c>
       <c r="H62" s="3">
-        <v>806300</v>
+        <v>688200</v>
       </c>
       <c r="I62" s="3">
-        <v>788500</v>
+        <v>673000</v>
       </c>
       <c r="J62" s="3">
-        <v>727300</v>
+        <v>620700</v>
       </c>
       <c r="K62" s="3">
         <v>723600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13223000</v>
+        <v>11285300</v>
       </c>
       <c r="E66" s="3">
-        <v>10628300</v>
+        <v>9070800</v>
       </c>
       <c r="F66" s="3">
-        <v>8792200</v>
+        <v>7503800</v>
       </c>
       <c r="G66" s="3">
-        <v>5415000</v>
+        <v>4621500</v>
       </c>
       <c r="H66" s="3">
-        <v>3014700</v>
+        <v>2572900</v>
       </c>
       <c r="I66" s="3">
-        <v>2579300</v>
+        <v>2201400</v>
       </c>
       <c r="J66" s="3">
-        <v>2073100</v>
+        <v>1769300</v>
       </c>
       <c r="K66" s="3">
         <v>1348400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-462300</v>
+        <v>-394600</v>
       </c>
       <c r="E72" s="3">
-        <v>-540700</v>
+        <v>-461500</v>
       </c>
       <c r="F72" s="3">
-        <v>-247900</v>
+        <v>-211600</v>
       </c>
       <c r="G72" s="3">
-        <v>345800</v>
+        <v>295100</v>
       </c>
       <c r="H72" s="3">
-        <v>123200</v>
+        <v>105200</v>
       </c>
       <c r="I72" s="3">
-        <v>-188400</v>
+        <v>-160700</v>
       </c>
       <c r="J72" s="3">
-        <v>91100</v>
+        <v>77800</v>
       </c>
       <c r="K72" s="3">
         <v>148900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7164300</v>
+        <v>6114400</v>
       </c>
       <c r="E76" s="3">
-        <v>5776800</v>
+        <v>4930200</v>
       </c>
       <c r="F76" s="3">
-        <v>4627900</v>
+        <v>3949800</v>
       </c>
       <c r="G76" s="3">
-        <v>3064000</v>
+        <v>2615000</v>
       </c>
       <c r="H76" s="3">
-        <v>1299100</v>
+        <v>1108700</v>
       </c>
       <c r="I76" s="3">
-        <v>1013000</v>
+        <v>864500</v>
       </c>
       <c r="J76" s="3">
-        <v>1027100</v>
+        <v>876600</v>
       </c>
       <c r="K76" s="3">
         <v>720500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E81" s="3">
-        <v>-594100</v>
+        <v>-507000</v>
       </c>
       <c r="F81" s="3">
-        <v>-290600</v>
+        <v>-248000</v>
       </c>
       <c r="G81" s="3">
-        <v>329400</v>
+        <v>281100</v>
       </c>
       <c r="H81" s="3">
-        <v>105300</v>
+        <v>89800</v>
       </c>
       <c r="I81" s="3">
-        <v>-240900</v>
+        <v>-205600</v>
       </c>
       <c r="J81" s="3">
-        <v>39100</v>
+        <v>33300</v>
       </c>
       <c r="K81" s="3">
         <v>89300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2488400</v>
+        <v>2123700</v>
       </c>
       <c r="E83" s="3">
-        <v>1644200</v>
+        <v>1403200</v>
       </c>
       <c r="F83" s="3">
-        <v>1354400</v>
+        <v>1155900</v>
       </c>
       <c r="G83" s="3">
-        <v>761900</v>
+        <v>650200</v>
       </c>
       <c r="H83" s="3">
-        <v>463600</v>
+        <v>395700</v>
       </c>
       <c r="I83" s="3">
-        <v>387900</v>
+        <v>331000</v>
       </c>
       <c r="J83" s="3">
-        <v>230400</v>
+        <v>196600</v>
       </c>
       <c r="K83" s="3">
         <v>202400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3412100</v>
+        <v>2912100</v>
       </c>
       <c r="E89" s="3">
-        <v>1784600</v>
+        <v>1523100</v>
       </c>
       <c r="F89" s="3">
-        <v>1852200</v>
+        <v>1580800</v>
       </c>
       <c r="G89" s="3">
-        <v>1066700</v>
+        <v>910400</v>
       </c>
       <c r="H89" s="3">
-        <v>613400</v>
+        <v>523500</v>
       </c>
       <c r="I89" s="3">
-        <v>418300</v>
+        <v>357000</v>
       </c>
       <c r="J89" s="3">
-        <v>353200</v>
+        <v>301400</v>
       </c>
       <c r="K89" s="3">
         <v>457800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2002900</v>
+        <v>-1709400</v>
       </c>
       <c r="E91" s="3">
-        <v>-977700</v>
+        <v>-834400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1377200</v>
+        <v>-1175400</v>
       </c>
       <c r="G91" s="3">
-        <v>-753100</v>
+        <v>-642800</v>
       </c>
       <c r="H91" s="3">
-        <v>-508500</v>
+        <v>-434000</v>
       </c>
       <c r="I91" s="3">
-        <v>-547300</v>
+        <v>-467100</v>
       </c>
       <c r="J91" s="3">
-        <v>-544000</v>
+        <v>-464300</v>
       </c>
       <c r="K91" s="3">
         <v>-498100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2081300</v>
+        <v>-1776300</v>
       </c>
       <c r="E94" s="3">
-        <v>-931100</v>
+        <v>-794700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1397900</v>
+        <v>-1193000</v>
       </c>
       <c r="G94" s="3">
-        <v>-701600</v>
+        <v>-598800</v>
       </c>
       <c r="H94" s="3">
-        <v>-471200</v>
+        <v>-402200</v>
       </c>
       <c r="I94" s="3">
-        <v>-564500</v>
+        <v>-481700</v>
       </c>
       <c r="J94" s="3">
-        <v>-546300</v>
+        <v>-466300</v>
       </c>
       <c r="K94" s="3">
         <v>-529800</v>
@@ -3770,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-19600</v>
+        <v>-16700</v>
       </c>
       <c r="G96" s="3">
-        <v>-10200</v>
+        <v>-8700</v>
       </c>
       <c r="H96" s="3">
-        <v>-6100</v>
+        <v>-5200</v>
       </c>
       <c r="I96" s="3">
-        <v>-7600</v>
+        <v>-6500</v>
       </c>
       <c r="J96" s="3">
-        <v>-4300</v>
+        <v>-3700</v>
       </c>
       <c r="K96" s="3">
         <v>-4600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1285100</v>
+        <v>-1096800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1033100</v>
+        <v>-881700</v>
       </c>
       <c r="F100" s="3">
-        <v>-478400</v>
+        <v>-408300</v>
       </c>
       <c r="G100" s="3">
-        <v>-372400</v>
+        <v>-317800</v>
       </c>
       <c r="H100" s="3">
-        <v>-3000</v>
+        <v>-2600</v>
       </c>
       <c r="I100" s="3">
-        <v>92300</v>
+        <v>78700</v>
       </c>
       <c r="J100" s="3">
-        <v>201900</v>
+        <v>172300</v>
       </c>
       <c r="K100" s="3">
         <v>49500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23000</v>
+        <v>19600</v>
       </c>
       <c r="E101" s="3">
-        <v>81700</v>
+        <v>69700</v>
       </c>
       <c r="F101" s="3">
-        <v>195300</v>
+        <v>166700</v>
       </c>
       <c r="G101" s="3">
-        <v>154700</v>
+        <v>132100</v>
       </c>
       <c r="H101" s="3">
-        <v>14200</v>
+        <v>12100</v>
       </c>
       <c r="I101" s="3">
-        <v>14400</v>
+        <v>12300</v>
       </c>
       <c r="J101" s="3">
-        <v>39300</v>
+        <v>33600</v>
       </c>
       <c r="K101" s="3">
         <v>13000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>68800</v>
+        <v>58700</v>
       </c>
       <c r="E102" s="3">
-        <v>-97900</v>
+        <v>-83600</v>
       </c>
       <c r="F102" s="3">
-        <v>171200</v>
+        <v>146100</v>
       </c>
       <c r="G102" s="3">
-        <v>147500</v>
+        <v>125900</v>
       </c>
       <c r="H102" s="3">
-        <v>153400</v>
+        <v>130900</v>
       </c>
       <c r="I102" s="3">
-        <v>-39500</v>
+        <v>-33700</v>
       </c>
       <c r="J102" s="3">
-        <v>48000</v>
+        <v>41000</v>
       </c>
       <c r="K102" s="3">
         <v>-9500</v>

--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9255300</v>
+        <v>7933100</v>
       </c>
       <c r="E8" s="3">
-        <v>4871700</v>
+        <v>4175700</v>
       </c>
       <c r="F8" s="3">
-        <v>4940200</v>
+        <v>4234400</v>
       </c>
       <c r="G8" s="3">
-        <v>3172800</v>
+        <v>2719500</v>
       </c>
       <c r="H8" s="3">
-        <v>1840500</v>
+        <v>1577600</v>
       </c>
       <c r="I8" s="3">
-        <v>1529500</v>
+        <v>1311000</v>
       </c>
       <c r="J8" s="3">
-        <v>1136700</v>
+        <v>974300</v>
       </c>
       <c r="K8" s="3">
         <v>1408100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7485200</v>
+        <v>6415800</v>
       </c>
       <c r="E9" s="3">
-        <v>4558800</v>
+        <v>3907600</v>
       </c>
       <c r="F9" s="3">
-        <v>4190400</v>
+        <v>3591800</v>
       </c>
       <c r="G9" s="3">
-        <v>2617700</v>
+        <v>2243700</v>
       </c>
       <c r="H9" s="3">
-        <v>1542000</v>
+        <v>1321700</v>
       </c>
       <c r="I9" s="3">
-        <v>1290800</v>
+        <v>1106400</v>
       </c>
       <c r="J9" s="3">
-        <v>870200</v>
+        <v>745900</v>
       </c>
       <c r="K9" s="3">
         <v>1036600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1770100</v>
+        <v>1517300</v>
       </c>
       <c r="E10" s="3">
-        <v>312900</v>
+        <v>268200</v>
       </c>
       <c r="F10" s="3">
-        <v>749700</v>
+        <v>642600</v>
       </c>
       <c r="G10" s="3">
-        <v>555100</v>
+        <v>475800</v>
       </c>
       <c r="H10" s="3">
-        <v>298500</v>
+        <v>255800</v>
       </c>
       <c r="I10" s="3">
-        <v>238800</v>
+        <v>204600</v>
       </c>
       <c r="J10" s="3">
-        <v>266400</v>
+        <v>228400</v>
       </c>
       <c r="K10" s="3">
         <v>371500</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6700</v>
+        <v>5800</v>
       </c>
       <c r="E12" s="3">
-        <v>9000</v>
+        <v>7700</v>
       </c>
       <c r="F12" s="3">
-        <v>41600</v>
+        <v>35700</v>
       </c>
       <c r="G12" s="3">
-        <v>34700</v>
+        <v>29700</v>
       </c>
       <c r="H12" s="3">
-        <v>14200</v>
+        <v>12100</v>
       </c>
       <c r="I12" s="3">
-        <v>19700</v>
+        <v>16900</v>
       </c>
       <c r="J12" s="3">
-        <v>15700</v>
+        <v>13400</v>
       </c>
       <c r="K12" s="3">
         <v>15900</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>333800</v>
+        <v>286100</v>
       </c>
       <c r="E14" s="3">
-        <v>-11300</v>
+        <v>-9700</v>
       </c>
       <c r="F14" s="3">
-        <v>321500</v>
+        <v>275600</v>
       </c>
       <c r="G14" s="3">
-        <v>-91100</v>
+        <v>-78100</v>
       </c>
       <c r="H14" s="3">
-        <v>-27600</v>
+        <v>-23700</v>
       </c>
       <c r="I14" s="3">
-        <v>263500</v>
+        <v>225900</v>
       </c>
       <c r="J14" s="3">
-        <v>27100</v>
+        <v>23200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>117700</v>
+        <v>100900</v>
       </c>
       <c r="E15" s="3">
-        <v>84500</v>
+        <v>72500</v>
       </c>
       <c r="F15" s="3">
-        <v>55200</v>
+        <v>47300</v>
       </c>
       <c r="G15" s="3">
-        <v>30000</v>
+        <v>25700</v>
       </c>
       <c r="H15" s="3">
-        <v>15000</v>
+        <v>12800</v>
       </c>
       <c r="I15" s="3">
-        <v>13800</v>
+        <v>11800</v>
       </c>
       <c r="J15" s="3">
-        <v>8100</v>
+        <v>7000</v>
       </c>
       <c r="K15" s="3">
         <v>10600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8831800</v>
+        <v>7570100</v>
       </c>
       <c r="E17" s="3">
-        <v>5296800</v>
+        <v>4540100</v>
       </c>
       <c r="F17" s="3">
-        <v>5093100</v>
+        <v>4365500</v>
       </c>
       <c r="G17" s="3">
-        <v>2854100</v>
+        <v>2446300</v>
       </c>
       <c r="H17" s="3">
-        <v>1723500</v>
+        <v>1477300</v>
       </c>
       <c r="I17" s="3">
-        <v>1706000</v>
+        <v>1462300</v>
       </c>
       <c r="J17" s="3">
-        <v>1015900</v>
+        <v>870800</v>
       </c>
       <c r="K17" s="3">
         <v>1212200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>423500</v>
+        <v>363000</v>
       </c>
       <c r="E18" s="3">
-        <v>-425100</v>
+        <v>-364400</v>
       </c>
       <c r="F18" s="3">
-        <v>-153000</v>
+        <v>-131100</v>
       </c>
       <c r="G18" s="3">
-        <v>318700</v>
+        <v>273200</v>
       </c>
       <c r="H18" s="3">
-        <v>117000</v>
+        <v>100300</v>
       </c>
       <c r="I18" s="3">
-        <v>-176500</v>
+        <v>-151300</v>
       </c>
       <c r="J18" s="3">
-        <v>120800</v>
+        <v>103500</v>
       </c>
       <c r="K18" s="3">
         <v>195800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>735900</v>
+        <v>630800</v>
       </c>
       <c r="E20" s="3">
-        <v>612500</v>
+        <v>525000</v>
       </c>
       <c r="F20" s="3">
-        <v>531300</v>
+        <v>455400</v>
       </c>
       <c r="G20" s="3">
-        <v>601600</v>
+        <v>515600</v>
       </c>
       <c r="H20" s="3">
-        <v>103300</v>
+        <v>88500</v>
       </c>
       <c r="I20" s="3">
-        <v>114400</v>
+        <v>98000</v>
       </c>
       <c r="J20" s="3">
-        <v>168000</v>
+        <v>144000</v>
       </c>
       <c r="K20" s="3">
         <v>95900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3286000</v>
+        <v>2817000</v>
       </c>
       <c r="E21" s="3">
-        <v>1592500</v>
+        <v>1365300</v>
       </c>
       <c r="F21" s="3">
-        <v>1535800</v>
+        <v>1316600</v>
       </c>
       <c r="G21" s="3">
-        <v>1571400</v>
+        <v>1347100</v>
       </c>
       <c r="H21" s="3">
-        <v>616500</v>
+        <v>528500</v>
       </c>
       <c r="I21" s="3">
-        <v>269300</v>
+        <v>230900</v>
       </c>
       <c r="J21" s="3">
-        <v>485700</v>
+        <v>416300</v>
       </c>
       <c r="K21" s="3">
         <v>494300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>696400</v>
+        <v>596900</v>
       </c>
       <c r="E22" s="3">
-        <v>598100</v>
+        <v>512700</v>
       </c>
       <c r="F22" s="3">
-        <v>429400</v>
+        <v>368000</v>
       </c>
       <c r="G22" s="3">
-        <v>264100</v>
+        <v>226300</v>
       </c>
       <c r="H22" s="3">
-        <v>156900</v>
+        <v>134500</v>
       </c>
       <c r="I22" s="3">
-        <v>154800</v>
+        <v>132700</v>
       </c>
       <c r="J22" s="3">
-        <v>77200</v>
+        <v>66200</v>
       </c>
       <c r="K22" s="3">
         <v>72800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>463000</v>
+        <v>396900</v>
       </c>
       <c r="E23" s="3">
-        <v>-410800</v>
+        <v>-352100</v>
       </c>
       <c r="F23" s="3">
-        <v>-51000</v>
+        <v>-43700</v>
       </c>
       <c r="G23" s="3">
-        <v>656200</v>
+        <v>562500</v>
       </c>
       <c r="H23" s="3">
-        <v>63400</v>
+        <v>54300</v>
       </c>
       <c r="I23" s="3">
-        <v>-217000</v>
+        <v>-186000</v>
       </c>
       <c r="J23" s="3">
-        <v>211600</v>
+        <v>181400</v>
       </c>
       <c r="K23" s="3">
         <v>219000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>468900</v>
+        <v>401900</v>
       </c>
       <c r="E24" s="3">
-        <v>106200</v>
+        <v>91000</v>
       </c>
       <c r="F24" s="3">
-        <v>158400</v>
+        <v>135800</v>
       </c>
       <c r="G24" s="3">
-        <v>375200</v>
+        <v>321600</v>
       </c>
       <c r="H24" s="3">
-        <v>-28900</v>
+        <v>-24800</v>
       </c>
       <c r="I24" s="3">
-        <v>-10400</v>
+        <v>-8900</v>
       </c>
       <c r="J24" s="3">
-        <v>179400</v>
+        <v>153700</v>
       </c>
       <c r="K24" s="3">
         <v>131200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5900</v>
+        <v>-5000</v>
       </c>
       <c r="E26" s="3">
-        <v>-517000</v>
+        <v>-443100</v>
       </c>
       <c r="F26" s="3">
-        <v>-209500</v>
+        <v>-179600</v>
       </c>
       <c r="G26" s="3">
-        <v>281100</v>
+        <v>240900</v>
       </c>
       <c r="H26" s="3">
-        <v>92300</v>
+        <v>79100</v>
       </c>
       <c r="I26" s="3">
-        <v>-206600</v>
+        <v>-177100</v>
       </c>
       <c r="J26" s="3">
-        <v>32200</v>
+        <v>27600</v>
       </c>
       <c r="K26" s="3">
         <v>87800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="E27" s="3">
-        <v>-507000</v>
+        <v>-434600</v>
       </c>
       <c r="F27" s="3">
-        <v>-214500</v>
+        <v>-183900</v>
       </c>
       <c r="G27" s="3">
-        <v>281100</v>
+        <v>240900</v>
       </c>
       <c r="H27" s="3">
-        <v>89800</v>
+        <v>77000</v>
       </c>
       <c r="I27" s="3">
-        <v>-205600</v>
+        <v>-176200</v>
       </c>
       <c r="J27" s="3">
-        <v>33300</v>
+        <v>28600</v>
       </c>
       <c r="K27" s="3">
         <v>89300</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-33500</v>
+        <v>-28700</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-735900</v>
+        <v>-630800</v>
       </c>
       <c r="E32" s="3">
-        <v>-612500</v>
+        <v>-525000</v>
       </c>
       <c r="F32" s="3">
-        <v>-531300</v>
+        <v>-455400</v>
       </c>
       <c r="G32" s="3">
-        <v>-601600</v>
+        <v>-515600</v>
       </c>
       <c r="H32" s="3">
-        <v>-103300</v>
+        <v>-88500</v>
       </c>
       <c r="I32" s="3">
-        <v>-114400</v>
+        <v>-98000</v>
       </c>
       <c r="J32" s="3">
-        <v>-168000</v>
+        <v>-144000</v>
       </c>
       <c r="K32" s="3">
         <v>-95900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="E33" s="3">
-        <v>-507000</v>
+        <v>-434600</v>
       </c>
       <c r="F33" s="3">
-        <v>-248000</v>
+        <v>-212600</v>
       </c>
       <c r="G33" s="3">
-        <v>281100</v>
+        <v>240900</v>
       </c>
       <c r="H33" s="3">
-        <v>89800</v>
+        <v>77000</v>
       </c>
       <c r="I33" s="3">
-        <v>-205600</v>
+        <v>-176200</v>
       </c>
       <c r="J33" s="3">
-        <v>33300</v>
+        <v>28600</v>
       </c>
       <c r="K33" s="3">
         <v>89300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="E35" s="3">
-        <v>-507000</v>
+        <v>-434600</v>
       </c>
       <c r="F35" s="3">
-        <v>-248000</v>
+        <v>-212600</v>
       </c>
       <c r="G35" s="3">
-        <v>281100</v>
+        <v>240900</v>
       </c>
       <c r="H35" s="3">
-        <v>89800</v>
+        <v>77000</v>
       </c>
       <c r="I35" s="3">
-        <v>-205600</v>
+        <v>-176200</v>
       </c>
       <c r="J35" s="3">
-        <v>33300</v>
+        <v>28600</v>
       </c>
       <c r="K35" s="3">
         <v>89300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>236500</v>
+        <v>202700</v>
       </c>
       <c r="E41" s="3">
-        <v>145800</v>
+        <v>125000</v>
       </c>
       <c r="F41" s="3">
-        <v>430000</v>
+        <v>368500</v>
       </c>
       <c r="G41" s="3">
-        <v>278400</v>
+        <v>238600</v>
       </c>
       <c r="H41" s="3">
-        <v>70500</v>
+        <v>60400</v>
       </c>
       <c r="I41" s="3">
-        <v>57900</v>
+        <v>49600</v>
       </c>
       <c r="J41" s="3">
-        <v>106400</v>
+        <v>91200</v>
       </c>
       <c r="K41" s="3">
         <v>81600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>591100</v>
+        <v>506700</v>
       </c>
       <c r="E42" s="3">
-        <v>462400</v>
+        <v>396400</v>
       </c>
       <c r="F42" s="3">
-        <v>112200</v>
+        <v>96100</v>
       </c>
       <c r="G42" s="3">
-        <v>136400</v>
+        <v>116900</v>
       </c>
       <c r="H42" s="3">
-        <v>232900</v>
+        <v>199600</v>
       </c>
       <c r="I42" s="3">
-        <v>75400</v>
+        <v>64600</v>
       </c>
       <c r="J42" s="3">
-        <v>11500</v>
+        <v>9800</v>
       </c>
       <c r="K42" s="3">
         <v>15200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1369800</v>
+        <v>1174100</v>
       </c>
       <c r="E43" s="3">
-        <v>1012000</v>
+        <v>867400</v>
       </c>
       <c r="F43" s="3">
-        <v>1105800</v>
+        <v>947800</v>
       </c>
       <c r="G43" s="3">
-        <v>672000</v>
+        <v>576000</v>
       </c>
       <c r="H43" s="3">
-        <v>381500</v>
+        <v>327000</v>
       </c>
       <c r="I43" s="3">
-        <v>337800</v>
+        <v>289500</v>
       </c>
       <c r="J43" s="3">
-        <v>297300</v>
+        <v>254900</v>
       </c>
       <c r="K43" s="3">
         <v>187400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1120600</v>
+        <v>960500</v>
       </c>
       <c r="E44" s="3">
-        <v>729000</v>
+        <v>624900</v>
       </c>
       <c r="F44" s="3">
-        <v>585900</v>
+        <v>502200</v>
       </c>
       <c r="G44" s="3">
-        <v>391300</v>
+        <v>335400</v>
       </c>
       <c r="H44" s="3">
-        <v>198700</v>
+        <v>170300</v>
       </c>
       <c r="I44" s="3">
-        <v>158800</v>
+        <v>136200</v>
       </c>
       <c r="J44" s="3">
-        <v>140200</v>
+        <v>120200</v>
       </c>
       <c r="K44" s="3">
         <v>129000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>76200</v>
+        <v>65300</v>
       </c>
       <c r="E45" s="3">
-        <v>35400</v>
+        <v>30400</v>
       </c>
       <c r="F45" s="3">
-        <v>18700</v>
+        <v>16100</v>
       </c>
       <c r="G45" s="3">
-        <v>39300</v>
+        <v>33700</v>
       </c>
       <c r="H45" s="3">
-        <v>6800</v>
+        <v>5800</v>
       </c>
       <c r="I45" s="3">
-        <v>5100</v>
+        <v>4400</v>
       </c>
       <c r="J45" s="3">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="K45" s="3">
         <v>4500</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3394200</v>
+        <v>2909400</v>
       </c>
       <c r="E46" s="3">
-        <v>2384700</v>
+        <v>2044000</v>
       </c>
       <c r="F46" s="3">
-        <v>2252600</v>
+        <v>1930800</v>
       </c>
       <c r="G46" s="3">
-        <v>1517300</v>
+        <v>1300500</v>
       </c>
       <c r="H46" s="3">
-        <v>890300</v>
+        <v>763100</v>
       </c>
       <c r="I46" s="3">
-        <v>635000</v>
+        <v>544300</v>
       </c>
       <c r="J46" s="3">
-        <v>560400</v>
+        <v>480300</v>
       </c>
       <c r="K46" s="3">
         <v>417600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1328100</v>
+        <v>1138400</v>
       </c>
       <c r="E47" s="3">
-        <v>928200</v>
+        <v>795600</v>
       </c>
       <c r="F47" s="3">
-        <v>685000</v>
+        <v>587200</v>
       </c>
       <c r="G47" s="3">
-        <v>477300</v>
+        <v>409200</v>
       </c>
       <c r="H47" s="3">
-        <v>68500</v>
+        <v>58700</v>
       </c>
       <c r="I47" s="3">
-        <v>124100</v>
+        <v>106400</v>
       </c>
       <c r="J47" s="3">
-        <v>49700</v>
+        <v>42600</v>
       </c>
       <c r="K47" s="3">
         <v>59600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12343400</v>
+        <v>10580000</v>
       </c>
       <c r="E48" s="3">
-        <v>10363900</v>
+        <v>8883300</v>
       </c>
       <c r="F48" s="3">
-        <v>8229300</v>
+        <v>7053700</v>
       </c>
       <c r="G48" s="3">
-        <v>5089400</v>
+        <v>4362300</v>
       </c>
       <c r="H48" s="3">
-        <v>2580300</v>
+        <v>2211700</v>
       </c>
       <c r="I48" s="3">
-        <v>2242300</v>
+        <v>1922000</v>
       </c>
       <c r="J48" s="3">
-        <v>1972200</v>
+        <v>1690400</v>
       </c>
       <c r="K48" s="3">
         <v>1556700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>313100</v>
+        <v>268400</v>
       </c>
       <c r="E49" s="3">
-        <v>284800</v>
+        <v>244100</v>
       </c>
       <c r="F49" s="3">
-        <v>270700</v>
+        <v>232000</v>
       </c>
       <c r="G49" s="3">
-        <v>148500</v>
+        <v>127300</v>
       </c>
       <c r="H49" s="3">
-        <v>72600</v>
+        <v>62300</v>
       </c>
       <c r="I49" s="3">
-        <v>59100</v>
+        <v>50600</v>
       </c>
       <c r="J49" s="3">
-        <v>53000</v>
+        <v>45400</v>
       </c>
       <c r="K49" s="3">
         <v>43600</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20800</v>
+        <v>17800</v>
       </c>
       <c r="E52" s="3">
-        <v>39500</v>
+        <v>33900</v>
       </c>
       <c r="F52" s="3">
-        <v>15900</v>
+        <v>13700</v>
       </c>
       <c r="G52" s="3">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="H52" s="3">
-        <v>69800</v>
+        <v>59900</v>
       </c>
       <c r="I52" s="3">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="J52" s="3">
-        <v>10700</v>
+        <v>9200</v>
       </c>
       <c r="K52" s="3">
         <v>8000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17399700</v>
+        <v>14914000</v>
       </c>
       <c r="E54" s="3">
-        <v>14001100</v>
+        <v>12000900</v>
       </c>
       <c r="F54" s="3">
-        <v>11453500</v>
+        <v>9817300</v>
       </c>
       <c r="G54" s="3">
-        <v>7236400</v>
+        <v>6202700</v>
       </c>
       <c r="H54" s="3">
-        <v>3681600</v>
+        <v>3155700</v>
       </c>
       <c r="I54" s="3">
-        <v>3065900</v>
+        <v>2627900</v>
       </c>
       <c r="J54" s="3">
-        <v>2645900</v>
+        <v>2267900</v>
       </c>
       <c r="K54" s="3">
         <v>2068900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1406200</v>
+        <v>1205300</v>
       </c>
       <c r="E57" s="3">
-        <v>996900</v>
+        <v>854400</v>
       </c>
       <c r="F57" s="3">
-        <v>1062500</v>
+        <v>910700</v>
       </c>
       <c r="G57" s="3">
-        <v>593000</v>
+        <v>508200</v>
       </c>
       <c r="H57" s="3">
-        <v>325100</v>
+        <v>278600</v>
       </c>
       <c r="I57" s="3">
-        <v>296100</v>
+        <v>253800</v>
       </c>
       <c r="J57" s="3">
-        <v>281800</v>
+        <v>241500</v>
       </c>
       <c r="K57" s="3">
         <v>282900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>829700</v>
+        <v>711200</v>
       </c>
       <c r="E58" s="3">
-        <v>1258200</v>
+        <v>1078500</v>
       </c>
       <c r="F58" s="3">
-        <v>935500</v>
+        <v>801800</v>
       </c>
       <c r="G58" s="3">
-        <v>471900</v>
+        <v>404500</v>
       </c>
       <c r="H58" s="3">
-        <v>286400</v>
+        <v>245500</v>
       </c>
       <c r="I58" s="3">
-        <v>194900</v>
+        <v>167100</v>
       </c>
       <c r="J58" s="3">
-        <v>202500</v>
+        <v>173600</v>
       </c>
       <c r="K58" s="3">
         <v>131700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>611200</v>
+        <v>523900</v>
       </c>
       <c r="E59" s="3">
-        <v>443400</v>
+        <v>380100</v>
       </c>
       <c r="F59" s="3">
-        <v>294300</v>
+        <v>252300</v>
       </c>
       <c r="G59" s="3">
-        <v>238000</v>
+        <v>204000</v>
       </c>
       <c r="H59" s="3">
-        <v>136400</v>
+        <v>117000</v>
       </c>
       <c r="I59" s="3">
-        <v>109400</v>
+        <v>93700</v>
       </c>
       <c r="J59" s="3">
-        <v>96600</v>
+        <v>82800</v>
       </c>
       <c r="K59" s="3">
         <v>126600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2847000</v>
+        <v>2440300</v>
       </c>
       <c r="E60" s="3">
-        <v>2698500</v>
+        <v>2313000</v>
       </c>
       <c r="F60" s="3">
-        <v>2292300</v>
+        <v>1964800</v>
       </c>
       <c r="G60" s="3">
-        <v>1302900</v>
+        <v>1116800</v>
       </c>
       <c r="H60" s="3">
-        <v>747900</v>
+        <v>641100</v>
       </c>
       <c r="I60" s="3">
-        <v>600400</v>
+        <v>514600</v>
       </c>
       <c r="J60" s="3">
-        <v>580900</v>
+        <v>497900</v>
       </c>
       <c r="K60" s="3">
         <v>529400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5087800</v>
+        <v>4360900</v>
       </c>
       <c r="E61" s="3">
-        <v>4016700</v>
+        <v>3442900</v>
       </c>
       <c r="F61" s="3">
-        <v>3349100</v>
+        <v>2870700</v>
       </c>
       <c r="G61" s="3">
-        <v>1967400</v>
+        <v>1686400</v>
       </c>
       <c r="H61" s="3">
-        <v>1104600</v>
+        <v>946800</v>
       </c>
       <c r="I61" s="3">
-        <v>928700</v>
+        <v>796000</v>
       </c>
       <c r="J61" s="3">
-        <v>567400</v>
+        <v>486300</v>
       </c>
       <c r="K61" s="3">
         <v>357400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3290600</v>
+        <v>2820500</v>
       </c>
       <c r="E62" s="3">
-        <v>2310800</v>
+        <v>1980700</v>
       </c>
       <c r="F62" s="3">
-        <v>1822000</v>
+        <v>1561700</v>
       </c>
       <c r="G62" s="3">
-        <v>1328100</v>
+        <v>1138400</v>
       </c>
       <c r="H62" s="3">
-        <v>688200</v>
+        <v>589900</v>
       </c>
       <c r="I62" s="3">
-        <v>673000</v>
+        <v>576900</v>
       </c>
       <c r="J62" s="3">
-        <v>620700</v>
+        <v>532100</v>
       </c>
       <c r="K62" s="3">
         <v>723600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11285300</v>
+        <v>9673100</v>
       </c>
       <c r="E66" s="3">
-        <v>9070800</v>
+        <v>7775000</v>
       </c>
       <c r="F66" s="3">
-        <v>7503800</v>
+        <v>6431800</v>
       </c>
       <c r="G66" s="3">
-        <v>4621500</v>
+        <v>3961300</v>
       </c>
       <c r="H66" s="3">
-        <v>2572900</v>
+        <v>2205400</v>
       </c>
       <c r="I66" s="3">
-        <v>2201400</v>
+        <v>1886900</v>
       </c>
       <c r="J66" s="3">
-        <v>1769300</v>
+        <v>1516600</v>
       </c>
       <c r="K66" s="3">
         <v>1348400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-394600</v>
+        <v>-338200</v>
       </c>
       <c r="E72" s="3">
-        <v>-461500</v>
+        <v>-395600</v>
       </c>
       <c r="F72" s="3">
-        <v>-211600</v>
+        <v>-181400</v>
       </c>
       <c r="G72" s="3">
-        <v>295100</v>
+        <v>253000</v>
       </c>
       <c r="H72" s="3">
-        <v>105200</v>
+        <v>90100</v>
       </c>
       <c r="I72" s="3">
-        <v>-160700</v>
+        <v>-137800</v>
       </c>
       <c r="J72" s="3">
-        <v>77800</v>
+        <v>66700</v>
       </c>
       <c r="K72" s="3">
         <v>148900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6114400</v>
+        <v>5240900</v>
       </c>
       <c r="E76" s="3">
-        <v>4930200</v>
+        <v>4225900</v>
       </c>
       <c r="F76" s="3">
-        <v>3949800</v>
+        <v>3385500</v>
       </c>
       <c r="G76" s="3">
-        <v>2615000</v>
+        <v>2241400</v>
       </c>
       <c r="H76" s="3">
-        <v>1108700</v>
+        <v>950300</v>
       </c>
       <c r="I76" s="3">
-        <v>864500</v>
+        <v>741000</v>
       </c>
       <c r="J76" s="3">
-        <v>876600</v>
+        <v>751400</v>
       </c>
       <c r="K76" s="3">
         <v>720500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="E81" s="3">
-        <v>-507000</v>
+        <v>-434600</v>
       </c>
       <c r="F81" s="3">
-        <v>-248000</v>
+        <v>-212600</v>
       </c>
       <c r="G81" s="3">
-        <v>281100</v>
+        <v>240900</v>
       </c>
       <c r="H81" s="3">
-        <v>89800</v>
+        <v>77000</v>
       </c>
       <c r="I81" s="3">
-        <v>-205600</v>
+        <v>-176200</v>
       </c>
       <c r="J81" s="3">
-        <v>33300</v>
+        <v>28600</v>
       </c>
       <c r="K81" s="3">
         <v>89300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2123700</v>
+        <v>1820300</v>
       </c>
       <c r="E83" s="3">
-        <v>1403200</v>
+        <v>1202800</v>
       </c>
       <c r="F83" s="3">
-        <v>1155900</v>
+        <v>990800</v>
       </c>
       <c r="G83" s="3">
-        <v>650200</v>
+        <v>557300</v>
       </c>
       <c r="H83" s="3">
-        <v>395700</v>
+        <v>339100</v>
       </c>
       <c r="I83" s="3">
-        <v>331000</v>
+        <v>283700</v>
       </c>
       <c r="J83" s="3">
-        <v>196600</v>
+        <v>168500</v>
       </c>
       <c r="K83" s="3">
         <v>202400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2912100</v>
+        <v>2496100</v>
       </c>
       <c r="E89" s="3">
-        <v>1523100</v>
+        <v>1305500</v>
       </c>
       <c r="F89" s="3">
-        <v>1580800</v>
+        <v>1354900</v>
       </c>
       <c r="G89" s="3">
-        <v>910400</v>
+        <v>780400</v>
       </c>
       <c r="H89" s="3">
-        <v>523500</v>
+        <v>448700</v>
       </c>
       <c r="I89" s="3">
-        <v>357000</v>
+        <v>306000</v>
       </c>
       <c r="J89" s="3">
-        <v>301400</v>
+        <v>258400</v>
       </c>
       <c r="K89" s="3">
         <v>457800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1709400</v>
+        <v>-1465200</v>
       </c>
       <c r="E91" s="3">
-        <v>-834400</v>
+        <v>-715200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1175400</v>
+        <v>-1007500</v>
       </c>
       <c r="G91" s="3">
-        <v>-642800</v>
+        <v>-550900</v>
       </c>
       <c r="H91" s="3">
-        <v>-434000</v>
+        <v>-372000</v>
       </c>
       <c r="I91" s="3">
-        <v>-467100</v>
+        <v>-400400</v>
       </c>
       <c r="J91" s="3">
-        <v>-464300</v>
+        <v>-397900</v>
       </c>
       <c r="K91" s="3">
         <v>-498100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1776300</v>
+        <v>-1522500</v>
       </c>
       <c r="E94" s="3">
-        <v>-794700</v>
+        <v>-681200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1193000</v>
+        <v>-1022600</v>
       </c>
       <c r="G94" s="3">
-        <v>-598800</v>
+        <v>-513200</v>
       </c>
       <c r="H94" s="3">
-        <v>-402200</v>
+        <v>-344700</v>
       </c>
       <c r="I94" s="3">
-        <v>-481700</v>
+        <v>-412900</v>
       </c>
       <c r="J94" s="3">
-        <v>-466300</v>
+        <v>-399700</v>
       </c>
       <c r="K94" s="3">
         <v>-529800</v>
@@ -3770,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-16700</v>
+        <v>-14400</v>
       </c>
       <c r="G96" s="3">
-        <v>-8700</v>
+        <v>-7500</v>
       </c>
       <c r="H96" s="3">
-        <v>-5200</v>
+        <v>-4500</v>
       </c>
       <c r="I96" s="3">
-        <v>-6500</v>
+        <v>-5500</v>
       </c>
       <c r="J96" s="3">
-        <v>-3700</v>
+        <v>-3100</v>
       </c>
       <c r="K96" s="3">
         <v>-4600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1096800</v>
+        <v>-940100</v>
       </c>
       <c r="E100" s="3">
-        <v>-881700</v>
+        <v>-755700</v>
       </c>
       <c r="F100" s="3">
-        <v>-408300</v>
+        <v>-350000</v>
       </c>
       <c r="G100" s="3">
-        <v>-317800</v>
+        <v>-272400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2600</v>
+        <v>-2200</v>
       </c>
       <c r="I100" s="3">
-        <v>78700</v>
+        <v>67500</v>
       </c>
       <c r="J100" s="3">
-        <v>172300</v>
+        <v>147700</v>
       </c>
       <c r="K100" s="3">
         <v>49500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19600</v>
+        <v>16800</v>
       </c>
       <c r="E101" s="3">
-        <v>69700</v>
+        <v>59700</v>
       </c>
       <c r="F101" s="3">
-        <v>166700</v>
+        <v>142900</v>
       </c>
       <c r="G101" s="3">
-        <v>132100</v>
+        <v>113200</v>
       </c>
       <c r="H101" s="3">
-        <v>12100</v>
+        <v>10400</v>
       </c>
       <c r="I101" s="3">
-        <v>12300</v>
+        <v>10600</v>
       </c>
       <c r="J101" s="3">
-        <v>33600</v>
+        <v>28800</v>
       </c>
       <c r="K101" s="3">
         <v>13000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>58700</v>
+        <v>50300</v>
       </c>
       <c r="E102" s="3">
-        <v>-83600</v>
+        <v>-71600</v>
       </c>
       <c r="F102" s="3">
-        <v>146100</v>
+        <v>125200</v>
       </c>
       <c r="G102" s="3">
-        <v>125900</v>
+        <v>107900</v>
       </c>
       <c r="H102" s="3">
-        <v>130900</v>
+        <v>112200</v>
       </c>
       <c r="I102" s="3">
-        <v>-33700</v>
+        <v>-28900</v>
       </c>
       <c r="J102" s="3">
-        <v>41000</v>
+        <v>35100</v>
       </c>
       <c r="K102" s="3">
         <v>-9500</v>

--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7933100</v>
+        <v>6343900</v>
       </c>
       <c r="E8" s="3">
-        <v>4175700</v>
+        <v>3339200</v>
       </c>
       <c r="F8" s="3">
-        <v>4234400</v>
+        <v>3386200</v>
       </c>
       <c r="G8" s="3">
-        <v>2719500</v>
+        <v>2174700</v>
       </c>
       <c r="H8" s="3">
-        <v>1577600</v>
+        <v>1261500</v>
       </c>
       <c r="I8" s="3">
-        <v>1311000</v>
+        <v>1048400</v>
       </c>
       <c r="J8" s="3">
-        <v>974300</v>
+        <v>779100</v>
       </c>
       <c r="K8" s="3">
         <v>1408100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6415800</v>
+        <v>5130600</v>
       </c>
       <c r="E9" s="3">
-        <v>3907600</v>
+        <v>3124800</v>
       </c>
       <c r="F9" s="3">
-        <v>3591800</v>
+        <v>2872300</v>
       </c>
       <c r="G9" s="3">
-        <v>2243700</v>
+        <v>1794300</v>
       </c>
       <c r="H9" s="3">
-        <v>1321700</v>
+        <v>1056900</v>
       </c>
       <c r="I9" s="3">
-        <v>1106400</v>
+        <v>884700</v>
       </c>
       <c r="J9" s="3">
-        <v>745900</v>
+        <v>596500</v>
       </c>
       <c r="K9" s="3">
         <v>1036600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1517300</v>
+        <v>1213300</v>
       </c>
       <c r="E10" s="3">
-        <v>268200</v>
+        <v>214400</v>
       </c>
       <c r="F10" s="3">
-        <v>642600</v>
+        <v>513900</v>
       </c>
       <c r="G10" s="3">
-        <v>475800</v>
+        <v>380500</v>
       </c>
       <c r="H10" s="3">
-        <v>255800</v>
+        <v>204600</v>
       </c>
       <c r="I10" s="3">
-        <v>204600</v>
+        <v>163700</v>
       </c>
       <c r="J10" s="3">
-        <v>228400</v>
+        <v>182600</v>
       </c>
       <c r="K10" s="3">
         <v>371500</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="E12" s="3">
-        <v>7700</v>
+        <v>6100</v>
       </c>
       <c r="F12" s="3">
-        <v>35700</v>
+        <v>28500</v>
       </c>
       <c r="G12" s="3">
-        <v>29700</v>
+        <v>23800</v>
       </c>
       <c r="H12" s="3">
-        <v>12100</v>
+        <v>9700</v>
       </c>
       <c r="I12" s="3">
-        <v>16900</v>
+        <v>13500</v>
       </c>
       <c r="J12" s="3">
-        <v>13400</v>
+        <v>10700</v>
       </c>
       <c r="K12" s="3">
         <v>15900</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>286100</v>
+        <v>228800</v>
       </c>
       <c r="E14" s="3">
-        <v>-9700</v>
+        <v>-7700</v>
       </c>
       <c r="F14" s="3">
-        <v>275600</v>
+        <v>220400</v>
       </c>
       <c r="G14" s="3">
-        <v>-78100</v>
+        <v>-62400</v>
       </c>
       <c r="H14" s="3">
-        <v>-23700</v>
+        <v>-18900</v>
       </c>
       <c r="I14" s="3">
-        <v>225900</v>
+        <v>180600</v>
       </c>
       <c r="J14" s="3">
-        <v>23200</v>
+        <v>18600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100900</v>
+        <v>80700</v>
       </c>
       <c r="E15" s="3">
-        <v>72500</v>
+        <v>57900</v>
       </c>
       <c r="F15" s="3">
-        <v>47300</v>
+        <v>37800</v>
       </c>
       <c r="G15" s="3">
-        <v>25700</v>
+        <v>20600</v>
       </c>
       <c r="H15" s="3">
-        <v>12800</v>
+        <v>10300</v>
       </c>
       <c r="I15" s="3">
-        <v>11800</v>
+        <v>9400</v>
       </c>
       <c r="J15" s="3">
-        <v>7000</v>
+        <v>5600</v>
       </c>
       <c r="K15" s="3">
         <v>10600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7570100</v>
+        <v>6053700</v>
       </c>
       <c r="E17" s="3">
-        <v>4540100</v>
+        <v>3630600</v>
       </c>
       <c r="F17" s="3">
-        <v>4365500</v>
+        <v>3491000</v>
       </c>
       <c r="G17" s="3">
-        <v>2446300</v>
+        <v>1956300</v>
       </c>
       <c r="H17" s="3">
-        <v>1477300</v>
+        <v>1181300</v>
       </c>
       <c r="I17" s="3">
-        <v>1462300</v>
+        <v>1169400</v>
       </c>
       <c r="J17" s="3">
-        <v>870800</v>
+        <v>696300</v>
       </c>
       <c r="K17" s="3">
         <v>1212200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>363000</v>
+        <v>290300</v>
       </c>
       <c r="E18" s="3">
-        <v>-364400</v>
+        <v>-291400</v>
       </c>
       <c r="F18" s="3">
-        <v>-131100</v>
+        <v>-104800</v>
       </c>
       <c r="G18" s="3">
-        <v>273200</v>
+        <v>218500</v>
       </c>
       <c r="H18" s="3">
-        <v>100300</v>
+        <v>80200</v>
       </c>
       <c r="I18" s="3">
-        <v>-151300</v>
+        <v>-121000</v>
       </c>
       <c r="J18" s="3">
-        <v>103500</v>
+        <v>82800</v>
       </c>
       <c r="K18" s="3">
         <v>195800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>630800</v>
+        <v>504400</v>
       </c>
       <c r="E20" s="3">
-        <v>525000</v>
+        <v>419800</v>
       </c>
       <c r="F20" s="3">
-        <v>455400</v>
+        <v>364200</v>
       </c>
       <c r="G20" s="3">
-        <v>515600</v>
+        <v>412300</v>
       </c>
       <c r="H20" s="3">
-        <v>88500</v>
+        <v>70800</v>
       </c>
       <c r="I20" s="3">
-        <v>98000</v>
+        <v>78400</v>
       </c>
       <c r="J20" s="3">
-        <v>144000</v>
+        <v>115200</v>
       </c>
       <c r="K20" s="3">
         <v>95900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2817000</v>
+        <v>2253300</v>
       </c>
       <c r="E21" s="3">
-        <v>1365300</v>
+        <v>1092200</v>
       </c>
       <c r="F21" s="3">
-        <v>1316600</v>
+        <v>1053200</v>
       </c>
       <c r="G21" s="3">
-        <v>1347100</v>
+        <v>1077400</v>
       </c>
       <c r="H21" s="3">
-        <v>528500</v>
+        <v>422700</v>
       </c>
       <c r="I21" s="3">
-        <v>230900</v>
+        <v>184800</v>
       </c>
       <c r="J21" s="3">
-        <v>416300</v>
+        <v>333000</v>
       </c>
       <c r="K21" s="3">
         <v>494300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>596900</v>
+        <v>477300</v>
       </c>
       <c r="E22" s="3">
-        <v>512700</v>
+        <v>410000</v>
       </c>
       <c r="F22" s="3">
-        <v>368000</v>
+        <v>294300</v>
       </c>
       <c r="G22" s="3">
-        <v>226300</v>
+        <v>181000</v>
       </c>
       <c r="H22" s="3">
-        <v>134500</v>
+        <v>107600</v>
       </c>
       <c r="I22" s="3">
-        <v>132700</v>
+        <v>106100</v>
       </c>
       <c r="J22" s="3">
-        <v>66200</v>
+        <v>52900</v>
       </c>
       <c r="K22" s="3">
         <v>72800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>396900</v>
+        <v>317400</v>
       </c>
       <c r="E23" s="3">
-        <v>-352100</v>
+        <v>-281600</v>
       </c>
       <c r="F23" s="3">
-        <v>-43700</v>
+        <v>-35000</v>
       </c>
       <c r="G23" s="3">
-        <v>562500</v>
+        <v>449800</v>
       </c>
       <c r="H23" s="3">
-        <v>54300</v>
+        <v>43400</v>
       </c>
       <c r="I23" s="3">
-        <v>-186000</v>
+        <v>-148700</v>
       </c>
       <c r="J23" s="3">
-        <v>181400</v>
+        <v>145000</v>
       </c>
       <c r="K23" s="3">
         <v>219000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>401900</v>
+        <v>321400</v>
       </c>
       <c r="E24" s="3">
-        <v>91000</v>
+        <v>72800</v>
       </c>
       <c r="F24" s="3">
-        <v>135800</v>
+        <v>108600</v>
       </c>
       <c r="G24" s="3">
-        <v>321600</v>
+        <v>257200</v>
       </c>
       <c r="H24" s="3">
-        <v>-24800</v>
+        <v>-19800</v>
       </c>
       <c r="I24" s="3">
-        <v>-8900</v>
+        <v>-7100</v>
       </c>
       <c r="J24" s="3">
-        <v>153700</v>
+        <v>122900</v>
       </c>
       <c r="K24" s="3">
         <v>131200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5000</v>
+        <v>-4000</v>
       </c>
       <c r="E26" s="3">
-        <v>-443100</v>
+        <v>-354400</v>
       </c>
       <c r="F26" s="3">
-        <v>-179600</v>
+        <v>-143600</v>
       </c>
       <c r="G26" s="3">
-        <v>240900</v>
+        <v>192600</v>
       </c>
       <c r="H26" s="3">
-        <v>79100</v>
+        <v>63200</v>
       </c>
       <c r="I26" s="3">
-        <v>-177100</v>
+        <v>-141600</v>
       </c>
       <c r="J26" s="3">
-        <v>27600</v>
+        <v>22100</v>
       </c>
       <c r="K26" s="3">
         <v>87800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="E27" s="3">
-        <v>-434600</v>
+        <v>-347500</v>
       </c>
       <c r="F27" s="3">
-        <v>-183900</v>
+        <v>-147000</v>
       </c>
       <c r="G27" s="3">
-        <v>240900</v>
+        <v>192700</v>
       </c>
       <c r="H27" s="3">
-        <v>77000</v>
+        <v>61600</v>
       </c>
       <c r="I27" s="3">
-        <v>-176200</v>
+        <v>-140900</v>
       </c>
       <c r="J27" s="3">
-        <v>28600</v>
+        <v>22800</v>
       </c>
       <c r="K27" s="3">
         <v>89300</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-28700</v>
+        <v>-23000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-630800</v>
+        <v>-504400</v>
       </c>
       <c r="E32" s="3">
-        <v>-525000</v>
+        <v>-419800</v>
       </c>
       <c r="F32" s="3">
-        <v>-455400</v>
+        <v>-364200</v>
       </c>
       <c r="G32" s="3">
-        <v>-515600</v>
+        <v>-412300</v>
       </c>
       <c r="H32" s="3">
-        <v>-88500</v>
+        <v>-70800</v>
       </c>
       <c r="I32" s="3">
-        <v>-98000</v>
+        <v>-78400</v>
       </c>
       <c r="J32" s="3">
-        <v>-144000</v>
+        <v>-115200</v>
       </c>
       <c r="K32" s="3">
         <v>-95900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="E33" s="3">
-        <v>-434600</v>
+        <v>-347500</v>
       </c>
       <c r="F33" s="3">
-        <v>-212600</v>
+        <v>-170000</v>
       </c>
       <c r="G33" s="3">
-        <v>240900</v>
+        <v>192700</v>
       </c>
       <c r="H33" s="3">
-        <v>77000</v>
+        <v>61600</v>
       </c>
       <c r="I33" s="3">
-        <v>-176200</v>
+        <v>-140900</v>
       </c>
       <c r="J33" s="3">
-        <v>28600</v>
+        <v>22800</v>
       </c>
       <c r="K33" s="3">
         <v>89300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="E35" s="3">
-        <v>-434600</v>
+        <v>-347500</v>
       </c>
       <c r="F35" s="3">
-        <v>-212600</v>
+        <v>-170000</v>
       </c>
       <c r="G35" s="3">
-        <v>240900</v>
+        <v>192700</v>
       </c>
       <c r="H35" s="3">
-        <v>77000</v>
+        <v>61600</v>
       </c>
       <c r="I35" s="3">
-        <v>-176200</v>
+        <v>-140900</v>
       </c>
       <c r="J35" s="3">
-        <v>28600</v>
+        <v>22800</v>
       </c>
       <c r="K35" s="3">
         <v>89300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>202700</v>
+        <v>162100</v>
       </c>
       <c r="E41" s="3">
-        <v>125000</v>
+        <v>100000</v>
       </c>
       <c r="F41" s="3">
-        <v>368500</v>
+        <v>294700</v>
       </c>
       <c r="G41" s="3">
-        <v>238600</v>
+        <v>190800</v>
       </c>
       <c r="H41" s="3">
-        <v>60400</v>
+        <v>48300</v>
       </c>
       <c r="I41" s="3">
-        <v>49600</v>
+        <v>39700</v>
       </c>
       <c r="J41" s="3">
-        <v>91200</v>
+        <v>72900</v>
       </c>
       <c r="K41" s="3">
         <v>81600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>506700</v>
+        <v>405200</v>
       </c>
       <c r="E42" s="3">
-        <v>396400</v>
+        <v>317000</v>
       </c>
       <c r="F42" s="3">
-        <v>96100</v>
+        <v>76900</v>
       </c>
       <c r="G42" s="3">
-        <v>116900</v>
+        <v>93500</v>
       </c>
       <c r="H42" s="3">
-        <v>199600</v>
+        <v>159600</v>
       </c>
       <c r="I42" s="3">
-        <v>64600</v>
+        <v>51700</v>
       </c>
       <c r="J42" s="3">
-        <v>9800</v>
+        <v>7900</v>
       </c>
       <c r="K42" s="3">
         <v>15200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1174100</v>
+        <v>938900</v>
       </c>
       <c r="E43" s="3">
-        <v>867400</v>
+        <v>693700</v>
       </c>
       <c r="F43" s="3">
-        <v>947800</v>
+        <v>758000</v>
       </c>
       <c r="G43" s="3">
-        <v>576000</v>
+        <v>460600</v>
       </c>
       <c r="H43" s="3">
-        <v>327000</v>
+        <v>261500</v>
       </c>
       <c r="I43" s="3">
-        <v>289500</v>
+        <v>231500</v>
       </c>
       <c r="J43" s="3">
-        <v>254900</v>
+        <v>203800</v>
       </c>
       <c r="K43" s="3">
         <v>187400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>960500</v>
+        <v>768100</v>
       </c>
       <c r="E44" s="3">
-        <v>624900</v>
+        <v>499700</v>
       </c>
       <c r="F44" s="3">
-        <v>502200</v>
+        <v>401600</v>
       </c>
       <c r="G44" s="3">
-        <v>335400</v>
+        <v>268200</v>
       </c>
       <c r="H44" s="3">
-        <v>170300</v>
+        <v>136200</v>
       </c>
       <c r="I44" s="3">
-        <v>136200</v>
+        <v>108900</v>
       </c>
       <c r="J44" s="3">
-        <v>120200</v>
+        <v>96100</v>
       </c>
       <c r="K44" s="3">
         <v>129000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>65300</v>
+        <v>52200</v>
       </c>
       <c r="E45" s="3">
-        <v>30400</v>
+        <v>24300</v>
       </c>
       <c r="F45" s="3">
-        <v>16100</v>
+        <v>12800</v>
       </c>
       <c r="G45" s="3">
-        <v>33700</v>
+        <v>26900</v>
       </c>
       <c r="H45" s="3">
-        <v>5800</v>
+        <v>4700</v>
       </c>
       <c r="I45" s="3">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="J45" s="3">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K45" s="3">
         <v>4500</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2909400</v>
+        <v>2326600</v>
       </c>
       <c r="E46" s="3">
-        <v>2044000</v>
+        <v>1634600</v>
       </c>
       <c r="F46" s="3">
-        <v>1930800</v>
+        <v>1544000</v>
       </c>
       <c r="G46" s="3">
-        <v>1300500</v>
+        <v>1040000</v>
       </c>
       <c r="H46" s="3">
-        <v>763100</v>
+        <v>610300</v>
       </c>
       <c r="I46" s="3">
-        <v>544300</v>
+        <v>435300</v>
       </c>
       <c r="J46" s="3">
-        <v>480300</v>
+        <v>384100</v>
       </c>
       <c r="K46" s="3">
         <v>417600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1138400</v>
+        <v>910400</v>
       </c>
       <c r="E47" s="3">
-        <v>795600</v>
+        <v>636200</v>
       </c>
       <c r="F47" s="3">
-        <v>587200</v>
+        <v>469600</v>
       </c>
       <c r="G47" s="3">
-        <v>409200</v>
+        <v>327200</v>
       </c>
       <c r="H47" s="3">
-        <v>58700</v>
+        <v>47000</v>
       </c>
       <c r="I47" s="3">
-        <v>106400</v>
+        <v>85100</v>
       </c>
       <c r="J47" s="3">
-        <v>42600</v>
+        <v>34100</v>
       </c>
       <c r="K47" s="3">
         <v>59600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10580000</v>
+        <v>8460600</v>
       </c>
       <c r="E48" s="3">
-        <v>8883300</v>
+        <v>7103800</v>
       </c>
       <c r="F48" s="3">
-        <v>7053700</v>
+        <v>5640700</v>
       </c>
       <c r="G48" s="3">
-        <v>4362300</v>
+        <v>3488400</v>
       </c>
       <c r="H48" s="3">
-        <v>2211700</v>
+        <v>1768700</v>
       </c>
       <c r="I48" s="3">
-        <v>1922000</v>
+        <v>1537000</v>
       </c>
       <c r="J48" s="3">
-        <v>1690400</v>
+        <v>1351800</v>
       </c>
       <c r="K48" s="3">
         <v>1556700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>268400</v>
+        <v>214600</v>
       </c>
       <c r="E49" s="3">
-        <v>244100</v>
+        <v>195200</v>
       </c>
       <c r="F49" s="3">
-        <v>232000</v>
+        <v>185500</v>
       </c>
       <c r="G49" s="3">
-        <v>127300</v>
+        <v>101800</v>
       </c>
       <c r="H49" s="3">
-        <v>62300</v>
+        <v>49800</v>
       </c>
       <c r="I49" s="3">
-        <v>50600</v>
+        <v>40500</v>
       </c>
       <c r="J49" s="3">
-        <v>45400</v>
+        <v>36300</v>
       </c>
       <c r="K49" s="3">
         <v>43600</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17800</v>
+        <v>14300</v>
       </c>
       <c r="E52" s="3">
-        <v>33900</v>
+        <v>27100</v>
       </c>
       <c r="F52" s="3">
-        <v>13700</v>
+        <v>10900</v>
       </c>
       <c r="G52" s="3">
-        <v>3400</v>
+        <v>2700</v>
       </c>
       <c r="H52" s="3">
-        <v>59900</v>
+        <v>47900</v>
       </c>
       <c r="I52" s="3">
-        <v>4600</v>
+        <v>3700</v>
       </c>
       <c r="J52" s="3">
-        <v>9200</v>
+        <v>7300</v>
       </c>
       <c r="K52" s="3">
         <v>8000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14914000</v>
+        <v>11926400</v>
       </c>
       <c r="E54" s="3">
-        <v>12000900</v>
+        <v>9596900</v>
       </c>
       <c r="F54" s="3">
-        <v>9817300</v>
+        <v>7850700</v>
       </c>
       <c r="G54" s="3">
-        <v>6202700</v>
+        <v>4960100</v>
       </c>
       <c r="H54" s="3">
-        <v>3155700</v>
+        <v>2523500</v>
       </c>
       <c r="I54" s="3">
-        <v>2627900</v>
+        <v>2101500</v>
       </c>
       <c r="J54" s="3">
-        <v>2267900</v>
+        <v>1813600</v>
       </c>
       <c r="K54" s="3">
         <v>2068900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1205300</v>
+        <v>963900</v>
       </c>
       <c r="E57" s="3">
-        <v>854400</v>
+        <v>683300</v>
       </c>
       <c r="F57" s="3">
-        <v>910700</v>
+        <v>728300</v>
       </c>
       <c r="G57" s="3">
-        <v>508200</v>
+        <v>406400</v>
       </c>
       <c r="H57" s="3">
-        <v>278600</v>
+        <v>222800</v>
       </c>
       <c r="I57" s="3">
-        <v>253800</v>
+        <v>202900</v>
       </c>
       <c r="J57" s="3">
-        <v>241500</v>
+        <v>193100</v>
       </c>
       <c r="K57" s="3">
         <v>282900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>711200</v>
+        <v>568700</v>
       </c>
       <c r="E58" s="3">
-        <v>1078500</v>
+        <v>862400</v>
       </c>
       <c r="F58" s="3">
-        <v>801800</v>
+        <v>641200</v>
       </c>
       <c r="G58" s="3">
-        <v>404500</v>
+        <v>323500</v>
       </c>
       <c r="H58" s="3">
-        <v>245500</v>
+        <v>196300</v>
       </c>
       <c r="I58" s="3">
-        <v>167100</v>
+        <v>133600</v>
       </c>
       <c r="J58" s="3">
-        <v>173600</v>
+        <v>138800</v>
       </c>
       <c r="K58" s="3">
         <v>131700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>523900</v>
+        <v>418900</v>
       </c>
       <c r="E59" s="3">
-        <v>380100</v>
+        <v>303900</v>
       </c>
       <c r="F59" s="3">
-        <v>252300</v>
+        <v>201800</v>
       </c>
       <c r="G59" s="3">
-        <v>204000</v>
+        <v>163100</v>
       </c>
       <c r="H59" s="3">
-        <v>117000</v>
+        <v>93500</v>
       </c>
       <c r="I59" s="3">
-        <v>93700</v>
+        <v>75000</v>
       </c>
       <c r="J59" s="3">
-        <v>82800</v>
+        <v>66200</v>
       </c>
       <c r="K59" s="3">
         <v>126600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2440300</v>
+        <v>1951500</v>
       </c>
       <c r="E60" s="3">
-        <v>2313000</v>
+        <v>1849600</v>
       </c>
       <c r="F60" s="3">
-        <v>1964800</v>
+        <v>1571200</v>
       </c>
       <c r="G60" s="3">
-        <v>1116800</v>
+        <v>893100</v>
       </c>
       <c r="H60" s="3">
-        <v>641100</v>
+        <v>512600</v>
       </c>
       <c r="I60" s="3">
-        <v>514600</v>
+        <v>411500</v>
       </c>
       <c r="J60" s="3">
-        <v>497900</v>
+        <v>398200</v>
       </c>
       <c r="K60" s="3">
         <v>529400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4360900</v>
+        <v>3487400</v>
       </c>
       <c r="E61" s="3">
-        <v>3442900</v>
+        <v>2753200</v>
       </c>
       <c r="F61" s="3">
-        <v>2870700</v>
+        <v>2295600</v>
       </c>
       <c r="G61" s="3">
-        <v>1686400</v>
+        <v>1348600</v>
       </c>
       <c r="H61" s="3">
-        <v>946800</v>
+        <v>757100</v>
       </c>
       <c r="I61" s="3">
-        <v>796000</v>
+        <v>636600</v>
       </c>
       <c r="J61" s="3">
-        <v>486300</v>
+        <v>388900</v>
       </c>
       <c r="K61" s="3">
         <v>357400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2820500</v>
+        <v>2255500</v>
       </c>
       <c r="E62" s="3">
-        <v>1980700</v>
+        <v>1583900</v>
       </c>
       <c r="F62" s="3">
-        <v>1561700</v>
+        <v>1248900</v>
       </c>
       <c r="G62" s="3">
-        <v>1138400</v>
+        <v>910400</v>
       </c>
       <c r="H62" s="3">
-        <v>589900</v>
+        <v>471700</v>
       </c>
       <c r="I62" s="3">
-        <v>576900</v>
+        <v>461300</v>
       </c>
       <c r="J62" s="3">
-        <v>532100</v>
+        <v>425500</v>
       </c>
       <c r="K62" s="3">
         <v>723600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9673100</v>
+        <v>7735400</v>
       </c>
       <c r="E66" s="3">
-        <v>7775000</v>
+        <v>6217500</v>
       </c>
       <c r="F66" s="3">
-        <v>6431800</v>
+        <v>5143400</v>
       </c>
       <c r="G66" s="3">
-        <v>3961300</v>
+        <v>3167700</v>
       </c>
       <c r="H66" s="3">
-        <v>2205400</v>
+        <v>1763600</v>
       </c>
       <c r="I66" s="3">
-        <v>1886900</v>
+        <v>1508900</v>
       </c>
       <c r="J66" s="3">
-        <v>1516600</v>
+        <v>1212800</v>
       </c>
       <c r="K66" s="3">
         <v>1348400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-338200</v>
+        <v>-270500</v>
       </c>
       <c r="E72" s="3">
-        <v>-395600</v>
+        <v>-316300</v>
       </c>
       <c r="F72" s="3">
-        <v>-181400</v>
+        <v>-145000</v>
       </c>
       <c r="G72" s="3">
-        <v>253000</v>
+        <v>202300</v>
       </c>
       <c r="H72" s="3">
-        <v>90100</v>
+        <v>72100</v>
       </c>
       <c r="I72" s="3">
-        <v>-137800</v>
+        <v>-110200</v>
       </c>
       <c r="J72" s="3">
-        <v>66700</v>
+        <v>53300</v>
       </c>
       <c r="K72" s="3">
         <v>148900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5240900</v>
+        <v>4191100</v>
       </c>
       <c r="E76" s="3">
-        <v>4225900</v>
+        <v>3379400</v>
       </c>
       <c r="F76" s="3">
-        <v>3385500</v>
+        <v>2707300</v>
       </c>
       <c r="G76" s="3">
-        <v>2241400</v>
+        <v>1792400</v>
       </c>
       <c r="H76" s="3">
-        <v>950300</v>
+        <v>760000</v>
       </c>
       <c r="I76" s="3">
-        <v>741000</v>
+        <v>592600</v>
       </c>
       <c r="J76" s="3">
-        <v>751400</v>
+        <v>600900</v>
       </c>
       <c r="K76" s="3">
         <v>720500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="E81" s="3">
-        <v>-434600</v>
+        <v>-347500</v>
       </c>
       <c r="F81" s="3">
-        <v>-212600</v>
+        <v>-170000</v>
       </c>
       <c r="G81" s="3">
-        <v>240900</v>
+        <v>192700</v>
       </c>
       <c r="H81" s="3">
-        <v>77000</v>
+        <v>61600</v>
       </c>
       <c r="I81" s="3">
-        <v>-176200</v>
+        <v>-140900</v>
       </c>
       <c r="J81" s="3">
-        <v>28600</v>
+        <v>22800</v>
       </c>
       <c r="K81" s="3">
         <v>89300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1820300</v>
+        <v>1455700</v>
       </c>
       <c r="E83" s="3">
-        <v>1202800</v>
+        <v>961800</v>
       </c>
       <c r="F83" s="3">
-        <v>990800</v>
+        <v>792300</v>
       </c>
       <c r="G83" s="3">
-        <v>557300</v>
+        <v>445700</v>
       </c>
       <c r="H83" s="3">
-        <v>339100</v>
+        <v>271200</v>
       </c>
       <c r="I83" s="3">
-        <v>283700</v>
+        <v>226900</v>
       </c>
       <c r="J83" s="3">
-        <v>168500</v>
+        <v>134800</v>
       </c>
       <c r="K83" s="3">
         <v>202400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2496100</v>
+        <v>1996100</v>
       </c>
       <c r="E89" s="3">
-        <v>1305500</v>
+        <v>1044000</v>
       </c>
       <c r="F89" s="3">
-        <v>1354900</v>
+        <v>1083500</v>
       </c>
       <c r="G89" s="3">
-        <v>780400</v>
+        <v>624000</v>
       </c>
       <c r="H89" s="3">
-        <v>448700</v>
+        <v>358800</v>
       </c>
       <c r="I89" s="3">
-        <v>306000</v>
+        <v>244700</v>
       </c>
       <c r="J89" s="3">
-        <v>258400</v>
+        <v>206600</v>
       </c>
       <c r="K89" s="3">
         <v>457800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1465200</v>
+        <v>-1171700</v>
       </c>
       <c r="E91" s="3">
-        <v>-715200</v>
+        <v>-571900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1007500</v>
+        <v>-805700</v>
       </c>
       <c r="G91" s="3">
-        <v>-550900</v>
+        <v>-440600</v>
       </c>
       <c r="H91" s="3">
-        <v>-372000</v>
+        <v>-297500</v>
       </c>
       <c r="I91" s="3">
-        <v>-400400</v>
+        <v>-320200</v>
       </c>
       <c r="J91" s="3">
-        <v>-397900</v>
+        <v>-318200</v>
       </c>
       <c r="K91" s="3">
         <v>-498100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1522500</v>
+        <v>-1217500</v>
       </c>
       <c r="E94" s="3">
-        <v>-681200</v>
+        <v>-544700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1022600</v>
+        <v>-817800</v>
       </c>
       <c r="G94" s="3">
-        <v>-513200</v>
+        <v>-410400</v>
       </c>
       <c r="H94" s="3">
-        <v>-344700</v>
+        <v>-275700</v>
       </c>
       <c r="I94" s="3">
-        <v>-412900</v>
+        <v>-330200</v>
       </c>
       <c r="J94" s="3">
-        <v>-399700</v>
+        <v>-319600</v>
       </c>
       <c r="K94" s="3">
         <v>-529800</v>
@@ -3770,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-14400</v>
+        <v>-11500</v>
       </c>
       <c r="G96" s="3">
-        <v>-7500</v>
+        <v>-6000</v>
       </c>
       <c r="H96" s="3">
-        <v>-4500</v>
+        <v>-3600</v>
       </c>
       <c r="I96" s="3">
-        <v>-5500</v>
+        <v>-4400</v>
       </c>
       <c r="J96" s="3">
-        <v>-3100</v>
+        <v>-2500</v>
       </c>
       <c r="K96" s="3">
         <v>-4600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-940100</v>
+        <v>-751800</v>
       </c>
       <c r="E100" s="3">
-        <v>-755700</v>
+        <v>-604300</v>
       </c>
       <c r="F100" s="3">
-        <v>-350000</v>
+        <v>-279800</v>
       </c>
       <c r="G100" s="3">
-        <v>-272400</v>
+        <v>-217800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2200</v>
+        <v>-1800</v>
       </c>
       <c r="I100" s="3">
-        <v>67500</v>
+        <v>54000</v>
       </c>
       <c r="J100" s="3">
-        <v>147700</v>
+        <v>118100</v>
       </c>
       <c r="K100" s="3">
         <v>49500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16800</v>
+        <v>13500</v>
       </c>
       <c r="E101" s="3">
-        <v>59700</v>
+        <v>47800</v>
       </c>
       <c r="F101" s="3">
-        <v>142900</v>
+        <v>114300</v>
       </c>
       <c r="G101" s="3">
-        <v>113200</v>
+        <v>90500</v>
       </c>
       <c r="H101" s="3">
-        <v>10400</v>
+        <v>8300</v>
       </c>
       <c r="I101" s="3">
-        <v>10600</v>
+        <v>8400</v>
       </c>
       <c r="J101" s="3">
-        <v>28800</v>
+        <v>23000</v>
       </c>
       <c r="K101" s="3">
         <v>13000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>50300</v>
+        <v>40200</v>
       </c>
       <c r="E102" s="3">
-        <v>-71600</v>
+        <v>-57300</v>
       </c>
       <c r="F102" s="3">
-        <v>125200</v>
+        <v>100200</v>
       </c>
       <c r="G102" s="3">
-        <v>107900</v>
+        <v>86300</v>
       </c>
       <c r="H102" s="3">
-        <v>112200</v>
+        <v>89700</v>
       </c>
       <c r="I102" s="3">
-        <v>-28900</v>
+        <v>-23100</v>
       </c>
       <c r="J102" s="3">
-        <v>35100</v>
+        <v>28100</v>
       </c>
       <c r="K102" s="3">
         <v>-9500</v>

--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>YPF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6343900</v>
+        <v>10889100</v>
       </c>
       <c r="E8" s="3">
-        <v>3339200</v>
+        <v>5479400</v>
       </c>
       <c r="F8" s="3">
-        <v>3386200</v>
+        <v>2884200</v>
       </c>
       <c r="G8" s="3">
-        <v>2174700</v>
+        <v>2924700</v>
       </c>
       <c r="H8" s="3">
-        <v>1261500</v>
+        <v>1878400</v>
       </c>
       <c r="I8" s="3">
-        <v>1048400</v>
+        <v>1089600</v>
       </c>
       <c r="J8" s="3">
+        <v>905500</v>
+      </c>
+      <c r="K8" s="3">
         <v>779100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1408100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1112000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1110400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1471600</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5130600</v>
+        <v>8110200</v>
       </c>
       <c r="E9" s="3">
-        <v>3124800</v>
+        <v>4431500</v>
       </c>
       <c r="F9" s="3">
-        <v>2872300</v>
+        <v>2699000</v>
       </c>
       <c r="G9" s="3">
-        <v>1794300</v>
+        <v>2480900</v>
       </c>
       <c r="H9" s="3">
-        <v>1056900</v>
+        <v>1549700</v>
       </c>
       <c r="I9" s="3">
-        <v>884700</v>
+        <v>912900</v>
       </c>
       <c r="J9" s="3">
+        <v>764200</v>
+      </c>
+      <c r="K9" s="3">
         <v>596500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1036600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>846200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>830900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1077100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1213300</v>
+        <v>2778900</v>
       </c>
       <c r="E10" s="3">
-        <v>214400</v>
+        <v>1048000</v>
       </c>
       <c r="F10" s="3">
-        <v>513900</v>
+        <v>185200</v>
       </c>
       <c r="G10" s="3">
-        <v>380500</v>
+        <v>443900</v>
       </c>
       <c r="H10" s="3">
-        <v>204600</v>
+        <v>328600</v>
       </c>
       <c r="I10" s="3">
-        <v>163700</v>
+        <v>176700</v>
       </c>
       <c r="J10" s="3">
+        <v>141400</v>
+      </c>
+      <c r="K10" s="3">
         <v>182600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>371500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>265800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>279500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>394500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4600</v>
+        <v>14600</v>
       </c>
       <c r="E12" s="3">
-        <v>6100</v>
+        <v>4000</v>
       </c>
       <c r="F12" s="3">
-        <v>28500</v>
+        <v>5300</v>
       </c>
       <c r="G12" s="3">
-        <v>23800</v>
+        <v>24600</v>
       </c>
       <c r="H12" s="3">
-        <v>9700</v>
+        <v>20500</v>
       </c>
       <c r="I12" s="3">
-        <v>13500</v>
+        <v>8400</v>
       </c>
       <c r="J12" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K12" s="3">
         <v>10700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15000</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,35 +944,38 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>228800</v>
+        <v>-44300</v>
       </c>
       <c r="E14" s="3">
-        <v>-7700</v>
+        <v>197600</v>
       </c>
       <c r="F14" s="3">
-        <v>220400</v>
+        <v>-6700</v>
       </c>
       <c r="G14" s="3">
-        <v>-62400</v>
+        <v>190300</v>
       </c>
       <c r="H14" s="3">
-        <v>-18900</v>
+        <v>-53900</v>
       </c>
       <c r="I14" s="3">
-        <v>180600</v>
+        <v>-16300</v>
       </c>
       <c r="J14" s="3">
+        <v>156000</v>
+      </c>
+      <c r="K14" s="3">
         <v>18600</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -967,48 +986,54 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>80700</v>
+        <v>102200</v>
       </c>
       <c r="E15" s="3">
-        <v>57900</v>
+        <v>69700</v>
       </c>
       <c r="F15" s="3">
-        <v>37800</v>
+        <v>50000</v>
       </c>
       <c r="G15" s="3">
-        <v>20600</v>
+        <v>32700</v>
       </c>
       <c r="H15" s="3">
-        <v>10300</v>
+        <v>17800</v>
       </c>
       <c r="I15" s="3">
-        <v>9400</v>
+        <v>8900</v>
       </c>
       <c r="J15" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K15" s="3">
         <v>5600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7100</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6053700</v>
+        <v>9606300</v>
       </c>
       <c r="E17" s="3">
-        <v>3630600</v>
+        <v>5228700</v>
       </c>
       <c r="F17" s="3">
-        <v>3491000</v>
+        <v>3135900</v>
       </c>
       <c r="G17" s="3">
-        <v>1956300</v>
+        <v>3015300</v>
       </c>
       <c r="H17" s="3">
-        <v>1181300</v>
+        <v>1689700</v>
       </c>
       <c r="I17" s="3">
-        <v>1169400</v>
+        <v>1020300</v>
       </c>
       <c r="J17" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="K17" s="3">
         <v>696300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1212200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>974300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>979700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1283400</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>290300</v>
+        <v>1282700</v>
       </c>
       <c r="E18" s="3">
-        <v>-291400</v>
+        <v>250700</v>
       </c>
       <c r="F18" s="3">
-        <v>-104800</v>
+        <v>-251700</v>
       </c>
       <c r="G18" s="3">
-        <v>218500</v>
+        <v>-90600</v>
       </c>
       <c r="H18" s="3">
-        <v>80200</v>
+        <v>188700</v>
       </c>
       <c r="I18" s="3">
-        <v>-121000</v>
+        <v>69300</v>
       </c>
       <c r="J18" s="3">
+        <v>-104500</v>
+      </c>
+      <c r="K18" s="3">
         <v>82800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>195800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>137700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>130600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>188200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>504400</v>
+        <v>858600</v>
       </c>
       <c r="E20" s="3">
-        <v>419800</v>
+        <v>333200</v>
       </c>
       <c r="F20" s="3">
-        <v>364200</v>
+        <v>292200</v>
       </c>
       <c r="G20" s="3">
-        <v>412300</v>
+        <v>267800</v>
       </c>
       <c r="H20" s="3">
-        <v>70800</v>
+        <v>323600</v>
       </c>
       <c r="I20" s="3">
-        <v>78400</v>
+        <v>47500</v>
       </c>
       <c r="J20" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K20" s="3">
         <v>115200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>95900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>86600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>36700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>37800</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2253300</v>
+        <v>3750900</v>
       </c>
       <c r="E21" s="3">
-        <v>1092200</v>
+        <v>1844100</v>
       </c>
       <c r="F21" s="3">
-        <v>1053200</v>
+        <v>873200</v>
       </c>
       <c r="G21" s="3">
-        <v>1077400</v>
+        <v>863200</v>
       </c>
       <c r="H21" s="3">
-        <v>422700</v>
+        <v>898100</v>
       </c>
       <c r="I21" s="3">
-        <v>184800</v>
+        <v>351500</v>
       </c>
       <c r="J21" s="3">
+        <v>146000</v>
+      </c>
+      <c r="K21" s="3">
         <v>333000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>494300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>365800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>304500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400300</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>477300</v>
+        <v>420900</v>
       </c>
       <c r="E22" s="3">
-        <v>410000</v>
+        <v>309800</v>
       </c>
       <c r="F22" s="3">
-        <v>294300</v>
+        <v>283700</v>
       </c>
       <c r="G22" s="3">
-        <v>181000</v>
+        <v>207500</v>
       </c>
       <c r="H22" s="3">
-        <v>107600</v>
+        <v>123800</v>
       </c>
       <c r="I22" s="3">
-        <v>106100</v>
+        <v>79200</v>
       </c>
       <c r="J22" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K22" s="3">
         <v>52900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>72800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>47300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>27400</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>317400</v>
+        <v>1720400</v>
       </c>
       <c r="E23" s="3">
-        <v>-281600</v>
+        <v>274100</v>
       </c>
       <c r="F23" s="3">
-        <v>-35000</v>
+        <v>-243200</v>
       </c>
       <c r="G23" s="3">
-        <v>449800</v>
+        <v>-30200</v>
       </c>
       <c r="H23" s="3">
-        <v>43400</v>
+        <v>388500</v>
       </c>
       <c r="I23" s="3">
-        <v>-148700</v>
+        <v>37500</v>
       </c>
       <c r="J23" s="3">
+        <v>-128500</v>
+      </c>
+      <c r="K23" s="3">
         <v>145000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>219000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>177100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>141600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>198600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>321400</v>
+        <v>469400</v>
       </c>
       <c r="E24" s="3">
-        <v>72800</v>
+        <v>277600</v>
       </c>
       <c r="F24" s="3">
-        <v>108600</v>
+        <v>62900</v>
       </c>
       <c r="G24" s="3">
-        <v>257200</v>
+        <v>93800</v>
       </c>
       <c r="H24" s="3">
-        <v>-19800</v>
+        <v>222100</v>
       </c>
       <c r="I24" s="3">
-        <v>-7100</v>
+        <v>-17100</v>
       </c>
       <c r="J24" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K24" s="3">
         <v>122900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>131200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>114400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>77100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>82200</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4000</v>
+        <v>1251000</v>
       </c>
       <c r="E26" s="3">
-        <v>-354400</v>
+        <v>-3500</v>
       </c>
       <c r="F26" s="3">
-        <v>-143600</v>
+        <v>-306100</v>
       </c>
       <c r="G26" s="3">
-        <v>192600</v>
+        <v>-124000</v>
       </c>
       <c r="H26" s="3">
-        <v>63200</v>
+        <v>166400</v>
       </c>
       <c r="I26" s="3">
-        <v>-141600</v>
+        <v>54600</v>
       </c>
       <c r="J26" s="3">
+        <v>-122300</v>
+      </c>
+      <c r="K26" s="3">
         <v>22100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>87800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>62700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>64500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>116400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1300</v>
+        <v>1245800</v>
       </c>
       <c r="E27" s="3">
-        <v>-347500</v>
+        <v>1100</v>
       </c>
       <c r="F27" s="3">
-        <v>-147000</v>
+        <v>-300200</v>
       </c>
       <c r="G27" s="3">
-        <v>192700</v>
+        <v>-127000</v>
       </c>
       <c r="H27" s="3">
-        <v>61600</v>
+        <v>166400</v>
       </c>
       <c r="I27" s="3">
-        <v>-140900</v>
+        <v>53200</v>
       </c>
       <c r="J27" s="3">
+        <v>-121700</v>
+      </c>
+      <c r="K27" s="3">
         <v>22800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>89300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>63200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>64500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>101000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,23 +1523,26 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-19800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1499,15 +1559,18 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-504400</v>
+        <v>-858600</v>
       </c>
       <c r="E32" s="3">
-        <v>-419800</v>
+        <v>-333200</v>
       </c>
       <c r="F32" s="3">
-        <v>-364200</v>
+        <v>-292200</v>
       </c>
       <c r="G32" s="3">
-        <v>-412300</v>
+        <v>-267800</v>
       </c>
       <c r="H32" s="3">
-        <v>-70800</v>
+        <v>-323600</v>
       </c>
       <c r="I32" s="3">
-        <v>-78400</v>
+        <v>-47500</v>
       </c>
       <c r="J32" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-115200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-95900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-86600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-36700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-37800</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1300</v>
+        <v>1245800</v>
       </c>
       <c r="E33" s="3">
-        <v>-347500</v>
+        <v>1100</v>
       </c>
       <c r="F33" s="3">
-        <v>-170000</v>
+        <v>-300200</v>
       </c>
       <c r="G33" s="3">
-        <v>192700</v>
+        <v>-146800</v>
       </c>
       <c r="H33" s="3">
-        <v>61600</v>
+        <v>166400</v>
       </c>
       <c r="I33" s="3">
-        <v>-140900</v>
+        <v>53200</v>
       </c>
       <c r="J33" s="3">
+        <v>-121700</v>
+      </c>
+      <c r="K33" s="3">
         <v>22800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>89300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>63200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>64500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>101000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1300</v>
+        <v>1245800</v>
       </c>
       <c r="E35" s="3">
-        <v>-347500</v>
+        <v>1100</v>
       </c>
       <c r="F35" s="3">
-        <v>-170000</v>
+        <v>-300200</v>
       </c>
       <c r="G35" s="3">
-        <v>192700</v>
+        <v>-146800</v>
       </c>
       <c r="H35" s="3">
-        <v>61600</v>
+        <v>166400</v>
       </c>
       <c r="I35" s="3">
-        <v>-140900</v>
+        <v>53200</v>
       </c>
       <c r="J35" s="3">
+        <v>-121700</v>
+      </c>
+      <c r="K35" s="3">
         <v>22800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>89300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>63200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>64500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>101000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>162100</v>
+        <v>333400</v>
       </c>
       <c r="E41" s="3">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="F41" s="3">
-        <v>294700</v>
+        <v>86300</v>
       </c>
       <c r="G41" s="3">
-        <v>190800</v>
+        <v>254600</v>
       </c>
       <c r="H41" s="3">
-        <v>48300</v>
+        <v>164800</v>
       </c>
       <c r="I41" s="3">
-        <v>39700</v>
+        <v>41800</v>
       </c>
       <c r="J41" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K41" s="3">
         <v>72900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>81600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>55900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>64000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23200</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>405200</v>
+        <v>500000</v>
       </c>
       <c r="E42" s="3">
-        <v>317000</v>
+        <v>350000</v>
       </c>
       <c r="F42" s="3">
-        <v>76900</v>
+        <v>273800</v>
       </c>
       <c r="G42" s="3">
-        <v>93500</v>
+        <v>66400</v>
       </c>
       <c r="H42" s="3">
-        <v>159600</v>
+        <v>80700</v>
       </c>
       <c r="I42" s="3">
-        <v>51700</v>
+        <v>137900</v>
       </c>
       <c r="J42" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K42" s="3">
         <v>7900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>76300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5900</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>938900</v>
+        <v>1733700</v>
       </c>
       <c r="E43" s="3">
-        <v>693700</v>
+        <v>811000</v>
       </c>
       <c r="F43" s="3">
-        <v>758000</v>
+        <v>599100</v>
       </c>
       <c r="G43" s="3">
-        <v>460600</v>
+        <v>654700</v>
       </c>
       <c r="H43" s="3">
-        <v>261500</v>
+        <v>397800</v>
       </c>
       <c r="I43" s="3">
-        <v>231500</v>
+        <v>225800</v>
       </c>
       <c r="J43" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K43" s="3">
         <v>203800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>187400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>165700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>110400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>157300</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>768100</v>
+        <v>1326500</v>
       </c>
       <c r="E44" s="3">
-        <v>499700</v>
+        <v>663400</v>
       </c>
       <c r="F44" s="3">
-        <v>401600</v>
+        <v>431600</v>
       </c>
       <c r="G44" s="3">
-        <v>268200</v>
+        <v>346900</v>
       </c>
       <c r="H44" s="3">
-        <v>136200</v>
+        <v>231600</v>
       </c>
       <c r="I44" s="3">
-        <v>108900</v>
+        <v>117600</v>
       </c>
       <c r="J44" s="3">
+        <v>94000</v>
+      </c>
+      <c r="K44" s="3">
         <v>96100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>129000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>121900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>114400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>157200</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52200</v>
+        <v>31600</v>
       </c>
       <c r="E45" s="3">
-        <v>24300</v>
+        <v>45100</v>
       </c>
       <c r="F45" s="3">
-        <v>12800</v>
+        <v>21000</v>
       </c>
       <c r="G45" s="3">
-        <v>26900</v>
+        <v>11100</v>
       </c>
       <c r="H45" s="3">
-        <v>4700</v>
+        <v>23300</v>
       </c>
       <c r="I45" s="3">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="J45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K45" s="3">
         <v>3400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6000</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2326600</v>
+        <v>3925200</v>
       </c>
       <c r="E46" s="3">
-        <v>1634600</v>
+        <v>2009500</v>
       </c>
       <c r="F46" s="3">
-        <v>1544000</v>
+        <v>1411800</v>
       </c>
       <c r="G46" s="3">
-        <v>1040000</v>
+        <v>1333600</v>
       </c>
       <c r="H46" s="3">
-        <v>610300</v>
+        <v>898300</v>
       </c>
       <c r="I46" s="3">
-        <v>435300</v>
+        <v>527100</v>
       </c>
       <c r="J46" s="3">
+        <v>375900</v>
+      </c>
+      <c r="K46" s="3">
         <v>384100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>417600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>425900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>303300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>346100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>910400</v>
+        <v>1750900</v>
       </c>
       <c r="E47" s="3">
-        <v>636200</v>
+        <v>786300</v>
       </c>
       <c r="F47" s="3">
-        <v>469600</v>
+        <v>549500</v>
       </c>
       <c r="G47" s="3">
-        <v>327200</v>
+        <v>405600</v>
       </c>
       <c r="H47" s="3">
-        <v>47000</v>
+        <v>282600</v>
       </c>
       <c r="I47" s="3">
-        <v>85100</v>
+        <v>40600</v>
       </c>
       <c r="J47" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K47" s="3">
         <v>34100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>59600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>63000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>51100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>76400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8460600</v>
+        <v>13775000</v>
       </c>
       <c r="E48" s="3">
-        <v>7103800</v>
+        <v>7307700</v>
       </c>
       <c r="F48" s="3">
-        <v>5640700</v>
+        <v>6135800</v>
       </c>
       <c r="G48" s="3">
-        <v>3488400</v>
+        <v>4872000</v>
       </c>
       <c r="H48" s="3">
-        <v>1768700</v>
+        <v>3013100</v>
       </c>
       <c r="I48" s="3">
-        <v>1537000</v>
+        <v>1527600</v>
       </c>
       <c r="J48" s="3">
+        <v>1327500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1351800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1556700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1153700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>941700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1139400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>214600</v>
+        <v>293300</v>
       </c>
       <c r="E49" s="3">
-        <v>195200</v>
+        <v>185400</v>
       </c>
       <c r="F49" s="3">
-        <v>185500</v>
+        <v>168600</v>
       </c>
       <c r="G49" s="3">
-        <v>101800</v>
+        <v>160200</v>
       </c>
       <c r="H49" s="3">
-        <v>49800</v>
+        <v>87900</v>
       </c>
       <c r="I49" s="3">
-        <v>40500</v>
+        <v>43000</v>
       </c>
       <c r="J49" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K49" s="3">
         <v>36300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>43600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>30200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>34000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14300</v>
+        <v>30600</v>
       </c>
       <c r="E52" s="3">
-        <v>27100</v>
+        <v>12300</v>
       </c>
       <c r="F52" s="3">
-        <v>10900</v>
+        <v>23400</v>
       </c>
       <c r="G52" s="3">
-        <v>2700</v>
+        <v>9400</v>
       </c>
       <c r="H52" s="3">
-        <v>47900</v>
+        <v>2300</v>
       </c>
       <c r="I52" s="3">
-        <v>3700</v>
+        <v>41300</v>
       </c>
       <c r="J52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K52" s="3">
         <v>7300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26700</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11926400</v>
+        <v>19775000</v>
       </c>
       <c r="E54" s="3">
-        <v>9596900</v>
+        <v>10301200</v>
       </c>
       <c r="F54" s="3">
-        <v>7850700</v>
+        <v>8289100</v>
       </c>
       <c r="G54" s="3">
-        <v>4960100</v>
+        <v>6780900</v>
       </c>
       <c r="H54" s="3">
-        <v>2523500</v>
+        <v>4284200</v>
       </c>
       <c r="I54" s="3">
-        <v>2101500</v>
+        <v>2179600</v>
       </c>
       <c r="J54" s="3">
+        <v>1815100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1813600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2068900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1673200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1321600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1596700</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>963900</v>
+        <v>1906300</v>
       </c>
       <c r="E57" s="3">
-        <v>683300</v>
+        <v>832500</v>
       </c>
       <c r="F57" s="3">
-        <v>728300</v>
+        <v>590200</v>
       </c>
       <c r="G57" s="3">
-        <v>406400</v>
+        <v>629000</v>
       </c>
       <c r="H57" s="3">
-        <v>222800</v>
+        <v>351000</v>
       </c>
       <c r="I57" s="3">
-        <v>202900</v>
+        <v>192500</v>
       </c>
       <c r="J57" s="3">
+        <v>175300</v>
+      </c>
+      <c r="K57" s="3">
         <v>193100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>282900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>250700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>212500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>293100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>568700</v>
+        <v>1094200</v>
       </c>
       <c r="E58" s="3">
-        <v>862400</v>
+        <v>491200</v>
       </c>
       <c r="F58" s="3">
-        <v>641200</v>
+        <v>744900</v>
       </c>
       <c r="G58" s="3">
-        <v>323500</v>
+        <v>553800</v>
       </c>
       <c r="H58" s="3">
-        <v>196300</v>
+        <v>279400</v>
       </c>
       <c r="I58" s="3">
-        <v>133600</v>
+        <v>169500</v>
       </c>
       <c r="J58" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K58" s="3">
         <v>138800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>131700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>108800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>82700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>203200</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>418900</v>
+        <v>649700</v>
       </c>
       <c r="E59" s="3">
-        <v>303900</v>
+        <v>361800</v>
       </c>
       <c r="F59" s="3">
-        <v>201800</v>
+        <v>262500</v>
       </c>
       <c r="G59" s="3">
-        <v>163100</v>
+        <v>174300</v>
       </c>
       <c r="H59" s="3">
-        <v>93500</v>
+        <v>140900</v>
       </c>
       <c r="I59" s="3">
-        <v>75000</v>
+        <v>80800</v>
       </c>
       <c r="J59" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K59" s="3">
         <v>66200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>126600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>45400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>63100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1951500</v>
+        <v>3650200</v>
       </c>
       <c r="E60" s="3">
-        <v>1849600</v>
+        <v>1685500</v>
       </c>
       <c r="F60" s="3">
-        <v>1571200</v>
+        <v>1597600</v>
       </c>
       <c r="G60" s="3">
-        <v>893100</v>
+        <v>1357100</v>
       </c>
       <c r="H60" s="3">
-        <v>512600</v>
+        <v>771400</v>
       </c>
       <c r="I60" s="3">
-        <v>411500</v>
+        <v>442800</v>
       </c>
       <c r="J60" s="3">
+        <v>355400</v>
+      </c>
+      <c r="K60" s="3">
         <v>398200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>529400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>404900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>346000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>549000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3487400</v>
+        <v>4747100</v>
       </c>
       <c r="E61" s="3">
-        <v>2753200</v>
+        <v>3012100</v>
       </c>
       <c r="F61" s="3">
-        <v>2295600</v>
+        <v>2378000</v>
       </c>
       <c r="G61" s="3">
-        <v>1348600</v>
+        <v>1982800</v>
       </c>
       <c r="H61" s="3">
-        <v>757100</v>
+        <v>1164800</v>
       </c>
       <c r="I61" s="3">
-        <v>636600</v>
+        <v>653900</v>
       </c>
       <c r="J61" s="3">
+        <v>549800</v>
+      </c>
+      <c r="K61" s="3">
         <v>388900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>357400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>284800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>200000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>116100</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2255500</v>
+        <v>3325300</v>
       </c>
       <c r="E62" s="3">
-        <v>1583900</v>
+        <v>1948100</v>
       </c>
       <c r="F62" s="3">
-        <v>1248900</v>
+        <v>1368100</v>
       </c>
       <c r="G62" s="3">
-        <v>910400</v>
+        <v>1078700</v>
       </c>
       <c r="H62" s="3">
-        <v>471700</v>
+        <v>786300</v>
       </c>
       <c r="I62" s="3">
-        <v>461300</v>
+        <v>407400</v>
       </c>
       <c r="J62" s="3">
+        <v>398400</v>
+      </c>
+      <c r="K62" s="3">
         <v>425500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>723600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>388400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>258800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>384500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7735400</v>
+        <v>11797000</v>
       </c>
       <c r="E66" s="3">
-        <v>6217500</v>
+        <v>6681300</v>
       </c>
       <c r="F66" s="3">
-        <v>5143400</v>
+        <v>5370200</v>
       </c>
       <c r="G66" s="3">
-        <v>3167700</v>
+        <v>4442500</v>
       </c>
       <c r="H66" s="3">
-        <v>1763600</v>
+        <v>2736100</v>
       </c>
       <c r="I66" s="3">
-        <v>1508900</v>
+        <v>1523300</v>
       </c>
       <c r="J66" s="3">
+        <v>1303300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1212800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1348400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1080700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>804800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>983600</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-270500</v>
+        <v>4915500</v>
       </c>
       <c r="E72" s="3">
-        <v>-316300</v>
+        <v>-233600</v>
       </c>
       <c r="F72" s="3">
-        <v>-145000</v>
+        <v>-273200</v>
       </c>
       <c r="G72" s="3">
-        <v>202300</v>
+        <v>-125300</v>
       </c>
       <c r="H72" s="3">
-        <v>72100</v>
+        <v>174700</v>
       </c>
       <c r="I72" s="3">
-        <v>-110200</v>
+        <v>62300</v>
       </c>
       <c r="J72" s="3">
+        <v>-95200</v>
+      </c>
+      <c r="K72" s="3">
         <v>53300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>148900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>133100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>144600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>284900</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4191100</v>
+        <v>7977900</v>
       </c>
       <c r="E76" s="3">
-        <v>3379400</v>
+        <v>3619900</v>
       </c>
       <c r="F76" s="3">
-        <v>2707300</v>
+        <v>2918900</v>
       </c>
       <c r="G76" s="3">
-        <v>1792400</v>
+        <v>2338400</v>
       </c>
       <c r="H76" s="3">
-        <v>760000</v>
+        <v>1548200</v>
       </c>
       <c r="I76" s="3">
-        <v>592600</v>
+        <v>656400</v>
       </c>
       <c r="J76" s="3">
+        <v>511800</v>
+      </c>
+      <c r="K76" s="3">
         <v>600900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>720500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>592500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>516700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>613100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1300</v>
+        <v>1245800</v>
       </c>
       <c r="E81" s="3">
-        <v>-347500</v>
+        <v>1100</v>
       </c>
       <c r="F81" s="3">
-        <v>-170000</v>
+        <v>-300200</v>
       </c>
       <c r="G81" s="3">
-        <v>192700</v>
+        <v>-146800</v>
       </c>
       <c r="H81" s="3">
-        <v>61600</v>
+        <v>166400</v>
       </c>
       <c r="I81" s="3">
-        <v>-140900</v>
+        <v>53200</v>
       </c>
       <c r="J81" s="3">
+        <v>-121700</v>
+      </c>
+      <c r="K81" s="3">
         <v>22800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>89300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>63200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>64500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>101000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1455700</v>
+        <v>1605800</v>
       </c>
       <c r="E83" s="3">
-        <v>961800</v>
+        <v>1257300</v>
       </c>
       <c r="F83" s="3">
-        <v>792300</v>
+        <v>830800</v>
       </c>
       <c r="G83" s="3">
-        <v>445700</v>
+        <v>684300</v>
       </c>
       <c r="H83" s="3">
-        <v>271200</v>
+        <v>385000</v>
       </c>
       <c r="I83" s="3">
-        <v>226900</v>
+        <v>234200</v>
       </c>
       <c r="J83" s="3">
+        <v>196000</v>
+      </c>
+      <c r="K83" s="3">
         <v>134800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>202400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>141100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>136900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>170100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1996100</v>
+        <v>3175000</v>
       </c>
       <c r="E89" s="3">
-        <v>1044000</v>
+        <v>1724100</v>
       </c>
       <c r="F89" s="3">
-        <v>1083500</v>
+        <v>901700</v>
       </c>
       <c r="G89" s="3">
-        <v>624000</v>
+        <v>935900</v>
       </c>
       <c r="H89" s="3">
-        <v>358800</v>
+        <v>539000</v>
       </c>
       <c r="I89" s="3">
-        <v>244700</v>
+        <v>309900</v>
       </c>
       <c r="J89" s="3">
+        <v>211300</v>
+      </c>
+      <c r="K89" s="3">
         <v>206600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>457800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>258700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>286000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>332100</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1171700</v>
+        <v>-2293500</v>
       </c>
       <c r="E91" s="3">
-        <v>-571900</v>
+        <v>-1012000</v>
       </c>
       <c r="F91" s="3">
-        <v>-805700</v>
+        <v>-494000</v>
       </c>
       <c r="G91" s="3">
-        <v>-440600</v>
+        <v>-695900</v>
       </c>
       <c r="H91" s="3">
-        <v>-297500</v>
+        <v>-380500</v>
       </c>
       <c r="I91" s="3">
-        <v>-320200</v>
+        <v>-257000</v>
       </c>
       <c r="J91" s="3">
+        <v>-276500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-318200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-498100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-341100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-271100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-318200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1217500</v>
+        <v>-2254200</v>
       </c>
       <c r="E94" s="3">
-        <v>-544700</v>
+        <v>-1051600</v>
       </c>
       <c r="F94" s="3">
-        <v>-817800</v>
+        <v>-470500</v>
       </c>
       <c r="G94" s="3">
-        <v>-410400</v>
+        <v>-706300</v>
       </c>
       <c r="H94" s="3">
-        <v>-275700</v>
+        <v>-354500</v>
       </c>
       <c r="I94" s="3">
-        <v>-330200</v>
+        <v>-238100</v>
       </c>
       <c r="J94" s="3">
+        <v>-285200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-319600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-529800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-274000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-271100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-318300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3770,35 +4003,38 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-11500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-6000</v>
+        <v>-9900</v>
       </c>
       <c r="H96" s="3">
-        <v>-3600</v>
+        <v>-5200</v>
       </c>
       <c r="I96" s="3">
-        <v>-4400</v>
+        <v>-3100</v>
       </c>
       <c r="J96" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-5000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-145700</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-751800</v>
+        <v>-677100</v>
       </c>
       <c r="E100" s="3">
-        <v>-604300</v>
+        <v>-649300</v>
       </c>
       <c r="F100" s="3">
-        <v>-279800</v>
+        <v>-522000</v>
       </c>
       <c r="G100" s="3">
-        <v>-217800</v>
+        <v>-241700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1800</v>
+        <v>-188200</v>
       </c>
       <c r="I100" s="3">
-        <v>54000</v>
+        <v>-1500</v>
       </c>
       <c r="J100" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K100" s="3">
         <v>118100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>49500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>86100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>43900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-48300</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13500</v>
+        <v>76100</v>
       </c>
       <c r="E101" s="3">
-        <v>47800</v>
+        <v>11600</v>
       </c>
       <c r="F101" s="3">
-        <v>114300</v>
+        <v>41300</v>
       </c>
       <c r="G101" s="3">
-        <v>90500</v>
+        <v>98700</v>
       </c>
       <c r="H101" s="3">
-        <v>8300</v>
+        <v>78200</v>
       </c>
       <c r="I101" s="3">
-        <v>8400</v>
+        <v>7200</v>
       </c>
       <c r="J101" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K101" s="3">
         <v>23000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>40200</v>
+        <v>319800</v>
       </c>
       <c r="E102" s="3">
-        <v>-57300</v>
+        <v>34700</v>
       </c>
       <c r="F102" s="3">
-        <v>100200</v>
+        <v>-49500</v>
       </c>
       <c r="G102" s="3">
-        <v>86300</v>
+        <v>86500</v>
       </c>
       <c r="H102" s="3">
-        <v>89700</v>
+        <v>74500</v>
       </c>
       <c r="I102" s="3">
-        <v>-23100</v>
+        <v>77500</v>
       </c>
       <c r="J102" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="K102" s="3">
         <v>28100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>73600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>60100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-31800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10889100</v>
+        <v>7225700</v>
       </c>
       <c r="E8" s="3">
-        <v>5479400</v>
+        <v>3636000</v>
       </c>
       <c r="F8" s="3">
-        <v>2884200</v>
+        <v>1913900</v>
       </c>
       <c r="G8" s="3">
-        <v>2924700</v>
+        <v>1940800</v>
       </c>
       <c r="H8" s="3">
-        <v>1878400</v>
+        <v>1246400</v>
       </c>
       <c r="I8" s="3">
-        <v>1089600</v>
+        <v>723000</v>
       </c>
       <c r="J8" s="3">
-        <v>905500</v>
+        <v>600900</v>
       </c>
       <c r="K8" s="3">
         <v>779100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8110200</v>
+        <v>5381700</v>
       </c>
       <c r="E9" s="3">
-        <v>4431500</v>
+        <v>2940600</v>
       </c>
       <c r="F9" s="3">
-        <v>2699000</v>
+        <v>1791000</v>
       </c>
       <c r="G9" s="3">
-        <v>2480900</v>
+        <v>1646200</v>
       </c>
       <c r="H9" s="3">
-        <v>1549700</v>
+        <v>1028400</v>
       </c>
       <c r="I9" s="3">
-        <v>912900</v>
+        <v>605800</v>
       </c>
       <c r="J9" s="3">
-        <v>764200</v>
+        <v>507100</v>
       </c>
       <c r="K9" s="3">
         <v>596500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2778900</v>
+        <v>1844000</v>
       </c>
       <c r="E10" s="3">
-        <v>1048000</v>
+        <v>695400</v>
       </c>
       <c r="F10" s="3">
-        <v>185200</v>
+        <v>122900</v>
       </c>
       <c r="G10" s="3">
-        <v>443900</v>
+        <v>294500</v>
       </c>
       <c r="H10" s="3">
-        <v>328600</v>
+        <v>218100</v>
       </c>
       <c r="I10" s="3">
-        <v>176700</v>
+        <v>117300</v>
       </c>
       <c r="J10" s="3">
-        <v>141400</v>
+        <v>93800</v>
       </c>
       <c r="K10" s="3">
         <v>182600</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14600</v>
+        <v>9700</v>
       </c>
       <c r="E12" s="3">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="F12" s="3">
-        <v>5300</v>
+        <v>3500</v>
       </c>
       <c r="G12" s="3">
-        <v>24600</v>
+        <v>16400</v>
       </c>
       <c r="H12" s="3">
-        <v>20500</v>
+        <v>13600</v>
       </c>
       <c r="I12" s="3">
-        <v>8400</v>
+        <v>5600</v>
       </c>
       <c r="J12" s="3">
-        <v>11600</v>
+        <v>7700</v>
       </c>
       <c r="K12" s="3">
         <v>10700</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-44300</v>
+        <v>-29400</v>
       </c>
       <c r="E14" s="3">
-        <v>197600</v>
+        <v>131100</v>
       </c>
       <c r="F14" s="3">
-        <v>-6700</v>
+        <v>-4400</v>
       </c>
       <c r="G14" s="3">
-        <v>190300</v>
+        <v>126300</v>
       </c>
       <c r="H14" s="3">
-        <v>-53900</v>
+        <v>-35800</v>
       </c>
       <c r="I14" s="3">
-        <v>-16300</v>
+        <v>-10800</v>
       </c>
       <c r="J14" s="3">
-        <v>156000</v>
+        <v>103500</v>
       </c>
       <c r="K14" s="3">
         <v>18600</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>102200</v>
+        <v>67800</v>
       </c>
       <c r="E15" s="3">
-        <v>69700</v>
+        <v>46200</v>
       </c>
       <c r="F15" s="3">
-        <v>50000</v>
+        <v>33200</v>
       </c>
       <c r="G15" s="3">
-        <v>32700</v>
+        <v>21700</v>
       </c>
       <c r="H15" s="3">
-        <v>17800</v>
+        <v>11800</v>
       </c>
       <c r="I15" s="3">
-        <v>8900</v>
+        <v>5900</v>
       </c>
       <c r="J15" s="3">
-        <v>8200</v>
+        <v>5400</v>
       </c>
       <c r="K15" s="3">
         <v>5600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9606300</v>
+        <v>6374500</v>
       </c>
       <c r="E17" s="3">
-        <v>5228700</v>
+        <v>3469600</v>
       </c>
       <c r="F17" s="3">
-        <v>3135900</v>
+        <v>2080900</v>
       </c>
       <c r="G17" s="3">
-        <v>3015300</v>
+        <v>2000900</v>
       </c>
       <c r="H17" s="3">
-        <v>1689700</v>
+        <v>1121200</v>
       </c>
       <c r="I17" s="3">
-        <v>1020300</v>
+        <v>677100</v>
       </c>
       <c r="J17" s="3">
-        <v>1010000</v>
+        <v>670200</v>
       </c>
       <c r="K17" s="3">
         <v>696300</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1282700</v>
+        <v>851200</v>
       </c>
       <c r="E18" s="3">
-        <v>250700</v>
+        <v>166400</v>
       </c>
       <c r="F18" s="3">
-        <v>-251700</v>
+        <v>-167000</v>
       </c>
       <c r="G18" s="3">
-        <v>-90600</v>
+        <v>-60100</v>
       </c>
       <c r="H18" s="3">
-        <v>188700</v>
+        <v>125200</v>
       </c>
       <c r="I18" s="3">
-        <v>69300</v>
+        <v>46000</v>
       </c>
       <c r="J18" s="3">
-        <v>-104500</v>
+        <v>-69300</v>
       </c>
       <c r="K18" s="3">
         <v>82800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>858600</v>
+        <v>569800</v>
       </c>
       <c r="E20" s="3">
-        <v>333200</v>
+        <v>221100</v>
       </c>
       <c r="F20" s="3">
-        <v>292200</v>
+        <v>193900</v>
       </c>
       <c r="G20" s="3">
-        <v>267800</v>
+        <v>177700</v>
       </c>
       <c r="H20" s="3">
-        <v>323600</v>
+        <v>214700</v>
       </c>
       <c r="I20" s="3">
-        <v>47500</v>
+        <v>31500</v>
       </c>
       <c r="J20" s="3">
-        <v>54100</v>
+        <v>35900</v>
       </c>
       <c r="K20" s="3">
         <v>115200</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3750900</v>
+        <v>2486500</v>
       </c>
       <c r="E21" s="3">
-        <v>1844100</v>
+        <v>1221800</v>
       </c>
       <c r="F21" s="3">
-        <v>873200</v>
+        <v>578100</v>
       </c>
       <c r="G21" s="3">
-        <v>863200</v>
+        <v>571700</v>
       </c>
       <c r="H21" s="3">
-        <v>898100</v>
+        <v>595400</v>
       </c>
       <c r="I21" s="3">
-        <v>351500</v>
+        <v>232900</v>
       </c>
       <c r="J21" s="3">
-        <v>146000</v>
+        <v>96600</v>
       </c>
       <c r="K21" s="3">
         <v>333000</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>420900</v>
+        <v>279300</v>
       </c>
       <c r="E22" s="3">
-        <v>309800</v>
+        <v>205500</v>
       </c>
       <c r="F22" s="3">
-        <v>283700</v>
+        <v>188200</v>
       </c>
       <c r="G22" s="3">
-        <v>207500</v>
+        <v>137700</v>
       </c>
       <c r="H22" s="3">
-        <v>123800</v>
+        <v>82100</v>
       </c>
       <c r="I22" s="3">
-        <v>79200</v>
+        <v>52600</v>
       </c>
       <c r="J22" s="3">
-        <v>78000</v>
+        <v>51800</v>
       </c>
       <c r="K22" s="3">
         <v>52900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1720400</v>
+        <v>1141600</v>
       </c>
       <c r="E23" s="3">
-        <v>274100</v>
+        <v>181900</v>
       </c>
       <c r="F23" s="3">
-        <v>-243200</v>
+        <v>-161400</v>
       </c>
       <c r="G23" s="3">
-        <v>-30200</v>
+        <v>-20000</v>
       </c>
       <c r="H23" s="3">
-        <v>388500</v>
+        <v>257800</v>
       </c>
       <c r="I23" s="3">
-        <v>37500</v>
+        <v>24900</v>
       </c>
       <c r="J23" s="3">
-        <v>-128500</v>
+        <v>-85200</v>
       </c>
       <c r="K23" s="3">
         <v>145000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>469400</v>
+        <v>311500</v>
       </c>
       <c r="E24" s="3">
-        <v>277600</v>
+        <v>184200</v>
       </c>
       <c r="F24" s="3">
-        <v>62900</v>
+        <v>41700</v>
       </c>
       <c r="G24" s="3">
-        <v>93800</v>
+        <v>62200</v>
       </c>
       <c r="H24" s="3">
-        <v>222100</v>
+        <v>147400</v>
       </c>
       <c r="I24" s="3">
-        <v>-17100</v>
+        <v>-11400</v>
       </c>
       <c r="J24" s="3">
-        <v>-6100</v>
+        <v>-4100</v>
       </c>
       <c r="K24" s="3">
         <v>122900</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1251000</v>
+        <v>830200</v>
       </c>
       <c r="E26" s="3">
-        <v>-3500</v>
+        <v>-2300</v>
       </c>
       <c r="F26" s="3">
-        <v>-306100</v>
+        <v>-203100</v>
       </c>
       <c r="G26" s="3">
-        <v>-124000</v>
+        <v>-82300</v>
       </c>
       <c r="H26" s="3">
-        <v>166400</v>
+        <v>110400</v>
       </c>
       <c r="I26" s="3">
-        <v>54600</v>
+        <v>36200</v>
       </c>
       <c r="J26" s="3">
-        <v>-122300</v>
+        <v>-81200</v>
       </c>
       <c r="K26" s="3">
         <v>22100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1245800</v>
+        <v>826700</v>
       </c>
       <c r="E27" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F27" s="3">
-        <v>-300200</v>
+        <v>-199200</v>
       </c>
       <c r="G27" s="3">
-        <v>-127000</v>
+        <v>-84300</v>
       </c>
       <c r="H27" s="3">
-        <v>166400</v>
+        <v>110400</v>
       </c>
       <c r="I27" s="3">
-        <v>53200</v>
+        <v>35300</v>
       </c>
       <c r="J27" s="3">
-        <v>-121700</v>
+        <v>-80800</v>
       </c>
       <c r="K27" s="3">
         <v>22800</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-19800</v>
+        <v>-13200</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-858600</v>
+        <v>-569800</v>
       </c>
       <c r="E32" s="3">
-        <v>-333200</v>
+        <v>-221100</v>
       </c>
       <c r="F32" s="3">
-        <v>-292200</v>
+        <v>-193900</v>
       </c>
       <c r="G32" s="3">
-        <v>-267800</v>
+        <v>-177700</v>
       </c>
       <c r="H32" s="3">
-        <v>-323600</v>
+        <v>-214700</v>
       </c>
       <c r="I32" s="3">
-        <v>-47500</v>
+        <v>-31500</v>
       </c>
       <c r="J32" s="3">
-        <v>-54100</v>
+        <v>-35900</v>
       </c>
       <c r="K32" s="3">
         <v>-115200</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1245800</v>
+        <v>826700</v>
       </c>
       <c r="E33" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F33" s="3">
-        <v>-300200</v>
+        <v>-199200</v>
       </c>
       <c r="G33" s="3">
-        <v>-146800</v>
+        <v>-97400</v>
       </c>
       <c r="H33" s="3">
-        <v>166400</v>
+        <v>110400</v>
       </c>
       <c r="I33" s="3">
-        <v>53200</v>
+        <v>35300</v>
       </c>
       <c r="J33" s="3">
-        <v>-121700</v>
+        <v>-80800</v>
       </c>
       <c r="K33" s="3">
         <v>22800</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1245800</v>
+        <v>826700</v>
       </c>
       <c r="E35" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F35" s="3">
-        <v>-300200</v>
+        <v>-199200</v>
       </c>
       <c r="G35" s="3">
-        <v>-146800</v>
+        <v>-97400</v>
       </c>
       <c r="H35" s="3">
-        <v>166400</v>
+        <v>110400</v>
       </c>
       <c r="I35" s="3">
-        <v>53200</v>
+        <v>35300</v>
       </c>
       <c r="J35" s="3">
-        <v>-121700</v>
+        <v>-80800</v>
       </c>
       <c r="K35" s="3">
         <v>22800</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>333400</v>
+        <v>221200</v>
       </c>
       <c r="E41" s="3">
-        <v>140000</v>
+        <v>92900</v>
       </c>
       <c r="F41" s="3">
-        <v>86300</v>
+        <v>57300</v>
       </c>
       <c r="G41" s="3">
-        <v>254600</v>
+        <v>168900</v>
       </c>
       <c r="H41" s="3">
-        <v>164800</v>
+        <v>109400</v>
       </c>
       <c r="I41" s="3">
-        <v>41800</v>
+        <v>27700</v>
       </c>
       <c r="J41" s="3">
-        <v>34300</v>
+        <v>22700</v>
       </c>
       <c r="K41" s="3">
         <v>72900</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>500000</v>
+        <v>331800</v>
       </c>
       <c r="E42" s="3">
-        <v>350000</v>
+        <v>232200</v>
       </c>
       <c r="F42" s="3">
-        <v>273800</v>
+        <v>181700</v>
       </c>
       <c r="G42" s="3">
-        <v>66400</v>
+        <v>44100</v>
       </c>
       <c r="H42" s="3">
-        <v>80700</v>
+        <v>53600</v>
       </c>
       <c r="I42" s="3">
-        <v>137900</v>
+        <v>91500</v>
       </c>
       <c r="J42" s="3">
-        <v>44600</v>
+        <v>29600</v>
       </c>
       <c r="K42" s="3">
         <v>7900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1733700</v>
+        <v>1150400</v>
       </c>
       <c r="E43" s="3">
-        <v>811000</v>
+        <v>538100</v>
       </c>
       <c r="F43" s="3">
-        <v>599100</v>
+        <v>397600</v>
       </c>
       <c r="G43" s="3">
-        <v>654700</v>
+        <v>434400</v>
       </c>
       <c r="H43" s="3">
-        <v>397800</v>
+        <v>264000</v>
       </c>
       <c r="I43" s="3">
-        <v>225800</v>
+        <v>149900</v>
       </c>
       <c r="J43" s="3">
-        <v>200000</v>
+        <v>132700</v>
       </c>
       <c r="K43" s="3">
         <v>203800</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1326500</v>
+        <v>880200</v>
       </c>
       <c r="E44" s="3">
-        <v>663400</v>
+        <v>440200</v>
       </c>
       <c r="F44" s="3">
-        <v>431600</v>
+        <v>286400</v>
       </c>
       <c r="G44" s="3">
-        <v>346900</v>
+        <v>230200</v>
       </c>
       <c r="H44" s="3">
-        <v>231600</v>
+        <v>153700</v>
       </c>
       <c r="I44" s="3">
-        <v>117600</v>
+        <v>78100</v>
       </c>
       <c r="J44" s="3">
-        <v>94000</v>
+        <v>62400</v>
       </c>
       <c r="K44" s="3">
         <v>96100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31600</v>
+        <v>21000</v>
       </c>
       <c r="E45" s="3">
-        <v>45100</v>
+        <v>29900</v>
       </c>
       <c r="F45" s="3">
-        <v>21000</v>
+        <v>13900</v>
       </c>
       <c r="G45" s="3">
-        <v>11100</v>
+        <v>7400</v>
       </c>
       <c r="H45" s="3">
-        <v>23300</v>
+        <v>15400</v>
       </c>
       <c r="I45" s="3">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="J45" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K45" s="3">
         <v>3400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3925200</v>
+        <v>2604600</v>
       </c>
       <c r="E46" s="3">
-        <v>2009500</v>
+        <v>1333500</v>
       </c>
       <c r="F46" s="3">
-        <v>1411800</v>
+        <v>936800</v>
       </c>
       <c r="G46" s="3">
-        <v>1333600</v>
+        <v>884900</v>
       </c>
       <c r="H46" s="3">
-        <v>898300</v>
+        <v>596100</v>
       </c>
       <c r="I46" s="3">
-        <v>527100</v>
+        <v>349800</v>
       </c>
       <c r="J46" s="3">
-        <v>375900</v>
+        <v>249500</v>
       </c>
       <c r="K46" s="3">
         <v>384100</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1750900</v>
+        <v>1161800</v>
       </c>
       <c r="E47" s="3">
-        <v>786300</v>
+        <v>521800</v>
       </c>
       <c r="F47" s="3">
-        <v>549500</v>
+        <v>364600</v>
       </c>
       <c r="G47" s="3">
-        <v>405600</v>
+        <v>269100</v>
       </c>
       <c r="H47" s="3">
-        <v>282600</v>
+        <v>187500</v>
       </c>
       <c r="I47" s="3">
-        <v>40600</v>
+        <v>26900</v>
       </c>
       <c r="J47" s="3">
-        <v>73500</v>
+        <v>48700</v>
       </c>
       <c r="K47" s="3">
         <v>34100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13775000</v>
+        <v>9140700</v>
       </c>
       <c r="E48" s="3">
-        <v>7307700</v>
+        <v>4849200</v>
       </c>
       <c r="F48" s="3">
-        <v>6135800</v>
+        <v>4071500</v>
       </c>
       <c r="G48" s="3">
-        <v>4872000</v>
+        <v>3232900</v>
       </c>
       <c r="H48" s="3">
-        <v>3013100</v>
+        <v>1999400</v>
       </c>
       <c r="I48" s="3">
-        <v>1527600</v>
+        <v>1013700</v>
       </c>
       <c r="J48" s="3">
-        <v>1327500</v>
+        <v>880900</v>
       </c>
       <c r="K48" s="3">
         <v>1351800</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>293300</v>
+        <v>194600</v>
       </c>
       <c r="E49" s="3">
-        <v>185400</v>
+        <v>123000</v>
       </c>
       <c r="F49" s="3">
-        <v>168600</v>
+        <v>111900</v>
       </c>
       <c r="G49" s="3">
-        <v>160200</v>
+        <v>106300</v>
       </c>
       <c r="H49" s="3">
-        <v>87900</v>
+        <v>58300</v>
       </c>
       <c r="I49" s="3">
-        <v>43000</v>
+        <v>28500</v>
       </c>
       <c r="J49" s="3">
-        <v>35000</v>
+        <v>23200</v>
       </c>
       <c r="K49" s="3">
         <v>36300</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30600</v>
+        <v>20300</v>
       </c>
       <c r="E52" s="3">
-        <v>12300</v>
+        <v>8200</v>
       </c>
       <c r="F52" s="3">
-        <v>23400</v>
+        <v>15500</v>
       </c>
       <c r="G52" s="3">
-        <v>9400</v>
+        <v>6300</v>
       </c>
       <c r="H52" s="3">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="I52" s="3">
-        <v>41300</v>
+        <v>27400</v>
       </c>
       <c r="J52" s="3">
-        <v>3200</v>
+        <v>2100</v>
       </c>
       <c r="K52" s="3">
         <v>7300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19775000</v>
+        <v>13122100</v>
       </c>
       <c r="E54" s="3">
-        <v>10301200</v>
+        <v>6835600</v>
       </c>
       <c r="F54" s="3">
-        <v>8289100</v>
+        <v>5500400</v>
       </c>
       <c r="G54" s="3">
-        <v>6780900</v>
+        <v>4499600</v>
       </c>
       <c r="H54" s="3">
-        <v>4284200</v>
+        <v>2842900</v>
       </c>
       <c r="I54" s="3">
-        <v>2179600</v>
+        <v>1446400</v>
       </c>
       <c r="J54" s="3">
-        <v>1815100</v>
+        <v>1204500</v>
       </c>
       <c r="K54" s="3">
         <v>1813600</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1906300</v>
+        <v>1265000</v>
       </c>
       <c r="E57" s="3">
-        <v>832500</v>
+        <v>552400</v>
       </c>
       <c r="F57" s="3">
-        <v>590200</v>
+        <v>391600</v>
       </c>
       <c r="G57" s="3">
-        <v>629000</v>
+        <v>417400</v>
       </c>
       <c r="H57" s="3">
-        <v>351000</v>
+        <v>232900</v>
       </c>
       <c r="I57" s="3">
-        <v>192500</v>
+        <v>127700</v>
       </c>
       <c r="J57" s="3">
-        <v>175300</v>
+        <v>116300</v>
       </c>
       <c r="K57" s="3">
         <v>193100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1094200</v>
+        <v>726100</v>
       </c>
       <c r="E58" s="3">
-        <v>491200</v>
+        <v>325900</v>
       </c>
       <c r="F58" s="3">
-        <v>744900</v>
+        <v>494300</v>
       </c>
       <c r="G58" s="3">
-        <v>553800</v>
+        <v>367500</v>
       </c>
       <c r="H58" s="3">
-        <v>279400</v>
+        <v>185400</v>
       </c>
       <c r="I58" s="3">
-        <v>169500</v>
+        <v>112500</v>
       </c>
       <c r="J58" s="3">
-        <v>115400</v>
+        <v>76600</v>
       </c>
       <c r="K58" s="3">
         <v>138800</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>649700</v>
+        <v>431100</v>
       </c>
       <c r="E59" s="3">
-        <v>361800</v>
+        <v>240100</v>
       </c>
       <c r="F59" s="3">
-        <v>262500</v>
+        <v>174200</v>
       </c>
       <c r="G59" s="3">
-        <v>174300</v>
+        <v>115600</v>
       </c>
       <c r="H59" s="3">
-        <v>140900</v>
+        <v>93500</v>
       </c>
       <c r="I59" s="3">
-        <v>80800</v>
+        <v>53600</v>
       </c>
       <c r="J59" s="3">
-        <v>64700</v>
+        <v>43000</v>
       </c>
       <c r="K59" s="3">
         <v>66200</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3650200</v>
+        <v>2422100</v>
       </c>
       <c r="E60" s="3">
-        <v>1685500</v>
+        <v>1118500</v>
       </c>
       <c r="F60" s="3">
-        <v>1597600</v>
+        <v>1060100</v>
       </c>
       <c r="G60" s="3">
-        <v>1357100</v>
+        <v>900500</v>
       </c>
       <c r="H60" s="3">
-        <v>771400</v>
+        <v>511900</v>
       </c>
       <c r="I60" s="3">
-        <v>442800</v>
+        <v>293800</v>
       </c>
       <c r="J60" s="3">
-        <v>355400</v>
+        <v>235900</v>
       </c>
       <c r="K60" s="3">
         <v>398200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4747100</v>
+        <v>3150100</v>
       </c>
       <c r="E61" s="3">
-        <v>3012100</v>
+        <v>1998800</v>
       </c>
       <c r="F61" s="3">
-        <v>2378000</v>
+        <v>1578000</v>
       </c>
       <c r="G61" s="3">
-        <v>1982800</v>
+        <v>1315700</v>
       </c>
       <c r="H61" s="3">
-        <v>1164800</v>
+        <v>772900</v>
       </c>
       <c r="I61" s="3">
-        <v>653900</v>
+        <v>433900</v>
       </c>
       <c r="J61" s="3">
-        <v>549800</v>
+        <v>364800</v>
       </c>
       <c r="K61" s="3">
         <v>388900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3325300</v>
+        <v>2206600</v>
       </c>
       <c r="E62" s="3">
-        <v>1948100</v>
+        <v>1292700</v>
       </c>
       <c r="F62" s="3">
-        <v>1368100</v>
+        <v>907800</v>
       </c>
       <c r="G62" s="3">
-        <v>1078700</v>
+        <v>715800</v>
       </c>
       <c r="H62" s="3">
-        <v>786300</v>
+        <v>521800</v>
       </c>
       <c r="I62" s="3">
-        <v>407400</v>
+        <v>270400</v>
       </c>
       <c r="J62" s="3">
-        <v>398400</v>
+        <v>264400</v>
       </c>
       <c r="K62" s="3">
         <v>425500</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11797000</v>
+        <v>7828200</v>
       </c>
       <c r="E66" s="3">
-        <v>6681300</v>
+        <v>4433500</v>
       </c>
       <c r="F66" s="3">
-        <v>5370200</v>
+        <v>3563500</v>
       </c>
       <c r="G66" s="3">
-        <v>4442500</v>
+        <v>2947900</v>
       </c>
       <c r="H66" s="3">
-        <v>2736100</v>
+        <v>1815600</v>
       </c>
       <c r="I66" s="3">
-        <v>1523300</v>
+        <v>1010800</v>
       </c>
       <c r="J66" s="3">
-        <v>1303300</v>
+        <v>864800</v>
       </c>
       <c r="K66" s="3">
         <v>1212800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4915500</v>
+        <v>3261800</v>
       </c>
       <c r="E72" s="3">
-        <v>-233600</v>
+        <v>-155000</v>
       </c>
       <c r="F72" s="3">
-        <v>-273200</v>
+        <v>-181300</v>
       </c>
       <c r="G72" s="3">
-        <v>-125300</v>
+        <v>-83100</v>
       </c>
       <c r="H72" s="3">
-        <v>174700</v>
+        <v>116000</v>
       </c>
       <c r="I72" s="3">
-        <v>62300</v>
+        <v>41300</v>
       </c>
       <c r="J72" s="3">
-        <v>-95200</v>
+        <v>-63200</v>
       </c>
       <c r="K72" s="3">
         <v>53300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7977900</v>
+        <v>5293900</v>
       </c>
       <c r="E76" s="3">
-        <v>3619900</v>
+        <v>2402100</v>
       </c>
       <c r="F76" s="3">
-        <v>2918900</v>
+        <v>1936900</v>
       </c>
       <c r="G76" s="3">
-        <v>2338400</v>
+        <v>1551700</v>
       </c>
       <c r="H76" s="3">
-        <v>1548200</v>
+        <v>1027300</v>
       </c>
       <c r="I76" s="3">
-        <v>656400</v>
+        <v>435600</v>
       </c>
       <c r="J76" s="3">
-        <v>511800</v>
+        <v>339600</v>
       </c>
       <c r="K76" s="3">
         <v>600900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1245800</v>
+        <v>826700</v>
       </c>
       <c r="E81" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F81" s="3">
-        <v>-300200</v>
+        <v>-199200</v>
       </c>
       <c r="G81" s="3">
-        <v>-146800</v>
+        <v>-97400</v>
       </c>
       <c r="H81" s="3">
-        <v>166400</v>
+        <v>110400</v>
       </c>
       <c r="I81" s="3">
-        <v>53200</v>
+        <v>35300</v>
       </c>
       <c r="J81" s="3">
-        <v>-121700</v>
+        <v>-80800</v>
       </c>
       <c r="K81" s="3">
         <v>22800</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1605800</v>
+        <v>1065600</v>
       </c>
       <c r="E83" s="3">
-        <v>1257300</v>
+        <v>834300</v>
       </c>
       <c r="F83" s="3">
-        <v>830800</v>
+        <v>551300</v>
       </c>
       <c r="G83" s="3">
-        <v>684300</v>
+        <v>454100</v>
       </c>
       <c r="H83" s="3">
-        <v>385000</v>
+        <v>255400</v>
       </c>
       <c r="I83" s="3">
-        <v>234200</v>
+        <v>155400</v>
       </c>
       <c r="J83" s="3">
-        <v>196000</v>
+        <v>130000</v>
       </c>
       <c r="K83" s="3">
         <v>134800</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3175000</v>
+        <v>2106800</v>
       </c>
       <c r="E89" s="3">
-        <v>1724100</v>
+        <v>1144000</v>
       </c>
       <c r="F89" s="3">
-        <v>901700</v>
+        <v>598400</v>
       </c>
       <c r="G89" s="3">
-        <v>935900</v>
+        <v>621000</v>
       </c>
       <c r="H89" s="3">
-        <v>539000</v>
+        <v>357700</v>
       </c>
       <c r="I89" s="3">
-        <v>309900</v>
+        <v>205700</v>
       </c>
       <c r="J89" s="3">
-        <v>211300</v>
+        <v>140200</v>
       </c>
       <c r="K89" s="3">
         <v>206600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2293500</v>
+        <v>-1521900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1012000</v>
+        <v>-671500</v>
       </c>
       <c r="F91" s="3">
-        <v>-494000</v>
+        <v>-327800</v>
       </c>
       <c r="G91" s="3">
-        <v>-695900</v>
+        <v>-461800</v>
       </c>
       <c r="H91" s="3">
-        <v>-380500</v>
+        <v>-252500</v>
       </c>
       <c r="I91" s="3">
-        <v>-257000</v>
+        <v>-170500</v>
       </c>
       <c r="J91" s="3">
-        <v>-276500</v>
+        <v>-183500</v>
       </c>
       <c r="K91" s="3">
         <v>-318200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2254200</v>
+        <v>-1495800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1051600</v>
+        <v>-697800</v>
       </c>
       <c r="F94" s="3">
-        <v>-470500</v>
+        <v>-312200</v>
       </c>
       <c r="G94" s="3">
-        <v>-706300</v>
+        <v>-468700</v>
       </c>
       <c r="H94" s="3">
-        <v>-354500</v>
+        <v>-235200</v>
       </c>
       <c r="I94" s="3">
-        <v>-238100</v>
+        <v>-158000</v>
       </c>
       <c r="J94" s="3">
-        <v>-285200</v>
+        <v>-189300</v>
       </c>
       <c r="K94" s="3">
         <v>-319600</v>
@@ -4006,16 +4006,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-9900</v>
+        <v>-6600</v>
       </c>
       <c r="H96" s="3">
-        <v>-5200</v>
+        <v>-3400</v>
       </c>
       <c r="I96" s="3">
-        <v>-3100</v>
+        <v>-2000</v>
       </c>
       <c r="J96" s="3">
-        <v>-3800</v>
+        <v>-2500</v>
       </c>
       <c r="K96" s="3">
         <v>-2500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-677100</v>
+        <v>-449300</v>
       </c>
       <c r="E100" s="3">
-        <v>-649300</v>
+        <v>-430900</v>
       </c>
       <c r="F100" s="3">
-        <v>-522000</v>
+        <v>-346400</v>
       </c>
       <c r="G100" s="3">
-        <v>-241700</v>
+        <v>-160400</v>
       </c>
       <c r="H100" s="3">
-        <v>-188200</v>
+        <v>-124900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1500</v>
+        <v>-1000</v>
       </c>
       <c r="J100" s="3">
-        <v>46600</v>
+        <v>30900</v>
       </c>
       <c r="K100" s="3">
         <v>118100</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>76100</v>
+        <v>50500</v>
       </c>
       <c r="E101" s="3">
-        <v>11600</v>
+        <v>7700</v>
       </c>
       <c r="F101" s="3">
-        <v>41300</v>
+        <v>27400</v>
       </c>
       <c r="G101" s="3">
-        <v>98700</v>
+        <v>65500</v>
       </c>
       <c r="H101" s="3">
-        <v>78200</v>
+        <v>51900</v>
       </c>
       <c r="I101" s="3">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="J101" s="3">
-        <v>7300</v>
+        <v>4800</v>
       </c>
       <c r="K101" s="3">
         <v>23000</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>319800</v>
+        <v>212200</v>
       </c>
       <c r="E102" s="3">
-        <v>34700</v>
+        <v>23100</v>
       </c>
       <c r="F102" s="3">
-        <v>-49500</v>
+        <v>-32800</v>
       </c>
       <c r="G102" s="3">
-        <v>86500</v>
+        <v>57400</v>
       </c>
       <c r="H102" s="3">
-        <v>74500</v>
+        <v>49400</v>
       </c>
       <c r="I102" s="3">
-        <v>77500</v>
+        <v>51400</v>
       </c>
       <c r="J102" s="3">
-        <v>-20000</v>
+        <v>-13200</v>
       </c>
       <c r="K102" s="3">
         <v>28100</v>

--- a/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YPF_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7225700</v>
+        <v>7149900</v>
       </c>
       <c r="E8" s="3">
-        <v>3636000</v>
+        <v>3597900</v>
       </c>
       <c r="F8" s="3">
-        <v>1913900</v>
+        <v>1893800</v>
       </c>
       <c r="G8" s="3">
-        <v>1940800</v>
+        <v>1920400</v>
       </c>
       <c r="H8" s="3">
-        <v>1246400</v>
+        <v>1233400</v>
       </c>
       <c r="I8" s="3">
-        <v>723000</v>
+        <v>715500</v>
       </c>
       <c r="J8" s="3">
-        <v>600900</v>
+        <v>594600</v>
       </c>
       <c r="K8" s="3">
         <v>779100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5381700</v>
+        <v>5325200</v>
       </c>
       <c r="E9" s="3">
-        <v>2940600</v>
+        <v>2909700</v>
       </c>
       <c r="F9" s="3">
-        <v>1791000</v>
+        <v>1772200</v>
       </c>
       <c r="G9" s="3">
-        <v>1646200</v>
+        <v>1629000</v>
       </c>
       <c r="H9" s="3">
-        <v>1028400</v>
+        <v>1017600</v>
       </c>
       <c r="I9" s="3">
-        <v>605800</v>
+        <v>599400</v>
       </c>
       <c r="J9" s="3">
-        <v>507100</v>
+        <v>501800</v>
       </c>
       <c r="K9" s="3">
         <v>596500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1844000</v>
+        <v>1824700</v>
       </c>
       <c r="E10" s="3">
-        <v>695400</v>
+        <v>688100</v>
       </c>
       <c r="F10" s="3">
-        <v>122900</v>
+        <v>121600</v>
       </c>
       <c r="G10" s="3">
-        <v>294500</v>
+        <v>291500</v>
       </c>
       <c r="H10" s="3">
-        <v>218100</v>
+        <v>215800</v>
       </c>
       <c r="I10" s="3">
-        <v>117300</v>
+        <v>116000</v>
       </c>
       <c r="J10" s="3">
-        <v>93800</v>
+        <v>92800</v>
       </c>
       <c r="K10" s="3">
         <v>182600</v>
@@ -870,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="E12" s="3">
         <v>2600</v>
@@ -879,16 +879,16 @@
         <v>3500</v>
       </c>
       <c r="G12" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="H12" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="I12" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="J12" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="K12" s="3">
         <v>10700</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-29400</v>
+        <v>-29100</v>
       </c>
       <c r="E14" s="3">
-        <v>131100</v>
+        <v>129800</v>
       </c>
       <c r="F14" s="3">
         <v>-4400</v>
       </c>
       <c r="G14" s="3">
-        <v>126300</v>
+        <v>125000</v>
       </c>
       <c r="H14" s="3">
-        <v>-35800</v>
+        <v>-35400</v>
       </c>
       <c r="I14" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="J14" s="3">
-        <v>103500</v>
+        <v>102400</v>
       </c>
       <c r="K14" s="3">
         <v>18600</v>
@@ -996,22 +996,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>67800</v>
+        <v>67100</v>
       </c>
       <c r="E15" s="3">
-        <v>46200</v>
+        <v>45800</v>
       </c>
       <c r="F15" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="G15" s="3">
-        <v>21700</v>
+        <v>21400</v>
       </c>
       <c r="H15" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="I15" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="J15" s="3">
         <v>5400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6374500</v>
+        <v>6307600</v>
       </c>
       <c r="E17" s="3">
-        <v>3469600</v>
+        <v>3433200</v>
       </c>
       <c r="F17" s="3">
-        <v>2080900</v>
+        <v>2059100</v>
       </c>
       <c r="G17" s="3">
-        <v>2000900</v>
+        <v>1979900</v>
       </c>
       <c r="H17" s="3">
-        <v>1121200</v>
+        <v>1109500</v>
       </c>
       <c r="I17" s="3">
-        <v>677100</v>
+        <v>670000</v>
       </c>
       <c r="J17" s="3">
-        <v>670200</v>
+        <v>663200</v>
       </c>
       <c r="K17" s="3">
         <v>696300</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>851200</v>
+        <v>842300</v>
       </c>
       <c r="E18" s="3">
-        <v>166400</v>
+        <v>164600</v>
       </c>
       <c r="F18" s="3">
-        <v>-167000</v>
+        <v>-165300</v>
       </c>
       <c r="G18" s="3">
-        <v>-60100</v>
+        <v>-59500</v>
       </c>
       <c r="H18" s="3">
-        <v>125200</v>
+        <v>123900</v>
       </c>
       <c r="I18" s="3">
-        <v>46000</v>
+        <v>45500</v>
       </c>
       <c r="J18" s="3">
-        <v>-69300</v>
+        <v>-68600</v>
       </c>
       <c r="K18" s="3">
         <v>82800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>569800</v>
+        <v>563800</v>
       </c>
       <c r="E20" s="3">
-        <v>221100</v>
+        <v>218800</v>
       </c>
       <c r="F20" s="3">
-        <v>193900</v>
+        <v>191800</v>
       </c>
       <c r="G20" s="3">
-        <v>177700</v>
+        <v>175900</v>
       </c>
       <c r="H20" s="3">
-        <v>214700</v>
+        <v>212500</v>
       </c>
       <c r="I20" s="3">
-        <v>31500</v>
+        <v>31200</v>
       </c>
       <c r="J20" s="3">
-        <v>35900</v>
+        <v>35500</v>
       </c>
       <c r="K20" s="3">
         <v>115200</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2486500</v>
+        <v>2464200</v>
       </c>
       <c r="E21" s="3">
-        <v>1221800</v>
+        <v>1211900</v>
       </c>
       <c r="F21" s="3">
-        <v>578100</v>
+        <v>574000</v>
       </c>
       <c r="G21" s="3">
-        <v>571700</v>
+        <v>567300</v>
       </c>
       <c r="H21" s="3">
-        <v>595400</v>
+        <v>590000</v>
       </c>
       <c r="I21" s="3">
-        <v>232900</v>
+        <v>231000</v>
       </c>
       <c r="J21" s="3">
-        <v>96600</v>
+        <v>96000</v>
       </c>
       <c r="K21" s="3">
         <v>333000</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>279300</v>
+        <v>276400</v>
       </c>
       <c r="E22" s="3">
-        <v>205500</v>
+        <v>203400</v>
       </c>
       <c r="F22" s="3">
-        <v>188200</v>
+        <v>186300</v>
       </c>
       <c r="G22" s="3">
-        <v>137700</v>
+        <v>136200</v>
       </c>
       <c r="H22" s="3">
-        <v>82100</v>
+        <v>81300</v>
       </c>
       <c r="I22" s="3">
-        <v>52600</v>
+        <v>52000</v>
       </c>
       <c r="J22" s="3">
-        <v>51800</v>
+        <v>51200</v>
       </c>
       <c r="K22" s="3">
         <v>52900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1141600</v>
+        <v>1129700</v>
       </c>
       <c r="E23" s="3">
-        <v>181900</v>
+        <v>180000</v>
       </c>
       <c r="F23" s="3">
-        <v>-161400</v>
+        <v>-159700</v>
       </c>
       <c r="G23" s="3">
-        <v>-20000</v>
+        <v>-19800</v>
       </c>
       <c r="H23" s="3">
-        <v>257800</v>
+        <v>255100</v>
       </c>
       <c r="I23" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="J23" s="3">
-        <v>-85200</v>
+        <v>-84300</v>
       </c>
       <c r="K23" s="3">
         <v>145000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>311500</v>
+        <v>308200</v>
       </c>
       <c r="E24" s="3">
-        <v>184200</v>
+        <v>182300</v>
       </c>
       <c r="F24" s="3">
-        <v>41700</v>
+        <v>41300</v>
       </c>
       <c r="G24" s="3">
-        <v>62200</v>
+        <v>61600</v>
       </c>
       <c r="H24" s="3">
-        <v>147400</v>
+        <v>145900</v>
       </c>
       <c r="I24" s="3">
-        <v>-11400</v>
+        <v>-11200</v>
       </c>
       <c r="J24" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="K24" s="3">
         <v>122900</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>830200</v>
+        <v>821400</v>
       </c>
       <c r="E26" s="3">
         <v>-2300</v>
       </c>
       <c r="F26" s="3">
-        <v>-203100</v>
+        <v>-201000</v>
       </c>
       <c r="G26" s="3">
-        <v>-82300</v>
+        <v>-81400</v>
       </c>
       <c r="H26" s="3">
-        <v>110400</v>
+        <v>109300</v>
       </c>
       <c r="I26" s="3">
-        <v>36200</v>
+        <v>35900</v>
       </c>
       <c r="J26" s="3">
-        <v>-81200</v>
+        <v>-80300</v>
       </c>
       <c r="K26" s="3">
         <v>22100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>826700</v>
+        <v>818000</v>
       </c>
       <c r="E27" s="3">
         <v>700</v>
       </c>
       <c r="F27" s="3">
-        <v>-199200</v>
+        <v>-197100</v>
       </c>
       <c r="G27" s="3">
-        <v>-84300</v>
+        <v>-83400</v>
       </c>
       <c r="H27" s="3">
-        <v>110400</v>
+        <v>109300</v>
       </c>
       <c r="I27" s="3">
-        <v>35300</v>
+        <v>34900</v>
       </c>
       <c r="J27" s="3">
-        <v>-80800</v>
+        <v>-79900</v>
       </c>
       <c r="K27" s="3">
         <v>22800</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-13200</v>
+        <v>-13000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-569800</v>
+        <v>-563800</v>
       </c>
       <c r="E32" s="3">
-        <v>-221100</v>
+        <v>-218800</v>
       </c>
       <c r="F32" s="3">
-        <v>-193900</v>
+        <v>-191800</v>
       </c>
       <c r="G32" s="3">
-        <v>-177700</v>
+        <v>-175900</v>
       </c>
       <c r="H32" s="3">
-        <v>-214700</v>
+        <v>-212500</v>
       </c>
       <c r="I32" s="3">
-        <v>-31500</v>
+        <v>-31200</v>
       </c>
       <c r="J32" s="3">
-        <v>-35900</v>
+        <v>-35500</v>
       </c>
       <c r="K32" s="3">
         <v>-115200</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>826700</v>
+        <v>818000</v>
       </c>
       <c r="E33" s="3">
         <v>700</v>
       </c>
       <c r="F33" s="3">
-        <v>-199200</v>
+        <v>-197100</v>
       </c>
       <c r="G33" s="3">
-        <v>-97400</v>
+        <v>-96400</v>
       </c>
       <c r="H33" s="3">
-        <v>110400</v>
+        <v>109300</v>
       </c>
       <c r="I33" s="3">
-        <v>35300</v>
+        <v>34900</v>
       </c>
       <c r="J33" s="3">
-        <v>-80800</v>
+        <v>-79900</v>
       </c>
       <c r="K33" s="3">
         <v>22800</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>826700</v>
+        <v>818000</v>
       </c>
       <c r="E35" s="3">
         <v>700</v>
       </c>
       <c r="F35" s="3">
-        <v>-199200</v>
+        <v>-197100</v>
       </c>
       <c r="G35" s="3">
-        <v>-97400</v>
+        <v>-96400</v>
       </c>
       <c r="H35" s="3">
-        <v>110400</v>
+        <v>109300</v>
       </c>
       <c r="I35" s="3">
-        <v>35300</v>
+        <v>34900</v>
       </c>
       <c r="J35" s="3">
-        <v>-80800</v>
+        <v>-79900</v>
       </c>
       <c r="K35" s="3">
         <v>22800</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>221200</v>
+        <v>218900</v>
       </c>
       <c r="E41" s="3">
-        <v>92900</v>
+        <v>91900</v>
       </c>
       <c r="F41" s="3">
-        <v>57300</v>
+        <v>56700</v>
       </c>
       <c r="G41" s="3">
-        <v>168900</v>
+        <v>167100</v>
       </c>
       <c r="H41" s="3">
-        <v>109400</v>
+        <v>108200</v>
       </c>
       <c r="I41" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="J41" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="K41" s="3">
         <v>72900</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>331800</v>
+        <v>328300</v>
       </c>
       <c r="E42" s="3">
-        <v>232200</v>
+        <v>229800</v>
       </c>
       <c r="F42" s="3">
-        <v>181700</v>
+        <v>179800</v>
       </c>
       <c r="G42" s="3">
-        <v>44100</v>
+        <v>43600</v>
       </c>
       <c r="H42" s="3">
-        <v>53600</v>
+        <v>53000</v>
       </c>
       <c r="I42" s="3">
-        <v>91500</v>
+        <v>90500</v>
       </c>
       <c r="J42" s="3">
-        <v>29600</v>
+        <v>29300</v>
       </c>
       <c r="K42" s="3">
         <v>7900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1150400</v>
+        <v>1138300</v>
       </c>
       <c r="E43" s="3">
-        <v>538100</v>
+        <v>532500</v>
       </c>
       <c r="F43" s="3">
-        <v>397600</v>
+        <v>393400</v>
       </c>
       <c r="G43" s="3">
-        <v>434400</v>
+        <v>429900</v>
       </c>
       <c r="H43" s="3">
-        <v>264000</v>
+        <v>261200</v>
       </c>
       <c r="I43" s="3">
-        <v>149900</v>
+        <v>148300</v>
       </c>
       <c r="J43" s="3">
-        <v>132700</v>
+        <v>131300</v>
       </c>
       <c r="K43" s="3">
         <v>203800</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>880200</v>
+        <v>871000</v>
       </c>
       <c r="E44" s="3">
-        <v>440200</v>
+        <v>435600</v>
       </c>
       <c r="F44" s="3">
-        <v>286400</v>
+        <v>283400</v>
       </c>
       <c r="G44" s="3">
-        <v>230200</v>
+        <v>227800</v>
       </c>
       <c r="H44" s="3">
-        <v>153700</v>
+        <v>152100</v>
       </c>
       <c r="I44" s="3">
-        <v>78100</v>
+        <v>77200</v>
       </c>
       <c r="J44" s="3">
-        <v>62400</v>
+        <v>61800</v>
       </c>
       <c r="K44" s="3">
         <v>96100</v>
@@ -2078,22 +2078,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="E45" s="3">
-        <v>29900</v>
+        <v>29600</v>
       </c>
       <c r="F45" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="G45" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="H45" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="I45" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J45" s="3">
         <v>2000</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2604600</v>
+        <v>2577300</v>
       </c>
       <c r="E46" s="3">
-        <v>1333500</v>
+        <v>1319500</v>
       </c>
       <c r="F46" s="3">
-        <v>936800</v>
+        <v>927000</v>
       </c>
       <c r="G46" s="3">
-        <v>884900</v>
+        <v>875700</v>
       </c>
       <c r="H46" s="3">
-        <v>596100</v>
+        <v>589800</v>
       </c>
       <c r="I46" s="3">
-        <v>349800</v>
+        <v>346100</v>
       </c>
       <c r="J46" s="3">
-        <v>249500</v>
+        <v>246800</v>
       </c>
       <c r="K46" s="3">
         <v>384100</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1161800</v>
+        <v>1149700</v>
       </c>
       <c r="E47" s="3">
-        <v>521800</v>
+        <v>516300</v>
       </c>
       <c r="F47" s="3">
-        <v>364600</v>
+        <v>360800</v>
       </c>
       <c r="G47" s="3">
-        <v>269100</v>
+        <v>266300</v>
       </c>
       <c r="H47" s="3">
-        <v>187500</v>
+        <v>185600</v>
       </c>
       <c r="I47" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="J47" s="3">
-        <v>48700</v>
+        <v>48200</v>
       </c>
       <c r="K47" s="3">
         <v>34100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9140700</v>
+        <v>9044800</v>
       </c>
       <c r="E48" s="3">
-        <v>4849200</v>
+        <v>4798300</v>
       </c>
       <c r="F48" s="3">
-        <v>4071500</v>
+        <v>4028800</v>
       </c>
       <c r="G48" s="3">
-        <v>3232900</v>
+        <v>3199000</v>
       </c>
       <c r="H48" s="3">
-        <v>1999400</v>
+        <v>1978400</v>
       </c>
       <c r="I48" s="3">
-        <v>1013700</v>
+        <v>1003100</v>
       </c>
       <c r="J48" s="3">
-        <v>880900</v>
+        <v>871700</v>
       </c>
       <c r="K48" s="3">
         <v>1351800</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>194600</v>
+        <v>192600</v>
       </c>
       <c r="E49" s="3">
-        <v>123000</v>
+        <v>121700</v>
       </c>
       <c r="F49" s="3">
-        <v>111900</v>
+        <v>110700</v>
       </c>
       <c r="G49" s="3">
-        <v>106300</v>
+        <v>105200</v>
       </c>
       <c r="H49" s="3">
-        <v>58300</v>
+        <v>57700</v>
       </c>
       <c r="I49" s="3">
-        <v>28500</v>
+        <v>28200</v>
       </c>
       <c r="J49" s="3">
-        <v>23200</v>
+        <v>23000</v>
       </c>
       <c r="K49" s="3">
         <v>36300</v>
@@ -2372,22 +2372,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E52" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="F52" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="G52" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I52" s="3">
-        <v>27400</v>
+        <v>27100</v>
       </c>
       <c r="J52" s="3">
         <v>2100</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13122100</v>
+        <v>12984500</v>
       </c>
       <c r="E54" s="3">
-        <v>6835600</v>
+        <v>6763900</v>
       </c>
       <c r="F54" s="3">
-        <v>5500400</v>
+        <v>5442700</v>
       </c>
       <c r="G54" s="3">
-        <v>4499600</v>
+        <v>4452400</v>
       </c>
       <c r="H54" s="3">
-        <v>2842900</v>
+        <v>2813100</v>
       </c>
       <c r="I54" s="3">
-        <v>1446400</v>
+        <v>1431200</v>
       </c>
       <c r="J54" s="3">
-        <v>1204500</v>
+        <v>1191800</v>
       </c>
       <c r="K54" s="3">
         <v>1813600</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1265000</v>
+        <v>1251700</v>
       </c>
       <c r="E57" s="3">
-        <v>552400</v>
+        <v>546600</v>
       </c>
       <c r="F57" s="3">
-        <v>391600</v>
+        <v>387500</v>
       </c>
       <c r="G57" s="3">
-        <v>417400</v>
+        <v>413000</v>
       </c>
       <c r="H57" s="3">
-        <v>232900</v>
+        <v>230500</v>
       </c>
       <c r="I57" s="3">
-        <v>127700</v>
+        <v>126400</v>
       </c>
       <c r="J57" s="3">
-        <v>116300</v>
+        <v>115100</v>
       </c>
       <c r="K57" s="3">
         <v>193100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>726100</v>
+        <v>718400</v>
       </c>
       <c r="E58" s="3">
-        <v>325900</v>
+        <v>322500</v>
       </c>
       <c r="F58" s="3">
-        <v>494300</v>
+        <v>489100</v>
       </c>
       <c r="G58" s="3">
-        <v>367500</v>
+        <v>363600</v>
       </c>
       <c r="H58" s="3">
-        <v>185400</v>
+        <v>183500</v>
       </c>
       <c r="I58" s="3">
-        <v>112500</v>
+        <v>111300</v>
       </c>
       <c r="J58" s="3">
-        <v>76600</v>
+        <v>75800</v>
       </c>
       <c r="K58" s="3">
         <v>138800</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>431100</v>
+        <v>426600</v>
       </c>
       <c r="E59" s="3">
-        <v>240100</v>
+        <v>237600</v>
       </c>
       <c r="F59" s="3">
-        <v>174200</v>
+        <v>172400</v>
       </c>
       <c r="G59" s="3">
-        <v>115600</v>
+        <v>114400</v>
       </c>
       <c r="H59" s="3">
-        <v>93500</v>
+        <v>92500</v>
       </c>
       <c r="I59" s="3">
-        <v>53600</v>
+        <v>53000</v>
       </c>
       <c r="J59" s="3">
-        <v>43000</v>
+        <v>42500</v>
       </c>
       <c r="K59" s="3">
         <v>66200</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2422100</v>
+        <v>2396700</v>
       </c>
       <c r="E60" s="3">
-        <v>1118500</v>
+        <v>1106800</v>
       </c>
       <c r="F60" s="3">
-        <v>1060100</v>
+        <v>1049000</v>
       </c>
       <c r="G60" s="3">
-        <v>900500</v>
+        <v>891100</v>
       </c>
       <c r="H60" s="3">
-        <v>511900</v>
+        <v>506500</v>
       </c>
       <c r="I60" s="3">
-        <v>293800</v>
+        <v>290700</v>
       </c>
       <c r="J60" s="3">
-        <v>235900</v>
+        <v>233400</v>
       </c>
       <c r="K60" s="3">
         <v>398200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3150100</v>
+        <v>3117000</v>
       </c>
       <c r="E61" s="3">
-        <v>1998800</v>
+        <v>1977800</v>
       </c>
       <c r="F61" s="3">
-        <v>1578000</v>
+        <v>1561400</v>
       </c>
       <c r="G61" s="3">
-        <v>1315700</v>
+        <v>1301900</v>
       </c>
       <c r="H61" s="3">
-        <v>772900</v>
+        <v>764800</v>
       </c>
       <c r="I61" s="3">
-        <v>433900</v>
+        <v>429400</v>
       </c>
       <c r="J61" s="3">
-        <v>364800</v>
+        <v>361000</v>
       </c>
       <c r="K61" s="3">
         <v>388900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2206600</v>
+        <v>2183400</v>
       </c>
       <c r="E62" s="3">
-        <v>1292700</v>
+        <v>1279200</v>
       </c>
       <c r="F62" s="3">
-        <v>907800</v>
+        <v>898300</v>
       </c>
       <c r="G62" s="3">
-        <v>715800</v>
+        <v>708300</v>
       </c>
       <c r="H62" s="3">
-        <v>521800</v>
+        <v>516300</v>
       </c>
       <c r="I62" s="3">
-        <v>270400</v>
+        <v>267500</v>
       </c>
       <c r="J62" s="3">
-        <v>264400</v>
+        <v>261600</v>
       </c>
       <c r="K62" s="3">
         <v>425500</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7828200</v>
+        <v>7746100</v>
       </c>
       <c r="E66" s="3">
-        <v>4433500</v>
+        <v>4387000</v>
       </c>
       <c r="F66" s="3">
-        <v>3563500</v>
+        <v>3526200</v>
       </c>
       <c r="G66" s="3">
-        <v>2947900</v>
+        <v>2917000</v>
       </c>
       <c r="H66" s="3">
-        <v>1815600</v>
+        <v>1796500</v>
       </c>
       <c r="I66" s="3">
-        <v>1010800</v>
+        <v>1000200</v>
       </c>
       <c r="J66" s="3">
-        <v>864800</v>
+        <v>855700</v>
       </c>
       <c r="K66" s="3">
         <v>1212800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3261800</v>
+        <v>3227600</v>
       </c>
       <c r="E72" s="3">
-        <v>-155000</v>
+        <v>-153400</v>
       </c>
       <c r="F72" s="3">
-        <v>-181300</v>
+        <v>-179400</v>
       </c>
       <c r="G72" s="3">
-        <v>-83100</v>
+        <v>-82300</v>
       </c>
       <c r="H72" s="3">
-        <v>116000</v>
+        <v>114700</v>
       </c>
       <c r="I72" s="3">
-        <v>41300</v>
+        <v>40900</v>
       </c>
       <c r="J72" s="3">
-        <v>-63200</v>
+        <v>-62500</v>
       </c>
       <c r="K72" s="3">
         <v>53300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5293900</v>
+        <v>5238400</v>
       </c>
       <c r="E76" s="3">
-        <v>2402100</v>
+        <v>2376900</v>
       </c>
       <c r="F76" s="3">
-        <v>1936900</v>
+        <v>1916600</v>
       </c>
       <c r="G76" s="3">
-        <v>1551700</v>
+        <v>1535400</v>
       </c>
       <c r="H76" s="3">
-        <v>1027300</v>
+        <v>1016500</v>
       </c>
       <c r="I76" s="3">
-        <v>435600</v>
+        <v>431000</v>
       </c>
       <c r="J76" s="3">
-        <v>339600</v>
+        <v>336100</v>
       </c>
       <c r="K76" s="3">
         <v>600900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>826700</v>
+        <v>818000</v>
       </c>
       <c r="E81" s="3">
         <v>700</v>
       </c>
       <c r="F81" s="3">
-        <v>-199200</v>
+        <v>-197100</v>
       </c>
       <c r="G81" s="3">
-        <v>-97400</v>
+        <v>-96400</v>
       </c>
       <c r="H81" s="3">
-        <v>110400</v>
+        <v>109300</v>
       </c>
       <c r="I81" s="3">
-        <v>35300</v>
+        <v>34900</v>
       </c>
       <c r="J81" s="3">
-        <v>-80800</v>
+        <v>-79900</v>
       </c>
       <c r="K81" s="3">
         <v>22800</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1065600</v>
+        <v>1054400</v>
       </c>
       <c r="E83" s="3">
-        <v>834300</v>
+        <v>825600</v>
       </c>
       <c r="F83" s="3">
-        <v>551300</v>
+        <v>545500</v>
       </c>
       <c r="G83" s="3">
-        <v>454100</v>
+        <v>449300</v>
       </c>
       <c r="H83" s="3">
-        <v>255400</v>
+        <v>252800</v>
       </c>
       <c r="I83" s="3">
-        <v>155400</v>
+        <v>153800</v>
       </c>
       <c r="J83" s="3">
-        <v>130000</v>
+        <v>128700</v>
       </c>
       <c r="K83" s="3">
         <v>134800</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2106800</v>
+        <v>2084700</v>
       </c>
       <c r="E89" s="3">
-        <v>1144000</v>
+        <v>1132000</v>
       </c>
       <c r="F89" s="3">
-        <v>598400</v>
+        <v>592100</v>
       </c>
       <c r="G89" s="3">
-        <v>621000</v>
+        <v>614500</v>
       </c>
       <c r="H89" s="3">
-        <v>357700</v>
+        <v>353900</v>
       </c>
       <c r="I89" s="3">
-        <v>205700</v>
+        <v>203500</v>
       </c>
       <c r="J89" s="3">
-        <v>140200</v>
+        <v>138800</v>
       </c>
       <c r="K89" s="3">
         <v>206600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1521900</v>
+        <v>-1505900</v>
       </c>
       <c r="E91" s="3">
-        <v>-671500</v>
+        <v>-664500</v>
       </c>
       <c r="F91" s="3">
-        <v>-327800</v>
+        <v>-324400</v>
       </c>
       <c r="G91" s="3">
-        <v>-461800</v>
+        <v>-456900</v>
       </c>
       <c r="H91" s="3">
-        <v>-252500</v>
+        <v>-249900</v>
       </c>
       <c r="I91" s="3">
-        <v>-170500</v>
+        <v>-168700</v>
       </c>
       <c r="J91" s="3">
-        <v>-183500</v>
+        <v>-181600</v>
       </c>
       <c r="K91" s="3">
         <v>-318200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1495800</v>
+        <v>-1480200</v>
       </c>
       <c r="E94" s="3">
-        <v>-697800</v>
+        <v>-690500</v>
       </c>
       <c r="F94" s="3">
-        <v>-312200</v>
+        <v>-308900</v>
       </c>
       <c r="G94" s="3">
-        <v>-468700</v>
+        <v>-463800</v>
       </c>
       <c r="H94" s="3">
-        <v>-235200</v>
+        <v>-232800</v>
       </c>
       <c r="I94" s="3">
-        <v>-158000</v>
+        <v>-156300</v>
       </c>
       <c r="J94" s="3">
-        <v>-189300</v>
+        <v>-187300</v>
       </c>
       <c r="K94" s="3">
         <v>-319600</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="H96" s="3">
         <v>-3400</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-449300</v>
+        <v>-444600</v>
       </c>
       <c r="E100" s="3">
-        <v>-430900</v>
+        <v>-426400</v>
       </c>
       <c r="F100" s="3">
-        <v>-346400</v>
+        <v>-342700</v>
       </c>
       <c r="G100" s="3">
-        <v>-160400</v>
+        <v>-158700</v>
       </c>
       <c r="H100" s="3">
-        <v>-124900</v>
+        <v>-123500</v>
       </c>
       <c r="I100" s="3">
         <v>-1000</v>
       </c>
       <c r="J100" s="3">
-        <v>30900</v>
+        <v>30600</v>
       </c>
       <c r="K100" s="3">
         <v>118100</v>
@@ -4207,22 +4207,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>50500</v>
+        <v>50000</v>
       </c>
       <c r="E101" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="F101" s="3">
-        <v>27400</v>
+        <v>27100</v>
       </c>
       <c r="G101" s="3">
-        <v>65500</v>
+        <v>64800</v>
       </c>
       <c r="H101" s="3">
-        <v>51900</v>
+        <v>51300</v>
       </c>
       <c r="I101" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J101" s="3">
         <v>4800</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>212200</v>
+        <v>210000</v>
       </c>
       <c r="E102" s="3">
-        <v>23100</v>
+        <v>22800</v>
       </c>
       <c r="F102" s="3">
-        <v>-32800</v>
+        <v>-32500</v>
       </c>
       <c r="G102" s="3">
-        <v>57400</v>
+        <v>56800</v>
       </c>
       <c r="H102" s="3">
-        <v>49400</v>
+        <v>48900</v>
       </c>
       <c r="I102" s="3">
-        <v>51400</v>
+        <v>50900</v>
       </c>
       <c r="J102" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="K102" s="3">
         <v>28100</v>
